--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,412 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>251346</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.35211267605634</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-04-09 14:19:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-04-09 14:55:00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-04-09 14:55:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:49:21</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3859</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>70</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>235572</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>140.2535211267606</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:49:21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-04-10 08:10:21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-04-10 08:10:21</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:30:36</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>9958</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>70</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>250866</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72.05633802816901</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:30:36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:47:36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:47:36</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:59:39</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>5116</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>70</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>251204</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107.9295774647887</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:59:39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-04-10 12:22:39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-04-10 12:22:39</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:10:35</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>7663</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>70</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>251550</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>502.1267605633803</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:10:35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:27:35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:27:35</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-04-11 14:49:43</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>35651</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>70</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>251088</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>101.3934426229508</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-04-09 14:33:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-04-10 08:38:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-04-10 08:38:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:19:23</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>6185</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>70</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37.69565217391305</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-04-09 07:22:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-04-09 07:57:00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-04-09 07:57:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-04-09 08:34:41</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>2601</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,41 +512,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251346</v>
+        <v>243569</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>54.35211267605634</v>
+        <v>40.640625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-04-09 14:19:00</t>
+          <t>2025-04-10 09:44:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-04-09 14:55:00</t>
+          <t>2025-04-10 09:59:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-04-09 14:55:00</t>
+          <t>2025-04-10 09:59:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-04-10 07:49:21</t>
+          <t>2025-04-10 10:39:38</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3859</v>
+        <v>2601</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,14 +555,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
@@ -574,33 +574,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>30.5</v>
       </c>
       <c r="D3" t="n">
-        <v>140.2535211267606</v>
+        <v>181.0545454545455</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-10 07:49:21</t>
+          <t>2025-04-10 10:41:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-10 08:10:21</t>
+          <t>2025-04-10 11:11:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-10 08:10:21</t>
+          <t>2025-04-10 11:11:30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-10 10:30:36</t>
+          <t>2025-04-10 14:12:33</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -628,41 +628,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250866</v>
+        <v>251166</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D4" t="n">
-        <v>72.05633802816901</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-10 10:30:36</t>
+          <t>2025-04-10 14:12:33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-10 10:47:36</t>
+          <t>2025-04-10 14:47:03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-10 10:47:36</t>
+          <t>2025-04-10 14:47:03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-10 11:59:39</t>
+          <t>2025-04-11 11:44:08</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5116</v>
+        <v>16340</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -671,56 +671,56 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251204</v>
+        <v>251280</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>30.5</v>
       </c>
       <c r="D5" t="n">
-        <v>107.9295774647887</v>
+        <v>346.6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-10 11:59:39</t>
+          <t>2025-04-11 11:44:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-10 12:22:39</t>
+          <t>2025-04-11 12:14:38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-10 12:22:39</t>
+          <t>2025-04-11 12:14:38</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-10 14:10:35</t>
+          <t>2025-04-14 10:01:14</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>7663</v>
+        <v>19063</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -729,56 +729,56 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251550</v>
+        <v>251346</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D6" t="n">
-        <v>502.1267605633803</v>
+        <v>70.16363636363636</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-10 14:10:35</t>
+          <t>2025-04-14 10:01:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-10 14:27:35</t>
+          <t>2025-04-14 10:33:44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-10 14:27:35</t>
+          <t>2025-04-14 10:33:44</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-11 14:49:43</t>
+          <t>2025-04-14 11:43:54</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>35651</v>
+        <v>3859</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -802,41 +802,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251088</v>
+        <v>250866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>34.5</v>
       </c>
       <c r="D7" t="n">
-        <v>101.3934426229508</v>
+        <v>93.01818181818182</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-09 14:33:00</t>
+          <t>2025-04-14 11:43:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-10 08:38:00</t>
+          <t>2025-04-14 12:18:24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-10 08:38:00</t>
+          <t>2025-04-14 12:18:24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-10 10:19:23</t>
+          <t>2025-04-14 13:51:25</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6185</v>
+        <v>5116</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -860,59 +860,407 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>243569</v>
+        <v>251281</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>297.0909090909091</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-04-14 13:51:25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-04-14 14:23:55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-04-14 14:23:55</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:21:01</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>70</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>251427</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>445.6363636363636</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:21:01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:51:31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:51:31</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-04-16 11:17:09</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>24510</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>70</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>251442</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>297.0909090909091</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-04-16 11:17:09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-04-16 11:47:39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-04-16 11:47:39</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-04-17 08:44:44</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>70</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>251109</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>112</v>
+      </c>
+      <c r="D11" t="n">
+        <v>266.5915492957747</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-04-10 13:25:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:17:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:17:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-04-11 11:43:35</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>18928</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>16</v>
+      </c>
+      <c r="M11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>251204</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" t="n">
-        <v>37.69565217391305</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2025-04-09 07:22:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-04-09 07:57:00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2025-04-09 07:57:00</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-04-09 08:34:41</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2601</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>111.0579710144928</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:22:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:52:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:52:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-04-10 09:43:03</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>7663</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>bobina</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>70</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>251088</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>89.6376811594203</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-04-10 09:43:03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:13:03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:13:03</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:42:41</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>6185</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
         <v>3</v>
       </c>
-      <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M13" t="n">
+        <v>70</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>251550</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>516.6811594202899</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:42:41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-04-10 12:07:41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-04-10 12:07:41</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:44:22</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>35651</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>70</v>
+      </c>
+      <c r="N14" t="n">
         <v>4</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>235572</v>
+        <v>251346</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="D3" t="n">
-        <v>181.0545454545455</v>
+        <v>70.16363636363636</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -590,21 +590,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-10 11:11:30</t>
+          <t>2025-04-10 11:17:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-10 11:11:30</t>
+          <t>2025-04-10 11:17:30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:12:33</t>
+          <t>2025-04-10 12:27:39</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>9958</v>
+        <v>3859</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -613,11 +613,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -628,41 +628,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251166</v>
+        <v>251109</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34.5</v>
+        <v>112</v>
       </c>
       <c r="D4" t="n">
-        <v>297.0909090909091</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-10 14:12:33</t>
+          <t>2025-04-10 13:25:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-10 14:47:03</t>
+          <t>2025-04-11 07:17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-10 14:47:03</t>
+          <t>2025-04-11 07:17:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-11 11:44:08</t>
+          <t>2025-04-11 11:43:35</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>16340</v>
+        <v>18928</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -671,56 +671,56 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251280</v>
+        <v>250866</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30.5</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>346.6</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-11 11:44:08</t>
+          <t>2025-04-10 07:22:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-11 12:14:38</t>
+          <t>2025-04-10 08:12:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-11 12:14:38</t>
+          <t>2025-04-10 08:12:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-14 10:01:14</t>
+          <t>2025-04-10 09:26:08</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>19063</v>
+        <v>5116</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -729,56 +729,56 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251346</v>
+        <v>251550</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32.5</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>70.16363636363636</v>
+        <v>516.6811594202899</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-14 10:01:14</t>
+          <t>2025-04-10 09:26:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-14 10:33:44</t>
+          <t>2025-04-10 10:06:08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-14 10:33:44</t>
+          <t>2025-04-10 10:06:08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-14 11:43:54</t>
+          <t>2025-04-11 10:42:49</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3859</v>
+        <v>35651</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -802,41 +802,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>250866</v>
+        <v>251204</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>93.01818181818182</v>
+        <v>111.0579710144928</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-14 11:43:54</t>
+          <t>2025-04-11 10:42:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-14 12:18:24</t>
+          <t>2025-04-11 11:12:49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-14 12:18:24</t>
+          <t>2025-04-11 11:12:49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-14 13:51:25</t>
+          <t>2025-04-11 13:03:53</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5116</v>
+        <v>7663</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -860,41 +860,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251281</v>
+        <v>235572</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.5</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>297.0909090909091</v>
+        <v>144.3188405797102</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-14 13:51:25</t>
+          <t>2025-04-11 13:03:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-14 14:23:55</t>
+          <t>2025-04-11 13:43:53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-14 14:23:55</t>
+          <t>2025-04-11 13:43:53</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-15 11:21:01</t>
+          <t>2025-04-14 08:08:12</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>16340</v>
+        <v>9958</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -903,56 +903,56 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251427</v>
+        <v>251088</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30.5</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>445.6363636363636</v>
+        <v>89.6376811594203</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-15 11:21:01</t>
+          <t>2025-04-14 08:08:12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-15 11:51:31</t>
+          <t>2025-04-14 08:43:12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-15 11:51:31</t>
+          <t>2025-04-14 08:43:12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-16 11:17:09</t>
+          <t>2025-04-14 10:12:50</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>24510</v>
+        <v>6185</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -961,306 +961,16 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>251442</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>297.0909090909091</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-04-16 11:17:09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-04-16 11:47:39</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-04-16 11:47:39</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-04-17 08:44:44</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>16340</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>CASON ;R6</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>7</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>251109</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>112</v>
-      </c>
-      <c r="D11" t="n">
-        <v>266.5915492957747</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2025-04-10 13:25:00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-04-11 07:17:00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-04-11 07:17:00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-04-11 11:43:35</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>18928</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>16</v>
-      </c>
-      <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>251204</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" t="n">
-        <v>111.0579710144928</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:22:00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:52:00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:52:00</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-04-10 09:43:03</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>7663</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>70</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>251088</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" t="n">
-        <v>89.6376811594203</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2025-04-10 09:43:03</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-04-10 10:13:03</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-04-10 10:13:03</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-04-10 11:42:41</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>6185</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>251550</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>516.6811594202899</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2025-04-10 11:42:41</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-04-10 12:07:41</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2025-04-10 12:07:41</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-04-11 12:44:22</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>35651</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>70</v>
-      </c>
-      <c r="N14" t="n">
         <v>4</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>243569</v>
+        <v>243335</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>40.640625</v>
+        <v>515.6875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -532,21 +532,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-04-10 09:59:00</t>
+          <t>2025-04-10 10:16:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-04-10 09:59:00</t>
+          <t>2025-04-10 10:16:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-04-10 10:39:38</t>
+          <t>2025-04-11 10:51:41</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2601</v>
+        <v>33004</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -574,33 +574,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36.5</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>70.16363636363636</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-10 10:41:00</t>
+          <t>2025-04-10 14:16:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-10 11:17:30</t>
+          <t>2025-04-10 14:55:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-10 11:17:30</t>
+          <t>2025-04-10 14:55:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-10 12:27:39</t>
+          <t>2025-04-11 07:58:15</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -628,41 +628,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251109</v>
+        <v>250780</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>266.5915492957747</v>
+        <v>368.056338028169</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-10 13:25:00</t>
+          <t>2025-04-10 14:19:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-11 07:17:00</t>
+          <t>2025-04-10 14:59:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-11 07:17:00</t>
+          <t>2025-04-10 14:59:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-11 11:43:35</t>
+          <t>2025-04-11 13:07:03</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18928</v>
+        <v>26132</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -671,56 +671,56 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250866</v>
+        <v>235572</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>30.5</v>
       </c>
       <c r="D5" t="n">
-        <v>74.14492753623189</v>
+        <v>181.0545454545455</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-10 07:22:00</t>
+          <t>2025-04-10 10:41:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-10 08:12:00</t>
+          <t>2025-04-10 11:11:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-10 08:12:00</t>
+          <t>2025-04-10 11:11:30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-10 09:26:08</t>
+          <t>2025-04-10 14:12:33</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5116</v>
+        <v>9958</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -729,11 +729,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -744,41 +744,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251550</v>
+        <v>251442</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="D6" t="n">
-        <v>516.6811594202899</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-10 09:26:08</t>
+          <t>2025-04-10 14:12:33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-10 10:06:08</t>
+          <t>2025-04-10 14:47:03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-10 10:06:08</t>
+          <t>2025-04-10 14:47:03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-11 10:42:49</t>
+          <t>2025-04-11 11:44:08</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>35651</v>
+        <v>16340</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -787,56 +787,56 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251204</v>
+        <v>251100</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="D7" t="n">
-        <v>111.0579710144928</v>
+        <v>84.74545454545455</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-11 10:42:49</t>
+          <t>2025-04-11 11:44:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-11 11:12:49</t>
+          <t>2025-04-11 12:20:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-11 11:12:49</t>
+          <t>2025-04-11 12:20:38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-11 13:03:53</t>
+          <t>2025-04-11 13:45:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>7663</v>
+        <v>4661</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -849,52 +849,52 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>235572</v>
+        <v>251097</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
       <c r="D8" t="n">
-        <v>144.3188405797102</v>
+        <v>315.6545454545454</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-11 13:03:53</t>
+          <t>2025-04-11 13:45:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-11 13:43:53</t>
+          <t>2025-04-11 14:17:53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-11 13:43:53</t>
+          <t>2025-04-11 14:17:53</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-14 08:08:12</t>
+          <t>2025-04-14 11:33:32</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9958</v>
+        <v>17361</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -903,56 +903,56 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251088</v>
+        <v>251281</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="D9" t="n">
-        <v>89.6376811594203</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-14 08:08:12</t>
+          <t>2025-04-14 11:33:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-14 08:43:12</t>
+          <t>2025-04-14 12:12:02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-14 08:43:12</t>
+          <t>2025-04-14 12:12:02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-14 10:12:50</t>
+          <t>2025-04-15 09:09:08</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6185</v>
+        <v>16340</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -961,17 +961,829 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>250866</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>93.01818181818182</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-04-15 09:09:08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-04-15 09:41:38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-04-15 09:41:38</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:14:39</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>5116</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>70</v>
+      </c>
+      <c r="N10" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>251280</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>346.6</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:14:39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:47:09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:47:09</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:33:45</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>19063</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>251427</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>445.6363636363636</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:33:45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-04-16 10:04:15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-04-16 10:04:15</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-04-17 09:29:53</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>24510</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>70</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>251166</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>297.0909090909091</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-04-17 09:29:53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-04-17 10:00:23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-04-17 10:00:23</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-04-17 14:57:28</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>7</v>
+      </c>
+      <c r="M13" t="n">
+        <v>70</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>251550</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>584.4426229508197</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:33:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:38:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:38:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-04-14 10:22:26</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>35651</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>70</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>251129</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>107</v>
+      </c>
+      <c r="D15" t="n">
+        <v>146.7959183673469</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:18:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-04-10 09:05:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-04-10 09:05:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:31:47</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>7193</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>76</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>251109</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>112</v>
+      </c>
+      <c r="D16" t="n">
+        <v>266.5915492957747</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-04-10 13:25:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:17:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:17:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-04-11 11:43:35</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>18928</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>16</v>
+      </c>
+      <c r="M16" t="n">
+        <v>70</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" t="n">
+        <v>37.69565217391305</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:22:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:57:00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:57:00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-04-10 08:34:41</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>2601</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>251204</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" t="n">
+        <v>111.0579710144928</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-04-10 08:34:41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-04-10 09:09:41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-04-10 09:09:41</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:00:45</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>7663</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>70</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>251033</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>89.07246376811594</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:00:45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:25:45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:25:45</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-04-10 12:54:49</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>6146</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>251025</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" t="n">
+        <v>60.39130434782609</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-04-10 12:54:49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-04-10 13:24:49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-04-10 13:24:49</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:25:13</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>4167</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>70</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>251088</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>89.6376811594203</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:25:13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:50:13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:50:13</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:19:51</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>6185</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>70</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>251327</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" t="n">
+        <v>242.6666666666667</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:19:51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:49:51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:49:51</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:52:31</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>16744</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>70</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>251094</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" t="n">
+        <v>195.6086956521739</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:52:31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-04-11 13:22:31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-04-11 13:22:31</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-04-14 08:38:07</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>13497</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>152</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,41 +570,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251346</v>
+        <v>251402</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>63.26229508196721</v>
+        <v>139.5774647887324</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:16:00</t>
+          <t>2025-04-10 14:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:55:00</t>
+          <t>2025-04-10 14:49:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:55:00</t>
+          <t>2025-04-10 14:49:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-11 07:58:15</t>
+          <t>2025-04-11 09:08:34</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3859</v>
+        <v>9910</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -617,18 +617,18 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250780</v>
+        <v>250208</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -636,33 +636,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>368.056338028169</v>
+        <v>111.6901408450704</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-10 14:19:00</t>
+          <t>2025-04-11 09:08:34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-10 14:59:00</t>
+          <t>2025-04-11 09:25:34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-10 14:59:00</t>
+          <t>2025-04-11 09:25:34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-11 13:07:03</t>
+          <t>2025-04-11 11:17:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>26132</v>
+        <v>7930</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -671,56 +671,56 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>235572</v>
+        <v>251025</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30.5</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>181.0545454545455</v>
+        <v>58.69014084507042</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-10 10:41:00</t>
+          <t>2025-04-11 11:17:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-10 11:11:30</t>
+          <t>2025-04-11 11:38:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-10 11:11:30</t>
+          <t>2025-04-11 11:38:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-10 14:12:33</t>
+          <t>2025-04-11 12:36:57</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>9958</v>
+        <v>4167</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -729,56 +729,56 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>70</v>
+      </c>
+      <c r="N5" t="n">
         <v>5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251442</v>
+        <v>251250</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34.5</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>297.0909090909091</v>
+        <v>111.6901408450704</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-10 14:12:33</t>
+          <t>2025-04-11 12:36:57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-10 14:47:03</t>
+          <t>2025-04-11 12:57:57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-10 14:47:03</t>
+          <t>2025-04-11 12:57:57</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-11 11:44:08</t>
+          <t>2025-04-11 14:49:38</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>16340</v>
+        <v>7930</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -787,56 +787,56 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251100</v>
+        <v>250866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36.5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>84.74545454545455</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-11 11:44:08</t>
+          <t>2025-04-11 14:49:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-11 12:20:38</t>
+          <t>2025-04-14 07:04:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-11 12:20:38</t>
+          <t>2025-04-14 07:04:38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-11 13:45:23</t>
+          <t>2025-04-14 08:16:42</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4661</v>
+        <v>5116</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -849,13 +849,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -864,33 +864,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.5</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6545454545454</v>
+        <v>244.5211267605634</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-11 13:45:23</t>
+          <t>2025-04-14 08:16:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-11 14:17:53</t>
+          <t>2025-04-14 08:37:42</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-11 14:17:53</t>
+          <t>2025-04-14 08:37:42</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-14 11:33:32</t>
+          <t>2025-04-14 12:42:13</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -918,41 +918,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251281</v>
+        <v>251327</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>38.5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>297.0909090909091</v>
+        <v>235.830985915493</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-14 11:33:32</t>
+          <t>2025-04-14 12:42:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-14 12:12:02</t>
+          <t>2025-04-14 12:59:13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-14 12:12:02</t>
+          <t>2025-04-14 12:59:13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-15 09:09:08</t>
+          <t>2025-04-15 08:55:03</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>16340</v>
+        <v>16744</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -961,56 +961,56 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>250866</v>
+        <v>235572</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>93.01818181818182</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-15 09:09:08</t>
+          <t>2025-04-15 08:55:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-15 09:41:38</t>
+          <t>2025-04-15 09:12:03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-15 09:41:38</t>
+          <t>2025-04-15 09:12:03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-15 11:14:39</t>
+          <t>2025-04-15 11:32:18</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5116</v>
+        <v>9958</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1019,56 +1019,56 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251280</v>
+        <v>250780</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>346.6</v>
+        <v>368.056338028169</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-15 11:14:39</t>
+          <t>2025-04-15 11:32:18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-15 11:47:09</t>
+          <t>2025-04-15 11:57:18</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-15 11:47:09</t>
+          <t>2025-04-15 11:57:18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-16 09:33:45</t>
+          <t>2025-04-16 10:05:21</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>19063</v>
+        <v>26132</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1077,56 +1077,56 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251427</v>
+        <v>251346</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>445.6363636363636</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-16 09:33:45</t>
+          <t>2025-04-16 10:05:21</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-16 10:04:15</t>
+          <t>2025-04-16 10:24:21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-16 10:04:15</t>
+          <t>2025-04-16 10:24:21</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-04-17 09:29:53</t>
+          <t>2025-04-16 11:18:43</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>24510</v>
+        <v>3859</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1135,22 +1135,22 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251166</v>
+        <v>250209</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1158,33 +1158,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D13" t="n">
-        <v>297.0909090909091</v>
+        <v>144.1818181818182</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-17 09:29:53</t>
+          <t>2025-04-10 10:41:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-17 10:00:23</t>
+          <t>2025-04-10 11:13:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-04-17 10:00:23</t>
+          <t>2025-04-10 11:13:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-04-17 14:57:28</t>
+          <t>2025-04-10 13:37:40</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>16340</v>
+        <v>7930</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1193,56 +1193,56 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251550</v>
+        <v>251442</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>125</v>
+        <v>32.5</v>
       </c>
       <c r="D14" t="n">
-        <v>584.4426229508197</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-10 14:33:00</t>
+          <t>2025-04-10 13:37:40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-11 08:38:00</t>
+          <t>2025-04-10 14:10:10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-11 08:38:00</t>
+          <t>2025-04-10 14:10:10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-14 10:22:26</t>
+          <t>2025-04-11 11:07:16</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>35651</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1251,56 +1251,56 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251129</v>
+        <v>244023</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>107</v>
+        <v>32.5</v>
       </c>
       <c r="D15" t="n">
-        <v>146.7959183673469</v>
+        <v>18.12727272727273</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-10 07:18:00</t>
+          <t>2025-04-11 11:07:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-10 09:05:00</t>
+          <t>2025-04-11 11:39:46</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-10 09:05:00</t>
+          <t>2025-04-11 11:39:46</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-10 11:31:47</t>
+          <t>2025-04-11 11:57:54</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>7193</v>
+        <v>997</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1309,56 +1309,56 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251109</v>
+        <v>251281</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>112</v>
+        <v>32.5</v>
       </c>
       <c r="D16" t="n">
-        <v>266.5915492957747</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-10 13:25:00</t>
+          <t>2025-04-11 11:57:54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-11 07:17:00</t>
+          <t>2025-04-11 12:30:24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-11 07:17:00</t>
+          <t>2025-04-11 12:30:24</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-11 11:43:35</t>
+          <t>2025-04-14 09:27:29</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>18928</v>
+        <v>16340</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1367,56 +1367,56 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>243569</v>
+        <v>251280</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>30.5</v>
       </c>
       <c r="D17" t="n">
-        <v>37.69565217391305</v>
+        <v>346.6</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-10 07:22:00</t>
+          <t>2025-04-14 09:27:29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-10 07:57:00</t>
+          <t>2025-04-14 09:57:59</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-10 07:57:00</t>
+          <t>2025-04-14 09:57:59</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-10 08:34:41</t>
+          <t>2025-04-15 07:44:35</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2601</v>
+        <v>19063</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1425,56 +1425,56 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251204</v>
+        <v>251427</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>30.5</v>
       </c>
       <c r="D18" t="n">
-        <v>111.0579710144928</v>
+        <v>445.6363636363636</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-10 08:34:41</t>
+          <t>2025-04-15 07:44:35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-10 09:09:41</t>
+          <t>2025-04-15 08:15:05</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-10 09:09:41</t>
+          <t>2025-04-15 08:15:05</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-04-10 11:00:45</t>
+          <t>2025-04-16 07:40:43</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>7663</v>
+        <v>24510</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1483,56 +1483,56 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>70</v>
+      </c>
+      <c r="N18" t="n">
         <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251033</v>
+        <v>251166</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D19" t="n">
-        <v>89.07246376811594</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-10 11:00:45</t>
+          <t>2025-04-16 07:40:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-10 11:25:45</t>
+          <t>2025-04-16 08:11:13</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-10 11:25:45</t>
+          <t>2025-04-16 08:11:13</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-10 12:54:49</t>
+          <t>2025-04-16 13:08:19</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6146</v>
+        <v>16340</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1541,56 +1541,56 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
         <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251025</v>
+        <v>251033</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D20" t="n">
-        <v>60.39130434782609</v>
+        <v>100.7540983606557</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-10 12:54:49</t>
+          <t>2025-04-10 14:33:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-10 13:24:49</t>
+          <t>2025-04-11 08:43:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-10 13:24:49</t>
+          <t>2025-04-11 08:43:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-10 14:25:13</t>
+          <t>2025-04-11 10:23:45</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4167</v>
+        <v>6146</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1603,52 +1603,52 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251088</v>
+        <v>245413</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>89.6376811594203</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-10 14:25:13</t>
+          <t>2025-04-11 10:23:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-10 14:50:13</t>
+          <t>2025-04-11 10:48:45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-10 14:50:13</t>
+          <t>2025-04-11 10:48:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-11 08:19:51</t>
+          <t>2025-04-11 12:10:43</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6185</v>
+        <v>5000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1667,46 +1667,46 @@
         <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251327</v>
+        <v>251100</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>242.6666666666667</v>
+        <v>76.40983606557377</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-11 08:19:51</t>
+          <t>2025-04-11 12:10:43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-11 08:49:51</t>
+          <t>2025-04-11 12:35:43</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-11 08:49:51</t>
+          <t>2025-04-11 12:35:43</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-11 12:52:31</t>
+          <t>2025-04-11 13:52:07</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>16744</v>
+        <v>4661</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1725,64 +1725,586 @@
         <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>251550</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>584.4426229508197</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-04-11 13:52:07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-04-11 14:17:07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-04-11 14:17:07</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-04-15 08:01:34</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>35651</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251088</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>20</v>
+      </c>
+      <c r="D24" t="n">
+        <v>101.3934426229508</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-04-15 08:01:34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-04-15 08:21:34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-04-15 08:21:34</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-04-15 10:02:58</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>6185</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>251204</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>125.6229508196721</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-04-15 10:02:58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-04-15 10:27:58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-04-15 10:27:58</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-04-15 12:33:35</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>7663</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>251522</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>20</v>
+      </c>
+      <c r="D26" t="n">
+        <v>641</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-04-15 12:33:35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-04-15 12:53:35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-04-15 12:53:35</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-04-17 07:34:35</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>39101</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>70</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>250986</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>212</v>
+      </c>
+      <c r="D27" t="n">
+        <v>282.7183098591549</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-04-10 13:25:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:57:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:57:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-04-11 13:39:43</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>20073</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>36</v>
+      </c>
+      <c r="M27" t="n">
+        <v>70</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>251109</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>135</v>
+      </c>
+      <c r="D28" t="n">
+        <v>266.5915492957747</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-04-11 13:39:43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-04-14 07:54:43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-04-14 07:54:43</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-04-14 12:21:18</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>18928</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>16</v>
+      </c>
+      <c r="M28" t="n">
+        <v>70</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>251094</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>30</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C29" t="n">
+        <v>35</v>
+      </c>
+      <c r="D29" t="n">
         <v>195.6086956521739</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-04-11 12:52:31</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-04-11 13:22:31</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-04-11 13:22:31</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-04-14 08:38:07</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:22:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:57:00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:57:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:12:36</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>13497</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>4</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M29" t="n">
         <v>152</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>35</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37.69565217391305</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:12:36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:47:36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:47:36</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-04-10 12:25:18</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>2601</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>76</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>251129</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>35</v>
+      </c>
+      <c r="D31" t="n">
+        <v>104.2463768115942</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-04-10 12:25:18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-04-10 13:00:18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-04-10 13:00:18</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:44:33</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>7193</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>76</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>251614</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.41269841269841</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:58:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:58:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:58:00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-04-10 08:08:24</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>656</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>T1 ;T2 ;T8</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>6</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,41 +512,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>243335</v>
+        <v>243569</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>515.6875</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-04-10 09:44:00</t>
+          <t>2025-04-10 14:19:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-04-10 10:16:00</t>
+          <t>2025-04-10 14:53:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-04-10 10:16:00</t>
+          <t>2025-04-10 14:53:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-04-11 10:51:41</t>
+          <t>2025-04-11 07:29:38</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>33004</v>
+        <v>2601</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,18 +559,18 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251402</v>
+        <v>251129</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -578,33 +578,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>139.5774647887324</v>
+        <v>101.3098591549296</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:19:00</t>
+          <t>2025-04-11 07:29:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:49:00</t>
+          <t>2025-04-11 07:48:38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:49:00</t>
+          <t>2025-04-11 07:48:38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-11 09:08:34</t>
+          <t>2025-04-11 09:29:56</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>9910</v>
+        <v>7193</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -613,22 +613,22 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250208</v>
+        <v>250209</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -636,29 +636,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>111.6901408450704</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-11 09:08:34</t>
+          <t>2025-04-11 09:29:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-11 09:25:34</t>
+          <t>2025-04-11 10:01:56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-11 09:25:34</t>
+          <t>2025-04-11 10:01:56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-11 11:17:16</t>
+          <t>2025-04-11 11:53:38</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -686,7 +686,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251025</v>
+        <v>235572</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>58.69014084507042</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-11 11:17:16</t>
+          <t>2025-04-11 11:53:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-11 11:38:16</t>
+          <t>2025-04-11 12:10:38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-11 11:38:16</t>
+          <t>2025-04-11 12:10:38</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-11 12:36:57</t>
+          <t>2025-04-11 14:30:53</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4167</v>
+        <v>9958</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -729,22 +729,22 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>70</v>
+      </c>
+      <c r="N5" t="n">
         <v>3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251250</v>
+        <v>250344</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -752,33 +752,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>111.6901408450704</v>
+        <v>613.9859154929577</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-11 12:36:57</t>
+          <t>2025-04-11 14:30:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-11 12:57:57</t>
+          <t>2025-04-11 14:45:53</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-11 12:57:57</t>
+          <t>2025-04-11 14:45:53</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-11 14:49:38</t>
+          <t>2025-04-15 08:59:52</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7930</v>
+        <v>43593</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -787,22 +787,22 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>250866</v>
+        <v>251550</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -810,33 +810,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>72.05633802816901</v>
+        <v>502.1267605633803</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-11 14:49:38</t>
+          <t>2025-04-15 08:59:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-14 07:04:38</t>
+          <t>2025-04-15 09:18:52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-14 07:04:38</t>
+          <t>2025-04-15 09:18:52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-14 08:16:42</t>
+          <t>2025-04-16 09:41:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5116</v>
+        <v>35651</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -849,18 +849,18 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251097</v>
+        <v>251100</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -868,33 +868,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>244.5211267605634</v>
+        <v>65.64788732394366</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-14 08:16:42</t>
+          <t>2025-04-16 09:41:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-14 08:37:42</t>
+          <t>2025-04-16 09:58:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-14 08:37:42</t>
+          <t>2025-04-16 09:58:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-14 12:42:13</t>
+          <t>2025-04-16 11:03:38</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>17361</v>
+        <v>4661</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251327</v>
+        <v>251033</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -926,33 +926,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>235.830985915493</v>
+        <v>86.56338028169014</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-14 12:42:13</t>
+          <t>2025-04-16 11:03:38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-14 12:59:13</t>
+          <t>2025-04-16 11:22:38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-14 12:59:13</t>
+          <t>2025-04-16 11:22:38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-15 08:55:03</t>
+          <t>2025-04-16 12:49:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>16744</v>
+        <v>6146</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -965,18 +965,18 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>235572</v>
+        <v>245413</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -987,30 +987,30 @@
         <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>140.2535211267606</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-15 08:55:03</t>
+          <t>2025-04-16 12:49:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-15 09:12:03</t>
+          <t>2025-04-16 13:06:12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-15 09:12:03</t>
+          <t>2025-04-16 13:06:12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-15 11:32:18</t>
+          <t>2025-04-16 14:16:38</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9958</v>
+        <v>5000</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1019,22 +1019,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>70</v>
+      </c>
+      <c r="N10" t="n">
         <v>5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250780</v>
+        <v>244023</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1042,33 +1042,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>368.056338028169</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-15 11:32:18</t>
+          <t>2025-04-16 14:16:38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-15 11:57:18</t>
+          <t>2025-04-16 14:37:38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-15 11:57:18</t>
+          <t>2025-04-16 14:37:38</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-16 10:05:21</t>
+          <t>2025-04-16 14:51:40</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>26132</v>
+        <v>997</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251346</v>
+        <v>251250</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1100,33 +1100,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>54.35211267605634</v>
+        <v>111.6901408450704</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-16 10:05:21</t>
+          <t>2025-04-16 14:51:40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-16 10:24:21</t>
+          <t>2025-04-17 07:06:40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-16 10:24:21</t>
+          <t>2025-04-17 07:06:40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-04-16 11:18:43</t>
+          <t>2025-04-17 08:58:21</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3859</v>
+        <v>7930</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1135,56 +1135,56 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250209</v>
+        <v>251204</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32.5</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>144.1818181818182</v>
+        <v>107.9295774647887</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-10 10:41:00</t>
+          <t>2025-04-17 08:58:21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-10 11:13:30</t>
+          <t>2025-04-17 09:21:21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-04-10 11:13:30</t>
+          <t>2025-04-17 09:21:21</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-04-10 13:37:40</t>
+          <t>2025-04-17 11:09:17</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>7930</v>
+        <v>7663</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1193,56 +1193,56 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251442</v>
+        <v>251327</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>297.0909090909091</v>
+        <v>235.830985915493</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-10 13:37:40</t>
+          <t>2025-04-17 11:09:17</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-10 14:10:10</t>
+          <t>2025-04-17 11:28:17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-10 14:10:10</t>
+          <t>2025-04-17 11:28:17</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-11 11:07:16</t>
+          <t>2025-04-18 07:24:07</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16340</v>
+        <v>16744</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1251,56 +1251,56 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>244023</v>
+        <v>250208</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>18.12727272727273</v>
+        <v>111.6901408450704</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-11 11:07:16</t>
+          <t>2025-04-18 07:24:07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-11 11:39:46</t>
+          <t>2025-04-18 07:43:07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-11 11:39:46</t>
+          <t>2025-04-18 07:43:07</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-11 11:57:54</t>
+          <t>2025-04-18 09:34:49</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>997</v>
+        <v>7930</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1324,41 +1324,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251281</v>
+        <v>251025</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32.5</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>297.0909090909091</v>
+        <v>58.69014084507042</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-11 11:57:54</t>
+          <t>2025-04-18 09:34:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-11 12:30:24</t>
+          <t>2025-04-18 09:55:49</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-11 12:30:24</t>
+          <t>2025-04-18 09:55:49</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-14 09:27:29</t>
+          <t>2025-04-18 10:54:30</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>16340</v>
+        <v>4167</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1367,56 +1367,56 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251280</v>
+        <v>250780</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30.5</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>346.6</v>
+        <v>368.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-14 09:27:29</t>
+          <t>2025-04-18 10:54:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-14 09:57:59</t>
+          <t>2025-04-18 11:23:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-14 09:57:59</t>
+          <t>2025-04-18 11:23:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-15 07:44:35</t>
+          <t>2025-04-21 09:31:33</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>19063</v>
+        <v>26132</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1425,56 +1425,56 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251427</v>
+        <v>251346</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>445.6363636363636</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-15 07:44:35</t>
+          <t>2025-04-21 09:31:33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-15 08:15:05</t>
+          <t>2025-04-21 09:50:33</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-15 08:15:05</t>
+          <t>2025-04-21 09:50:33</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-04-16 07:40:43</t>
+          <t>2025-04-21 10:44:54</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>24510</v>
+        <v>3859</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1483,56 +1483,56 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251166</v>
+        <v>250866</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>297.0909090909091</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-16 07:40:43</t>
+          <t>2025-04-21 10:44:54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-16 08:11:13</t>
+          <t>2025-04-21 11:03:54</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-16 08:11:13</t>
+          <t>2025-04-21 11:03:54</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-16 13:08:19</t>
+          <t>2025-04-21 12:15:58</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>16340</v>
+        <v>5116</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1541,56 +1541,56 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251033</v>
+        <v>251522</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>100.7540983606557</v>
+        <v>550.7183098591549</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-10 14:33:00</t>
+          <t>2025-04-21 12:15:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:00</t>
+          <t>2025-04-21 12:38:58</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:00</t>
+          <t>2025-04-21 12:38:58</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-11 10:23:45</t>
+          <t>2025-04-22 13:49:41</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>6146</v>
+        <v>39101</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1609,46 +1609,46 @@
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>245413</v>
+        <v>251088</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>81.9672131147541</v>
+        <v>87.11267605633803</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-11 10:23:45</t>
+          <t>2025-04-22 13:49:41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-11 10:48:45</t>
+          <t>2025-04-22 14:06:41</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-11 10:48:45</t>
+          <t>2025-04-22 14:06:41</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-11 12:10:43</t>
+          <t>2025-04-23 07:33:48</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5000</v>
+        <v>6185</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1667,46 +1667,46 @@
         <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251100</v>
+        <v>251402</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>76.40983606557377</v>
+        <v>139.5774647887324</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-11 12:10:43</t>
+          <t>2025-04-23 07:33:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-11 12:35:43</t>
+          <t>2025-04-23 07:52:48</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-11 12:35:43</t>
+          <t>2025-04-23 07:52:48</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-11 13:52:07</t>
+          <t>2025-04-23 10:12:22</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4661</v>
+        <v>9910</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1719,52 +1719,52 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251550</v>
+        <v>251442</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D23" t="n">
-        <v>584.4426229508197</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-11 13:52:07</t>
+          <t>2025-04-10 10:41:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-04-11 14:17:07</t>
+          <t>2025-04-10 11:15:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-04-11 14:17:07</t>
+          <t>2025-04-10 11:15:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-04-15 08:01:34</t>
+          <t>2025-04-11 08:12:35</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>35651</v>
+        <v>16340</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1773,56 +1773,56 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251088</v>
+        <v>251281</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>30.5</v>
       </c>
       <c r="D24" t="n">
-        <v>101.3934426229508</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-15 08:01:34</t>
+          <t>2025-04-11 08:12:35</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-04-15 08:21:34</t>
+          <t>2025-04-11 08:43:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-04-15 08:21:34</t>
+          <t>2025-04-11 08:43:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-04-15 10:02:58</t>
+          <t>2025-04-11 13:40:10</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>6185</v>
+        <v>16340</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1831,56 +1831,56 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251204</v>
+        <v>251280</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D25" t="n">
-        <v>125.6229508196721</v>
+        <v>346.6</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-15 10:02:58</t>
+          <t>2025-04-11 13:40:10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-04-15 10:27:58</t>
+          <t>2025-04-11 14:10:40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-04-15 10:27:58</t>
+          <t>2025-04-11 14:10:40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-04-15 12:33:35</t>
+          <t>2025-04-14 11:57:16</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7663</v>
+        <v>19063</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1889,56 +1889,56 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L25" t="n">
+        <v>7</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
         <v>2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251522</v>
+        <v>251427</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>30.5</v>
       </c>
       <c r="D26" t="n">
-        <v>641</v>
+        <v>445.6363636363636</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-15 12:33:35</t>
+          <t>2025-04-14 11:57:16</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-04-15 12:53:35</t>
+          <t>2025-04-14 12:27:46</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-04-15 12:53:35</t>
+          <t>2025-04-14 12:27:46</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-04-17 07:34:35</t>
+          <t>2025-04-15 11:53:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>39101</v>
+        <v>24510</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1947,56 +1947,56 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L26" t="n">
+        <v>7</v>
+      </c>
+      <c r="M26" t="n">
+        <v>70</v>
+      </c>
+      <c r="N26" t="n">
         <v>2</v>
-      </c>
-      <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>250986</v>
+        <v>251166</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>212</v>
+        <v>30.5</v>
       </c>
       <c r="D27" t="n">
-        <v>282.7183098591549</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-10 13:25:00</t>
+          <t>2025-04-15 11:53:25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-04-11 08:57:00</t>
+          <t>2025-04-15 12:23:55</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-04-11 08:57:00</t>
+          <t>2025-04-15 12:23:55</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-04-11 13:39:43</t>
+          <t>2025-04-16 09:21:00</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>20073</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2005,56 +2005,56 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251109</v>
+        <v>251094</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="D28" t="n">
-        <v>266.5915492957747</v>
+        <v>190.0985915492958</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-11 13:39:43</t>
+          <t>2025-04-10 10:00:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-04-14 07:54:43</t>
+          <t>2025-04-10 10:46:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-04-14 07:54:43</t>
+          <t>2025-04-10 10:46:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-04-14 12:21:18</t>
+          <t>2025-04-10 13:56:05</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>18928</v>
+        <v>13497</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2063,56 +2063,56 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251094</v>
+        <v>243335</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>195.6086956521739</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-10 07:22:00</t>
+          <t>2025-04-10 13:56:05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-04-10 07:57:00</t>
+          <t>2025-04-10 14:11:05</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-04-10 07:57:00</t>
+          <t>2025-04-10 14:11:05</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-04-10 11:12:36</t>
+          <t>2025-04-11 13:55:56</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>13497</v>
+        <v>33004</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2136,41 +2136,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>243569</v>
+        <v>250986</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="D30" t="n">
-        <v>37.69565217391305</v>
+        <v>282.7183098591549</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-10 11:12:36</t>
+          <t>2025-04-10 13:25:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-04-10 11:47:36</t>
+          <t>2025-04-11 08:57:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-04-10 11:47:36</t>
+          <t>2025-04-11 08:57:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-04-10 12:25:18</t>
+          <t>2025-04-11 13:39:43</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2601</v>
+        <v>20073</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2179,14 +2179,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
         <v>3</v>
@@ -2194,41 +2194,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251129</v>
+        <v>251109</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="D31" t="n">
-        <v>104.2463768115942</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-04-10 12:25:18</t>
+          <t>2025-04-11 13:39:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-04-10 13:00:18</t>
+          <t>2025-04-14 07:54:43</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-04-10 13:00:18</t>
+          <t>2025-04-14 07:54:43</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-04-10 14:44:33</t>
+          <t>2025-04-14 12:21:18</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>7193</v>
+        <v>18928</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2237,74 +2237,132 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>251097</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>35</v>
+      </c>
+      <c r="D32" t="n">
+        <v>251.6086956521739</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:22:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:57:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:57:00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-04-10 12:08:36</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>17361</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>70</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
         <v>251614</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>10.41269841269841</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2025-04-10 07:58:00</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2025-04-10 07:58:00</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>2025-04-10 07:58:00</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>2025-04-10 08:08:24</t>
         </is>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>656</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>T1 ;T2 ;T8</t>
         </is>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N33" t="n">
         <v>6</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,41 +512,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>243569</v>
+        <v>251094</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>36.63380281690141</v>
+        <v>210.890625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-04-10 14:19:00</t>
+          <t>2025-04-10 09:44:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-04-10 14:53:00</t>
+          <t>2025-04-10 10:16:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-04-10 14:53:00</t>
+          <t>2025-04-10 10:16:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-04-11 07:29:38</t>
+          <t>2025-04-10 13:46:53</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2601</v>
+        <v>13497</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,52 +559,52 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251129</v>
+        <v>250855</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>101.3098591549296</v>
+        <v>443.890625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-11 07:29:38</t>
+          <t>2025-04-10 13:46:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-11 07:48:38</t>
+          <t>2025-04-10 14:18:53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-11 07:48:38</t>
+          <t>2025-04-10 14:18:53</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-11 09:29:56</t>
+          <t>2025-04-11 13:42:46</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>7193</v>
+        <v>28409</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -613,56 +613,53 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250209</v>
+        <v>250637</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>111.6901408450704</v>
+        <v>585.578125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-11 09:29:56</t>
+          <t>2025-04-11 13:42:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-11 10:01:56</t>
+          <t>2025-04-11 14:03:46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-11 10:01:56</t>
+          <t>2025-04-11 14:03:46</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-11 11:53:38</t>
+          <t>2025-04-15 07:49:21</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>7930</v>
+        <v>37477</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -671,7 +668,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -680,47 +677,44 @@
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>235572</v>
+        <v>251550</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>140.2535211267606</v>
+        <v>557.046875</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-11 11:53:38</t>
+          <t>2025-04-15 07:49:21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-11 12:10:38</t>
+          <t>2025-04-15 08:10:21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-11 12:10:38</t>
+          <t>2025-04-15 08:10:21</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-11 14:30:53</t>
+          <t>2025-04-16 09:27:24</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>9958</v>
+        <v>35651</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -729,56 +723,56 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250344</v>
+        <v>251522</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>613.9859154929577</v>
+        <v>610.953125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-11 14:30:53</t>
+          <t>2025-04-16 09:27:24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-11 14:45:53</t>
+          <t>2025-04-16 09:44:24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-11 14:45:53</t>
+          <t>2025-04-16 09:44:24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-15 08:59:52</t>
+          <t>2025-04-17 11:55:21</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>43593</v>
+        <v>39101</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -791,52 +785,52 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251550</v>
+        <v>250307</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>502.1267605633803</v>
+        <v>146.234375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-15 08:59:52</t>
+          <t>2025-04-17 11:55:21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-15 09:18:52</t>
+          <t>2025-04-17 12:10:21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-15 09:18:52</t>
+          <t>2025-04-17 12:10:21</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-16 09:41:00</t>
+          <t>2025-04-17 14:36:35</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>35651</v>
+        <v>9359</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -849,52 +843,49 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251100</v>
+        <v>251519</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>65.64788732394366</v>
+        <v>205.859375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-16 09:41:00</t>
+          <t>2025-04-17 14:36:35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-16 09:58:00</t>
+          <t>2025-04-17 14:51:35</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-16 09:58:00</t>
+          <t>2025-04-17 14:51:35</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-16 11:03:38</t>
+          <t>2025-04-18 10:17:27</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4661</v>
+        <v>13175</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -907,52 +898,49 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251033</v>
+        <v>251204</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>86.56338028169014</v>
+        <v>119.734375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-16 11:03:38</t>
+          <t>2025-04-18 10:17:27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-16 11:22:38</t>
+          <t>2025-04-18 10:32:27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-16 11:22:38</t>
+          <t>2025-04-18 10:32:27</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-16 12:49:12</t>
+          <t>2025-04-18 12:32:11</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6146</v>
+        <v>7663</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -971,46 +959,46 @@
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>245413</v>
+        <v>250209</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>70.4225352112676</v>
+        <v>123.90625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-16 12:49:12</t>
+          <t>2025-04-18 12:32:11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-16 13:06:12</t>
+          <t>2025-04-18 12:55:11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-16 13:06:12</t>
+          <t>2025-04-18 12:55:11</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-16 14:16:38</t>
+          <t>2025-04-18 14:59:05</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5000</v>
+        <v>7930</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1019,56 +1007,56 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>244023</v>
+        <v>251346</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>14.04225352112676</v>
+        <v>60.296875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-16 14:16:38</t>
+          <t>2025-04-18 14:59:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-16 14:37:38</t>
+          <t>2025-04-21 07:18:05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-16 14:37:38</t>
+          <t>2025-04-21 07:18:05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-16 14:51:40</t>
+          <t>2025-04-21 08:18:23</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>997</v>
+        <v>3859</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1081,52 +1069,52 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251250</v>
+        <v>250478</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>111.6901408450704</v>
+        <v>65.375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-16 14:51:40</t>
+          <t>2025-04-21 08:18:23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-17 07:06:40</t>
+          <t>2025-04-21 08:39:23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-17 07:06:40</t>
+          <t>2025-04-21 08:39:23</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-04-17 08:58:21</t>
+          <t>2025-04-21 09:44:45</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>7930</v>
+        <v>4184</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1135,56 +1123,53 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251204</v>
+        <v>250780</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>107.9295774647887</v>
+        <v>408.3125</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-17 08:58:21</t>
+          <t>2025-04-21 09:44:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-17 09:21:21</t>
+          <t>2025-04-21 10:09:45</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-04-17 09:21:21</t>
+          <t>2025-04-21 10:09:45</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-04-17 11:09:17</t>
+          <t>2025-04-22 08:58:04</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>7663</v>
+        <v>26132</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1193,56 +1178,56 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251327</v>
+        <v>251285</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>235.830985915493</v>
+        <v>905.796875</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-17 11:09:17</t>
+          <t>2025-04-22 08:58:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-17 11:28:17</t>
+          <t>2025-04-22 09:25:04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-17 11:28:17</t>
+          <t>2025-04-22 09:25:04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-18 07:24:07</t>
+          <t>2025-04-24 08:30:52</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16744</v>
+        <v>57971</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1260,47 +1245,44 @@
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250208</v>
+        <v>250856</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>111.6901408450704</v>
+        <v>236.75</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-18 07:24:07</t>
+          <t>2025-04-24 08:30:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-18 07:43:07</t>
+          <t>2025-04-24 08:47:52</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-18 07:43:07</t>
+          <t>2025-04-24 08:47:52</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-18 09:34:49</t>
+          <t>2025-04-24 12:44:37</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>7930</v>
+        <v>15152</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1309,56 +1291,53 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251025</v>
+        <v>251015</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>58.69014084507042</v>
+        <v>198.625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-18 09:34:49</t>
+          <t>2025-04-24 12:44:37</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-18 09:55:49</t>
+          <t>2025-04-24 12:59:37</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-18 09:55:49</t>
+          <t>2025-04-24 12:59:37</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-18 10:54:30</t>
+          <t>2025-04-25 08:18:15</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4167</v>
+        <v>12712</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1376,47 +1355,44 @@
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250780</v>
+        <v>251327</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>368.056338028169</v>
+        <v>261.625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-18 10:54:30</t>
+          <t>2025-04-25 08:18:15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-18 11:23:30</t>
+          <t>2025-04-25 08:35:15</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-18 11:23:30</t>
+          <t>2025-04-25 08:35:15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-21 09:31:33</t>
+          <t>2025-04-25 12:56:52</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>26132</v>
+        <v>16744</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1425,11 +1401,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1440,41 +1416,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251346</v>
+        <v>250635</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>54.35211267605634</v>
+        <v>146.390625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-21 09:31:33</t>
+          <t>2025-04-25 12:56:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-21 09:50:33</t>
+          <t>2025-04-25 13:15:52</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-21 09:50:33</t>
+          <t>2025-04-25 13:15:52</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-04-21 10:44:54</t>
+          <t>2025-04-28 07:42:15</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3859</v>
+        <v>9369</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1483,17 +1459,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1502,33 +1475,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>72.05633802816901</v>
+        <v>79.9375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-21 10:44:54</t>
+          <t>2025-04-28 07:42:15</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-21 11:03:54</t>
+          <t>2025-04-28 07:57:15</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-21 11:03:54</t>
+          <t>2025-04-28 07:57:15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-21 12:15:58</t>
+          <t>2025-04-28 09:17:12</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1556,41 +1529,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251522</v>
+        <v>250479</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>550.7183098591549</v>
+        <v>257.296875</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-21 12:15:58</t>
+          <t>2025-04-28 09:17:12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-21 12:38:58</t>
+          <t>2025-04-28 09:34:12</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-21 12:38:58</t>
+          <t>2025-04-28 09:34:12</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-22 13:49:41</t>
+          <t>2025-04-28 13:51:30</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>39101</v>
+        <v>16467</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1599,56 +1572,53 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251088</v>
+        <v>251150</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>87.11267605633803</v>
+        <v>709.375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-22 13:49:41</t>
+          <t>2025-04-28 13:51:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-22 14:06:41</t>
+          <t>2025-04-28 14:18:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-22 14:06:41</t>
+          <t>2025-04-28 14:18:30</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-23 07:33:48</t>
+          <t>2025-04-30 10:07:52</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6185</v>
+        <v>45400</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1657,56 +1627,53 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251402</v>
+        <v>251088</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
-        <v>139.5774647887324</v>
+        <v>96.640625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-23 07:33:48</t>
+          <t>2025-04-30 10:07:52</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-23 07:52:48</t>
+          <t>2025-04-30 10:38:52</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-23 07:52:48</t>
+          <t>2025-04-30 10:38:52</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-23 10:12:22</t>
+          <t>2025-04-30 12:15:30</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>9910</v>
+        <v>6185</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1719,7 +1686,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -1730,41 +1697,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251442</v>
+        <v>250966</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>297.0909090909091</v>
+        <v>135.640625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-10 10:41:00</t>
+          <t>2025-04-30 12:15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-04-10 11:15:30</t>
+          <t>2025-04-30 12:30:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-04-10 11:15:30</t>
+          <t>2025-04-30 12:30:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-04-11 08:12:35</t>
+          <t>2025-04-30 14:46:09</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>16340</v>
+        <v>8681</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1773,56 +1740,53 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251281</v>
+        <v>251134</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30.5</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
-        <v>297.0909090909091</v>
+        <v>68.703125</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-11 08:12:35</t>
+          <t>2025-04-30 14:46:09</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:05</t>
+          <t>2025-05-01 07:07:09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:05</t>
+          <t>2025-05-01 07:07:09</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-04-11 13:40:10</t>
+          <t>2025-05-01 08:15:51</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>16340</v>
+        <v>4397</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1831,56 +1795,53 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251280</v>
+        <v>243335</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30.5</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>346.6</v>
+        <v>515.6875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-11 13:40:10</t>
+          <t>2025-05-01 08:15:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-04-11 14:10:40</t>
+          <t>2025-05-01 08:49:51</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-04-11 14:10:40</t>
+          <t>2025-05-01 08:49:51</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-04-14 11:57:16</t>
+          <t>2025-05-02 09:25:32</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>19063</v>
+        <v>33004</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1889,56 +1850,56 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251427</v>
+        <v>245623</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>445.6363636363636</v>
+        <v>412.796875</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-14 11:57:16</t>
+          <t>2025-05-02 09:25:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-04-14 12:27:46</t>
+          <t>2025-05-02 09:44:32</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-04-14 12:27:46</t>
+          <t>2025-05-02 09:44:32</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-04-15 11:53:25</t>
+          <t>2025-05-05 08:37:20</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>24510</v>
+        <v>26419</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1947,56 +1908,53 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251166</v>
+        <v>245413</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30.5</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-15 11:53:25</t>
+          <t>2025-04-10 14:19:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-04-15 12:23:55</t>
+          <t>2025-04-10 14:53:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-04-15 12:23:55</t>
+          <t>2025-04-10 14:53:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-04-16 09:21:00</t>
+          <t>2025-04-11 08:03:25</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>5000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2005,56 +1963,56 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251094</v>
+        <v>250344</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>190.0985915492958</v>
+        <v>613.9859154929577</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-10 10:00:00</t>
+          <t>2025-04-11 08:03:25</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-04-10 10:46:00</t>
+          <t>2025-04-11 08:22:25</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-04-10 10:46:00</t>
+          <t>2025-04-11 08:22:25</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-04-10 13:56:05</t>
+          <t>2025-04-14 10:36:24</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>13497</v>
+        <v>43593</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2063,56 +2021,56 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>243335</v>
+        <v>251100</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>464.8450704225352</v>
+        <v>65.64788732394366</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-10 13:56:05</t>
+          <t>2025-04-14 10:36:24</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-04-10 14:11:05</t>
+          <t>2025-04-14 10:53:24</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-04-10 14:11:05</t>
+          <t>2025-04-14 10:53:24</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-04-11 13:55:56</t>
+          <t>2025-04-14 11:59:03</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>33004</v>
+        <v>4661</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2121,56 +2079,56 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250986</v>
+        <v>251033</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>282.7183098591549</v>
+        <v>86.56338028169014</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-10 13:25:00</t>
+          <t>2025-04-14 11:59:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-04-11 08:57:00</t>
+          <t>2025-04-14 12:18:03</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-04-11 08:57:00</t>
+          <t>2025-04-14 12:18:03</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-04-11 13:39:43</t>
+          <t>2025-04-14 13:44:37</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>20073</v>
+        <v>6146</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2179,56 +2137,56 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251109</v>
+        <v>251097</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>266.5915492957747</v>
+        <v>244.5211267605634</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-04-11 13:39:43</t>
+          <t>2025-04-14 13:44:37</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-04-14 07:54:43</t>
+          <t>2025-04-14 14:01:37</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-04-14 07:54:43</t>
+          <t>2025-04-14 14:01:37</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-04-14 12:21:18</t>
+          <t>2025-04-15 10:06:08</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>18928</v>
+        <v>17361</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2237,56 +2195,56 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251097</v>
+        <v>251402</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>251.6086956521739</v>
+        <v>139.5774647887324</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-04-10 07:22:00</t>
+          <t>2025-04-15 10:06:08</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-04-10 07:57:00</t>
+          <t>2025-04-15 10:25:08</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-04-10 07:57:00</t>
+          <t>2025-04-15 10:25:08</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-04-10 12:08:36</t>
+          <t>2025-04-15 12:44:43</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>17361</v>
+        <v>9910</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2299,70 +2257,989 @@
         </is>
       </c>
       <c r="L32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>70</v>
+      </c>
+      <c r="N32" t="n">
         <v>3</v>
-      </c>
-      <c r="M32" t="n">
-        <v>70</v>
-      </c>
-      <c r="N32" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>235572</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="n">
+        <v>140.2535211267606</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-04-15 12:44:43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-04-15 12:59:43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-04-15 12:59:43</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-04-16 07:19:58</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>9958</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>70</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>251235</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="n">
+        <v>80.83098591549296</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-04-16 07:19:58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-04-16 07:34:58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-04-16 07:34:58</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-04-16 08:55:48</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>5739</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>17</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14.04225352112676</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-04-16 08:55:48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:12:48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:12:48</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:26:50</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>997</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>6</v>
+      </c>
+      <c r="M35" t="n">
+        <v>70</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>250208</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="n">
+        <v>111.6901408450704</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:26:50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:41:50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:41:50</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-04-16 11:33:32</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>7930</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>70</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>251250</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="n">
+        <v>111.6901408450704</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-04-16 11:33:32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-04-16 11:48:32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-04-16 11:48:32</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-04-16 13:40:13</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>7930</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>70</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>251166</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>297.0909090909091</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:41:00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:15:30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-04-10 11:15:30</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:12:35</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>7</v>
+      </c>
+      <c r="M38" t="n">
+        <v>70</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>251427</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>445.6363636363636</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:12:35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:43:05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:43:05</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-04-14 08:08:43</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>24510</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>7</v>
+      </c>
+      <c r="M39" t="n">
+        <v>70</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>251281</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>297.0909090909091</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-04-14 08:08:43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-04-14 08:39:13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-04-14 08:39:13</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-04-14 13:36:19</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>7</v>
+      </c>
+      <c r="M40" t="n">
+        <v>70</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>251280</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>346.6</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-04-14 13:36:19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-04-14 14:06:49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-04-14 14:06:49</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:53:25</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>19063</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>7</v>
+      </c>
+      <c r="M41" t="n">
+        <v>70</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>251442</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>297.0909090909091</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:53:25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-04-15 12:23:55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-04-15 12:23:55</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:21:00</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>7</v>
+      </c>
+      <c r="M42" t="n">
+        <v>70</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>251025</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>125</v>
+      </c>
+      <c r="D43" t="n">
+        <v>68.31147540983606</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:33:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:38:00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:38:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-04-11 09:46:18</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>4167</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>70</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>250497</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>46</v>
+      </c>
+      <c r="D44" t="n">
+        <v>267.4647887323944</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:00:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:46:00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:46:00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:13:27</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>18990</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>251129</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>17</v>
+      </c>
+      <c r="D45" t="n">
+        <v>101.3098591549296</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:13:27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:30:27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:30:27</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-04-11 09:11:46</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>7193</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>76</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>19</v>
+      </c>
+      <c r="D46" t="n">
+        <v>36.63380281690141</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-04-11 09:11:46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-04-11 09:30:46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-04-11 09:30:46</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2025-04-11 10:07:24</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2601</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>76</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>245089</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>17</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1727.676056338028</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-04-11 10:07:24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-04-11 10:24:24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-04-11 10:24:24</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2025-04-17 07:12:05</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>122665</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>251109</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>112</v>
+      </c>
+      <c r="D48" t="n">
+        <v>266.5915492957747</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-04-10 13:25:00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:17:00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:17:00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2025-04-11 11:43:35</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>18928</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>16</v>
+      </c>
+      <c r="M48" t="n">
+        <v>70</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
         <v>251614</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D49" t="n">
         <v>10.41269841269841</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2025-04-10 07:58:00</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2025-04-10 07:58:00</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>2025-04-10 07:58:00</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>2025-04-10 08:08:24</t>
         </is>
       </c>
-      <c r="I33" t="n">
+      <c r="I49" t="n">
         <v>656</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>T1 ;T2 ;T8</t>
         </is>
       </c>
-      <c r="L33" t="n">
+      <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N49" t="n">
         <v>6</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251094</v>
+        <v>251327</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>210.890625</v>
+        <v>261.625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-04-10 13:46:53</t>
+          <t>2025-04-10 14:37:37</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13497</v>
+        <v>16744</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,14 +555,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250855</v>
+        <v>251100</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -578,33 +578,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>443.890625</v>
+        <v>72.828125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-10 13:46:53</t>
+          <t>2025-04-10 14:37:37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:18:53</t>
+          <t>2025-04-10 14:52:37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:18:53</t>
+          <t>2025-04-10 14:52:37</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-11 13:42:46</t>
+          <t>2025-04-11 08:05:27</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>28409</v>
+        <v>4661</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -617,15 +617,18 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250637</v>
+        <v>251033</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -633,33 +636,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>585.578125</v>
+        <v>96.03125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-11 13:42:46</t>
+          <t>2025-04-11 08:05:27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-11 14:03:46</t>
+          <t>2025-04-11 08:24:27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-11 14:03:46</t>
+          <t>2025-04-11 08:24:27</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-15 07:49:21</t>
+          <t>2025-04-11 10:00:29</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>37477</v>
+        <v>6146</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -668,19 +671,22 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251550</v>
+        <v>245413</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -688,33 +694,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>557.046875</v>
+        <v>78.125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-15 07:49:21</t>
+          <t>2025-04-11 10:00:29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-15 08:10:21</t>
+          <t>2025-04-11 10:17:29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-15 08:10:21</t>
+          <t>2025-04-11 10:17:29</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-16 09:27:24</t>
+          <t>2025-04-11 11:35:36</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>35651</v>
+        <v>5000</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -733,12 +739,12 @@
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251522</v>
+        <v>244023</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -746,33 +752,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>610.953125</v>
+        <v>15.578125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-16 09:27:24</t>
+          <t>2025-04-11 11:35:36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-16 09:44:24</t>
+          <t>2025-04-11 11:56:36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-16 09:44:24</t>
+          <t>2025-04-11 11:56:36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-17 11:55:21</t>
+          <t>2025-04-11 12:12:11</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>39101</v>
+        <v>997</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -785,18 +791,18 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>250307</v>
+        <v>251134</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -807,30 +813,30 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>146.234375</v>
+        <v>68.703125</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-17 11:55:21</t>
+          <t>2025-04-11 12:12:11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-17 12:10:21</t>
+          <t>2025-04-11 12:27:11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-17 12:10:21</t>
+          <t>2025-04-11 12:27:11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-17 14:36:35</t>
+          <t>2025-04-11 13:35:53</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>9359</v>
+        <v>4397</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -843,7 +849,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -851,7 +857,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251519</v>
+        <v>250856</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -859,33 +865,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>205.859375</v>
+        <v>236.75</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-17 14:36:35</t>
+          <t>2025-04-11 13:35:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-17 14:51:35</t>
+          <t>2025-04-11 13:56:53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-17 14:51:35</t>
+          <t>2025-04-11 13:56:53</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-18 10:17:27</t>
+          <t>2025-04-14 09:53:38</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>13175</v>
+        <v>15152</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -898,7 +904,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -906,7 +912,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251204</v>
+        <v>251097</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -917,30 +923,30 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>119.734375</v>
+        <v>271.265625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-18 10:17:27</t>
+          <t>2025-04-14 09:53:38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-18 10:32:27</t>
+          <t>2025-04-14 10:08:38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-18 10:32:27</t>
+          <t>2025-04-14 10:08:38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-18 12:32:11</t>
+          <t>2025-04-14 14:39:54</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>7663</v>
+        <v>17361</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -953,18 +959,18 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>250209</v>
+        <v>251522</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -972,33 +978,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>123.90625</v>
+        <v>610.953125</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-18 12:32:11</t>
+          <t>2025-04-14 14:39:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-18 12:55:11</t>
+          <t>2025-04-14 14:56:54</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-18 12:55:11</t>
+          <t>2025-04-14 14:56:54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-18 14:59:05</t>
+          <t>2025-04-16 09:07:51</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7930</v>
+        <v>39101</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1007,17 +1013,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1030,29 +1036,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
         <v>60.296875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-18 14:59:05</t>
+          <t>2025-04-16 09:07:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-21 07:18:05</t>
+          <t>2025-04-16 09:34:51</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-21 07:18:05</t>
+          <t>2025-04-16 09:34:51</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-21 08:18:23</t>
+          <t>2025-04-16 10:35:09</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1080,7 +1086,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250478</v>
+        <v>250866</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1088,33 +1094,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>65.375</v>
+        <v>79.9375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-21 08:18:23</t>
+          <t>2025-04-16 10:35:09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-21 08:39:23</t>
+          <t>2025-04-16 10:54:09</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-21 08:39:23</t>
+          <t>2025-04-16 10:54:09</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-04-21 09:44:45</t>
+          <t>2025-04-16 12:14:05</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>4184</v>
+        <v>5116</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1127,15 +1133,18 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250780</v>
+        <v>250479</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1143,33 +1152,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>408.3125</v>
+        <v>257.296875</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-21 09:44:45</t>
+          <t>2025-04-16 12:14:05</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-21 10:09:45</t>
+          <t>2025-04-16 12:31:05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-04-21 10:09:45</t>
+          <t>2025-04-16 12:31:05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-04-22 08:58:04</t>
+          <t>2025-04-17 08:48:23</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>26132</v>
+        <v>16467</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1178,22 +1187,19 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251285</v>
+        <v>251204</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1201,33 +1207,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>905.796875</v>
+        <v>119.734375</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-22 08:58:04</t>
+          <t>2025-04-17 08:48:23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-22 09:25:04</t>
+          <t>2025-04-17 09:09:23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-22 09:25:04</t>
+          <t>2025-04-17 09:09:23</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-24 08:30:52</t>
+          <t>2025-04-17 11:09:07</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>57971</v>
+        <v>7663</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1240,15 +1246,18 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250856</v>
+        <v>245623</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1256,33 +1265,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>236.75</v>
+        <v>412.796875</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-24 08:30:52</t>
+          <t>2025-04-17 11:09:07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-24 08:47:52</t>
+          <t>2025-04-17 11:39:07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-24 08:47:52</t>
+          <t>2025-04-17 11:39:07</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-24 12:44:37</t>
+          <t>2025-04-18 10:31:55</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>15152</v>
+        <v>26419</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1291,19 +1300,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251015</v>
+        <v>251094</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1311,33 +1320,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>198.625</v>
+        <v>210.890625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-24 12:44:37</t>
+          <t>2025-04-18 10:31:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-24 12:59:37</t>
+          <t>2025-04-18 10:50:55</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-24 12:59:37</t>
+          <t>2025-04-18 10:50:55</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-25 08:18:15</t>
+          <t>2025-04-18 14:21:48</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>12712</v>
+        <v>13497</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1346,19 +1355,22 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251327</v>
+        <v>243569</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1366,33 +1378,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>261.625</v>
+        <v>40.640625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-25 08:18:15</t>
+          <t>2025-04-18 14:21:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-25 08:35:15</t>
+          <t>2025-04-18 14:53:48</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-25 08:35:15</t>
+          <t>2025-04-18 14:53:48</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-25 12:56:52</t>
+          <t>2025-04-21 07:34:27</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16744</v>
+        <v>2601</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1401,22 +1413,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>250635</v>
+        <v>251129</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1427,30 +1439,30 @@
         <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>146.390625</v>
+        <v>112.390625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-25 12:56:52</t>
+          <t>2025-04-21 07:34:27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-25 13:15:52</t>
+          <t>2025-04-21 07:53:27</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-25 13:15:52</t>
+          <t>2025-04-21 07:53:27</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-04-28 07:42:15</t>
+          <t>2025-04-21 09:45:50</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>9369</v>
+        <v>7193</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1459,19 +1471,22 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>76</v>
+      </c>
+      <c r="N18" t="n">
         <v>6</v>
-      </c>
-      <c r="M18" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>250866</v>
+        <v>251519</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1479,33 +1494,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
-        <v>79.9375</v>
+        <v>205.859375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-28 07:42:15</t>
+          <t>2025-04-21 09:45:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-28 07:57:15</t>
+          <t>2025-04-21 10:21:50</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-28 07:57:15</t>
+          <t>2025-04-21 10:21:50</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-28 09:17:12</t>
+          <t>2025-04-21 13:47:42</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5116</v>
+        <v>13175</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1518,18 +1533,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250479</v>
+        <v>250966</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1540,30 +1552,30 @@
         <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>257.296875</v>
+        <v>135.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-28 09:17:12</t>
+          <t>2025-04-21 13:47:42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-28 09:34:12</t>
+          <t>2025-04-21 14:04:42</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-28 09:34:12</t>
+          <t>2025-04-21 14:04:42</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-28 13:51:30</t>
+          <t>2025-04-22 08:20:20</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>16467</v>
+        <v>8681</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1572,11 +1584,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1584,7 +1596,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251150</v>
+        <v>251088</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1592,33 +1604,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>709.375</v>
+        <v>96.640625</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-28 13:51:30</t>
+          <t>2025-04-22 08:20:20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-28 14:18:30</t>
+          <t>2025-04-22 08:35:20</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-28 14:18:30</t>
+          <t>2025-04-22 08:35:20</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-30 10:07:52</t>
+          <t>2025-04-22 10:11:59</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>45400</v>
+        <v>6185</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1627,19 +1639,22 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251088</v>
+        <v>235572</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1647,33 +1662,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>96.640625</v>
+        <v>155.59375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-30 10:07:52</t>
+          <t>2025-04-22 10:11:59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-30 10:38:52</t>
+          <t>2025-04-22 10:30:59</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-30 10:38:52</t>
+          <t>2025-04-22 10:30:59</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-30 12:15:30</t>
+          <t>2025-04-22 13:06:34</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6185</v>
+        <v>9958</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1682,11 +1697,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -1697,7 +1712,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250966</v>
+        <v>251015</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1705,33 +1720,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>135.640625</v>
+        <v>198.625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-30 12:15:30</t>
+          <t>2025-04-22 13:06:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-04-30 12:30:30</t>
+          <t>2025-04-22 13:25:34</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-04-30 12:30:30</t>
+          <t>2025-04-22 13:25:34</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-04-30 14:46:09</t>
+          <t>2025-04-23 08:44:12</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>8681</v>
+        <v>12712</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1752,7 +1767,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251134</v>
+        <v>250307</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1760,33 +1775,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>68.703125</v>
+        <v>146.234375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-30 14:46:09</t>
+          <t>2025-04-23 08:44:12</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-01 07:07:09</t>
+          <t>2025-04-23 09:01:12</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-01 07:07:09</t>
+          <t>2025-04-23 09:01:12</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-01 08:15:51</t>
+          <t>2025-04-23 11:27:26</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>4397</v>
+        <v>9359</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1799,7 +1814,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -1807,7 +1822,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>243335</v>
+        <v>251402</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1815,33 +1830,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>515.6875</v>
+        <v>154.84375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-01 08:15:51</t>
+          <t>2025-04-23 11:27:26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-01 08:49:51</t>
+          <t>2025-04-23 11:48:26</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-01 08:49:51</t>
+          <t>2025-04-23 11:48:26</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-02 09:25:32</t>
+          <t>2025-04-23 14:23:16</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>33004</v>
+        <v>9910</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1850,22 +1865,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>245623</v>
+        <v>251235</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1873,33 +1888,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>412.796875</v>
+        <v>89.671875</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-02 09:25:32</t>
+          <t>2025-04-23 14:23:16</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-02 09:44:32</t>
+          <t>2025-04-23 14:38:16</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-02 09:44:32</t>
+          <t>2025-04-23 14:38:16</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-05 08:37:20</t>
+          <t>2025-04-24 08:07:57</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>26419</v>
+        <v>5739</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1908,53 +1923,53 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>245413</v>
+        <v>251550</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>70.4225352112676</v>
+        <v>557.046875</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-10 14:19:00</t>
+          <t>2025-04-24 08:07:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-04-10 14:53:00</t>
+          <t>2025-04-24 08:26:57</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-04-10 14:53:00</t>
+          <t>2025-04-24 08:26:57</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-04-11 08:03:25</t>
+          <t>2025-04-25 09:44:00</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5000</v>
+        <v>35651</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1973,46 +1988,46 @@
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>250344</v>
+        <v>250478</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>613.9859154929577</v>
+        <v>65.375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-11 08:03:25</t>
+          <t>2025-04-25 09:44:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-04-11 08:22:25</t>
+          <t>2025-04-25 10:03:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-04-11 08:22:25</t>
+          <t>2025-04-25 10:03:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-04-14 10:36:24</t>
+          <t>2025-04-25 11:08:22</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>43593</v>
+        <v>4184</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2030,47 +2045,44 @@
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="N28" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251100</v>
+        <v>250855</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>65.64788732394366</v>
+        <v>443.890625</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-14 10:36:24</t>
+          <t>2025-04-25 11:08:22</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-04-14 10:53:24</t>
+          <t>2025-04-25 11:27:22</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-04-14 10:53:24</t>
+          <t>2025-04-25 11:27:22</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-04-14 11:59:03</t>
+          <t>2025-04-28 10:51:15</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4661</v>
+        <v>28409</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2083,52 +2095,49 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
-      </c>
-      <c r="N29" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251033</v>
+        <v>250635</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30" t="n">
-        <v>86.56338028169014</v>
+        <v>146.390625</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-14 11:59:03</t>
+          <t>2025-04-28 10:51:15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-04-14 12:18:03</t>
+          <t>2025-04-28 11:12:15</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-04-14 12:18:03</t>
+          <t>2025-04-28 11:12:15</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-04-14 13:44:37</t>
+          <t>2025-04-28 13:38:39</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6146</v>
+        <v>9369</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2137,56 +2146,53 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
-      </c>
-      <c r="N30" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251097</v>
+        <v>250637</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>244.5211267605634</v>
+        <v>585.578125</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-04-14 13:44:37</t>
+          <t>2025-04-28 13:38:39</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-04-14 14:01:37</t>
+          <t>2025-04-28 13:53:39</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-04-14 14:01:37</t>
+          <t>2025-04-28 13:53:39</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-04-15 10:06:08</t>
+          <t>2025-04-30 07:39:14</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>17361</v>
+        <v>37477</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2195,56 +2201,53 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
-      </c>
-      <c r="N31" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251402</v>
+        <v>250780</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D32" t="n">
-        <v>139.5774647887324</v>
+        <v>408.3125</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-04-15 10:06:08</t>
+          <t>2025-04-30 07:39:14</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-04-15 10:25:08</t>
+          <t>2025-04-30 08:02:14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-04-15 10:25:08</t>
+          <t>2025-04-30 08:02:14</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-04-15 12:44:43</t>
+          <t>2025-04-30 14:50:32</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>9910</v>
+        <v>26132</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2253,56 +2256,56 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>235572</v>
+        <v>251150</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>140.2535211267606</v>
+        <v>709.375</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-04-15 12:44:43</t>
+          <t>2025-04-30 14:50:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-04-15 12:59:43</t>
+          <t>2025-05-01 07:07:32</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-04-15 12:59:43</t>
+          <t>2025-05-01 07:07:32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-04-16 07:19:58</t>
+          <t>2025-05-02 10:56:55</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>9958</v>
+        <v>45400</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2315,18 +2318,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251235</v>
+        <v>243335</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2334,33 +2334,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>80.83098591549296</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-04-16 07:19:58</t>
+          <t>2025-04-10 14:19:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-04-16 07:34:58</t>
+          <t>2025-04-10 14:36:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-04-16 07:34:58</t>
+          <t>2025-04-10 14:36:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-04-16 08:55:48</t>
+          <t>2025-04-11 14:20:50</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>5739</v>
+        <v>33004</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2369,53 +2369,56 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>244023</v>
+        <v>251166</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D35" t="n">
-        <v>14.04225352112676</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-04-16 08:55:48</t>
+          <t>2025-04-10 10:41:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-04-16 09:12:48</t>
+          <t>2025-04-10 11:15:30</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-04-16 09:12:48</t>
+          <t>2025-04-10 11:15:30</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-04-16 09:26:50</t>
+          <t>2025-04-11 08:12:35</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>997</v>
+        <v>16340</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2424,56 +2427,56 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>250208</v>
+        <v>251427</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D36" t="n">
-        <v>111.6901408450704</v>
+        <v>445.6363636363636</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-04-16 09:26:50</t>
+          <t>2025-04-11 08:12:35</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-04-16 09:41:50</t>
+          <t>2025-04-11 08:43:05</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-04-16 09:41:50</t>
+          <t>2025-04-11 08:43:05</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-04-16 11:33:32</t>
+          <t>2025-04-14 08:08:43</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>7930</v>
+        <v>24510</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2482,56 +2485,56 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251250</v>
+        <v>251281</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D37" t="n">
-        <v>111.6901408450704</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-04-16 11:33:32</t>
+          <t>2025-04-14 08:08:43</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-04-16 11:48:32</t>
+          <t>2025-04-14 08:39:13</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-04-16 11:48:32</t>
+          <t>2025-04-14 08:39:13</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-04-16 13:40:13</t>
+          <t>2025-04-14 13:36:19</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>7930</v>
+        <v>16340</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2540,22 +2543,22 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251166</v>
+        <v>251280</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2563,33 +2566,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34.5</v>
+        <v>30.5</v>
       </c>
       <c r="D38" t="n">
-        <v>297.0909090909091</v>
+        <v>346.6</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-04-10 10:41:00</t>
+          <t>2025-04-14 13:36:19</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-04-10 11:15:30</t>
+          <t>2025-04-14 14:06:49</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-04-10 11:15:30</t>
+          <t>2025-04-14 14:06:49</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-04-11 08:12:35</t>
+          <t>2025-04-15 11:53:25</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>16340</v>
+        <v>19063</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2613,7 +2616,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251427</v>
+        <v>251442</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2624,30 +2627,30 @@
         <v>30.5</v>
       </c>
       <c r="D39" t="n">
-        <v>445.6363636363636</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-04-11 08:12:35</t>
+          <t>2025-04-15 11:53:25</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:05</t>
+          <t>2025-04-15 12:23:55</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:05</t>
+          <t>2025-04-15 12:23:55</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-04-14 08:08:43</t>
+          <t>2025-04-16 09:21:00</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>24510</v>
+        <v>16340</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2671,41 +2674,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251281</v>
+        <v>251285</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30.5</v>
+        <v>120</v>
       </c>
       <c r="D40" t="n">
-        <v>297.0909090909091</v>
+        <v>950.344262295082</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-04-14 08:08:43</t>
+          <t>2025-04-10 14:33:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-04-14 08:39:13</t>
+          <t>2025-04-11 08:33:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-04-14 08:39:13</t>
+          <t>2025-04-11 08:33:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-04-14 13:36:19</t>
+          <t>2025-04-15 08:23:20</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>16340</v>
+        <v>57971</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2714,56 +2717,53 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251280</v>
+        <v>250497</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30.5</v>
+        <v>46</v>
       </c>
       <c r="D41" t="n">
-        <v>346.6</v>
+        <v>267.4647887323944</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-04-14 13:36:19</t>
+          <t>2025-04-10 10:00:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-04-14 14:06:49</t>
+          <t>2025-04-10 10:46:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-04-14 14:06:49</t>
+          <t>2025-04-10 10:46:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-04-15 11:53:25</t>
+          <t>2025-04-11 07:13:27</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>19063</v>
+        <v>18990</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2772,56 +2772,53 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251442</v>
+        <v>245089</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>297.0909090909091</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-04-15 11:53:25</t>
+          <t>2025-04-11 07:13:27</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-04-15 12:23:55</t>
+          <t>2025-04-11 07:28:27</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-04-15 12:23:55</t>
+          <t>2025-04-11 07:28:27</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-04-16 09:21:00</t>
+          <t>2025-04-16 12:16:08</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>16340</v>
+        <v>122665</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2830,56 +2827,53 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251025</v>
+        <v>250986</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="D43" t="n">
-        <v>68.31147540983606</v>
+        <v>282.7183098591549</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-04-10 14:33:00</t>
+          <t>2025-04-10 13:25:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-04-11 08:38:00</t>
+          <t>2025-04-11 08:57:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-04-11 08:38:00</t>
+          <t>2025-04-11 08:57:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-04-11 09:46:18</t>
+          <t>2025-04-11 13:39:43</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>4167</v>
+        <v>20073</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2888,56 +2882,56 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L43" t="n">
+        <v>36</v>
+      </c>
+      <c r="M43" t="n">
+        <v>70</v>
+      </c>
+      <c r="N43" t="n">
         <v>3</v>
-      </c>
-      <c r="M43" t="n">
-        <v>70</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>250497</v>
+        <v>251109</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="D44" t="n">
-        <v>267.4647887323944</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-04-10 10:00:00</t>
+          <t>2025-04-11 13:39:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-04-10 10:46:00</t>
+          <t>2025-04-14 07:54:43</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-04-10 10:46:00</t>
+          <t>2025-04-14 07:54:43</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-04-11 07:13:27</t>
+          <t>2025-04-14 12:21:18</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>18990</v>
+        <v>18928</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2946,53 +2940,56 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L44" t="n">
+        <v>16</v>
+      </c>
+      <c r="M44" t="n">
+        <v>70</v>
+      </c>
+      <c r="N44" t="n">
         <v>4</v>
-      </c>
-      <c r="M44" t="n">
-        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251129</v>
+        <v>251025</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
-        <v>101.3098591549296</v>
+        <v>60.39130434782609</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-04-11 07:13:27</t>
+          <t>2025-04-10 07:22:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-04-11 07:30:27</t>
+          <t>2025-04-10 07:57:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-04-11 07:30:27</t>
+          <t>2025-04-10 07:57:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-04-11 09:11:46</t>
+          <t>2025-04-10 08:57:23</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>7193</v>
+        <v>4167</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3001,245 +2998,74 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>70</v>
+      </c>
+      <c r="N45" t="n">
         <v>5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>76</v>
-      </c>
-      <c r="N45" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>243569</v>
+        <v>251614</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>36.63380281690141</v>
+        <v>10.41269841269841</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-04-11 09:11:46</t>
+          <t>2025-04-10 07:58:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-04-11 09:30:46</t>
+          <t>2025-04-10 07:58:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-04-11 09:30:46</t>
+          <t>2025-04-10 07:58:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-04-11 10:07:24</t>
+          <t>2025-04-10 08:08:24</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2601</v>
+        <v>656</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>17</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1727.676056338028</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>2025-04-11 10:07:24</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2025-04-11 10:24:24</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2025-04-11 10:24:24</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2025-04-17 07:12:05</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>122665</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>4</v>
-      </c>
-      <c r="M47" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>251109</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>112</v>
-      </c>
-      <c r="D48" t="n">
-        <v>266.5915492957747</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>2025-04-10 13:25:00</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2025-04-11 07:17:00</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2025-04-11 07:17:00</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2025-04-11 11:43:35</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>18928</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>16</v>
-      </c>
-      <c r="M48" t="n">
-        <v>70</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>251614</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>10.41269841269841</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:58:00</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:58:00</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:58:00</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2025-04-10 08:08:24</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>656</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
         <v>6</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251327</v>
+        <v>251550</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>261.625</v>
+        <v>557.046875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -532,21 +532,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-04-10 10:16:00</t>
+          <t>2025-04-10 10:14:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-04-10 10:16:00</t>
+          <t>2025-04-10 10:14:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-04-10 14:37:37</t>
+          <t>2025-04-11 11:31:02</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16744</v>
+        <v>35651</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,18 +559,18 @@
         </is>
       </c>
       <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>70</v>
+      </c>
+      <c r="N2" t="n">
         <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251100</v>
+        <v>250478</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -578,33 +578,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>72.828125</v>
+        <v>65.375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:37:37</t>
+          <t>2025-04-11 11:31:02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:52:37</t>
+          <t>2025-04-11 11:50:02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-10 14:52:37</t>
+          <t>2025-04-11 11:50:02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-11 08:05:27</t>
+          <t>2025-04-11 12:55:25</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4661</v>
+        <v>4184</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -617,18 +617,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251033</v>
+        <v>250855</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -639,30 +636,30 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>96.03125</v>
+        <v>443.890625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-11 08:05:27</t>
+          <t>2025-04-11 12:55:25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-11 08:24:27</t>
+          <t>2025-04-11 13:14:25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-11 08:24:27</t>
+          <t>2025-04-11 13:14:25</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-11 10:00:29</t>
+          <t>2025-04-14 12:38:18</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6146</v>
+        <v>28409</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -675,18 +672,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>245413</v>
+        <v>250637</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -694,33 +688,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>78.125</v>
+        <v>585.578125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-11 10:00:29</t>
+          <t>2025-04-14 12:38:18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-11 10:17:29</t>
+          <t>2025-04-14 12:59:18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-11 10:17:29</t>
+          <t>2025-04-14 12:59:18</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-11 11:35:36</t>
+          <t>2025-04-15 14:44:53</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5000</v>
+        <v>37477</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -729,22 +723,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>244023</v>
+        <v>250780</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -752,33 +743,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>15.578125</v>
+        <v>408.3125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-11 11:35:36</t>
+          <t>2025-04-15 14:44:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-11 11:56:36</t>
+          <t>2025-04-16 07:07:53</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-11 11:56:36</t>
+          <t>2025-04-16 07:07:53</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-11 12:12:11</t>
+          <t>2025-04-16 13:56:12</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>997</v>
+        <v>26132</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -787,22 +778,22 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" t="n">
+        <v>70</v>
+      </c>
+      <c r="N6" t="n">
         <v>6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251134</v>
+        <v>251150</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -810,33 +801,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>68.703125</v>
+        <v>709.375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-11 12:12:11</t>
+          <t>2025-04-16 13:56:12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-11 12:27:11</t>
+          <t>2025-04-16 14:13:12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-11 12:27:11</t>
+          <t>2025-04-16 14:13:12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-11 13:35:53</t>
+          <t>2025-04-18 10:02:34</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4397</v>
+        <v>45400</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -845,11 +836,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -857,41 +848,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250856</v>
+        <v>243335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>236.75</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-11 13:35:53</t>
+          <t>2025-04-10 14:19:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-11 13:56:53</t>
+          <t>2025-04-10 14:36:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-11 13:56:53</t>
+          <t>2025-04-10 14:36:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-14 09:53:38</t>
+          <t>2025-04-11 14:20:50</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>15152</v>
+        <v>33004</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -900,53 +891,56 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251097</v>
+        <v>251088</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>271.265625</v>
+        <v>87.11267605633803</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-14 09:53:38</t>
+          <t>2025-04-11 14:20:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-14 10:08:38</t>
+          <t>2025-04-11 14:52:50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-14 10:08:38</t>
+          <t>2025-04-11 14:52:50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-14 14:39:54</t>
+          <t>2025-04-14 08:19:57</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>17361</v>
+        <v>6185</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -965,46 +959,46 @@
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251522</v>
+        <v>235572</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>610.953125</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-14 14:39:54</t>
+          <t>2025-04-14 08:19:57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-14 14:56:54</t>
+          <t>2025-04-14 08:38:57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-14 14:56:54</t>
+          <t>2025-04-14 08:38:57</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-16 09:07:51</t>
+          <t>2025-04-14 10:59:12</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>39101</v>
+        <v>9958</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1013,11 +1007,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1028,41 +1022,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251346</v>
+        <v>251015</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>60.296875</v>
+        <v>179.0422535211268</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-16 09:07:51</t>
+          <t>2025-04-14 10:59:12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-16 09:34:51</t>
+          <t>2025-04-14 11:18:12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-16 09:34:51</t>
+          <t>2025-04-14 11:18:12</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-16 10:35:09</t>
+          <t>2025-04-14 14:17:15</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3859</v>
+        <v>12712</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1075,52 +1069,49 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250866</v>
+        <v>250307</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>79.9375</v>
+        <v>131.8169014084507</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-16 10:35:09</t>
+          <t>2025-04-14 14:17:15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-16 10:54:09</t>
+          <t>2025-04-14 14:34:15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-16 10:54:09</t>
+          <t>2025-04-14 14:34:15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-04-16 12:14:05</t>
+          <t>2025-04-15 08:46:04</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5116</v>
+        <v>9359</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1133,52 +1124,49 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250479</v>
+        <v>251235</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>257.296875</v>
+        <v>80.83098591549296</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-16 12:14:05</t>
+          <t>2025-04-15 08:46:04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-16 12:31:05</t>
+          <t>2025-04-15 09:07:04</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-04-16 12:31:05</t>
+          <t>2025-04-15 09:07:04</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-04-17 08:48:23</t>
+          <t>2025-04-15 10:27:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>16467</v>
+        <v>5739</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1187,7 +1175,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1199,41 +1187,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251204</v>
+        <v>250635</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>119.734375</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-17 08:48:23</t>
+          <t>2025-04-15 10:27:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-17 09:09:23</t>
+          <t>2025-04-15 10:44:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-17 09:09:23</t>
+          <t>2025-04-15 10:44:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-17 11:09:07</t>
+          <t>2025-04-15 12:56:51</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7663</v>
+        <v>9369</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1242,56 +1230,53 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>245623</v>
+        <v>251402</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>412.796875</v>
+        <v>139.5774647887324</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-17 11:09:07</t>
+          <t>2025-04-15 12:56:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-17 11:39:07</t>
+          <t>2025-04-15 13:13:51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-17 11:39:07</t>
+          <t>2025-04-15 13:13:51</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-18 10:31:55</t>
+          <t>2025-04-16 07:33:26</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>26419</v>
+        <v>9910</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1300,53 +1285,56 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>152</v>
+        <v>70</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251094</v>
+        <v>251097</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D16" t="n">
-        <v>210.890625</v>
+        <v>315.6545454545454</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-18 10:31:55</t>
+          <t>2025-04-10 10:41:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-18 10:50:55</t>
+          <t>2025-04-10 11:15:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-18 10:50:55</t>
+          <t>2025-04-10 11:15:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-18 14:21:48</t>
+          <t>2025-04-11 08:31:09</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>13497</v>
+        <v>17361</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1355,56 +1343,56 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>243569</v>
+        <v>251281</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>38.5</v>
       </c>
       <c r="D17" t="n">
-        <v>40.640625</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-18 14:21:48</t>
+          <t>2025-04-11 08:31:09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-18 14:53:48</t>
+          <t>2025-04-11 09:09:39</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-18 14:53:48</t>
+          <t>2025-04-11 09:09:39</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-21 07:34:27</t>
+          <t>2025-04-11 14:06:44</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2601</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1413,56 +1401,56 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251129</v>
+        <v>251280</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D18" t="n">
-        <v>112.390625</v>
+        <v>346.6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-21 07:34:27</t>
+          <t>2025-04-11 14:06:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-21 07:53:27</t>
+          <t>2025-04-11 14:37:14</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-21 07:53:27</t>
+          <t>2025-04-11 14:37:14</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-04-21 09:45:50</t>
+          <t>2025-04-14 12:23:50</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>7193</v>
+        <v>19063</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1471,56 +1459,56 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251519</v>
+        <v>251442</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>30.5</v>
       </c>
       <c r="D19" t="n">
-        <v>205.859375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-21 09:45:50</t>
+          <t>2025-04-14 12:23:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-21 10:21:50</t>
+          <t>2025-04-14 12:54:20</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-21 10:21:50</t>
+          <t>2025-04-14 12:54:20</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-21 13:47:42</t>
+          <t>2025-04-15 09:51:26</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13175</v>
+        <v>16340</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1529,53 +1517,56 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
         <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250966</v>
+        <v>251285</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="D20" t="n">
-        <v>135.640625</v>
+        <v>950.344262295082</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-21 13:47:42</t>
+          <t>2025-04-10 14:33:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-21 14:04:42</t>
+          <t>2025-04-11 08:33:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-21 14:04:42</t>
+          <t>2025-04-11 08:33:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-22 08:20:20</t>
+          <t>2025-04-15 08:23:20</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8681</v>
+        <v>57971</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1588,7 +1579,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1596,41 +1587,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251088</v>
+        <v>243569</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D21" t="n">
-        <v>96.640625</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-22 08:20:20</t>
+          <t>2025-04-10 10:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-22 08:35:20</t>
+          <t>2025-04-10 10:48:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-22 08:35:20</t>
+          <t>2025-04-10 10:48:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-22 10:11:59</t>
+          <t>2025-04-10 11:24:38</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6185</v>
+        <v>2601</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1639,14 +1630,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
         <v>3</v>
@@ -1654,41 +1645,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>235572</v>
+        <v>250497</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>155.59375</v>
+        <v>267.4647887323944</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-22 10:11:59</t>
+          <t>2025-04-10 11:24:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-22 10:30:59</t>
+          <t>2025-04-10 11:41:38</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-22 10:30:59</t>
+          <t>2025-04-10 11:41:38</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-22 13:06:34</t>
+          <t>2025-04-11 08:09:05</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>9958</v>
+        <v>18990</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1697,56 +1688,53 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251015</v>
+        <v>245089</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>198.625</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-22 13:06:34</t>
+          <t>2025-04-11 08:09:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-04-22 13:25:34</t>
+          <t>2025-04-11 08:24:05</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-04-22 13:25:34</t>
+          <t>2025-04-11 08:24:05</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-04-23 08:44:12</t>
+          <t>2025-04-16 13:11:46</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>12712</v>
+        <v>122665</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1755,53 +1743,53 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250307</v>
+        <v>250856</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="D24" t="n">
-        <v>146.234375</v>
+        <v>309.2244897959184</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-23 08:44:12</t>
+          <t>2025-04-10 07:18:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-04-23 09:01:12</t>
+          <t>2025-04-10 09:15:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-04-23 09:01:12</t>
+          <t>2025-04-10 09:15:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-04-23 11:27:26</t>
+          <t>2025-04-10 14:24:13</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>9359</v>
+        <v>15152</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1814,7 +1802,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -1822,41 +1810,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251402</v>
+        <v>251134</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>154.84375</v>
+        <v>89.73469387755102</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-23 11:27:26</t>
+          <t>2025-04-10 14:24:13</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-04-23 11:48:26</t>
+          <t>2025-04-11 07:14:13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-04-23 11:48:26</t>
+          <t>2025-04-11 07:14:13</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-04-23 14:23:16</t>
+          <t>2025-04-11 08:43:57</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>9910</v>
+        <v>4397</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1869,52 +1857,49 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251235</v>
+        <v>244023</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>89.671875</v>
+        <v>20.3469387755102</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-23 14:23:16</t>
+          <t>2025-04-11 08:43:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-04-23 14:38:16</t>
+          <t>2025-04-11 09:18:57</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-04-23 14:38:16</t>
+          <t>2025-04-11 09:18:57</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-04-24 08:07:57</t>
+          <t>2025-04-11 09:39:18</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5739</v>
+        <v>997</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1927,49 +1912,52 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251550</v>
+        <v>245413</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>557.046875</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-24 08:07:57</t>
+          <t>2025-04-11 09:39:18</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-04-24 08:26:57</t>
+          <t>2025-04-11 10:29:18</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-04-24 08:26:57</t>
+          <t>2025-04-11 10:29:18</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-04-25 09:44:00</t>
+          <t>2025-04-11 12:11:20</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>35651</v>
+        <v>5000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1988,46 +1976,46 @@
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>250478</v>
+        <v>251033</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>65.375</v>
+        <v>125.4285714285714</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-25 09:44:00</t>
+          <t>2025-04-11 12:11:20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-04-25 10:03:00</t>
+          <t>2025-04-11 12:51:20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-04-25 10:03:00</t>
+          <t>2025-04-11 12:51:20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-04-25 11:08:22</t>
+          <t>2025-04-11 14:56:46</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4184</v>
+        <v>6146</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2040,49 +2028,52 @@
         </is>
       </c>
       <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>70</v>
+      </c>
+      <c r="N28" t="n">
         <v>5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250855</v>
+        <v>251100</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D29" t="n">
-        <v>443.890625</v>
+        <v>95.12244897959184</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-25 11:08:22</t>
+          <t>2025-04-11 14:56:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-04-25 11:27:22</t>
+          <t>2025-04-14 07:41:46</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-04-25 11:27:22</t>
+          <t>2025-04-14 07:41:46</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-04-28 10:51:15</t>
+          <t>2025-04-14 09:16:53</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>28409</v>
+        <v>4661</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2095,49 +2086,52 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250635</v>
+        <v>251327</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>146.390625</v>
+        <v>341.7142857142857</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-28 10:51:15</t>
+          <t>2025-04-14 09:16:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-04-28 11:12:15</t>
+          <t>2025-04-14 09:51:53</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-04-28 11:12:15</t>
+          <t>2025-04-14 09:51:53</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-04-28 13:38:39</t>
+          <t>2025-04-15 07:33:36</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>9369</v>
+        <v>16744</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2146,53 +2140,56 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>70</v>
+      </c>
+      <c r="N30" t="n">
         <v>6</v>
-      </c>
-      <c r="M30" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>250637</v>
+        <v>250966</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D31" t="n">
-        <v>585.578125</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-04-28 13:38:39</t>
+          <t>2025-04-10 13:25:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-04-28 13:53:39</t>
+          <t>2025-04-10 14:12:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-04-28 13:53:39</t>
+          <t>2025-04-10 14:12:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-04-30 07:39:14</t>
+          <t>2025-04-11 08:14:16</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>37477</v>
+        <v>8681</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2201,11 +2198,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2213,41 +2210,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>250780</v>
+        <v>251519</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>408.3125</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-04-30 07:39:14</t>
+          <t>2025-04-11 08:14:16</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-04-30 08:02:14</t>
+          <t>2025-04-11 08:54:16</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-04-30 08:02:14</t>
+          <t>2025-04-11 08:54:16</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-04-30 14:50:32</t>
+          <t>2025-04-11 11:59:49</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>26132</v>
+        <v>13175</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2256,56 +2253,53 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
-      </c>
-      <c r="N32" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251150</v>
+        <v>251129</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D33" t="n">
-        <v>709.375</v>
+        <v>101.3098591549296</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-04-30 14:50:32</t>
+          <t>2025-04-11 11:59:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-01 07:07:32</t>
+          <t>2025-04-11 12:51:49</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-01 07:07:32</t>
+          <t>2025-04-11 12:51:49</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-02 10:56:55</t>
+          <t>2025-04-11 14:33:08</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>45400</v>
+        <v>7193</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2314,53 +2308,56 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>243335</v>
+        <v>251204</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D34" t="n">
-        <v>464.8450704225352</v>
+        <v>107.9295774647887</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-04-10 14:19:00</t>
+          <t>2025-04-11 14:33:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-04-10 14:36:00</t>
+          <t>2025-04-14 07:25:08</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-04-10 14:36:00</t>
+          <t>2025-04-14 07:25:08</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-04-11 14:20:50</t>
+          <t>2025-04-14 09:13:04</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>33004</v>
+        <v>7663</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2369,56 +2366,56 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251166</v>
+        <v>250986</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34.5</v>
+        <v>205</v>
       </c>
       <c r="D35" t="n">
-        <v>297.0909090909091</v>
+        <v>282.7183098591549</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-04-10 10:41:00</t>
+          <t>2025-04-14 09:13:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-04-10 11:15:30</t>
+          <t>2025-04-14 12:38:04</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-04-10 11:15:30</t>
+          <t>2025-04-14 12:38:04</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-04-11 08:12:35</t>
+          <t>2025-04-15 09:20:47</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>16340</v>
+        <v>20073</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2427,56 +2424,56 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251427</v>
+        <v>251109</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30.5</v>
+        <v>135</v>
       </c>
       <c r="D36" t="n">
-        <v>445.6363636363636</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-04-11 08:12:35</t>
+          <t>2025-04-15 09:20:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:05</t>
+          <t>2025-04-15 11:35:47</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:05</t>
+          <t>2025-04-15 11:35:47</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-04-14 08:08:43</t>
+          <t>2025-04-16 08:02:22</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>24510</v>
+        <v>18928</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2485,56 +2482,56 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251281</v>
+        <v>251427</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30.5</v>
+        <v>80</v>
       </c>
       <c r="D37" t="n">
-        <v>297.0909090909091</v>
+        <v>345.2112676056338</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-04-14 08:08:43</t>
+          <t>2025-04-16 08:02:22</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-04-14 08:39:13</t>
+          <t>2025-04-16 09:22:22</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-04-14 08:39:13</t>
+          <t>2025-04-16 09:22:22</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-04-14 13:36:19</t>
+          <t>2025-04-17 07:07:35</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>16340</v>
+        <v>24510</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2558,41 +2555,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251280</v>
+        <v>251166</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30.5</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
-        <v>346.6</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-04-14 13:36:19</t>
+          <t>2025-04-17 07:07:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-04-14 14:06:49</t>
+          <t>2025-04-17 07:42:35</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-04-14 14:06:49</t>
+          <t>2025-04-17 07:42:35</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-04-15 11:53:25</t>
+          <t>2025-04-17 11:32:43</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>19063</v>
+        <v>16340</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2616,41 +2613,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251442</v>
+        <v>245623</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>297.0909090909091</v>
+        <v>382.8840579710145</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-04-15 11:53:25</t>
+          <t>2025-04-10 07:22:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-04-15 12:23:55</t>
+          <t>2025-04-10 07:47:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-04-15 12:23:55</t>
+          <t>2025-04-10 07:47:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-04-16 09:21:00</t>
+          <t>2025-04-10 14:09:53</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>16340</v>
+        <v>26419</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2659,56 +2656,53 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251285</v>
+        <v>250479</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D40" t="n">
-        <v>950.344262295082</v>
+        <v>238.6521739130435</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-04-10 14:33:00</t>
+          <t>2025-04-10 14:09:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-04-11 08:33:00</t>
+          <t>2025-04-10 14:54:53</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-04-11 08:33:00</t>
+          <t>2025-04-10 14:54:53</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-04-15 08:23:20</t>
+          <t>2025-04-11 10:53:32</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>57971</v>
+        <v>16467</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2717,11 +2711,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -2729,41 +2723,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>250497</v>
+        <v>251025</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
-        <v>267.4647887323944</v>
+        <v>60.39130434782609</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-04-10 10:00:00</t>
+          <t>2025-04-11 10:53:32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-04-10 10:46:00</t>
+          <t>2025-04-11 11:28:32</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-04-10 10:46:00</t>
+          <t>2025-04-11 11:28:32</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-04-11 07:13:27</t>
+          <t>2025-04-11 12:28:55</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>18990</v>
+        <v>4167</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2772,53 +2766,56 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>245089</v>
+        <v>250866</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>1727.676056338028</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-04-11 07:13:27</t>
+          <t>2025-04-11 12:28:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-04-11 07:28:27</t>
+          <t>2025-04-11 13:08:55</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-04-11 07:28:27</t>
+          <t>2025-04-11 13:08:55</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-04-16 12:16:08</t>
+          <t>2025-04-11 14:23:04</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>122665</v>
+        <v>5116</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2827,53 +2824,56 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>250986</v>
+        <v>251094</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="D43" t="n">
-        <v>282.7183098591549</v>
+        <v>195.6086956521739</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-04-10 13:25:00</t>
+          <t>2025-04-11 14:23:04</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-04-11 08:57:00</t>
+          <t>2025-04-14 07:03:04</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-04-11 08:57:00</t>
+          <t>2025-04-14 07:03:04</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-04-11 13:39:43</t>
+          <t>2025-04-14 10:18:40</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>20073</v>
+        <v>13497</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2882,56 +2882,56 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251109</v>
+        <v>251346</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="D44" t="n">
-        <v>266.5915492957747</v>
+        <v>55.92753623188405</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-04-11 13:39:43</t>
+          <t>2025-04-14 10:18:40</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-04-14 07:54:43</t>
+          <t>2025-04-14 11:08:40</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-04-14 07:54:43</t>
+          <t>2025-04-14 11:08:40</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-04-14 12:21:18</t>
+          <t>2025-04-14 12:04:36</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>18928</v>
+        <v>3859</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2940,22 +2940,22 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251025</v>
+        <v>251522</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2963,33 +2963,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D45" t="n">
-        <v>60.39130434782609</v>
+        <v>566.6811594202899</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-04-10 07:22:00</t>
+          <t>2025-04-14 12:04:36</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-04-10 07:57:00</t>
+          <t>2025-04-14 12:59:36</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-04-10 07:57:00</t>
+          <t>2025-04-14 12:59:36</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-04-10 08:57:23</t>
+          <t>2025-04-15 14:26:17</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4167</v>
+        <v>39101</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3002,13 +3002,13 @@
         </is>
       </c>
       <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>70</v>
+      </c>
+      <c r="N45" t="n">
         <v>3</v>
-      </c>
-      <c r="M45" t="n">
-        <v>70</v>
-      </c>
-      <c r="N45" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="46">

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,41 +512,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>250478</v>
+        <v>250855</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>58.92957746478874</v>
+        <v>443.890625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-04-10 14:19:00</t>
+          <t>2025-04-10 09:44:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-04-10 14:49:00</t>
+          <t>2025-04-10 10:14:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-04-10 14:49:00</t>
+          <t>2025-04-10 10:14:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-04-11 07:47:55</t>
+          <t>2025-04-11 09:37:53</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4184</v>
+        <v>28409</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -567,41 +567,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250855</v>
+        <v>250637</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>400.1267605633803</v>
+        <v>585.578125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-11 07:47:55</t>
+          <t>2025-04-11 09:37:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-11 08:06:55</t>
+          <t>2025-04-11 09:58:53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-11 08:06:55</t>
+          <t>2025-04-11 09:58:53</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-11 14:47:03</t>
+          <t>2025-04-14 11:44:28</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>28409</v>
+        <v>37477</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -610,11 +610,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -622,41 +622,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251150</v>
+        <v>250780</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>639.4366197183099</v>
+        <v>408.3125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-11 14:47:03</t>
+          <t>2025-04-14 11:44:28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-14 07:18:03</t>
+          <t>2025-04-14 12:07:28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-14 07:18:03</t>
+          <t>2025-04-14 12:07:28</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-15 09:57:29</t>
+          <t>2025-04-15 10:55:46</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>45400</v>
+        <v>26132</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -669,15 +669,18 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250637</v>
+        <v>250478</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -685,33 +688,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>527.8450704225352</v>
+        <v>58.92957746478874</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-15 09:57:29</t>
+          <t>2025-04-10 14:19:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-15 10:22:29</t>
+          <t>2025-04-10 14:49:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-15 10:22:29</t>
+          <t>2025-04-10 14:49:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-16 11:10:20</t>
+          <t>2025-04-11 07:47:55</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>37477</v>
+        <v>4184</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -720,11 +723,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -732,7 +735,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251235</v>
+        <v>251550</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -740,33 +743,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>80.83098591549296</v>
+        <v>502.1267605633803</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-16 11:10:20</t>
+          <t>2025-04-11 07:47:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-16 11:27:20</t>
+          <t>2025-04-11 08:06:55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-16 11:27:20</t>
+          <t>2025-04-11 08:06:55</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-16 12:48:10</t>
+          <t>2025-04-14 08:29:03</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5739</v>
+        <v>35651</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -779,15 +782,18 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>250635</v>
+        <v>251150</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -795,33 +801,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>131.9577464788732</v>
+        <v>639.4366197183099</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-16 12:48:10</t>
+          <t>2025-04-14 08:29:03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-16 13:05:10</t>
+          <t>2025-04-14 09:00:03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-16 13:05:10</t>
+          <t>2025-04-14 09:00:03</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-17 07:17:07</t>
+          <t>2025-04-15 11:39:29</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>9369</v>
+        <v>45400</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -830,11 +836,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -842,41 +848,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250307</v>
+        <v>251235</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36.5</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>170.1636363636364</v>
+        <v>80.83098591549296</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-10 10:41:00</t>
+          <t>2025-04-15 11:39:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-10 11:17:30</t>
+          <t>2025-04-15 12:06:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-10 11:17:30</t>
+          <t>2025-04-15 12:06:29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-10 14:07:39</t>
+          <t>2025-04-15 13:27:19</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9359</v>
+        <v>5739</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -889,7 +895,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -897,41 +903,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251015</v>
+        <v>250635</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>231.1272727272727</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-10 14:07:39</t>
+          <t>2025-04-15 13:27:19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-10 14:40:09</t>
+          <t>2025-04-15 13:44:19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-10 14:40:09</t>
+          <t>2025-04-15 13:44:19</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-11 10:31:17</t>
+          <t>2025-04-16 07:56:16</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12712</v>
+        <v>9369</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -940,11 +946,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -952,41 +958,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>250209</v>
+        <v>243335</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>144.1818181818182</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-11 10:31:17</t>
+          <t>2025-04-16 07:56:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-11 11:07:47</t>
+          <t>2025-04-16 08:30:16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-11 11:07:47</t>
+          <t>2025-04-16 08:30:16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-11 13:31:58</t>
+          <t>2025-04-17 08:15:07</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7930</v>
+        <v>33004</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -995,56 +1001,56 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>152</v>
+      </c>
+      <c r="N10" t="n">
         <v>6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251280</v>
+        <v>251402</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>346.6</v>
+        <v>139.5774647887324</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-11 13:31:58</t>
+          <t>2025-04-17 08:15:07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-11 14:04:28</t>
+          <t>2025-04-17 08:47:07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-11 14:04:28</t>
+          <t>2025-04-17 08:47:07</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-14 11:51:04</t>
+          <t>2025-04-17 11:06:42</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>19063</v>
+        <v>9910</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1053,56 +1059,56 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251285</v>
+        <v>250307</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>120</v>
+        <v>36.5</v>
       </c>
       <c r="D12" t="n">
-        <v>950.344262295082</v>
+        <v>170.1636363636364</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-10 14:33:00</t>
+          <t>2025-04-10 10:41:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-11 08:33:00</t>
+          <t>2025-04-10 11:17:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-11 08:33:00</t>
+          <t>2025-04-10 11:17:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-04-15 08:23:20</t>
+          <t>2025-04-10 14:07:39</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>57971</v>
+        <v>9359</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1115,7 +1121,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1123,41 +1129,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250497</v>
+        <v>251015</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>32.5</v>
       </c>
       <c r="D13" t="n">
-        <v>267.4647887323944</v>
+        <v>231.1272727272727</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-10 10:00:00</t>
+          <t>2025-04-10 14:07:39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-10 10:46:00</t>
+          <t>2025-04-10 14:40:09</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-04-10 10:46:00</t>
+          <t>2025-04-10 14:40:09</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-04-11 07:13:27</t>
+          <t>2025-04-11 10:31:17</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>18990</v>
+        <v>12712</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1166,53 +1172,53 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>245089</v>
+        <v>235572</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D14" t="n">
-        <v>1727.676056338028</v>
+        <v>181.0545454545455</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-11 07:13:27</t>
+          <t>2025-04-11 10:31:17</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-11 07:28:27</t>
+          <t>2025-04-11 11:05:47</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-11 07:28:27</t>
+          <t>2025-04-11 11:05:47</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-16 12:16:08</t>
+          <t>2025-04-11 14:06:50</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>122665</v>
+        <v>9958</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1221,53 +1227,56 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250856</v>
+        <v>251088</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>117</v>
+        <v>34.5</v>
       </c>
       <c r="D15" t="n">
-        <v>309.2244897959184</v>
+        <v>112.4545454545455</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-10 07:18:00</t>
+          <t>2025-04-11 14:06:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-10 09:15:00</t>
+          <t>2025-04-11 14:41:20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-10 09:15:00</t>
+          <t>2025-04-11 14:41:20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-10 14:24:13</t>
+          <t>2025-04-14 08:33:48</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>15152</v>
+        <v>6185</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1285,44 +1294,47 @@
       <c r="M15" t="n">
         <v>70</v>
       </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251134</v>
+        <v>251097</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>30.5</v>
       </c>
       <c r="D16" t="n">
-        <v>89.73469387755102</v>
+        <v>315.6545454545454</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-10 14:24:13</t>
+          <t>2025-04-14 08:33:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-11 07:14:13</t>
+          <t>2025-04-14 09:04:18</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-11 07:14:13</t>
+          <t>2025-04-14 09:04:18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:57</t>
+          <t>2025-04-14 14:19:57</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4397</v>
+        <v>17361</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1335,49 +1347,52 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>244023</v>
+        <v>251281</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="D17" t="n">
-        <v>20.3469387755102</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:57</t>
+          <t>2025-04-14 14:19:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-11 09:18:57</t>
+          <t>2025-04-14 14:58:27</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-11 09:18:57</t>
+          <t>2025-04-14 14:58:27</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-11 09:39:18</t>
+          <t>2025-04-15 11:55:32</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>997</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1386,56 +1401,56 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>250208</v>
+        <v>251280</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>30.5</v>
       </c>
       <c r="D18" t="n">
-        <v>161.8367346938776</v>
+        <v>346.6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-11 09:39:18</t>
+          <t>2025-04-15 11:55:32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-11 10:14:18</t>
+          <t>2025-04-15 12:26:02</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-11 10:14:18</t>
+          <t>2025-04-15 12:26:02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-04-11 12:56:08</t>
+          <t>2025-04-16 10:12:38</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>7930</v>
+        <v>19063</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1444,56 +1459,56 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>250966</v>
+        <v>251442</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>47</v>
+        <v>30.5</v>
       </c>
       <c r="D19" t="n">
-        <v>122.2676056338028</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-10 13:25:00</t>
+          <t>2025-04-16 10:12:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-10 14:12:00</t>
+          <t>2025-04-16 10:43:08</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-10 14:12:00</t>
+          <t>2025-04-16 10:43:08</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-11 08:14:16</t>
+          <t>2025-04-17 07:40:14</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>8681</v>
+        <v>16340</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1502,53 +1517,56 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251519</v>
+        <v>251285</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D20" t="n">
-        <v>185.5633802816901</v>
+        <v>950.344262295082</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-11 08:14:16</t>
+          <t>2025-04-10 14:33:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-11 08:54:16</t>
+          <t>2025-04-11 08:33:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-11 08:54:16</t>
+          <t>2025-04-11 08:33:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-11 11:59:49</t>
+          <t>2025-04-15 08:23:20</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13175</v>
+        <v>57971</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1561,7 +1579,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1569,41 +1587,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251281</v>
+        <v>250497</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D21" t="n">
-        <v>230.1408450704225</v>
+        <v>267.4647887323944</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-11 11:59:49</t>
+          <t>2025-04-10 10:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-11 12:59:49</t>
+          <t>2025-04-10 10:46:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-11 12:59:49</t>
+          <t>2025-04-10 10:46:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-14 08:49:58</t>
+          <t>2025-04-11 07:13:27</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>16340</v>
+        <v>18990</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1612,56 +1630,53 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>245623</v>
+        <v>245089</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>382.8840579710145</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-10 07:22:00</t>
+          <t>2025-04-11 07:13:27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-10 07:47:00</t>
+          <t>2025-04-11 07:28:27</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-10 07:47:00</t>
+          <t>2025-04-11 07:28:27</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-10 14:09:53</t>
+          <t>2025-04-16 12:16:08</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>26419</v>
+        <v>122665</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1674,65 +1689,1384 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>250856</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>117</v>
+      </c>
+      <c r="D23" t="n">
+        <v>309.2244897959184</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:18:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-04-10 09:15:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-04-10 09:15:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:24:13</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>15152</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251134</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>50</v>
+      </c>
+      <c r="D24" t="n">
+        <v>89.73469387755102</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:24:13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:14:13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:14:13</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:43:57</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>4397</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20.3469387755102</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:43:57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-04-11 09:18:57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-04-11 09:18:57</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-04-11 09:39:18</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>997</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>245413</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>50</v>
+      </c>
+      <c r="D26" t="n">
+        <v>102.0408163265306</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-04-11 09:39:18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-04-11 10:29:18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-04-11 10:29:18</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:11:20</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>70</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>251033</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>40</v>
+      </c>
+      <c r="D27" t="n">
+        <v>125.4285714285714</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:11:20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:51:20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:51:20</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-04-11 14:56:46</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>6146</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>70</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>251100</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>45</v>
+      </c>
+      <c r="D28" t="n">
+        <v>95.12244897959184</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-04-11 14:56:46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-04-14 07:41:46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-04-14 07:41:46</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-04-14 09:16:53</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>4661</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>70</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>251327</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>35</v>
+      </c>
+      <c r="D29" t="n">
+        <v>341.7142857142857</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-04-14 09:16:53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-04-14 09:51:53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-04-14 09:51:53</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-04-15 07:33:36</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>16744</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>70</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>250966</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>47</v>
+      </c>
+      <c r="D30" t="n">
+        <v>122.2676056338028</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-04-10 13:25:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:12:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:12:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:14:16</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>8681</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>251519</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>40</v>
+      </c>
+      <c r="D31" t="n">
+        <v>185.5633802816901</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:14:16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:54:16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:54:16</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-04-11 11:59:49</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>13175</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>251129</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>52</v>
+      </c>
+      <c r="D32" t="n">
+        <v>101.3098591549296</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-04-11 11:59:49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:51:49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:51:49</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-04-11 14:33:08</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>7193</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>76</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>251204</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>52</v>
+      </c>
+      <c r="D33" t="n">
+        <v>107.9295774647887</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-04-11 14:33:08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-04-14 07:25:08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-04-14 07:25:08</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-04-14 09:13:04</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>7663</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>70</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>250986</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>205</v>
+      </c>
+      <c r="D34" t="n">
+        <v>282.7183098591549</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-04-14 09:13:04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-04-14 12:38:04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-04-14 12:38:04</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-04-15 09:20:47</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>20073</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>36</v>
+      </c>
+      <c r="M34" t="n">
+        <v>70</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>251109</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>135</v>
+      </c>
+      <c r="D35" t="n">
+        <v>266.5915492957747</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-04-15 09:20:47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:35:47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-04-15 11:35:47</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-04-16 08:02:22</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>18928</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>16</v>
+      </c>
+      <c r="M35" t="n">
+        <v>70</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>251427</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>80</v>
+      </c>
+      <c r="D36" t="n">
+        <v>345.2112676056338</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-04-16 08:02:22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:22:22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:22:22</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-04-17 07:07:35</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>24510</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>7</v>
+      </c>
+      <c r="M36" t="n">
+        <v>70</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>251166</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>230.1408450704225</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-04-17 07:07:35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-04-17 07:42:35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-04-17 07:42:35</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-04-17 11:32:43</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>7</v>
+      </c>
+      <c r="M37" t="n">
+        <v>70</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>245623</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>25</v>
+      </c>
+      <c r="D38" t="n">
+        <v>382.8840579710145</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:22:00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:47:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:47:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-04-10 14:09:53</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>26419</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
         <v>250479</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C39" t="n">
         <v>45</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D39" t="n">
         <v>238.6521739130435</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2025-04-10 14:09:53</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2025-04-10 14:54:53</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>2025-04-10 14:54:53</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>2025-04-11 10:53:32</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="I39" t="n">
         <v>16467</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
-      <c r="L23" t="n">
+      <c r="L39" t="n">
         <v>5</v>
       </c>
-      <c r="M23" t="n">
-        <v>70</v>
+      <c r="M39" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="n">
+        <v>37.69565217391305</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-04-11 10:53:32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-04-11 11:33:32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-04-11 11:33:32</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:11:13</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>2601</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>76</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>251025</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>30</v>
+      </c>
+      <c r="D41" t="n">
+        <v>60.39130434782609</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:11:13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:41:13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-04-11 12:41:13</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-04-11 13:41:37</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>4167</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>70</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>250866</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>74.14492753623189</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-04-11 13:41:37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-04-11 14:21:37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-04-11 14:21:37</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-04-14 07:35:46</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>5116</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>70</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>251094</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" t="n">
+        <v>195.6086956521739</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-04-14 07:35:46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-04-14 08:15:46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-04-14 08:15:46</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-04-14 11:31:22</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>13497</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>152</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>251346</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>50</v>
+      </c>
+      <c r="D44" t="n">
+        <v>55.92753623188405</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-04-14 11:31:22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-04-14 12:21:22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-04-14 12:21:22</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-04-14 13:17:18</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>3859</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>8</v>
+      </c>
+      <c r="M44" t="n">
+        <v>70</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>251522</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>55</v>
+      </c>
+      <c r="D45" t="n">
+        <v>566.6811594202899</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-04-14 13:17:18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-04-14 14:12:18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-04-14 14:12:18</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-04-16 07:38:59</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>39101</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>70</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>251614</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10.41269841269841</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:58:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:58:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-04-10 07:58:00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2025-04-10 08:08:24</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>656</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>T1 ;T2 ;T8</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>250855</v>
+        <v>251015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -520,33 +520,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>443.890625</v>
+        <v>198.625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-04-10 09:44:00</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-04-10 10:14:00</t>
+          <t>2025-04-28 07:32:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-04-10 10:14:00</t>
+          <t>2025-04-28 07:32:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-04-11 09:37:53</t>
+          <t>2025-04-28 10:50:37</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>28409</v>
+        <v>12712</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250637</v>
+        <v>235572</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -575,33 +575,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>585.578125</v>
+        <v>155.59375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-11 09:37:53</t>
+          <t>2025-04-28 10:50:37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-11 09:58:53</t>
+          <t>2025-04-28 11:09:37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-11 09:58:53</t>
+          <t>2025-04-28 11:09:37</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-14 11:44:28</t>
+          <t>2025-04-28 13:45:13</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>37477</v>
+        <v>9958</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -610,19 +610,22 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250780</v>
+        <v>251094</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -630,33 +633,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>408.3125</v>
+        <v>210.890625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-14 11:44:28</t>
+          <t>2025-04-28 13:45:13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-14 12:07:28</t>
+          <t>2025-04-28 14:17:13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-14 12:07:28</t>
+          <t>2025-04-28 14:17:13</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-15 10:55:46</t>
+          <t>2025-04-29 09:48:06</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>26132</v>
+        <v>13497</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -665,14 +668,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
@@ -680,41 +683,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250478</v>
+        <v>250780</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>58.92957746478874</v>
+        <v>408.3125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-10 14:19:00</t>
+          <t>2025-04-29 09:48:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-10 14:49:00</t>
+          <t>2025-04-29 10:30:06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-10 14:49:00</t>
+          <t>2025-04-29 10:30:06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-11 07:47:55</t>
+          <t>2025-04-30 09:18:25</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4184</v>
+        <v>26132</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -723,53 +726,56 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251550</v>
+        <v>250479</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>502.1267605633803</v>
+        <v>269.9508196721312</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-11 07:47:55</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-11 08:06:55</t>
+          <t>2025-04-28 07:44:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-11 08:06:55</t>
+          <t>2025-04-28 07:44:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-14 08:29:03</t>
+          <t>2025-04-28 12:13:57</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>35651</v>
+        <v>16467</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -778,56 +784,53 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251150</v>
+        <v>243569</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>639.4366197183099</v>
+        <v>42.63934426229508</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-14 08:29:03</t>
+          <t>2025-04-28 12:13:57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-14 09:00:03</t>
+          <t>2025-04-28 12:57:57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-14 09:00:03</t>
+          <t>2025-04-28 12:57:57</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-15 11:39:29</t>
+          <t>2025-04-28 13:40:35</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>45400</v>
+        <v>2601</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -836,53 +839,56 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251235</v>
+        <v>251129</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>80.83098591549296</v>
+        <v>117.9180327868852</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-15 11:39:29</t>
+          <t>2025-04-28 13:40:35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-15 12:06:29</t>
+          <t>2025-04-28 14:09:35</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-15 12:06:29</t>
+          <t>2025-04-28 14:09:35</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-15 13:27:19</t>
+          <t>2025-04-29 08:07:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5739</v>
+        <v>7193</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -891,19 +897,22 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>250635</v>
+        <v>250478</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -911,33 +920,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>131.9577464788732</v>
+        <v>58.92957746478874</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-15 13:27:19</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-15 13:44:19</t>
+          <t>2025-04-28 07:36:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-15 13:44:19</t>
+          <t>2025-04-28 07:36:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-16 07:56:16</t>
+          <t>2025-04-28 08:34:55</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9369</v>
+        <v>4184</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -946,11 +955,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -958,7 +967,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>243335</v>
+        <v>250635</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -966,33 +975,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>464.8450704225352</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-16 07:56:16</t>
+          <t>2025-04-28 08:34:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-16 08:30:16</t>
+          <t>2025-04-28 08:51:55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-16 08:30:16</t>
+          <t>2025-04-28 08:51:55</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-17 08:15:07</t>
+          <t>2025-04-28 11:03:53</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>33004</v>
+        <v>9369</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1001,22 +1010,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>152</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251402</v>
+        <v>243335</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1024,33 +1030,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>139.5774647887324</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-17 08:15:07</t>
+          <t>2025-04-28 11:03:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-17 08:47:07</t>
+          <t>2025-04-28 11:37:53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-17 08:47:07</t>
+          <t>2025-04-28 11:37:53</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-17 11:06:42</t>
+          <t>2025-04-29 11:22:43</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>9910</v>
+        <v>33004</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1059,56 +1065,56 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250307</v>
+        <v>251522</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36.5</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
-        <v>170.1636363636364</v>
+        <v>550.7183098591549</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-10 10:41:00</t>
+          <t>2025-04-29 11:22:43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-10 11:17:30</t>
+          <t>2025-04-29 11:56:43</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-10 11:17:30</t>
+          <t>2025-04-29 11:56:43</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-04-10 14:07:39</t>
+          <t>2025-04-30 13:07:27</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>9359</v>
+        <v>39101</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1126,10 +1132,13 @@
       <c r="M12" t="n">
         <v>70</v>
       </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251015</v>
+        <v>251327</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1140,30 +1149,30 @@
         <v>32.5</v>
       </c>
       <c r="D13" t="n">
-        <v>231.1272727272727</v>
+        <v>304.4363636363636</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-10 14:07:39</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-10 14:40:09</t>
+          <t>2025-04-28 07:32:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-04-10 14:40:09</t>
+          <t>2025-04-28 07:32:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-04-11 10:31:17</t>
+          <t>2025-04-28 12:36:56</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12712</v>
+        <v>16744</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1176,15 +1185,18 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>235572</v>
+        <v>251346</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1192,33 +1204,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34.5</v>
+        <v>38.5</v>
       </c>
       <c r="D14" t="n">
-        <v>181.0545454545455</v>
+        <v>70.16363636363636</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-11 10:31:17</t>
+          <t>2025-04-28 12:36:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-11 11:05:47</t>
+          <t>2025-04-28 13:15:26</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-11 11:05:47</t>
+          <t>2025-04-28 13:15:26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-11 14:06:50</t>
+          <t>2025-04-28 14:25:36</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>9958</v>
+        <v>3859</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1227,11 +1239,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1242,7 +1254,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251088</v>
+        <v>250866</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1253,30 +1265,30 @@
         <v>34.5</v>
       </c>
       <c r="D15" t="n">
-        <v>112.4545454545455</v>
+        <v>93.01818181818182</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-11 14:06:50</t>
+          <t>2025-04-28 14:25:36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-11 14:41:20</t>
+          <t>2025-04-29 07:00:06</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-11 14:41:20</t>
+          <t>2025-04-29 07:00:06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-14 08:33:48</t>
+          <t>2025-04-29 08:33:07</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6185</v>
+        <v>5116</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1289,7 +1301,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1300,7 +1312,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251097</v>
+        <v>251402</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1308,33 +1320,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D16" t="n">
-        <v>315.6545454545454</v>
+        <v>180.1818181818182</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-14 08:33:48</t>
+          <t>2025-04-29 08:33:07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-14 09:04:18</t>
+          <t>2025-04-29 09:05:37</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-14 09:04:18</t>
+          <t>2025-04-29 09:05:37</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-14 14:19:57</t>
+          <t>2025-04-29 12:05:48</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>17361</v>
+        <v>9910</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1347,18 +1359,18 @@
         </is>
       </c>
       <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>70</v>
+      </c>
+      <c r="N16" t="n">
         <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251281</v>
+        <v>251235</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1366,33 +1378,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>38.5</v>
+        <v>30.5</v>
       </c>
       <c r="D17" t="n">
-        <v>297.0909090909091</v>
+        <v>104.3454545454545</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-14 14:19:57</t>
+          <t>2025-04-29 12:05:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-14 14:58:27</t>
+          <t>2025-04-29 12:36:18</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-14 14:58:27</t>
+          <t>2025-04-29 12:36:18</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-15 11:55:32</t>
+          <t>2025-04-29 14:20:38</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>5739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1401,22 +1413,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251280</v>
+        <v>250637</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1424,33 +1433,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D18" t="n">
-        <v>346.6</v>
+        <v>681.4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-15 11:55:32</t>
+          <t>2025-04-29 14:20:38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-15 12:26:02</t>
+          <t>2025-04-29 14:53:08</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-15 12:26:02</t>
+          <t>2025-04-29 14:53:08</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-04-16 10:12:38</t>
+          <t>2025-05-01 10:14:32</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>19063</v>
+        <v>37477</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1459,56 +1468,53 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251442</v>
+        <v>250856</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>297.0909090909091</v>
+        <v>248.3934426229508</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-16 10:12:38</t>
+          <t>2025-04-24 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-16 10:43:08</t>
+          <t>2025-04-24 07:25:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-16 10:43:08</t>
+          <t>2025-04-24 07:25:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-17 07:40:14</t>
+          <t>2025-04-24 11:33:23</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>16340</v>
+        <v>15152</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1517,22 +1523,19 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251285</v>
+        <v>250855</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1540,33 +1543,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>950.344262295082</v>
+        <v>465.7213114754098</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-10 14:33:00</t>
+          <t>2025-04-24 11:33:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-11 08:33:00</t>
+          <t>2025-04-24 11:53:23</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-11 08:33:00</t>
+          <t>2025-04-24 11:53:23</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-15 08:23:20</t>
+          <t>2025-04-25 11:39:06</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>57971</v>
+        <v>28409</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1579,7 +1582,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1587,41 +1590,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250497</v>
+        <v>250307</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>267.4647887323944</v>
+        <v>153.4262295081967</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-10 10:00:00</t>
+          <t>2025-04-25 11:39:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-10 10:46:00</t>
+          <t>2025-04-25 12:04:06</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-10 10:46:00</t>
+          <t>2025-04-25 12:04:06</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-11 07:13:27</t>
+          <t>2025-04-25 14:37:32</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>18990</v>
+        <v>9359</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1630,53 +1633,53 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>245089</v>
+        <v>250966</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>1727.676056338028</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-11 07:13:27</t>
+          <t>2025-04-25 14:37:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-11 07:28:27</t>
+          <t>2025-04-28 07:02:32</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-11 07:28:27</t>
+          <t>2025-04-28 07:02:32</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-16 12:16:08</t>
+          <t>2025-04-28 09:24:51</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>122665</v>
+        <v>8681</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1685,53 +1688,53 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250856</v>
+        <v>251088</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>309.2244897959184</v>
+        <v>101.3934426229508</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-10 07:18:00</t>
+          <t>2025-04-28 09:24:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-04-10 09:15:00</t>
+          <t>2025-04-28 09:44:51</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-04-10 09:15:00</t>
+          <t>2025-04-28 09:44:51</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-04-10 14:24:13</t>
+          <t>2025-04-28 11:26:14</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>15152</v>
+        <v>6185</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1749,44 +1752,47 @@
       <c r="M23" t="n">
         <v>70</v>
       </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251134</v>
+        <v>251204</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>89.73469387755102</v>
+        <v>125.6229508196721</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-10 14:24:13</t>
+          <t>2025-04-28 11:26:14</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-04-11 07:14:13</t>
+          <t>2025-04-28 11:51:14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-04-11 07:14:13</t>
+          <t>2025-04-28 11:51:14</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:57</t>
+          <t>2025-04-28 13:56:52</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>4397</v>
+        <v>7663</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1799,49 +1805,52 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>244023</v>
+        <v>251550</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>20.3469387755102</v>
+        <v>584.4426229508197</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-11 08:43:57</t>
+          <t>2025-04-28 13:56:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-04-11 09:18:57</t>
+          <t>2025-04-28 14:21:52</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-04-11 09:18:57</t>
+          <t>2025-04-28 14:21:52</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-04-11 09:39:18</t>
+          <t>2025-04-30 08:06:18</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>997</v>
+        <v>35651</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1854,52 +1863,52 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>245413</v>
+        <v>245623</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>102.0408163265306</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-11 09:39:18</t>
+          <t>2025-04-24 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-04-11 10:29:18</t>
+          <t>2025-04-24 07:34:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-04-11 10:29:18</t>
+          <t>2025-04-24 07:34:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-04-11 12:11:20</t>
+          <t>2025-04-24 13:46:05</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5000</v>
+        <v>26419</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1908,56 +1917,53 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251033</v>
+        <v>250497</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>125.4285714285714</v>
+        <v>267.4647887323944</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-11 12:11:20</t>
+          <t>2025-04-24 13:46:05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-04-11 12:51:20</t>
+          <t>2025-04-24 14:20:05</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-04-11 12:51:20</t>
+          <t>2025-04-24 14:20:05</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-04-11 14:56:46</t>
+          <t>2025-04-25 10:47:33</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6146</v>
+        <v>18990</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1966,56 +1972,53 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251100</v>
+        <v>245089</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>95.12244897959184</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-11 14:56:46</t>
+          <t>2025-04-25 10:47:33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-04-14 07:41:46</t>
+          <t>2025-04-25 11:02:33</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-04-14 07:41:46</t>
+          <t>2025-04-25 11:02:33</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-04-14 09:16:53</t>
+          <t>2025-05-01 07:50:14</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4661</v>
+        <v>122665</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2024,22 +2027,19 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
-      </c>
-      <c r="N28" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251327</v>
+        <v>251134</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2047,33 +2047,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D29" t="n">
-        <v>341.7142857142857</v>
+        <v>89.73469387755102</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-14 09:16:53</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-04-14 09:51:53</t>
+          <t>2025-04-28 07:52:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-04-14 09:51:53</t>
+          <t>2025-04-28 07:52:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-04-15 07:33:36</t>
+          <t>2025-04-28 09:21:44</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>16744</v>
+        <v>4397</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2086,52 +2086,49 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
-      </c>
-      <c r="N29" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250966</v>
+        <v>251519</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D30" t="n">
-        <v>122.2676056338028</v>
+        <v>268.8775510204082</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-10 13:25:00</t>
+          <t>2025-04-28 09:21:44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-04-10 14:12:00</t>
+          <t>2025-04-28 10:16:44</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-04-10 14:12:00</t>
+          <t>2025-04-28 10:16:44</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-04-11 08:14:16</t>
+          <t>2025-04-28 14:45:36</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>8681</v>
+        <v>13175</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2144,7 +2141,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2152,7 +2149,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251519</v>
+        <v>251150</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2163,30 +2160,30 @@
         <v>40</v>
       </c>
       <c r="D31" t="n">
-        <v>185.5633802816901</v>
+        <v>639.4366197183099</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-04-11 08:14:16</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-04-11 08:54:16</t>
+          <t>2025-04-28 07:40:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-04-11 08:54:16</t>
+          <t>2025-04-28 07:40:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-04-11 11:59:49</t>
+          <t>2025-04-29 10:19:26</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>13175</v>
+        <v>45400</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2195,11 +2192,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2207,7 +2204,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251129</v>
+        <v>250986</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2215,33 +2212,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="D32" t="n">
-        <v>101.3098591549296</v>
+        <v>282.7183098591549</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-04-11 11:59:49</t>
+          <t>2025-04-29 10:19:26</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-04-11 12:51:49</t>
+          <t>2025-04-29 12:59:26</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-04-11 12:51:49</t>
+          <t>2025-04-29 12:59:26</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-04-11 14:33:08</t>
+          <t>2025-04-30 09:42:09</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>7193</v>
+        <v>20073</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2250,22 +2247,22 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251204</v>
+        <v>251109</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2273,33 +2270,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="D33" t="n">
-        <v>107.9295774647887</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-04-11 14:33:08</t>
+          <t>2025-04-30 09:42:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-04-14 07:25:08</t>
+          <t>2025-04-30 11:57:09</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-04-14 07:25:08</t>
+          <t>2025-04-30 11:57:09</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-04-14 09:13:04</t>
+          <t>2025-05-01 08:23:44</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>7663</v>
+        <v>18928</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2308,56 +2305,56 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>250986</v>
+        <v>251285</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
-        <v>282.7183098591549</v>
+        <v>840.1594202898551</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-04-14 09:13:04</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-04-14 12:38:04</t>
+          <t>2025-04-28 07:35:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-04-14 12:38:04</t>
+          <t>2025-04-28 07:35:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-04-15 09:20:47</t>
+          <t>2025-04-29 13:35:09</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>20073</v>
+        <v>57971</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2366,706 +2363,71 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251109</v>
+        <v>251614</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>266.5915492957747</v>
+        <v>10.41269841269841</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-04-15 09:20:47</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-04-15 11:35:47</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-04-15 11:35:47</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-04-16 08:02:22</t>
+          <t>2025-04-28 07:10:24</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>18928</v>
+        <v>656</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>251427</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>80</v>
-      </c>
-      <c r="D36" t="n">
-        <v>345.2112676056338</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2025-04-16 08:02:22</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2025-04-16 09:22:22</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2025-04-16 09:22:22</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-04-17 07:07:35</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>24510</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>CASON ;R6</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>7</v>
-      </c>
-      <c r="M36" t="n">
-        <v>70</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>251166</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>35</v>
-      </c>
-      <c r="D37" t="n">
-        <v>230.1408450704225</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2025-04-17 07:07:35</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2025-04-17 07:42:35</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2025-04-17 07:42:35</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-04-17 11:32:43</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>16340</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>CASON ;R6</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>7</v>
-      </c>
-      <c r="M37" t="n">
-        <v>70</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>245623</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>25</v>
-      </c>
-      <c r="D38" t="n">
-        <v>382.8840579710145</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:22:00</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:47:00</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:47:00</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-04-10 14:09:53</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>26419</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>2</v>
-      </c>
-      <c r="M38" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>250479</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>45</v>
-      </c>
-      <c r="D39" t="n">
-        <v>238.6521739130435</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2025-04-10 14:09:53</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2025-04-10 14:54:53</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2025-04-10 14:54:53</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-04-11 10:53:32</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>16467</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>5</v>
-      </c>
-      <c r="M39" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>243569</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>40</v>
-      </c>
-      <c r="D40" t="n">
-        <v>37.69565217391305</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2025-04-11 10:53:32</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2025-04-11 11:33:32</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2025-04-11 11:33:32</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-04-11 12:11:13</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>2601</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>3</v>
-      </c>
-      <c r="M40" t="n">
-        <v>76</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>251025</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>30</v>
-      </c>
-      <c r="D41" t="n">
-        <v>60.39130434782609</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2025-04-11 12:11:13</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2025-04-11 12:41:13</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2025-04-11 12:41:13</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-04-11 13:41:37</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>4167</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>3</v>
-      </c>
-      <c r="M41" t="n">
-        <v>70</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>250866</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>40</v>
-      </c>
-      <c r="D42" t="n">
-        <v>74.14492753623189</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2025-04-11 13:41:37</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2025-04-11 14:21:37</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2025-04-11 14:21:37</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2025-04-14 07:35:46</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>5116</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>6</v>
-      </c>
-      <c r="M42" t="n">
-        <v>70</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>251094</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>40</v>
-      </c>
-      <c r="D43" t="n">
-        <v>195.6086956521739</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2025-04-14 07:35:46</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2025-04-14 08:15:46</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2025-04-14 08:15:46</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2025-04-14 11:31:22</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>13497</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>4</v>
-      </c>
-      <c r="M43" t="n">
-        <v>152</v>
-      </c>
-      <c r="N43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>251346</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>50</v>
-      </c>
-      <c r="D44" t="n">
-        <v>55.92753623188405</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2025-04-14 11:31:22</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2025-04-14 12:21:22</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2025-04-14 12:21:22</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2025-04-14 13:17:18</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>3859</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>8</v>
-      </c>
-      <c r="M44" t="n">
-        <v>70</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>251522</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>55</v>
-      </c>
-      <c r="D45" t="n">
-        <v>566.6811594202899</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>2025-04-14 13:17:18</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2025-04-14 14:12:18</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2025-04-14 14:12:18</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2025-04-16 07:38:59</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>39101</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>2</v>
-      </c>
-      <c r="M45" t="n">
-        <v>70</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>251614</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>10.41269841269841</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:58:00</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:58:00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2025-04-10 07:58:00</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2025-04-10 08:08:24</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>656</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
         <v>6</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251015</v>
+        <v>250994</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>198.625</v>
+        <v>59.1875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-04-28 10:50:37</t>
+          <t>2025-04-28 08:31:11</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12712</v>
+        <v>3788</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>235572</v>
+        <v>251590</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -575,33 +575,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>155.59375</v>
+        <v>301.859375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-28 10:50:37</t>
+          <t>2025-04-28 08:31:11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-28 11:09:37</t>
+          <t>2025-04-28 08:48:11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-04-28 11:09:37</t>
+          <t>2025-04-28 08:48:11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-28 13:45:13</t>
+          <t>2025-04-28 13:50:02</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>9958</v>
+        <v>19319</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -610,22 +610,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251094</v>
+        <v>250867</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -633,33 +630,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>210.890625</v>
+        <v>133.234375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-28 13:45:13</t>
+          <t>2025-04-28 13:50:02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-28 14:17:13</t>
+          <t>2025-04-28 14:05:02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-28 14:17:13</t>
+          <t>2025-04-28 14:05:02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-29 09:48:06</t>
+          <t>2025-04-29 08:18:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>13497</v>
+        <v>8527</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -668,22 +665,22 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250780</v>
+        <v>251162</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -691,33 +688,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>408.3125</v>
+        <v>97.65625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-29 09:48:06</t>
+          <t>2025-04-29 08:18:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-29 10:30:06</t>
+          <t>2025-04-29 08:39:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-29 10:30:06</t>
+          <t>2025-04-29 08:39:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-30 09:18:25</t>
+          <t>2025-04-29 10:16:56</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>26132</v>
+        <v>6250</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -726,56 +723,56 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250479</v>
+        <v>251342</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>269.9508196721312</v>
+        <v>56.296875</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-29 10:16:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-28 07:44:00</t>
+          <t>2025-04-29 10:46:56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-28 07:44:00</t>
+          <t>2025-04-29 10:46:56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-28 12:13:57</t>
+          <t>2025-04-29 11:43:14</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>16467</v>
+        <v>3603</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -784,53 +781,56 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>243569</v>
+        <v>251501</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>42.63934426229508</v>
+        <v>110.171875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-28 12:13:57</t>
+          <t>2025-04-29 11:43:14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-28 12:57:57</t>
+          <t>2025-04-29 12:13:14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-28 12:57:57</t>
+          <t>2025-04-29 12:13:14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-28 13:40:35</t>
+          <t>2025-04-29 14:03:24</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2601</v>
+        <v>7051</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -839,22 +839,22 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251129</v>
+        <v>251301</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -862,33 +862,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
-        <v>117.9180327868852</v>
+        <v>37.62295081967213</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-28 13:40:35</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-28 14:09:35</t>
+          <t>2025-04-28 07:44:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-28 14:09:35</t>
+          <t>2025-04-28 07:44:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-29 08:07:30</t>
+          <t>2025-04-28 08:21:37</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7193</v>
+        <v>2295</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -897,56 +897,53 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>250478</v>
+        <v>251371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>58.92957746478874</v>
+        <v>170.983606557377</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-28 08:21:37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-28 07:36:00</t>
+          <t>2025-04-28 08:48:37</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-28 07:36:00</t>
+          <t>2025-04-28 08:48:37</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-28 08:34:55</t>
+          <t>2025-04-28 11:39:36</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4184</v>
+        <v>10430</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -959,7 +956,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -967,41 +964,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>250635</v>
+        <v>243335</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>131.9577464788732</v>
+        <v>541.0491803278688</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-28 08:34:55</t>
+          <t>2025-04-28 11:39:36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-28 08:51:55</t>
+          <t>2025-04-28 12:19:36</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-28 08:51:55</t>
+          <t>2025-04-28 12:19:36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-28 11:03:53</t>
+          <t>2025-04-29 13:20:39</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9369</v>
+        <v>33004</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1010,19 +1007,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>152</v>
+      </c>
+      <c r="N10" t="n">
         <v>6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>243335</v>
+        <v>251300</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1030,33 +1030,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
-        <v>464.8450704225352</v>
+        <v>54.12676056338028</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-28 11:03:53</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-28 11:37:53</t>
+          <t>2025-04-28 07:36:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-28 11:37:53</t>
+          <t>2025-04-28 07:36:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-29 11:22:43</t>
+          <t>2025-04-28 08:30:07</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>33004</v>
+        <v>3843</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1065,22 +1065,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>152</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251522</v>
+        <v>251182</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1088,33 +1085,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>550.7183098591549</v>
+        <v>302.3380281690141</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-29 11:22:43</t>
+          <t>2025-04-28 08:30:07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-29 11:56:43</t>
+          <t>2025-04-28 08:47:07</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-29 11:56:43</t>
+          <t>2025-04-28 08:47:07</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-04-30 13:07:27</t>
+          <t>2025-04-28 13:49:27</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>39101</v>
+        <v>21466</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1127,52 +1124,49 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251327</v>
+        <v>243569</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>304.4363636363636</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-28 13:49:27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-28 07:32:30</t>
+          <t>2025-04-28 14:21:27</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-04-28 07:32:30</t>
+          <t>2025-04-28 14:21:27</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-04-28 12:36:56</t>
+          <t>2025-04-28 14:58:05</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>16744</v>
+        <v>2601</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1181,56 +1175,56 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251346</v>
+        <v>250991</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>38.5</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>70.16363636363636</v>
+        <v>192</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-28 12:36:56</t>
+          <t>2025-04-28 14:58:05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-28 13:15:26</t>
+          <t>2025-04-29 07:30:05</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-28 13:15:26</t>
+          <t>2025-04-29 07:30:05</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-28 14:25:36</t>
+          <t>2025-04-29 10:42:05</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3859</v>
+        <v>13632</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1243,52 +1237,52 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250866</v>
+        <v>251160</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>93.01818181818182</v>
+        <v>93.90140845070422</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-28 14:25:36</t>
+          <t>2025-04-29 10:42:05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-29 07:00:06</t>
+          <t>2025-04-29 10:59:05</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-29 07:00:06</t>
+          <t>2025-04-29 10:59:05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-29 08:33:07</t>
+          <t>2025-04-29 12:33:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5116</v>
+        <v>6667</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1301,52 +1295,52 @@
         </is>
       </c>
       <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>70</v>
+      </c>
+      <c r="N15" t="n">
         <v>6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>70</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251402</v>
+        <v>251189</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>180.1818181818182</v>
+        <v>80.47887323943662</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-29 08:33:07</t>
+          <t>2025-04-29 12:33:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-29 09:05:37</t>
+          <t>2025-04-29 12:52:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-29 09:05:37</t>
+          <t>2025-04-29 12:52:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-29 12:05:48</t>
+          <t>2025-04-29 14:12:28</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>9910</v>
+        <v>5714</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1365,12 +1359,12 @@
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251235</v>
+        <v>251304</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1378,33 +1372,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30.5</v>
+        <v>34.5</v>
       </c>
       <c r="D17" t="n">
-        <v>104.3454545454545</v>
+        <v>60.87272727272727</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-29 12:05:48</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-29 12:36:18</t>
+          <t>2025-04-28 07:34:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-29 12:36:18</t>
+          <t>2025-04-28 07:34:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-29 14:20:38</t>
+          <t>2025-04-28 08:35:22</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5739</v>
+        <v>3348</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1417,7 +1411,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1425,7 +1419,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>250637</v>
+        <v>251591</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1433,33 +1427,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D18" t="n">
-        <v>681.4</v>
+        <v>72.8</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-29 14:20:38</t>
+          <t>2025-04-28 08:35:22</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-29 14:53:08</t>
+          <t>2025-04-28 09:11:52</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-29 14:53:08</t>
+          <t>2025-04-28 09:11:52</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-01 10:14:32</t>
+          <t>2025-04-28 10:24:40</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>37477</v>
+        <v>4004</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1468,7 +1462,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1480,41 +1474,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>250856</v>
+        <v>251567</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D19" t="n">
-        <v>248.3934426229508</v>
+        <v>73.14545454545454</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-24 07:00:00</t>
+          <t>2025-04-28 10:24:40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-24 07:25:00</t>
+          <t>2025-04-28 10:59:10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-24 07:25:00</t>
+          <t>2025-04-28 10:59:10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-24 11:33:23</t>
+          <t>2025-04-28 12:12:19</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>15152</v>
+        <v>4023</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1527,7 +1521,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1535,41 +1529,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250855</v>
+        <v>244023</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>34.5</v>
       </c>
       <c r="D20" t="n">
-        <v>465.7213114754098</v>
+        <v>18.12727272727273</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-24 11:33:23</t>
+          <t>2025-04-28 12:12:19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-24 11:53:23</t>
+          <t>2025-04-28 12:46:49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-24 11:53:23</t>
+          <t>2025-04-28 12:46:49</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-25 11:39:06</t>
+          <t>2025-04-28 13:04:56</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>28409</v>
+        <v>997</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1582,49 +1576,52 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250307</v>
+        <v>250866</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D21" t="n">
-        <v>153.4262295081967</v>
+        <v>93.01818181818182</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-25 11:39:06</t>
+          <t>2025-04-28 13:04:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-25 12:04:06</t>
+          <t>2025-04-28 13:35:26</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-25 12:04:06</t>
+          <t>2025-04-28 13:35:26</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-25 14:37:32</t>
+          <t>2025-04-29 07:08:27</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>9359</v>
+        <v>5116</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1637,49 +1634,52 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250966</v>
+        <v>251128</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>36.5</v>
       </c>
       <c r="D22" t="n">
-        <v>142.3114754098361</v>
+        <v>168.3454545454545</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-25 14:37:32</t>
+          <t>2025-04-29 07:08:27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-28 07:02:32</t>
+          <t>2025-04-29 07:44:57</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-28 07:02:32</t>
+          <t>2025-04-29 07:44:57</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-28 09:24:51</t>
+          <t>2025-04-29 10:33:18</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8681</v>
+        <v>9259</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1697,44 +1697,47 @@
       <c r="M22" t="n">
         <v>70</v>
       </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251088</v>
+        <v>251158</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>32.5</v>
       </c>
       <c r="D23" t="n">
-        <v>101.3934426229508</v>
+        <v>121.2181818181818</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-28 09:24:51</t>
+          <t>2025-04-29 10:33:18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-04-28 09:44:51</t>
+          <t>2025-04-29 11:05:48</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-04-28 09:44:51</t>
+          <t>2025-04-29 11:05:48</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-04-28 11:26:14</t>
+          <t>2025-04-29 13:07:01</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>6185</v>
+        <v>6667</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1747,52 +1750,52 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251204</v>
+        <v>251429</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D24" t="n">
-        <v>125.6229508196721</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-28 11:26:14</t>
+          <t>2025-04-29 13:07:01</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-04-28 11:51:14</t>
+          <t>2025-04-29 13:39:31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-04-28 11:51:14</t>
+          <t>2025-04-29 13:39:31</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-04-28 13:56:52</t>
+          <t>2025-04-29 14:51:55</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>7663</v>
+        <v>3982</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1801,22 +1804,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
         <v>2</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251550</v>
+        <v>251168</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1824,33 +1827,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>584.4426229508197</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-28 13:56:52</t>
+          <t>2025-04-24 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-04-28 14:21:52</t>
+          <t>2025-04-24 07:20:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-04-28 14:21:52</t>
+          <t>2025-04-24 07:20:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-04-30 08:06:18</t>
+          <t>2025-04-24 09:42:18</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>35651</v>
+        <v>8681</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1863,52 +1866,49 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>245623</v>
+        <v>251167</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>372.0985915492957</v>
+        <v>173.655737704918</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-24 07:00:00</t>
+          <t>2025-04-24 09:42:18</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-04-24 07:34:00</t>
+          <t>2025-04-24 10:02:18</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-04-24 07:34:00</t>
+          <t>2025-04-24 10:02:18</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-04-24 13:46:05</t>
+          <t>2025-04-24 12:55:58</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>26419</v>
+        <v>10593</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1917,53 +1917,53 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>250497</v>
+        <v>251308</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>267.4647887323944</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-24 13:46:05</t>
+          <t>2025-04-24 12:55:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-04-24 14:20:05</t>
+          <t>2025-04-24 13:15:58</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-04-24 14:20:05</t>
+          <t>2025-04-24 13:15:58</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-04-25 10:47:33</t>
+          <t>2025-04-24 14:37:56</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>18990</v>
+        <v>5000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1972,53 +1972,53 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>245089</v>
+        <v>250448</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.676056338028</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-25 10:47:33</t>
+          <t>2025-04-24 14:37:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-04-25 11:02:33</t>
+          <t>2025-04-25 07:07:56</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-04-25 11:02:33</t>
+          <t>2025-04-25 07:07:56</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-01 07:50:14</t>
+          <t>2025-04-25 11:15:11</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>122665</v>
+        <v>15083</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2027,53 +2027,53 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251134</v>
+        <v>250946</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>89.73469387755102</v>
+        <v>181.4098360655738</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-25 11:15:11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-04-28 07:52:00</t>
+          <t>2025-04-25 11:45:11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-04-28 07:52:00</t>
+          <t>2025-04-25 11:45:11</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-04-28 09:21:44</t>
+          <t>2025-04-25 14:46:36</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4397</v>
+        <v>11066</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2094,41 +2094,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251519</v>
+        <v>250449</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>268.8775510204082</v>
+        <v>327.9836065573771</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-28 09:21:44</t>
+          <t>2025-04-25 14:46:36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-04-28 10:16:44</t>
+          <t>2025-04-28 07:11:36</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-04-28 10:16:44</t>
+          <t>2025-04-28 07:11:36</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-04-28 14:45:36</t>
+          <t>2025-04-28 12:39:35</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>13175</v>
+        <v>20007</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2149,41 +2149,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251150</v>
+        <v>251072</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>639.4366197183099</v>
+        <v>95.77049180327869</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-28 12:39:35</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-04-28 07:40:00</t>
+          <t>2025-04-28 12:59:35</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-04-28 07:40:00</t>
+          <t>2025-04-28 12:59:35</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-04-29 10:19:26</t>
+          <t>2025-04-28 14:35:21</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>45400</v>
+        <v>5842</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2192,53 +2192,56 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>250986</v>
+        <v>250863</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>282.7183098591549</v>
+        <v>274.7049180327869</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-04-29 10:19:26</t>
+          <t>2025-04-28 14:35:21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-04-29 12:59:26</t>
+          <t>2025-04-29 07:05:21</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-04-29 12:59:26</t>
+          <t>2025-04-29 07:05:21</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-04-30 09:42:09</t>
+          <t>2025-04-29 11:40:03</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>20073</v>
+        <v>16757</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2247,56 +2250,56 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251109</v>
+        <v>251346</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
-        <v>266.5915492957747</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-04-30 09:42:09</t>
+          <t>2025-04-29 11:40:03</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-04-30 11:57:09</t>
+          <t>2025-04-29 12:15:03</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-04-30 11:57:09</t>
+          <t>2025-04-29 12:15:03</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-01 08:23:44</t>
+          <t>2025-04-29 13:18:19</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>18928</v>
+        <v>3859</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2305,56 +2308,56 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251285</v>
+        <v>251550</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n">
-        <v>840.1594202898551</v>
+        <v>584.4426229508197</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-29 13:18:19</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-04-28 07:35:00</t>
+          <t>2025-04-29 14:03:19</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-04-28 07:35:00</t>
+          <t>2025-04-29 14:03:19</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-04-29 13:35:09</t>
+          <t>2025-05-01 07:47:46</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>57971</v>
+        <v>35651</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2367,68 +2370,1140 @@
         </is>
       </c>
       <c r="L34" t="n">
+        <v>3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>70</v>
+      </c>
+      <c r="N34" t="n">
         <v>4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251614</v>
+        <v>245623</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>10.41269841269841</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>2025-04-24 07:00:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-04-24 07:34:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-04-24 07:34:00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-04-24 13:46:05</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>26419</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>250825</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>30</v>
+      </c>
+      <c r="D36" t="n">
+        <v>309.9718309859155</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-04-24 13:46:05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-04-24 14:16:05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-04-24 14:16:05</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:26:04</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>22008</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>250899</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>19</v>
+      </c>
+      <c r="D37" t="n">
+        <v>115.5070422535211</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:26:04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:45:04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-04-25 11:45:04</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-04-25 13:40:34</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>8201</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>250720</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>17</v>
+      </c>
+      <c r="D38" t="n">
+        <v>147.9014084507042</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-04-25 13:40:34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-04-25 13:57:34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-04-25 13:57:34</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-04-28 08:25:28</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>10501</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>3</v>
+      </c>
+      <c r="M38" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>245089</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>17</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1727.676056338028</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-04-28 08:25:28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-04-28 08:42:28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-04-28 08:42:28</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-05-01 13:30:09</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>122665</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>251334</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>42</v>
+      </c>
+      <c r="D40" t="n">
+        <v>377.3877551020408</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>2025-04-28 07:00:00</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-04-28 07:42:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-04-28 07:42:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-04-28 13:59:23</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>18492</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>251053</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>35</v>
+      </c>
+      <c r="D41" t="n">
+        <v>233.7142857142857</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-04-28 13:59:23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:34:23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:34:23</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-04-29 10:28:06</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>11452</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>70</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>251392</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>35</v>
+      </c>
+      <c r="D42" t="n">
+        <v>136.6530612244898</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-04-29 10:28:06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-04-29 11:03:06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-04-29 11:03:06</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-04-29 13:19:45</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>6696</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>70</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>251081</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>75</v>
+      </c>
+      <c r="D43" t="n">
+        <v>34.77464788732394</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2025-04-28 07:00:00</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-04-28 08:15:00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-04-28 08:15:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-04-28 08:49:46</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2469</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>20</v>
+      </c>
+      <c r="M43" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>251592</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>105</v>
+      </c>
+      <c r="D44" t="n">
+        <v>222.6197183098592</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-04-28 08:49:46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-04-28 10:34:46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-04-28 10:34:46</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:17:23</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>15806</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>251099</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>45</v>
+      </c>
+      <c r="D45" t="n">
+        <v>47.94366197183098</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-04-28 14:17:23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-04-29 07:02:23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-04-29 07:02:23</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-04-29 07:50:20</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>3404</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>70</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>251140</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>35</v>
+      </c>
+      <c r="D46" t="n">
+        <v>93.90140845070422</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-04-29 07:50:20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-04-29 08:25:20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-04-29 08:25:20</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2025-04-29 09:59:14</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>6667</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>4</v>
+      </c>
+      <c r="M46" t="n">
+        <v>70</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>251216</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>35</v>
+      </c>
+      <c r="D47" t="n">
+        <v>76.54929577464789</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-04-29 09:59:14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-04-29 10:34:14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-04-29 10:34:14</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2025-04-29 11:50:47</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>5435</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>70</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>251109</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>95</v>
+      </c>
+      <c r="D48" t="n">
+        <v>266.5915492957747</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-04-29 11:50:47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-04-29 13:25:47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-04-29 13:25:47</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2025-04-30 09:52:22</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>18928</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>16</v>
+      </c>
+      <c r="M48" t="n">
+        <v>70</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>251368</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>35</v>
+      </c>
+      <c r="D49" t="n">
+        <v>129.2608695652174</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2025-04-28 07:00:00</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-04-28 07:10:24</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>656</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-04-28 07:35:00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-04-28 07:35:00</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2025-04-28 09:44:15</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>8919</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>4</v>
+      </c>
+      <c r="M49" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>251593</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>35</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50.89855072463768</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-04-28 09:44:15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-04-28 10:19:15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-04-28 10:19:15</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2025-04-28 11:10:09</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>3512</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
         <v>6</v>
+      </c>
+      <c r="M50" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>251519</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>45</v>
+      </c>
+      <c r="D51" t="n">
+        <v>190.9420289855072</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-04-28 11:10:09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-04-28 11:55:09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2025-04-28 11:55:09</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2025-04-29 07:06:06</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>13175</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>251126</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>35</v>
+      </c>
+      <c r="D52" t="n">
+        <v>145.0724637681159</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-04-29 07:06:06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-04-29 07:41:06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-04-29 07:41:06</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2025-04-29 10:06:10</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>70</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>250819</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>35</v>
+      </c>
+      <c r="D53" t="n">
+        <v>123.5797101449275</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025-04-29 10:06:10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-04-29 10:41:10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2025-04-29 10:41:10</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2025-04-29 12:44:45</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>8527</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>6</v>
+      </c>
+      <c r="M53" t="n">
+        <v>70</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>250984</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>35</v>
+      </c>
+      <c r="D54" t="n">
+        <v>72.20289855072464</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025-04-29 12:44:45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-04-29 13:19:45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-04-29 13:19:45</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2025-04-29 14:31:57</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>4982</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>70</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,7 +622,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250867</v>
+        <v>251346</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>133.234375</v>
+        <v>60.296875</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -642,21 +642,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-28 14:05:02</t>
+          <t>2025-04-28 14:09:02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-28 14:05:02</t>
+          <t>2025-04-28 14:09:02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-29 08:18:16</t>
+          <t>2025-04-29 07:09:20</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8527</v>
+        <v>3859</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
@@ -680,41 +680,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251162</v>
+        <v>251301</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>97.65625</v>
+        <v>37.62295081967213</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-29 08:18:16</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-29 08:39:16</t>
+          <t>2025-04-28 07:44:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-29 08:39:16</t>
+          <t>2025-04-28 07:44:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-29 10:16:56</t>
+          <t>2025-04-28 08:21:37</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6250</v>
+        <v>2295</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -727,52 +727,49 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251342</v>
+        <v>251371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>56.296875</v>
+        <v>170.983606557377</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-29 10:16:56</t>
+          <t>2025-04-28 08:21:37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-29 10:46:56</t>
+          <t>2025-04-28 08:48:37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-29 10:46:56</t>
+          <t>2025-04-28 08:48:37</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-29 11:43:14</t>
+          <t>2025-04-28 11:39:36</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3603</v>
+        <v>10430</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -781,56 +778,53 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251501</v>
+        <v>243569</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>110.171875</v>
+        <v>42.63934426229508</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-29 11:43:14</t>
+          <t>2025-04-28 11:39:36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-29 12:13:14</t>
+          <t>2025-04-28 12:21:36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-29 12:13:14</t>
+          <t>2025-04-28 12:21:36</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-29 14:03:24</t>
+          <t>2025-04-28 13:04:14</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>7051</v>
+        <v>2601</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -839,22 +833,22 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251301</v>
+        <v>251053</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -862,33 +856,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>37.62295081967213</v>
+        <v>187.7377049180328</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-28 13:04:14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-28 07:44:00</t>
+          <t>2025-04-28 13:46:14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-28 07:44:00</t>
+          <t>2025-04-28 13:46:14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-28 08:21:37</t>
+          <t>2025-04-29 08:53:59</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2295</v>
+        <v>11452</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -901,49 +895,52 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251371</v>
+        <v>251300</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>170.983606557377</v>
+        <v>54.12676056338028</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-28 08:21:37</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-28 08:48:37</t>
+          <t>2025-04-28 07:36:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-28 08:48:37</t>
+          <t>2025-04-28 07:36:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-28 11:39:36</t>
+          <t>2025-04-28 08:30:07</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10430</v>
+        <v>3843</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -956,7 +953,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -964,41 +961,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>243335</v>
+        <v>251182</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>541.0491803278688</v>
+        <v>302.3380281690141</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-28 11:39:36</t>
+          <t>2025-04-28 08:30:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-28 12:19:36</t>
+          <t>2025-04-28 08:47:07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-28 12:19:36</t>
+          <t>2025-04-28 08:47:07</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-29 13:20:39</t>
+          <t>2025-04-28 13:49:27</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>33004</v>
+        <v>21466</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1007,22 +1004,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>152</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251300</v>
+        <v>250819</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1030,33 +1024,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>54.12676056338028</v>
+        <v>120.0985915492958</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-28 13:49:27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-28 07:36:00</t>
+          <t>2025-04-28 14:08:27</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-28 07:36:00</t>
+          <t>2025-04-28 14:08:27</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-28 08:30:07</t>
+          <t>2025-04-29 08:08:33</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3843</v>
+        <v>8527</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1069,49 +1063,52 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251182</v>
+        <v>251304</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D12" t="n">
-        <v>302.3380281690141</v>
+        <v>60.87272727272727</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-28 08:30:07</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-28 08:47:07</t>
+          <t>2025-04-28 07:34:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-28 08:47:07</t>
+          <t>2025-04-28 07:34:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-04-28 13:49:27</t>
+          <t>2025-04-28 08:35:22</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>21466</v>
+        <v>3348</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1124,7 +1121,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1132,41 +1129,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>243569</v>
+        <v>251591</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>36.5</v>
       </c>
       <c r="D13" t="n">
-        <v>36.63380281690141</v>
+        <v>72.8</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-28 13:49:27</t>
+          <t>2025-04-28 08:35:22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-28 14:21:27</t>
+          <t>2025-04-28 09:11:52</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-04-28 14:21:27</t>
+          <t>2025-04-28 09:11:52</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-04-28 14:58:05</t>
+          <t>2025-04-28 10:24:40</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2601</v>
+        <v>4004</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1175,56 +1172,53 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250991</v>
+        <v>251567</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>34.5</v>
       </c>
       <c r="D14" t="n">
-        <v>192</v>
+        <v>73.14545454545454</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-28 14:58:05</t>
+          <t>2025-04-28 10:24:40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-29 07:30:05</t>
+          <t>2025-04-28 10:59:10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-29 07:30:05</t>
+          <t>2025-04-28 10:59:10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-29 10:42:05</t>
+          <t>2025-04-28 12:12:19</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>13632</v>
+        <v>4023</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1242,47 +1236,44 @@
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251160</v>
+        <v>250866</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D15" t="n">
-        <v>93.90140845070422</v>
+        <v>93.01818181818182</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-29 10:42:05</t>
+          <t>2025-04-28 12:12:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-29 10:59:05</t>
+          <t>2025-04-28 12:46:49</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-29 10:59:05</t>
+          <t>2025-04-28 12:46:49</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-29 12:33:00</t>
+          <t>2025-04-28 14:19:50</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6667</v>
+        <v>5116</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1295,52 +1286,52 @@
         </is>
       </c>
       <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>70</v>
+      </c>
+      <c r="N15" t="n">
         <v>3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>70</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251189</v>
+        <v>251846</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="D16" t="n">
-        <v>80.47887323943662</v>
+        <v>207.1272727272727</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-29 12:33:00</t>
+          <t>2025-04-28 14:19:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-29 12:52:00</t>
+          <t>2025-04-28 14:58:20</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-29 12:52:00</t>
+          <t>2025-04-28 14:58:20</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-29 14:12:28</t>
+          <t>2025-04-29 10:25:27</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5714</v>
+        <v>11392</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1353,52 +1344,52 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251304</v>
+        <v>251168</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34.5</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>60.87272727272727</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-24 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-28 07:34:30</t>
+          <t>2025-04-24 07:20:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-28 07:34:30</t>
+          <t>2025-04-24 07:20:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-28 08:35:22</t>
+          <t>2025-04-24 09:42:18</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3348</v>
+        <v>8681</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1411,7 +1402,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1419,41 +1410,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251591</v>
+        <v>251167</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>36.5</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>72.8</v>
+        <v>173.655737704918</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-28 08:35:22</t>
+          <t>2025-04-24 09:42:18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-28 09:11:52</t>
+          <t>2025-04-24 10:02:18</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-28 09:11:52</t>
+          <t>2025-04-24 10:02:18</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-04-28 10:24:40</t>
+          <t>2025-04-24 12:55:58</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>4004</v>
+        <v>10593</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1466,7 +1457,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1474,41 +1465,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251567</v>
+        <v>251308</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34.5</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>73.14545454545454</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-28 10:24:40</t>
+          <t>2025-04-24 12:55:58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-28 10:59:10</t>
+          <t>2025-04-24 13:15:58</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-28 10:59:10</t>
+          <t>2025-04-24 13:15:58</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-28 12:12:19</t>
+          <t>2025-04-24 14:37:56</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4023</v>
+        <v>5000</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1529,41 +1520,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>244023</v>
+        <v>250448</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>18.12727272727273</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-28 12:12:19</t>
+          <t>2025-04-24 14:37:56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-28 12:46:49</t>
+          <t>2025-04-25 07:07:56</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-28 12:46:49</t>
+          <t>2025-04-25 07:07:56</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-28 13:04:56</t>
+          <t>2025-04-25 11:15:11</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>997</v>
+        <v>15083</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1576,52 +1567,49 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250866</v>
+        <v>250946</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>93.01818181818182</v>
+        <v>181.4098360655738</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-28 13:04:56</t>
+          <t>2025-04-25 11:15:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-28 13:35:26</t>
+          <t>2025-04-25 11:45:11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-28 13:35:26</t>
+          <t>2025-04-25 11:45:11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-29 07:08:27</t>
+          <t>2025-04-25 14:46:36</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5116</v>
+        <v>11066</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1634,52 +1622,49 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251128</v>
+        <v>250449</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>36.5</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3454545454545</v>
+        <v>327.9836065573771</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-29 07:08:27</t>
+          <t>2025-04-25 14:46:36</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-29 07:44:57</t>
+          <t>2025-04-28 07:11:36</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-29 07:44:57</t>
+          <t>2025-04-28 07:11:36</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-29 10:33:18</t>
+          <t>2025-04-28 12:39:35</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>9259</v>
+        <v>20007</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1697,47 +1682,44 @@
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251158</v>
+        <v>250867</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>121.2181818181818</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-29 10:33:18</t>
+          <t>2025-04-28 12:39:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-04-29 11:05:48</t>
+          <t>2025-04-28 13:14:35</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-04-29 11:05:48</t>
+          <t>2025-04-28 13:14:35</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-04-29 13:07:01</t>
+          <t>2025-04-29 07:34:22</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>6667</v>
+        <v>8527</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1750,52 +1732,52 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251429</v>
+        <v>245623</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>72.40000000000001</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-29 13:07:01</t>
+          <t>2025-04-24 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-04-29 13:39:31</t>
+          <t>2025-04-24 07:34:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-04-29 13:39:31</t>
+          <t>2025-04-24 07:34:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-04-29 14:51:55</t>
+          <t>2025-04-24 13:46:05</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3982</v>
+        <v>26419</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1804,56 +1786,53 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251168</v>
+        <v>250825</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>142.3114754098361</v>
+        <v>309.9718309859155</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-24 07:00:00</t>
+          <t>2025-04-24 13:46:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-04-24 07:20:00</t>
+          <t>2025-04-24 14:16:05</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-04-24 07:20:00</t>
+          <t>2025-04-24 14:16:05</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-04-24 09:42:18</t>
+          <t>2025-04-25 11:26:04</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8681</v>
+        <v>22008</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1862,53 +1841,53 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251167</v>
+        <v>250899</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>173.655737704918</v>
+        <v>115.5070422535211</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-24 09:42:18</t>
+          <t>2025-04-25 11:26:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-04-24 10:02:18</t>
+          <t>2025-04-25 11:45:04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-04-24 10:02:18</t>
+          <t>2025-04-25 11:45:04</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-04-24 12:55:58</t>
+          <t>2025-04-25 13:40:34</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>10593</v>
+        <v>8201</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1917,53 +1896,53 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251308</v>
+        <v>250720</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>81.9672131147541</v>
+        <v>147.9014084507042</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-24 12:55:58</t>
+          <t>2025-04-25 13:40:34</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-04-24 13:15:58</t>
+          <t>2025-04-25 13:57:34</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-04-24 13:15:58</t>
+          <t>2025-04-25 13:57:34</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-04-24 14:37:56</t>
+          <t>2025-04-28 08:25:28</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5000</v>
+        <v>10501</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1972,53 +1951,53 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>250448</v>
+        <v>245089</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>247.2622950819672</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-24 14:37:56</t>
+          <t>2025-04-28 08:25:28</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-04-25 07:07:56</t>
+          <t>2025-04-28 08:42:28</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-04-25 07:07:56</t>
+          <t>2025-04-28 08:42:28</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-04-25 11:15:11</t>
+          <t>2025-05-01 13:30:09</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>15083</v>
+        <v>122665</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2027,53 +2006,53 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250946</v>
+        <v>251334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D29" t="n">
-        <v>181.4098360655738</v>
+        <v>377.3877551020408</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-25 11:15:11</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-04-25 11:45:11</t>
+          <t>2025-04-28 07:42:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-04-25 11:45:11</t>
+          <t>2025-04-28 07:42:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-04-25 14:46:36</t>
+          <t>2025-04-28 13:59:23</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>11066</v>
+        <v>18492</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2094,41 +2073,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250449</v>
+        <v>251550</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D30" t="n">
-        <v>327.9836065573771</v>
+        <v>727.5714285714286</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-25 14:46:36</t>
+          <t>2025-04-28 13:59:23</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-04-28 07:11:36</t>
+          <t>2025-04-28 14:39:23</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-04-28 07:11:36</t>
+          <t>2025-04-28 14:39:23</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-04-28 12:39:35</t>
+          <t>2025-04-30 10:46:57</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>20007</v>
+        <v>35651</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2146,102 +2125,102 @@
       <c r="M30" t="n">
         <v>70</v>
       </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251072</v>
+        <v>251081</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C31" t="n">
+        <v>75</v>
+      </c>
+      <c r="D31" t="n">
+        <v>34.77464788732394</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-04-28 07:00:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-04-28 08:15:00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-04-28 08:15:00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-04-28 08:49:46</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>2469</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
         <v>20</v>
       </c>
-      <c r="D31" t="n">
-        <v>95.77049180327869</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2025-04-28 12:39:35</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2025-04-28 12:59:35</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2025-04-28 12:59:35</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2025-04-28 14:35:21</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>5842</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>3</v>
-      </c>
       <c r="M31" t="n">
         <v>70</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>250863</v>
+        <v>251592</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7049180327869</v>
+        <v>222.6197183098592</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-04-28 14:35:21</t>
+          <t>2025-04-28 08:49:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-04-29 07:05:21</t>
+          <t>2025-04-28 10:34:46</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-04-29 07:05:21</t>
+          <t>2025-04-28 10:34:46</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-04-29 11:40:03</t>
+          <t>2025-04-28 14:17:23</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>16757</v>
+        <v>15806</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2250,56 +2229,53 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
-      </c>
-      <c r="N32" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251346</v>
+        <v>251109</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D33" t="n">
-        <v>63.26229508196721</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-04-29 11:40:03</t>
+          <t>2025-04-28 14:17:23</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-04-29 12:15:03</t>
+          <t>2025-04-29 07:42:23</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-04-29 12:15:03</t>
+          <t>2025-04-29 07:42:23</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-04-29 13:18:19</t>
+          <t>2025-04-29 12:08:59</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3859</v>
+        <v>18928</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2308,11 +2284,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2323,41 +2299,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251550</v>
+        <v>251368</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
-        <v>584.4426229508197</v>
+        <v>129.2608695652174</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-04-29 13:18:19</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-04-29 14:03:19</t>
+          <t>2025-04-28 07:35:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-04-29 14:03:19</t>
+          <t>2025-04-28 07:35:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-01 07:47:46</t>
+          <t>2025-04-28 09:44:15</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>35651</v>
+        <v>8919</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2370,52 +2346,49 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>245623</v>
+        <v>251593</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>372.0985915492957</v>
+        <v>50.89855072463768</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-04-24 07:00:00</t>
+          <t>2025-04-28 09:44:15</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-04-24 07:34:00</t>
+          <t>2025-04-28 10:19:15</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-04-24 07:34:00</t>
+          <t>2025-04-28 10:19:15</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-04-24 13:46:05</t>
+          <t>2025-04-28 11:10:09</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>26419</v>
+        <v>3512</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2424,53 +2397,53 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>250825</v>
+        <v>251519</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D36" t="n">
-        <v>309.9718309859155</v>
+        <v>190.9420289855072</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-04-24 13:46:05</t>
+          <t>2025-04-28 11:10:09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-04-24 14:16:05</t>
+          <t>2025-04-28 11:55:09</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-04-24 14:16:05</t>
+          <t>2025-04-28 11:55:09</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-04-25 11:26:04</t>
+          <t>2025-04-29 07:06:06</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>22008</v>
+        <v>13175</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2479,1031 +2452,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>250899</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>19</v>
-      </c>
-      <c r="D37" t="n">
-        <v>115.5070422535211</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2025-04-25 11:26:04</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2025-04-25 11:45:04</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2025-04-25 11:45:04</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-04-25 13:40:34</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>8201</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>4</v>
-      </c>
-      <c r="M37" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>250720</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>17</v>
-      </c>
-      <c r="D38" t="n">
-        <v>147.9014084507042</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2025-04-25 13:40:34</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025-04-25 13:57:34</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2025-04-25 13:57:34</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-04-28 08:25:28</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>10501</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>3</v>
-      </c>
-      <c r="M38" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>17</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1727.676056338028</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2025-04-28 08:25:28</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2025-04-28 08:42:28</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2025-04-28 08:42:28</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-05-01 13:30:09</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>122665</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>4</v>
-      </c>
-      <c r="M39" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>251334</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>42</v>
-      </c>
-      <c r="D40" t="n">
-        <v>377.3877551020408</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2025-04-28 07:00:00</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2025-04-28 07:42:00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2025-04-28 07:42:00</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-04-28 13:59:23</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>18492</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>4</v>
-      </c>
-      <c r="M40" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>251053</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>35</v>
-      </c>
-      <c r="D41" t="n">
-        <v>233.7142857142857</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2025-04-28 13:59:23</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2025-04-28 14:34:23</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2025-04-28 14:34:23</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-04-29 10:28:06</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>11452</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>4</v>
-      </c>
-      <c r="M41" t="n">
-        <v>70</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>251392</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>35</v>
-      </c>
-      <c r="D42" t="n">
-        <v>136.6530612244898</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2025-04-29 10:28:06</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2025-04-29 11:03:06</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2025-04-29 11:03:06</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2025-04-29 13:19:45</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>6696</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>4</v>
-      </c>
-      <c r="M42" t="n">
-        <v>70</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>251081</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>75</v>
-      </c>
-      <c r="D43" t="n">
-        <v>34.77464788732394</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2025-04-28 07:00:00</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2025-04-28 08:15:00</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2025-04-28 08:15:00</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2025-04-28 08:49:46</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>2469</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>20</v>
-      </c>
-      <c r="M43" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>251592</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>105</v>
-      </c>
-      <c r="D44" t="n">
-        <v>222.6197183098592</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2025-04-28 08:49:46</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2025-04-28 10:34:46</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2025-04-28 10:34:46</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2025-04-28 14:17:23</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>15806</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>6</v>
-      </c>
-      <c r="M44" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>251099</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>45</v>
-      </c>
-      <c r="D45" t="n">
-        <v>47.94366197183098</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>2025-04-28 14:17:23</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2025-04-29 07:02:23</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2025-04-29 07:02:23</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2025-04-29 07:50:20</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>3404</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>4</v>
-      </c>
-      <c r="M45" t="n">
-        <v>70</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>251140</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>35</v>
-      </c>
-      <c r="D46" t="n">
-        <v>93.90140845070422</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2025-04-29 07:50:20</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2025-04-29 08:25:20</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2025-04-29 08:25:20</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2025-04-29 09:59:14</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>6667</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>4</v>
-      </c>
-      <c r="M46" t="n">
-        <v>70</v>
-      </c>
-      <c r="N46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>251216</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>35</v>
-      </c>
-      <c r="D47" t="n">
-        <v>76.54929577464789</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>2025-04-29 09:59:14</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2025-04-29 10:34:14</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2025-04-29 10:34:14</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2025-04-29 11:50:47</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>5435</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>4</v>
-      </c>
-      <c r="M47" t="n">
-        <v>70</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>251109</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>95</v>
-      </c>
-      <c r="D48" t="n">
-        <v>266.5915492957747</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>2025-04-29 11:50:47</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2025-04-29 13:25:47</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2025-04-29 13:25:47</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2025-04-30 09:52:22</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>18928</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>16</v>
-      </c>
-      <c r="M48" t="n">
-        <v>70</v>
-      </c>
-      <c r="N48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>251368</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>35</v>
-      </c>
-      <c r="D49" t="n">
-        <v>129.2608695652174</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>2025-04-28 07:00:00</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2025-04-28 07:35:00</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2025-04-28 07:35:00</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2025-04-28 09:44:15</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>8919</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>4</v>
-      </c>
-      <c r="M49" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>251593</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>35</v>
-      </c>
-      <c r="D50" t="n">
-        <v>50.89855072463768</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>2025-04-28 09:44:15</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2025-04-28 10:19:15</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2025-04-28 10:19:15</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2025-04-28 11:10:09</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3512</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>6</v>
-      </c>
-      <c r="M50" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>251519</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>45</v>
-      </c>
-      <c r="D51" t="n">
-        <v>190.9420289855072</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2025-04-28 11:10:09</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2025-04-28 11:55:09</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2025-04-28 11:55:09</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2025-04-29 07:06:06</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>13175</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>2</v>
-      </c>
-      <c r="M51" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>251126</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>35</v>
-      </c>
-      <c r="D52" t="n">
-        <v>145.0724637681159</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2025-04-29 07:06:06</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2025-04-29 07:41:06</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2025-04-29 07:41:06</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2025-04-29 10:06:10</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>10010</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>4</v>
-      </c>
-      <c r="M52" t="n">
-        <v>70</v>
-      </c>
-      <c r="N52" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>250819</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>35</v>
-      </c>
-      <c r="D53" t="n">
-        <v>123.5797101449275</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2025-04-29 10:06:10</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2025-04-29 10:41:10</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2025-04-29 10:41:10</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2025-04-29 12:44:45</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>8527</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>6</v>
-      </c>
-      <c r="M53" t="n">
-        <v>70</v>
-      </c>
-      <c r="N53" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>250984</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>35</v>
-      </c>
-      <c r="D54" t="n">
-        <v>72.20289855072464</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2025-04-29 12:44:45</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2025-04-29 13:19:45</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2025-04-29 13:19:45</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2025-04-29 14:31:57</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>4982</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>4</v>
-      </c>
-      <c r="M54" t="n">
-        <v>70</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -680,18 +680,18 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251301</v>
+        <v>243569</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>37.62295081967213</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -700,21 +700,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-28 07:44:00</t>
+          <t>2025-04-28 07:17:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-28 07:44:00</t>
+          <t>2025-04-28 07:17:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-28 08:21:37</t>
+          <t>2025-04-28 07:53:38</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2295</v>
+        <v>2601</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -723,53 +723,56 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251371</v>
+        <v>251550</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>170.983606557377</v>
+        <v>502.1267605633803</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-28 08:21:37</t>
+          <t>2025-04-28 07:53:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-28 08:48:37</t>
+          <t>2025-04-28 08:23:38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-28 08:48:37</t>
+          <t>2025-04-28 08:23:38</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-28 11:39:36</t>
+          <t>2025-04-29 08:45:45</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>10430</v>
+        <v>35651</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -782,49 +785,52 @@
         </is>
       </c>
       <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>70</v>
+      </c>
+      <c r="N6" t="n">
         <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>243569</v>
+        <v>251334</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>42.63934426229508</v>
+        <v>260.4507042253521</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-28 11:39:36</t>
+          <t>2025-04-29 08:45:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-28 12:21:36</t>
+          <t>2025-04-29 09:02:45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-28 12:21:36</t>
+          <t>2025-04-29 09:02:45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-28 13:04:14</t>
+          <t>2025-04-29 13:23:12</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2601</v>
+        <v>18492</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -833,17 +839,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -852,33 +855,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>187.7377049180328</v>
+        <v>161.2957746478873</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-28 13:04:14</t>
+          <t>2025-04-29 13:23:12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-28 13:46:14</t>
+          <t>2025-04-29 13:38:12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-28 13:46:14</t>
+          <t>2025-04-29 13:38:12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-29 08:53:59</t>
+          <t>2025-04-30 08:19:30</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -906,7 +909,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251300</v>
+        <v>251371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -914,33 +917,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>54.12676056338028</v>
+        <v>146.9014084507042</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-30 08:19:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-28 07:36:00</t>
+          <t>2025-04-30 08:34:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-28 07:36:00</t>
+          <t>2025-04-30 08:34:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-28 08:30:07</t>
+          <t>2025-04-30 11:01:24</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3843</v>
+        <v>10430</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -953,7 +956,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -961,7 +964,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251182</v>
+        <v>251301</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -972,30 +975,30 @@
         <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>302.3380281690141</v>
+        <v>32.32394366197183</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-28 08:30:07</t>
+          <t>2025-04-30 11:01:24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-28 08:47:07</t>
+          <t>2025-04-30 11:18:24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-28 08:47:07</t>
+          <t>2025-04-30 11:18:24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-28 13:49:27</t>
+          <t>2025-04-30 11:50:43</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>21466</v>
+        <v>2295</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1008,7 +1011,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1016,7 +1019,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250819</v>
+        <v>251300</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1024,33 +1027,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>120.0985915492958</v>
+        <v>54.12676056338028</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-28 13:49:27</t>
+          <t>2025-04-30 11:50:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-28 14:08:27</t>
+          <t>2025-04-30 12:05:43</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-28 14:08:27</t>
+          <t>2025-04-30 12:05:43</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-29 08:08:33</t>
+          <t>2025-04-30 12:59:51</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8527</v>
+        <v>3843</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1063,52 +1066,49 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251304</v>
+        <v>251182</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>60.87272727272727</v>
+        <v>302.3380281690141</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-30 12:59:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-28 07:34:30</t>
+          <t>2025-04-30 13:16:51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-28 07:34:30</t>
+          <t>2025-04-30 13:16:51</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-04-28 08:35:22</t>
+          <t>2025-05-01 10:19:11</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3348</v>
+        <v>21466</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1129,41 +1129,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251591</v>
+        <v>250819</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>72.8</v>
+        <v>120.0985915492958</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-28 08:35:22</t>
+          <t>2025-05-01 10:19:11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-28 09:11:52</t>
+          <t>2025-05-01 10:38:11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-04-28 09:11:52</t>
+          <t>2025-05-01 10:38:11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-04-28 10:24:40</t>
+          <t>2025-05-01 12:38:17</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4004</v>
+        <v>8527</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1181,10 +1181,13 @@
       <c r="M13" t="n">
         <v>70</v>
       </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251567</v>
+        <v>251304</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1195,30 +1198,30 @@
         <v>34.5</v>
       </c>
       <c r="D14" t="n">
-        <v>73.14545454545454</v>
+        <v>60.87272727272727</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-28 10:24:40</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-28 10:59:10</t>
+          <t>2025-04-28 07:34:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-28 10:59:10</t>
+          <t>2025-04-28 07:34:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-28 12:12:19</t>
+          <t>2025-04-28 08:35:22</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4023</v>
+        <v>3348</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1231,7 +1234,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1239,7 +1242,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250866</v>
+        <v>251591</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1247,33 +1250,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="D15" t="n">
-        <v>93.01818181818182</v>
+        <v>72.8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-28 12:12:19</t>
+          <t>2025-04-28 08:35:22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-28 12:46:49</t>
+          <t>2025-04-28 09:11:52</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-28 12:46:49</t>
+          <t>2025-04-28 09:11:52</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-28 14:19:50</t>
+          <t>2025-04-28 10:24:40</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5116</v>
+        <v>4004</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1291,13 +1294,10 @@
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251846</v>
+        <v>251567</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1305,33 +1305,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>38.5</v>
+        <v>34.5</v>
       </c>
       <c r="D16" t="n">
-        <v>207.1272727272727</v>
+        <v>73.14545454545454</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-28 14:19:50</t>
+          <t>2025-04-28 10:24:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-28 14:58:20</t>
+          <t>2025-04-28 10:59:10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-28 14:58:20</t>
+          <t>2025-04-28 10:59:10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-29 10:25:27</t>
+          <t>2025-04-28 12:12:19</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11392</v>
+        <v>4023</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1344,52 +1344,49 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251168</v>
+        <v>250866</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>34.5</v>
       </c>
       <c r="D17" t="n">
-        <v>142.3114754098361</v>
+        <v>93.01818181818182</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-24 07:00:00</t>
+          <t>2025-04-28 12:12:19</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-24 07:20:00</t>
+          <t>2025-04-28 12:46:49</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-24 07:20:00</t>
+          <t>2025-04-28 12:46:49</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-24 09:42:18</t>
+          <t>2025-04-28 14:19:50</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8681</v>
+        <v>5116</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1402,49 +1399,52 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251167</v>
+        <v>251846</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>38.5</v>
       </c>
       <c r="D18" t="n">
-        <v>173.655737704918</v>
+        <v>207.1272727272727</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-24 09:42:18</t>
+          <t>2025-04-28 14:19:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-24 10:02:18</t>
+          <t>2025-04-28 14:58:20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-24 10:02:18</t>
+          <t>2025-04-28 14:58:20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-04-24 12:55:58</t>
+          <t>2025-04-29 10:25:27</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>10593</v>
+        <v>11392</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1457,10 +1457,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1480,22 +1483,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-24 12:55:58</t>
+          <t>2025-04-24 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-24 13:15:58</t>
+          <t>2025-04-24 07:20:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-24 13:15:58</t>
+          <t>2025-04-24 07:20:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-24 14:37:56</t>
+          <t>2025-04-24 08:41:58</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1520,7 +1523,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250448</v>
+        <v>251168</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1528,33 +1531,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>247.2622950819672</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-24 14:37:56</t>
+          <t>2025-04-24 08:41:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-25 07:07:56</t>
+          <t>2025-04-24 09:01:58</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-25 07:07:56</t>
+          <t>2025-04-24 09:01:58</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-25 11:15:11</t>
+          <t>2025-04-24 11:24:16</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>15083</v>
+        <v>8681</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1567,7 +1570,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1575,7 +1578,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250946</v>
+        <v>251167</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1583,33 +1586,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>181.4098360655738</v>
+        <v>173.655737704918</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-25 11:15:11</t>
+          <t>2025-04-24 11:24:16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-25 11:45:11</t>
+          <t>2025-04-24 11:44:16</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-25 11:45:11</t>
+          <t>2025-04-24 11:44:16</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-25 14:46:36</t>
+          <t>2025-04-24 14:37:56</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>11066</v>
+        <v>10593</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1630,7 +1633,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250449</v>
+        <v>250448</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1638,33 +1641,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>327.9836065573771</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-25 14:46:36</t>
+          <t>2025-04-24 14:37:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-28 07:11:36</t>
+          <t>2025-04-25 07:07:56</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-28 07:11:36</t>
+          <t>2025-04-25 07:07:56</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-28 12:39:35</t>
+          <t>2025-04-25 11:15:11</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>20007</v>
+        <v>15083</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1677,7 +1680,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -1685,7 +1688,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250867</v>
+        <v>250946</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1693,33 +1696,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>139.7868852459016</v>
+        <v>181.4098360655738</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-28 12:39:35</t>
+          <t>2025-04-25 11:15:11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-04-28 13:14:35</t>
+          <t>2025-04-25 11:45:11</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-04-28 13:14:35</t>
+          <t>2025-04-25 11:45:11</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-04-29 07:34:22</t>
+          <t>2025-04-25 14:46:36</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>8527</v>
+        <v>11066</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1732,52 +1735,49 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>245623</v>
+        <v>250449</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>372.0985915492957</v>
+        <v>327.9836065573771</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-24 07:00:00</t>
+          <t>2025-04-25 14:46:36</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-04-24 07:34:00</t>
+          <t>2025-04-28 07:11:36</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-04-24 07:34:00</t>
+          <t>2025-04-28 07:11:36</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-04-24 13:46:05</t>
+          <t>2025-04-28 12:39:35</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>26419</v>
+        <v>20007</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1786,53 +1786,53 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250825</v>
+        <v>250867</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>309.9718309859155</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-24 13:46:05</t>
+          <t>2025-04-28 12:39:35</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-04-24 14:16:05</t>
+          <t>2025-04-28 13:14:35</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-04-24 14:16:05</t>
+          <t>2025-04-28 13:14:35</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-04-25 11:26:04</t>
+          <t>2025-04-29 07:34:22</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>22008</v>
+        <v>8527</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1841,19 +1841,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>250899</v>
+        <v>245623</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1861,33 +1864,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>115.5070422535211</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-25 11:26:04</t>
+          <t>2025-04-24 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-04-25 11:45:04</t>
+          <t>2025-04-24 07:34:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-04-25 11:45:04</t>
+          <t>2025-04-24 07:34:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-04-25 13:40:34</t>
+          <t>2025-04-24 13:46:05</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8201</v>
+        <v>26419</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1900,15 +1903,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>250720</v>
+        <v>250825</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1916,33 +1919,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>147.9014084507042</v>
+        <v>309.9718309859155</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-25 13:40:34</t>
+          <t>2025-04-24 13:46:05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-04-25 13:57:34</t>
+          <t>2025-04-24 14:16:05</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-04-25 13:57:34</t>
+          <t>2025-04-24 14:16:05</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-04-28 08:25:28</t>
+          <t>2025-04-25 11:26:04</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>10501</v>
+        <v>22008</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1955,7 +1958,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>76</v>
@@ -1963,7 +1966,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>245089</v>
+        <v>250899</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1971,33 +1974,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.676056338028</v>
+        <v>115.5070422535211</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-28 08:25:28</t>
+          <t>2025-04-25 11:26:04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-04-28 08:42:28</t>
+          <t>2025-04-25 11:45:04</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-04-28 08:42:28</t>
+          <t>2025-04-25 11:45:04</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-01 13:30:09</t>
+          <t>2025-04-25 13:40:34</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>122665</v>
+        <v>8201</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2018,41 +2021,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251334</v>
+        <v>250720</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>377.3877551020408</v>
+        <v>147.9014084507042</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-25 13:40:34</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-04-28 07:42:00</t>
+          <t>2025-04-25 13:57:34</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-04-28 07:42:00</t>
+          <t>2025-04-25 13:57:34</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-04-28 13:59:23</t>
+          <t>2025-04-28 08:25:28</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>18492</v>
+        <v>10501</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2061,53 +2064,53 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251550</v>
+        <v>245089</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>727.5714285714286</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-28 13:59:23</t>
+          <t>2025-04-28 08:25:28</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-04-28 14:39:23</t>
+          <t>2025-04-28 08:42:28</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-04-28 14:39:23</t>
+          <t>2025-04-28 08:42:28</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-04-30 10:46:57</t>
+          <t>2025-05-01 13:30:09</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>35651</v>
+        <v>122665</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2116,17 +2119,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,41 +622,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251346</v>
+        <v>243335</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>60.296875</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-28 13:50:02</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-28 14:09:02</t>
+          <t>2025-04-28 07:34:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-04-28 14:09:02</t>
+          <t>2025-04-28 07:34:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-29 07:09:20</t>
+          <t>2025-04-29 07:18:50</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3859</v>
+        <v>33004</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -665,22 +665,22 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>39705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>243569</v>
+        <v>251371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -688,33 +688,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>36.63380281690141</v>
+        <v>146.9014084507042</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-29 07:18:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-28 07:17:00</t>
+          <t>2025-04-29 07:48:50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-04-28 07:17:00</t>
+          <t>2025-04-29 07:48:50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-28 07:53:38</t>
+          <t>2025-04-29 10:15:44</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2601</v>
+        <v>10430</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -723,22 +723,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251550</v>
+        <v>251301</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -746,33 +743,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>502.1267605633803</v>
+        <v>32.32394366197183</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-28 07:53:38</t>
+          <t>2025-04-29 10:15:44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-28 08:23:38</t>
+          <t>2025-04-29 10:32:44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-04-28 08:23:38</t>
+          <t>2025-04-29 10:32:44</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-29 08:45:45</t>
+          <t>2025-04-29 11:05:04</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>35651</v>
+        <v>2295</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -785,18 +782,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251334</v>
+        <v>251126</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -807,30 +801,30 @@
         <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>260.4507042253521</v>
+        <v>140.9859154929578</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-29 08:45:45</t>
+          <t>2025-04-29 11:05:04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-29 09:02:45</t>
+          <t>2025-04-29 11:22:04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-04-29 09:02:45</t>
+          <t>2025-04-29 11:22:04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-29 13:23:12</t>
+          <t>2025-04-29 13:43:03</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18492</v>
+        <v>10010</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -848,10 +842,13 @@
       <c r="M7" t="n">
         <v>70</v>
       </c>
+      <c r="N7" t="n">
+        <v>39705</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251053</v>
+        <v>251300</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -859,33 +856,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>161.2957746478873</v>
+        <v>54.12676056338028</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-29 13:23:12</t>
+          <t>2025-04-29 13:43:03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-29 13:38:12</t>
+          <t>2025-04-29 14:00:03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-04-29 13:38:12</t>
+          <t>2025-04-29 14:00:03</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-30 08:19:30</t>
+          <t>2025-04-29 14:54:10</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11452</v>
+        <v>3843</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -898,18 +895,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251371</v>
+        <v>251182</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -917,33 +911,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>146.9014084507042</v>
+        <v>302.3380281690141</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-30 08:19:30</t>
+          <t>2025-04-29 14:54:10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-30 08:34:30</t>
+          <t>2025-04-30 07:11:10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-04-30 08:34:30</t>
+          <t>2025-04-30 07:11:10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-30 11:01:24</t>
+          <t>2025-04-30 12:13:31</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10430</v>
+        <v>21466</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -964,7 +958,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251301</v>
+        <v>251072</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -975,30 +969,30 @@
         <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>32.32394366197183</v>
+        <v>82.28169014084507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-30 11:01:24</t>
+          <t>2025-04-30 12:13:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-30 11:18:24</t>
+          <t>2025-04-30 12:30:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-04-30 11:18:24</t>
+          <t>2025-04-30 12:30:31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-30 11:50:43</t>
+          <t>2025-04-30 13:52:48</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2295</v>
+        <v>5842</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1011,49 +1005,52 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251300</v>
+        <v>251304</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>54.12676056338028</v>
+        <v>60.87272727272727</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-30 11:50:43</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-30 12:05:43</t>
+          <t>2025-04-28 07:34:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-04-30 12:05:43</t>
+          <t>2025-04-28 07:34:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-30 12:59:51</t>
+          <t>2025-04-28 08:35:22</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3843</v>
+        <v>3348</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1066,7 +1063,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1074,41 +1071,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251182</v>
+        <v>251591</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>36.5</v>
       </c>
       <c r="D12" t="n">
-        <v>302.3380281690141</v>
+        <v>72.8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-30 12:59:51</t>
+          <t>2025-04-28 08:35:22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-30 13:16:51</t>
+          <t>2025-04-28 09:11:52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-04-30 13:16:51</t>
+          <t>2025-04-28 09:11:52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-01 10:19:11</t>
+          <t>2025-04-28 10:24:40</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>21466</v>
+        <v>4004</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1121,7 +1118,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1129,41 +1126,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250819</v>
+        <v>251567</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D13" t="n">
-        <v>120.0985915492958</v>
+        <v>73.14545454545454</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-01 10:19:11</t>
+          <t>2025-04-28 10:24:40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-01 10:38:11</t>
+          <t>2025-04-28 10:59:10</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-01 10:38:11</t>
+          <t>2025-04-28 10:59:10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-01 12:38:17</t>
+          <t>2025-04-28 12:12:19</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8527</v>
+        <v>4023</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1176,18 +1173,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251304</v>
+        <v>250866</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1198,30 +1192,30 @@
         <v>34.5</v>
       </c>
       <c r="D14" t="n">
-        <v>60.87272727272727</v>
+        <v>93.01818181818182</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-28 07:00:00</t>
+          <t>2025-04-28 12:12:19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-28 07:34:30</t>
+          <t>2025-04-28 12:46:49</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-04-28 07:34:30</t>
+          <t>2025-04-28 12:46:49</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-28 08:35:22</t>
+          <t>2025-04-28 14:19:50</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3348</v>
+        <v>5116</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1234,49 +1228,52 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39710</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251591</v>
+        <v>251593</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>72.8</v>
+        <v>57.57377049180328</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-28 08:35:22</t>
+          <t>2025-04-24 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-28 09:11:52</t>
+          <t>2025-04-24 07:30:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-04-28 09:11:52</t>
+          <t>2025-04-24 07:30:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-28 10:24:40</t>
+          <t>2025-04-24 08:27:34</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4004</v>
+        <v>3512</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1297,41 +1294,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251567</v>
+        <v>251519</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
-        <v>73.14545454545454</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-28 10:24:40</t>
+          <t>2025-04-24 08:27:34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-28 10:59:10</t>
+          <t>2025-04-24 09:07:34</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-04-28 10:59:10</t>
+          <t>2025-04-24 09:07:34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-28 12:12:19</t>
+          <t>2025-04-24 12:43:33</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4023</v>
+        <v>13175</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1344,7 +1341,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1352,41 +1349,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250866</v>
+        <v>251368</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>93.01818181818182</v>
+        <v>146.2131147540984</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-28 12:12:19</t>
+          <t>2025-04-24 12:43:33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-28 12:46:49</t>
+          <t>2025-04-24 13:13:33</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-04-28 12:46:49</t>
+          <t>2025-04-24 13:13:33</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-28 14:19:50</t>
+          <t>2025-04-25 07:39:46</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5116</v>
+        <v>8919</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1399,52 +1396,49 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251846</v>
+        <v>251308</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38.5</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>207.1272727272727</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-28 14:19:50</t>
+          <t>2025-04-25 07:39:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-28 14:58:20</t>
+          <t>2025-04-25 07:59:46</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-04-28 14:58:20</t>
+          <t>2025-04-25 07:59:46</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-04-29 10:25:27</t>
+          <t>2025-04-25 09:21:44</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>11392</v>
+        <v>5000</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1457,18 +1451,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251308</v>
+        <v>251168</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1479,30 +1470,30 @@
         <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>81.9672131147541</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-24 07:00:00</t>
+          <t>2025-04-25 09:21:44</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-04-24 07:20:00</t>
+          <t>2025-04-25 09:41:44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-04-24 07:20:00</t>
+          <t>2025-04-25 09:41:44</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-24 08:41:58</t>
+          <t>2025-04-25 12:04:02</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5000</v>
+        <v>8681</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1523,7 +1514,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251168</v>
+        <v>251167</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1534,30 +1525,30 @@
         <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3114754098361</v>
+        <v>173.655737704918</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-24 08:41:58</t>
+          <t>2025-04-25 12:04:02</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-24 09:01:58</t>
+          <t>2025-04-25 12:24:02</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-04-24 09:01:58</t>
+          <t>2025-04-25 12:24:02</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-24 11:24:16</t>
+          <t>2025-04-28 07:17:42</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8681</v>
+        <v>10593</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1578,7 +1569,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251167</v>
+        <v>250448</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1586,33 +1577,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>173.655737704918</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-24 11:24:16</t>
+          <t>2025-04-28 07:17:42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-24 11:44:16</t>
+          <t>2025-04-28 07:47:42</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-04-24 11:44:16</t>
+          <t>2025-04-28 07:47:42</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-24 14:37:56</t>
+          <t>2025-04-28 11:54:58</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10593</v>
+        <v>15083</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1625,7 +1616,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1633,7 +1624,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250448</v>
+        <v>250946</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1644,30 +1635,30 @@
         <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>247.2622950819672</v>
+        <v>181.4098360655738</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-24 14:37:56</t>
+          <t>2025-04-28 11:54:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-25 07:07:56</t>
+          <t>2025-04-28 12:24:58</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-04-25 07:07:56</t>
+          <t>2025-04-28 12:24:58</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-25 11:15:11</t>
+          <t>2025-04-29 07:26:22</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>15083</v>
+        <v>11066</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1680,7 +1671,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -1688,7 +1679,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250946</v>
+        <v>250449</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1696,33 +1687,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>181.4098360655738</v>
+        <v>327.9836065573771</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-25 11:15:11</t>
+          <t>2025-04-29 07:26:22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-04-25 11:45:11</t>
+          <t>2025-04-29 07:51:22</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-04-25 11:45:11</t>
+          <t>2025-04-29 07:51:22</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-04-25 14:46:36</t>
+          <t>2025-04-29 13:19:21</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11066</v>
+        <v>20007</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1735,7 +1726,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -1743,7 +1734,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250449</v>
+        <v>250867</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1751,33 +1742,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
-        <v>327.9836065573771</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-25 14:46:36</t>
+          <t>2025-04-29 13:19:21</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-04-28 07:11:36</t>
+          <t>2025-04-29 13:54:21</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-04-28 07:11:36</t>
+          <t>2025-04-29 13:54:21</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-04-28 12:39:35</t>
+          <t>2025-04-30 08:14:08</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>20007</v>
+        <v>8527</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1790,49 +1781,52 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39710</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250867</v>
+        <v>245623</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>139.7868852459016</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-28 12:39:35</t>
+          <t>2025-04-24 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-04-28 13:14:35</t>
+          <t>2025-04-24 07:34:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-04-28 13:14:35</t>
+          <t>2025-04-24 07:34:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-04-29 07:34:22</t>
+          <t>2025-04-24 13:46:05</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8527</v>
+        <v>26419</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1841,22 +1835,19 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>245623</v>
+        <v>250825</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1864,33 +1855,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>372.0985915492957</v>
+        <v>309.9718309859155</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-24 07:00:00</t>
+          <t>2025-04-24 13:46:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-04-24 07:34:00</t>
+          <t>2025-04-24 14:16:05</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-04-24 07:34:00</t>
+          <t>2025-04-24 14:16:05</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-04-24 13:46:05</t>
+          <t>2025-04-25 11:26:04</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>26419</v>
+        <v>22008</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1899,19 +1890,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>250825</v>
+        <v>250899</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1919,33 +1910,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>309.9718309859155</v>
+        <v>115.5070422535211</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-24 13:46:05</t>
+          <t>2025-04-25 11:26:04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-04-24 14:16:05</t>
+          <t>2025-04-25 11:45:04</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-04-24 14:16:05</t>
+          <t>2025-04-25 11:45:04</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-04-25 11:26:04</t>
+          <t>2025-04-25 13:40:34</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>22008</v>
+        <v>8201</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1954,11 +1945,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>76</v>
@@ -1966,7 +1957,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>250899</v>
+        <v>250720</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1974,33 +1965,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>115.5070422535211</v>
+        <v>147.9014084507042</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-25 11:26:04</t>
+          <t>2025-04-25 13:40:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-04-25 11:45:04</t>
+          <t>2025-04-25 13:57:34</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-04-25 11:45:04</t>
+          <t>2025-04-25 13:57:34</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-04-25 13:40:34</t>
+          <t>2025-04-28 08:25:28</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>8201</v>
+        <v>10501</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2009,11 +2000,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>76</v>
@@ -2021,7 +2012,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250720</v>
+        <v>245089</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2032,30 +2023,30 @@
         <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>147.9014084507042</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-25 13:40:34</t>
+          <t>2025-04-28 08:25:28</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-04-25 13:57:34</t>
+          <t>2025-04-28 08:42:28</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-04-25 13:57:34</t>
+          <t>2025-04-28 08:42:28</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-04-28 08:25:28</t>
+          <t>2025-05-01 13:30:09</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>10501</v>
+        <v>122665</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2064,11 +2055,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>76</v>
@@ -2076,41 +2067,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>245089</v>
+        <v>251334</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D30" t="n">
-        <v>1727.676056338028</v>
+        <v>377.3877551020408</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-28 08:25:28</t>
+          <t>2025-04-28 07:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-04-28 08:42:28</t>
+          <t>2025-04-28 07:42:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-04-28 08:42:28</t>
+          <t>2025-04-28 07:42:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-01 13:30:09</t>
+          <t>2025-04-28 13:59:23</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>122665</v>
+        <v>18492</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2119,14 +2110,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -2236,229 +2227,6 @@
         <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>251109</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>85</v>
-      </c>
-      <c r="D33" t="n">
-        <v>266.5915492957747</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2025-04-28 14:17:23</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2025-04-29 07:42:23</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2025-04-29 07:42:23</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-04-29 12:08:59</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>18928</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>16</v>
-      </c>
-      <c r="M33" t="n">
-        <v>70</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>251368</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>35</v>
-      </c>
-      <c r="D34" t="n">
-        <v>129.2608695652174</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2025-04-28 07:00:00</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2025-04-28 07:35:00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2025-04-28 07:35:00</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-04-28 09:44:15</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>8919</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>251593</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>35</v>
-      </c>
-      <c r="D35" t="n">
-        <v>50.89855072463768</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2025-04-28 09:44:15</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2025-04-28 10:19:15</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2025-04-28 10:19:15</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-04-28 11:10:09</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>3512</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>6</v>
-      </c>
-      <c r="M35" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>251519</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>45</v>
-      </c>
-      <c r="D36" t="n">
-        <v>190.9420289855072</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2025-04-28 11:10:09</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2025-04-28 11:55:09</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2025-04-28 11:55:09</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-04-29 07:06:06</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>13175</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>2</v>
-      </c>
-      <c r="M36" t="n">
         <v>70</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>245623</v>
+        <v>251519</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>412.796875</v>
+        <v>205.859375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -532,21 +532,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:30:00</t>
+          <t>2025-05-07 07:15:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:30:00</t>
+          <t>2025-05-07 07:15:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 14:22:47</t>
+          <t>2025-05-07 10:40:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>26419</v>
+        <v>13175</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,19 +555,24 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>152</v>
+        <v>70</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Veicolo esterno</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251340</v>
+        <v>251229</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -575,33 +580,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>512.5</v>
+        <v>292.796875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 14:22:47</t>
+          <t>2025-05-07 10:40:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 14:52:47</t>
+          <t>2025-05-07 11:03:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 14:52:47</t>
+          <t>2025-05-07 11:03:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:25:17</t>
+          <t>2025-05-08 07:56:39</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>32800</v>
+        <v>18739</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -610,19 +615,24 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Veicolo esterno</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>243569</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -630,10 +640,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>263.9295774647887</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -642,21 +652,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:38:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:38:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:01:55</t>
+          <t>2025-05-08 07:53:38</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>2601</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -665,19 +675,22 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39709</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>245090</v>
+        <v>250759</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -685,33 +698,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>7277.718309859155</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:01:55</t>
+          <t>2025-05-08 07:53:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:33:55</t>
+          <t>2025-05-08 08:10:38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:33:55</t>
+          <t>2025-05-08 08:10:38</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-29 13:51:38</t>
+          <t>2025-05-08 10:08:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>516718</v>
+        <v>8398</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -720,408 +733,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>251519</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>215.983606557377</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:25:00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:25:00</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:00:59</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>13175</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>251795</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" t="n">
-        <v>307.1967213114754</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:00:59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:40:59</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:40:59</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-05-09 08:48:10</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>18739</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>251750</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>32</v>
-      </c>
-      <c r="D8" t="n">
-        <v>54.80281690140845</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:00:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:32:00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:32:00</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:26:48</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>3891</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>32</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1727.676056338028</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:26:48</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:58:48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2025-05-08 13:58:48</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:46:28</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>122665</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>251416</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" t="n">
-        <v>229.0204081632653</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:35:00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:35:00</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:24:01</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>11222</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>251840</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>116.6122448979592</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:24:01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:14:01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:14:01</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:10:37</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>5714</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39755</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>251651</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>37</v>
-      </c>
-      <c r="D12" t="n">
-        <v>955.7142857142857</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:10:37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:47:37</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:47:37</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-05-12 14:43:20</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>46830</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39755</v>
+      <c r="N5" t="n">
+        <v>39709</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Veicolo esterno</t>
+          <t>Veicolo esterno aperto</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Veicolo esterno</t>
+          <t>Veicolo esterno aperto</t>
         </is>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251519</v>
+        <v>251391</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>205.859375</v>
+        <v>167.21875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -532,21 +532,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:15:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:15:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 10:40:51</t>
+          <t>2025-05-07 10:08:13</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13175</v>
+        <v>10702</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,20 +559,24 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Veicolo esterno aperto</t>
-        </is>
+      <c r="N2" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251229</v>
+        <v>251742</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -580,33 +584,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>292.796875</v>
+        <v>128.53125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:40:51</t>
+          <t>2025-05-07 10:08:13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 11:03:51</t>
+          <t>2025-05-07 10:25:13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 11:03:51</t>
+          <t>2025-05-07 10:25:13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:56:39</t>
+          <t>2025-05-07 12:33:45</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18739</v>
+        <v>8226</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -615,58 +619,62 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Veicolo esterno aperto</t>
-        </is>
+      <c r="N3" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>243569</v>
+        <v>245275</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>36.63380281690141</v>
+        <v>352.078125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 12:33:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-07 13:08:45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-07 13:08:45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:38</t>
+          <t>2025-05-08 11:00:49</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2601</v>
+        <v>22533</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -675,75 +683,2917 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39709</v>
+        <v>39754</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250759</v>
+        <v>245623</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>412.796875</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:00:49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:54:49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:54:49</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:47:37</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>26419</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>152</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>245089</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1916.640625</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:47:37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:21:37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:21:37</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-05-15 11:18:15</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>122665</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>251795</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>46</v>
+      </c>
+      <c r="D7" t="n">
+        <v>307.1967213114754</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:46:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:46:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:53:11</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>18739</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>70</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>245350</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>458.5245901639344</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:53:11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:26:11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:26:11</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:04:43</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>27970</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="n">
+        <v>70</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>251465</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>41</v>
+      </c>
+      <c r="D9" t="n">
+        <v>102.0655737704918</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:04:43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:45:43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:45:43</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:27:47</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>6226</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>70</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>251580</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>29</v>
+      </c>
+      <c r="D10" t="n">
+        <v>117.2622950819672</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:27:47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:56:47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:56:47</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:54:02</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>7153</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>70</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>251317</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>BIMEC 5</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D11" t="n">
+        <v>161.8450704225352</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:21:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:21:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:02:50</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>11491</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>251651</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>659.5774647887324</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:02:50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:17:50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:17:50</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:25</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>46830</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>76</v>
+      </c>
+      <c r="N12" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>235572</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>140.2535211267606</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:47:25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:47:25</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:07:40</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>9958</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>70</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>250641</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
-        <v>118.2816901408451</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:53:38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:10:38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:10:38</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:08:54</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>8398</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
+      <c r="D14" t="n">
+        <v>72.05633802816901</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:07:40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:24:40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:24:40</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:36:43</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>5116</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>70</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>251246</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" t="n">
+        <v>169.0422535211268</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:36:43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:51:43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:51:43</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:40:46</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>12002</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>70</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>251463</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>98.12676056338029</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:40:46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:59:46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:59:46</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:37:54</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>6967</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
         <v>4</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M16" t="n">
+        <v>70</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>251467</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>19</v>
+      </c>
+      <c r="D17" t="n">
+        <v>87.69014084507042</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:37:54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:56:54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:56:54</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:24:35</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>6226</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>251986</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5930.323943661971</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:24:35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:02:35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:02:35</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-05-29 11:52:54</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>421053</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" t="n">
         <v>76</v>
       </c>
-      <c r="N5" t="n">
-        <v>39709</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>251455</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>96.30909090909091</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:34:30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:34:30</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:10:48</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>5297</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>70</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>251548</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>240.7636363636364</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:10:48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:41:18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:41:18</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:42:04</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>13242</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>70</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>250819</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>155.0363636363636</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:42:04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:16:34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:16:34</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:51:36</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>8527</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>70</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>251283</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13.70909090909091</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:51:36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:22:06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:22:06</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:35:49</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>754</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>251061</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>411.3454545454546</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:35:49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:06:19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:06:19</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:57:39</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>22624</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251284</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>297.0909090909091</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:57:39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:30:09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:30:09</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:27:15</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>251416</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>183.9672131147541</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:25:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:25:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:28:58</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>251840</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>93.67213114754098</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:28:58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:03:58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:03:58</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:37:38</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>5714</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>70</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>251247</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>441.5409836065574</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:37:38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:02:38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:02:38</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:24:10</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>26934</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>70</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>251846</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>40</v>
+      </c>
+      <c r="D28" t="n">
+        <v>186.7540983606557</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:24:10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:04:10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:04:10</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:10:56</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>11392</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>70</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>40</v>
+      </c>
+      <c r="D29" t="n">
+        <v>16.34426229508197</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:10:56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:50:56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:50:56</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:07:16</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>997</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>6</v>
+      </c>
+      <c r="M29" t="n">
+        <v>70</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>251245</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.36065573770492</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:07:16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:27:16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:27:16</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:39:38</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>754</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>70</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>251458</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>35</v>
+      </c>
+      <c r="D31" t="n">
+        <v>166.6393442622951</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:39:38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:14:38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:14:38</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:01:16</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>10165</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>70</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>251464</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>25</v>
+      </c>
+      <c r="D32" t="n">
+        <v>117.2622950819672</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:01:16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:26:16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:26:16</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:23:32</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>7153</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>70</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>251568</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" t="n">
+        <v>212</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:23:32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:53:32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:53:32</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-05-13 11:25:32</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>12932</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>70</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>251750</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>54.80281690140845</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:00:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:32:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:32:00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:26:48</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>3891</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>152</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>245090</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7277.718309859155</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:26:48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:00:48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:00:48</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-05-30 07:18:31</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>516718</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>76</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>251340</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>37</v>
+      </c>
+      <c r="D36" t="n">
+        <v>669.3877551020408</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:37:00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:37:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:46:23</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>32800</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>76</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>251550</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>42</v>
+      </c>
+      <c r="D37" t="n">
+        <v>727.5714285714286</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:46:23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:28:23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:28:23</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:35:57</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>35651</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>70</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>251062</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>50</v>
+      </c>
+      <c r="D38" t="n">
+        <v>461.7142857142857</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:35:57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:25:57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:25:57</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-05-14 08:07:40</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>22624</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>70</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>251395</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>57</v>
+      </c>
+      <c r="D39" t="n">
+        <v>31.85915492957746</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:57:00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:57:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-05-09 08:28:51</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>2262</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>70</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>251396</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>35</v>
+      </c>
+      <c r="D40" t="n">
+        <v>31.85915492957746</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-05-09 08:28:51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:03:51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:03:51</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:35:43</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>2262</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" t="n">
+        <v>70</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>251547</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>45</v>
+      </c>
+      <c r="D41" t="n">
+        <v>184.9154929577465</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:35:43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:20:43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:20:43</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:25:38</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>13129</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>70</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>251164</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>45</v>
+      </c>
+      <c r="D42" t="n">
+        <v>122.2676056338028</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:25:38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:10:38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:10:38</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:12:54</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>8681</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>70</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>251109</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>85</v>
+      </c>
+      <c r="D43" t="n">
+        <v>266.5915492957747</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:12:54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:37:54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:37:54</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:04:29</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>18928</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>16</v>
+      </c>
+      <c r="M43" t="n">
+        <v>70</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>251462</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>105</v>
+      </c>
+      <c r="D44" t="n">
+        <v>87.69014084507042</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:04:29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:49:29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:49:29</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:17:10</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>6226</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>70</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>251520</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>60</v>
+      </c>
+      <c r="D45" t="n">
+        <v>230.1408450704225</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:17:10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:17:10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:17:10</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:07:19</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>7</v>
+      </c>
+      <c r="M45" t="n">
+        <v>70</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>251346</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>55</v>
+      </c>
+      <c r="D46" t="n">
+        <v>55.92753623188405</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:55:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:55:00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:50:55</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>3859</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>8</v>
+      </c>
+      <c r="M46" t="n">
+        <v>70</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>243335</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" t="n">
+        <v>478.3188405797101</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:50:55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:40:55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:40:55</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:39:14</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>33004</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>152</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>251987</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>40</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3051.101449275362</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:39:14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:19:14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:19:14</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2025-05-21 13:10:20</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>210526</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>6</v>
+      </c>
+      <c r="M48" t="n">
+        <v>76</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251391</v>
+        <v>251561</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>167.21875</v>
+        <v>84.921875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 10:08:13</t>
+          <t>2025-05-07 08:45:55</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>10702</v>
+        <v>5435</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -564,8 +564,10 @@
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="n">
-        <v>39754</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -576,7 +578,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251742</v>
+        <v>251564</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -584,33 +586,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>128.53125</v>
+        <v>42.453125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:08:13</t>
+          <t>2025-05-07 08:45:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:25:13</t>
+          <t>2025-05-07 09:04:55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:25:13</t>
+          <t>2025-05-07 09:04:55</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 12:33:45</t>
+          <t>2025-05-07 09:47:22</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8226</v>
+        <v>2717</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -623,13 +625,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39754</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -640,7 +644,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>245275</v>
+        <v>251566</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -648,33 +652,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>352.078125</v>
+        <v>107.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:33:45</t>
+          <t>2025-05-07 09:47:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 13:08:45</t>
+          <t>2025-05-07 10:04:22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 13:08:45</t>
+          <t>2025-05-07 10:04:22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:49</t>
+          <t>2025-05-07 11:52:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>22533</v>
+        <v>6889</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -683,17 +687,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39754</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,7 +710,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>245623</v>
+        <v>251519</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -712,33 +718,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>412.796875</v>
+        <v>205.859375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:00:49</t>
+          <t>2025-05-07 11:52:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:49</t>
+          <t>2025-05-07 12:11:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:49</t>
+          <t>2025-05-07 12:11:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:37</t>
+          <t>2025-05-08 07:36:52</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>26419</v>
+        <v>13175</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -747,14 +753,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -770,7 +776,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>245089</v>
+        <v>251397</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -778,33 +784,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>1916.640625</v>
+        <v>84.921875</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:37</t>
+          <t>2025-05-08 07:36:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:37</t>
+          <t>2025-05-08 07:53:52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:37</t>
+          <t>2025-05-08 07:53:52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-15 11:18:15</t>
+          <t>2025-05-08 09:18:47</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>122665</v>
+        <v>5435</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -813,14 +819,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -836,41 +842,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251795</v>
+        <v>251475</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>307.1967213114754</v>
+        <v>135.640625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 09:18:47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-08 09:35:47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-08 09:35:47</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:11</t>
+          <t>2025-05-08 11:51:26</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18739</v>
+        <v>8681</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -879,11 +885,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -902,41 +908,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>245350</v>
+        <v>251594</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>458.5245901639344</v>
+        <v>101.03125</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:11</t>
+          <t>2025-05-08 11:51:26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:26:11</t>
+          <t>2025-05-08 12:06:26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:26:11</t>
+          <t>2025-05-08 12:06:26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:04:43</t>
+          <t>2025-05-08 13:47:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>27970</v>
+        <v>6466</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -945,18 +951,18 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -968,41 +974,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251465</v>
+        <v>244355</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>102.0655737704918</v>
+        <v>67.34375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 13:04:43</t>
+          <t>2025-05-08 13:47:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:43</t>
+          <t>2025-05-08 14:02:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:43</t>
+          <t>2025-05-08 14:02:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:47</t>
+          <t>2025-05-09 07:09:48</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6226</v>
+        <v>4310</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1015,14 +1021,14 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1034,41 +1040,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251580</v>
+        <v>245623</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>117.2622950819672</v>
+        <v>412.796875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:47</t>
+          <t>2025-05-09 07:09:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-13 07:56:47</t>
+          <t>2025-05-09 07:43:48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-13 07:56:47</t>
+          <t>2025-05-09 07:43:48</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:02</t>
+          <t>2025-05-09 14:36:36</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7153</v>
+        <v>26419</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1077,18 +1083,18 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1100,41 +1106,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251317</v>
+        <v>245089</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>161.8450704225352</v>
+        <v>1916.640625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 14:36:36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:00</t>
+          <t>2025-05-12 07:10:36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:00</t>
+          <t>2025-05-12 07:10:36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:02:50</t>
+          <t>2025-05-16 07:07:15</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>11491</v>
+        <v>122665</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1143,17 +1149,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>76</v>
       </c>
-      <c r="N11" t="n">
-        <v>39754</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1164,41 +1172,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251651</v>
+        <v>251809</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>659.5774647887324</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:02:50</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:17:50</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:17:50</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:25</t>
+          <t>2025-05-09 10:04:18</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>46830</v>
+        <v>8681</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1207,17 +1215,19 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39755</v>
+        <v>70</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1228,41 +1238,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>235572</v>
+        <v>251795</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>140.2535211267606</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:25</t>
+          <t>2025-05-09 10:04:18</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:47:25</t>
+          <t>2025-05-09 10:33:18</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:47:25</t>
+          <t>2025-05-09 10:33:18</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 08:07:40</t>
+          <t>2025-05-12 07:40:30</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>9958</v>
+        <v>18739</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1271,18 +1281,18 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1294,41 +1304,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250641</v>
+        <v>235572</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>72.05633802816901</v>
+        <v>163.2459016393443</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-12 08:07:40</t>
+          <t>2025-05-12 07:40:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:40</t>
+          <t>2025-05-12 08:07:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:40</t>
+          <t>2025-05-12 08:07:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 09:36:43</t>
+          <t>2025-05-12 10:50:45</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5116</v>
+        <v>9958</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1337,11 +1347,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1360,41 +1370,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251246</v>
+        <v>251259</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>169.0422535211268</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 09:36:43</t>
+          <t>2025-05-12 10:50:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-12 09:51:43</t>
+          <t>2025-05-12 11:23:45</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-12 09:51:43</t>
+          <t>2025-05-12 11:23:45</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 12:40:46</t>
+          <t>2025-05-12 12:45:43</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>12002</v>
+        <v>5000</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1403,11 +1413,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1426,41 +1436,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251463</v>
+        <v>250759</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>98.12676056338029</v>
+        <v>137.672131147541</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:40:46</t>
+          <t>2025-05-12 12:45:43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:46</t>
+          <t>2025-05-12 13:35:43</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:46</t>
+          <t>2025-05-12 13:35:43</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:54</t>
+          <t>2025-05-13 07:53:23</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6967</v>
+        <v>8398</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1469,64 +1479,66 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251467</v>
+        <v>251421</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>87.69014084507042</v>
+        <v>85.9672131147541</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:54</t>
+          <t>2025-05-13 07:53:23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:54</t>
+          <t>2025-05-13 08:20:23</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:54</t>
+          <t>2025-05-13 08:20:23</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:35</t>
+          <t>2025-05-13 09:46:21</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>6226</v>
+        <v>5244</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1535,64 +1547,66 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39762</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251986</v>
+        <v>251463</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D18" t="n">
-        <v>5930.323943661971</v>
+        <v>114.2131147540984</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:35</t>
+          <t>2025-05-13 09:46:21</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:35</t>
+          <t>2025-05-13 10:28:21</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:35</t>
+          <t>2025-05-13 10:28:21</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-29 11:52:54</t>
+          <t>2025-05-13 12:22:34</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>421053</v>
+        <v>6967</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1601,14 +1615,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1624,41 +1638,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251462</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34.5</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>96.30909090909091</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 12:22:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-13 12:51:34</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-13 12:51:34</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 09:10:48</t>
+          <t>2025-05-13 14:33:38</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>6226</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1671,7 +1685,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1690,41 +1704,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251548</v>
+        <v>251062</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30.5</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>240.7636363636364</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:10:48</t>
+          <t>2025-05-13 14:33:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:41:18</t>
+          <t>2025-05-14 07:06:38</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:41:18</t>
+          <t>2025-05-14 07:06:38</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 13:42:04</t>
+          <t>2025-05-14 13:17:31</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13242</v>
+        <v>22624</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1733,11 +1747,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1756,41 +1770,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250819</v>
+        <v>251340</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>155.0363636363636</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-09 13:42:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 14:16:34</t>
+          <t>2025-05-08 07:15:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 14:16:34</t>
+          <t>2025-05-08 07:15:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 08:51:36</t>
+          <t>2025-05-08 14:56:58</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>8527</v>
+        <v>32800</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1799,18 +1813,18 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1822,41 +1836,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251283</v>
+        <v>251743</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30.5</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>13.70909090909091</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12 08:51:36</t>
+          <t>2025-05-08 14:56:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-12 09:22:06</t>
+          <t>2025-05-09 07:30:58</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-12 09:22:06</t>
+          <t>2025-05-09 07:30:58</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-12 09:35:49</t>
+          <t>2025-05-09 10:02:44</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>754</v>
+        <v>10776</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1865,18 +1879,18 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -1888,41 +1902,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251061</v>
+        <v>251750</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30.5</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>411.3454545454546</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 09:35:49</t>
+          <t>2025-05-09 10:02:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:19</t>
+          <t>2025-05-09 10:34:44</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:19</t>
+          <t>2025-05-09 10:34:44</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:39</t>
+          <t>2025-05-09 11:29:32</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>22624</v>
+        <v>3891</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1931,18 +1945,18 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -1954,41 +1968,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251284</v>
+        <v>245090</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>297.0909090909091</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:39</t>
+          <t>2025-05-09 11:29:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-13 09:30:09</t>
+          <t>2025-05-09 12:03:32</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-13 09:30:09</t>
+          <t>2025-05-09 12:03:32</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:15</t>
+          <t>2025-05-30 13:21:16</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>16340</v>
+        <v>516718</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1997,18 +2011,18 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2024,33 +2038,33 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D25" t="n">
-        <v>183.9672131147541</v>
+        <v>204.0363636363636</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-09 07:30:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-09 07:30:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:28:58</t>
+          <t>2025-05-09 10:54:32</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2084,41 +2098,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251840</v>
+        <v>251505</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="D26" t="n">
-        <v>93.67213114754098</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:28:58</t>
+          <t>2025-05-09 10:54:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:03:58</t>
+          <t>2025-05-09 11:31:02</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:03:58</t>
+          <t>2025-05-09 11:31:02</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:38</t>
+          <t>2025-05-12 07:50:13</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5714</v>
+        <v>14255</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2136,8 +2150,10 @@
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="n">
-        <v>39755</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2148,41 +2164,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251247</v>
+        <v>250819</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D27" t="n">
-        <v>441.5409836065574</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:38</t>
+          <t>2025-05-12 07:50:13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 13:02:38</t>
+          <t>2025-05-12 08:22:43</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 13:02:38</t>
+          <t>2025-05-12 08:22:43</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:24:10</t>
+          <t>2025-05-12 10:57:45</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>26934</v>
+        <v>8527</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2191,7 +2207,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2200,8 +2216,10 @@
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="N27" t="n">
-        <v>39754</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2212,41 +2230,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251846</v>
+        <v>251761</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="D28" t="n">
-        <v>186.7540983606557</v>
+        <v>241.4363636363636</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 12:24:10</t>
+          <t>2025-05-12 10:57:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 13:04:10</t>
+          <t>2025-05-12 11:32:15</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 13:04:10</t>
+          <t>2025-05-12 11:32:15</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-12 08:10:56</t>
+          <t>2025-05-13 07:33:41</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>11392</v>
+        <v>13279</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2259,7 +2277,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2278,41 +2296,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>244023</v>
+        <v>251246</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="D29" t="n">
-        <v>16.34426229508197</v>
+        <v>218.2181818181818</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-12 08:10:56</t>
+          <t>2025-05-13 07:33:41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:56</t>
+          <t>2025-05-13 08:08:11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:56</t>
+          <t>2025-05-13 08:08:11</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:16</t>
+          <t>2025-05-13 11:46:24</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>997</v>
+        <v>12002</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2321,7 +2339,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2344,41 +2362,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251245</v>
+        <v>251465</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>38.5</v>
       </c>
       <c r="D30" t="n">
-        <v>12.36065573770492</v>
+        <v>113.2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:16</t>
+          <t>2025-05-13 11:46:24</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:16</t>
+          <t>2025-05-13 12:24:54</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:16</t>
+          <t>2025-05-13 12:24:54</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:38</t>
+          <t>2025-05-13 14:18:06</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>754</v>
+        <v>6226</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2387,11 +2405,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2410,41 +2428,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251458</v>
+        <v>251557</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>35</v>
+        <v>30.5</v>
       </c>
       <c r="D31" t="n">
-        <v>166.6393442622951</v>
+        <v>121.9090909090909</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:38</t>
+          <t>2025-05-13 14:18:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 10:14:38</t>
+          <t>2025-05-13 14:48:36</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 10:14:38</t>
+          <t>2025-05-13 14:48:36</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:16</t>
+          <t>2025-05-14 08:50:31</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>10165</v>
+        <v>6705</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2457,7 +2475,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2476,41 +2494,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251464</v>
+        <v>251252</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>38.5</v>
       </c>
       <c r="D32" t="n">
-        <v>117.2622950819672</v>
+        <v>274.2363636363636</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:16</t>
+          <t>2025-05-14 08:50:31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:16</t>
+          <t>2025-05-14 09:29:01</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:16</t>
+          <t>2025-05-14 09:29:01</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:32</t>
+          <t>2025-05-14 14:03:15</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>7153</v>
+        <v>15083</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2519,11 +2537,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2542,7 +2560,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251568</v>
+        <v>251373</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2550,33 +2568,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
-        <v>212</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:32</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-13 07:53:32</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-13 07:53:32</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-13 11:25:32</t>
+          <t>2025-05-08 12:15:13</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>12932</v>
+        <v>17094</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2589,14 +2607,14 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -2608,41 +2626,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251750</v>
+        <v>244354</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>54.80281690140845</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 12:15:13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:32:00</t>
+          <t>2025-05-08 12:40:13</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:32:00</t>
+          <t>2025-05-08 12:40:13</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-08 13:26:48</t>
+          <t>2025-05-08 13:50:53</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3891</v>
+        <v>4310</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2651,14 +2669,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2674,41 +2692,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>245090</v>
+        <v>244204</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>7277.718309859155</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-08 13:26:48</t>
+          <t>2025-05-08 13:50:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-08 14:00:48</t>
+          <t>2025-05-08 14:10:53</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-08 14:00:48</t>
+          <t>2025-05-08 14:10:53</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-30 07:18:31</t>
+          <t>2025-05-09 07:07:48</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>516718</v>
+        <v>3472</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2740,41 +2758,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251340</v>
+        <v>251260</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>669.3877551020408</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:07:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:37:00</t>
+          <t>2025-05-09 07:37:48</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:37:00</t>
+          <t>2025-05-09 07:37:48</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:46:23</t>
+          <t>2025-05-09 10:11:23</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>32800</v>
+        <v>9369</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2783,14 +2801,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2806,41 +2824,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251550</v>
+        <v>251546</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>727.5714285714286</v>
+        <v>106</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 10:46:23</t>
+          <t>2025-05-09 10:11:23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 11:28:23</t>
+          <t>2025-05-09 10:36:23</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 11:28:23</t>
+          <t>2025-05-09 10:36:23</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:57</t>
+          <t>2025-05-09 12:22:23</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>35651</v>
+        <v>6466</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2853,7 +2871,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -2872,41 +2890,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251062</v>
+        <v>251846</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
-        <v>461.7142857142857</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:57</t>
+          <t>2025-05-09 12:22:23</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:57</t>
+          <t>2025-05-09 12:57:23</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:57</t>
+          <t>2025-05-09 12:57:23</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-14 08:07:40</t>
+          <t>2025-05-12 08:04:08</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>22624</v>
+        <v>11392</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2915,11 +2933,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -2938,41 +2956,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251395</v>
+        <v>251485</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
-        <v>31.85915492957746</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 08:04:08</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-12 08:39:08</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-12 08:39:08</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 08:28:51</t>
+          <t>2025-05-12 09:57:58</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2262</v>
+        <v>4808</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2985,7 +3003,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3004,41 +3022,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251396</v>
+        <v>251346</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>35</v>
       </c>
       <c r="D40" t="n">
-        <v>31.85915492957746</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 08:28:51</t>
+          <t>2025-05-12 09:57:58</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 09:03:51</t>
+          <t>2025-05-12 10:32:58</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 09:03:51</t>
+          <t>2025-05-12 10:32:58</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 09:35:43</t>
+          <t>2025-05-12 11:36:13</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2262</v>
+        <v>3859</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3051,7 +3069,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3070,41 +3088,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251547</v>
+        <v>244023</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>184.9154929577465</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 09:35:43</t>
+          <t>2025-05-12 11:36:13</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 10:20:43</t>
+          <t>2025-05-12 12:06:13</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 10:20:43</t>
+          <t>2025-05-12 12:06:13</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:25:38</t>
+          <t>2025-05-12 12:22:34</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>13129</v>
+        <v>997</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3117,7 +3135,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3136,41 +3154,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251164</v>
+        <v>251283</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>122.2676056338028</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 13:25:38</t>
+          <t>2025-05-12 12:22:34</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:10:38</t>
+          <t>2025-05-12 12:42:34</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:10:38</t>
+          <t>2025-05-12 12:42:34</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:54</t>
+          <t>2025-05-12 12:54:56</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8681</v>
+        <v>754</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3179,7 +3197,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -3202,41 +3220,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251109</v>
+        <v>251245</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>266.5915492957747</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:54</t>
+          <t>2025-05-12 12:54:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:37:54</t>
+          <t>2025-05-12 13:14:56</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 09:37:54</t>
+          <t>2025-05-12 13:14:56</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 14:04:29</t>
+          <t>2025-05-12 13:27:17</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>18928</v>
+        <v>754</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3245,11 +3263,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3268,41 +3286,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251462</v>
+        <v>251247</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>87.69014084507042</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:04:29</t>
+          <t>2025-05-12 13:27:17</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:29</t>
+          <t>2025-05-12 13:47:17</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:29</t>
+          <t>2025-05-12 13:47:17</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:10</t>
+          <t>2025-05-13 13:08:50</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6226</v>
+        <v>26934</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3311,11 +3329,11 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3334,41 +3352,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251520</v>
+        <v>251374</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>230.1408450704225</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:10</t>
+          <t>2025-05-13 13:08:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 10:17:10</t>
+          <t>2025-05-13 13:33:50</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 10:17:10</t>
+          <t>2025-05-13 13:33:50</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:19</t>
+          <t>2025-05-14 13:02:04</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>16340</v>
+        <v>27343</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3377,7 +3395,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3400,41 +3418,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251346</v>
+        <v>251651</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D46" t="n">
-        <v>55.92753623188405</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 07:55:00</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 07:55:00</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:55</t>
+          <t>2025-05-12 07:20:34</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3859</v>
+        <v>46830</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3443,19 +3461,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N46" t="n">
+        <v>39755</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3466,41 +3482,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243335</v>
+        <v>251268</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>478.3188405797101</v>
+        <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:55</t>
+          <t>2025-05-12 07:20:34</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 09:40:55</t>
+          <t>2025-05-12 07:37:34</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 09:40:55</t>
+          <t>2025-05-12 07:37:34</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-13 09:39:14</t>
+          <t>2025-05-12 07:37:34</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>33004</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3509,64 +3525,66 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
           <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251987</v>
+        <v>243569</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>3051.101449275362</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-13 09:39:14</t>
+          <t>2025-05-12 07:37:34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:14</t>
+          <t>2025-05-12 07:54:34</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:14</t>
+          <t>2025-05-12 07:54:34</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-21 13:10:20</t>
+          <t>2025-05-12 08:31:12</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>210526</v>
+        <v>2601</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3575,11 +3593,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
         <v>76</v>
@@ -3593,6 +3611,1530 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>250670</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>17</v>
+      </c>
+      <c r="D49" t="n">
+        <v>22.01408450704225</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:31:12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:48:12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:48:12</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:10:13</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1563</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>4</v>
+      </c>
+      <c r="M49" t="n">
+        <v>76</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>243335</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>30</v>
+      </c>
+      <c r="D50" t="n">
+        <v>464.8450704225352</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:10:13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:40:13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:40:13</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:25:04</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>33004</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>4</v>
+      </c>
+      <c r="M50" t="n">
+        <v>152</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>251987</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>34</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2965.154929577465</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:25:04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:59:04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:59:04</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2025-05-21 11:24:13</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>210526</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>6</v>
+      </c>
+      <c r="M51" t="n">
+        <v>76</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>251424</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>45</v>
+      </c>
+      <c r="D52" t="n">
+        <v>197.1836734693877</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:45:00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:45:00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:02:11</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>9662</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>70</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>250894</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>42</v>
+      </c>
+      <c r="D53" t="n">
+        <v>903.3061224489796</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:02:11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:44:11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:44:11</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:47:29</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>5</v>
+      </c>
+      <c r="M53" t="n">
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>250641</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>42</v>
+      </c>
+      <c r="D54" t="n">
+        <v>104.4081632653061</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:47:29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:29:29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:29:29</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:13:53</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>5116</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>6</v>
+      </c>
+      <c r="M54" t="n">
+        <v>70</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>251061</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>35</v>
+      </c>
+      <c r="D55" t="n">
+        <v>489.734693877551</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:13:53</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:48:53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:48:53</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2025-05-13 13:58:37</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>23997</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>6</v>
+      </c>
+      <c r="M55" t="n">
+        <v>70</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>251580</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>45</v>
+      </c>
+      <c r="D56" t="n">
+        <v>145.9795918367347</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025-05-13 13:58:37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:43:37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:43:37</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:09:36</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>7153</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>70</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>251249</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>45</v>
+      </c>
+      <c r="D57" t="n">
+        <v>97.10204081632654</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:09:36</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:54:36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:54:36</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:31:42</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>4758</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>6</v>
+      </c>
+      <c r="M57" t="n">
+        <v>70</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>251453</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>42</v>
+      </c>
+      <c r="D58" t="n">
+        <v>70.4225352112676</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:42:00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:42:00</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2025-05-09 08:52:25</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>70</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>39742</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>251626</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>35</v>
+      </c>
+      <c r="D59" t="n">
+        <v>176.056338028169</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2025-05-09 08:52:25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:27:25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:27:25</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:23:28</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>12500</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>3</v>
+      </c>
+      <c r="M59" t="n">
+        <v>70</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>245275</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>90</v>
+      </c>
+      <c r="D60" t="n">
+        <v>342.1690140845071</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:23:28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:53:28</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:53:28</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:35:38</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>24294</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>14</v>
+      </c>
+      <c r="M60" t="n">
+        <v>70</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>251109</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>45</v>
+      </c>
+      <c r="D61" t="n">
+        <v>266.5915492957747</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:35:38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:20:38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:20:38</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:47:14</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>18928</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>16</v>
+      </c>
+      <c r="M61" t="n">
+        <v>70</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>251456</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>100</v>
+      </c>
+      <c r="D62" t="n">
+        <v>126.7464788732394</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:47:14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:27:14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:27:14</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:33:59</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>8999</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>3</v>
+      </c>
+      <c r="M62" t="n">
+        <v>70</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>39746</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>251520</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>55</v>
+      </c>
+      <c r="D63" t="n">
+        <v>230.1408450704225</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:33:59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-05-13 13:28:59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2025-05-13 13:28:59</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:19:07</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>7</v>
+      </c>
+      <c r="M63" t="n">
+        <v>70</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>245350</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>65</v>
+      </c>
+      <c r="D64" t="n">
+        <v>405.3623188405797</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:05:00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:05:00</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:50:21</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>27970</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>10</v>
+      </c>
+      <c r="M64" t="n">
+        <v>70</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>251225</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>60</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:50:21</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:50:21</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:50:21</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:50:21</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" t="n">
+        <v>76</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>39747</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>251227</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>25</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:50:21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:15:21</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:15:21</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:15:21</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>76</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>39746</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>251466</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>35</v>
+      </c>
+      <c r="D67" t="n">
+        <v>80.68115942028986</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:15:21</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:50:21</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-05-13 08:50:21</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:11:02</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>5567</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>70</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>251464</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>30</v>
+      </c>
+      <c r="D68" t="n">
+        <v>103.6666666666667</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:11:02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:41:02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:41:02</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:24:42</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>7153</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>4</v>
+      </c>
+      <c r="M68" t="n">
+        <v>70</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>251467</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>35</v>
+      </c>
+      <c r="D69" t="n">
+        <v>90.23188405797102</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:24:42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:59:42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:59:42</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:29:56</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>6226</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>70</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>251562</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>25</v>
+      </c>
+      <c r="D70" t="n">
+        <v>118</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:29:56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:54:56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:54:56</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2025-05-14 08:52:56</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>8142</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>70</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>251251</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>45</v>
+      </c>
+      <c r="D71" t="n">
+        <v>229.8550724637681</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2025-05-14 08:52:56</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:37:56</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:37:56</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2025-05-14 13:27:47</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>15860</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>6</v>
+      </c>
+      <c r="M71" t="n">
+        <v>70</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251561</v>
+        <v>251485</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>84.921875</v>
+        <v>75.125</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 08:45:55</t>
+          <t>2025-05-07 08:36:07</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5435</v>
+        <v>4808</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -578,7 +578,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251564</v>
+        <v>251626</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -589,30 +589,30 @@
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>42.453125</v>
+        <v>195.3125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:45:55</t>
+          <t>2025-05-07 08:36:07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:04:55</t>
+          <t>2025-05-07 08:55:07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:04:55</t>
+          <t>2025-05-07 08:55:07</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:47:22</t>
+          <t>2025-05-07 12:10:26</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2717</v>
+        <v>12500</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -644,7 +644,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251566</v>
+        <v>251424</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -655,30 +655,30 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>107.640625</v>
+        <v>150.96875</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:47:22</t>
+          <t>2025-05-07 12:10:26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:04:22</t>
+          <t>2025-05-07 12:27:26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:04:22</t>
+          <t>2025-05-07 12:27:26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 11:52:00</t>
+          <t>2025-05-07 14:58:24</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6889</v>
+        <v>9662</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251519</v>
+        <v>251416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -721,30 +721,30 @@
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>205.859375</v>
+        <v>175.34375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:52:00</t>
+          <t>2025-05-07 14:58:24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:11:00</t>
+          <t>2025-05-08 07:17:24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:11:00</t>
+          <t>2025-05-08 07:17:24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:36:52</t>
+          <t>2025-05-08 10:12:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13175</v>
+        <v>11222</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -762,10 +762,8 @@
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
+      <c r="N5" t="n">
+        <v>39755</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -776,7 +774,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251397</v>
+        <v>251251</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -784,33 +782,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>84.921875</v>
+        <v>247.8125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:36:52</t>
+          <t>2025-05-08 10:12:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:52</t>
+          <t>2025-05-08 10:35:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:52</t>
+          <t>2025-05-08 10:35:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:18:47</t>
+          <t>2025-05-08 14:43:33</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5435</v>
+        <v>15860</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -819,18 +817,18 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -842,7 +840,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251475</v>
+        <v>251809</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -850,29 +848,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>135.640625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:18:47</t>
+          <t>2025-05-08 14:43:33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:35:47</t>
+          <t>2025-05-09 07:02:33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:35:47</t>
+          <t>2025-05-09 07:02:33</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:51:26</t>
+          <t>2025-05-09 09:18:12</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -908,7 +906,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251594</v>
+        <v>251564</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -916,33 +914,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>101.03125</v>
+        <v>42.453125</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:51:26</t>
+          <t>2025-05-09 09:18:12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:26</t>
+          <t>2025-05-09 09:35:12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:26</t>
+          <t>2025-05-09 09:35:12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 13:47:28</t>
+          <t>2025-05-09 10:17:39</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6466</v>
+        <v>2717</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -955,7 +953,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -974,7 +972,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>244355</v>
+        <v>251566</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -982,33 +980,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>67.34375</v>
+        <v>107.640625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 13:47:28</t>
+          <t>2025-05-09 10:17:39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 14:02:28</t>
+          <t>2025-05-09 10:34:39</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 14:02:28</t>
+          <t>2025-05-09 10:34:39</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:09:48</t>
+          <t>2025-05-09 12:22:17</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4310</v>
+        <v>6889</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1040,7 +1038,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>245623</v>
+        <v>251519</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1048,33 +1046,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>412.796875</v>
+        <v>205.859375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:09:48</t>
+          <t>2025-05-09 12:22:17</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:48</t>
+          <t>2025-05-09 12:41:17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:48</t>
+          <t>2025-05-09 12:41:17</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:36</t>
+          <t>2025-05-12 08:07:09</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>26419</v>
+        <v>13175</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1083,14 +1081,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1106,7 +1104,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>245089</v>
+        <v>251397</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1114,33 +1112,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>1916.640625</v>
+        <v>84.921875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:36</t>
+          <t>2025-05-12 08:07:09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:36</t>
+          <t>2025-05-12 08:24:09</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:36</t>
+          <t>2025-05-12 08:24:09</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-16 07:07:15</t>
+          <t>2025-05-12 09:49:04</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>122665</v>
+        <v>5435</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1149,14 +1147,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1172,37 +1170,37 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251809</v>
+        <v>251475</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>142.3114754098361</v>
+        <v>135.640625</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 09:49:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 10:06:04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 10:06:04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:18</t>
+          <t>2025-05-12 12:21:43</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1238,41 +1236,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251795</v>
+        <v>251594</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>307.1967213114754</v>
+        <v>101.03125</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:18</t>
+          <t>2025-05-12 12:21:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:33:18</t>
+          <t>2025-05-12 12:36:43</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:33:18</t>
+          <t>2025-05-12 12:36:43</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:30</t>
+          <t>2025-05-12 14:17:45</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>18739</v>
+        <v>6466</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1281,11 +1279,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1304,41 +1302,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>235572</v>
+        <v>244355</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>163.2459016393443</v>
+        <v>67.34375</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:30</t>
+          <t>2025-05-12 14:17:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-12 08:07:30</t>
+          <t>2025-05-12 14:32:45</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-12 08:07:30</t>
+          <t>2025-05-12 14:32:45</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:45</t>
+          <t>2025-05-13 07:40:05</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>9958</v>
+        <v>4310</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1347,18 +1345,18 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1370,41 +1368,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251259</v>
+        <v>251561</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>81.9672131147541</v>
+        <v>84.921875</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:45</t>
+          <t>2025-05-13 07:40:05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:45</t>
+          <t>2025-05-13 07:57:05</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:45</t>
+          <t>2025-05-13 07:57:05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 12:45:43</t>
+          <t>2025-05-13 09:22:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5000</v>
+        <v>5435</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1417,14 +1415,14 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1436,41 +1434,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250759</v>
+        <v>251987</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>137.672131147541</v>
+        <v>3289.46875</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:45:43</t>
+          <t>2025-05-13 09:22:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:43</t>
+          <t>2025-05-13 09:54:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:43</t>
+          <t>2025-05-13 09:54:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-13 07:53:23</t>
+          <t>2025-05-22 08:43:29</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8398</v>
+        <v>210526</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1479,11 +1477,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>76</v>
@@ -1493,18 +1491,16 @@
           <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251421</v>
+        <v>250894</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1512,33 +1508,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>85.9672131147541</v>
+        <v>725.6065573770492</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-13 07:53:23</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-13 08:20:23</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-13 08:20:23</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-13 09:46:21</t>
+          <t>2025-05-12 11:34:36</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5244</v>
+        <v>44262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1547,32 +1543,28 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>76</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N17" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251463</v>
+        <v>235572</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1580,33 +1572,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>114.2131147540984</v>
+        <v>163.2459016393443</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-13 09:46:21</t>
+          <t>2025-05-12 11:34:36</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 10:28:21</t>
+          <t>2025-05-12 12:14:36</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 10:28:21</t>
+          <t>2025-05-12 12:14:36</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:34</t>
+          <t>2025-05-12 14:57:51</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6967</v>
+        <v>9958</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1615,11 +1607,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1638,7 +1630,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251462</v>
+        <v>251505</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1646,33 +1638,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>102.0655737704918</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:34</t>
+          <t>2025-05-12 14:57:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:34</t>
+          <t>2025-05-13 07:22:51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:34</t>
+          <t>2025-05-13 07:22:51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-13 14:33:38</t>
+          <t>2025-05-13 11:16:32</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6226</v>
+        <v>14255</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1685,7 +1677,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1704,7 +1696,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251062</v>
+        <v>251846</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1712,33 +1704,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
-        <v>370.8852459016393</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-13 14:33:38</t>
+          <t>2025-05-13 11:16:32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:38</t>
+          <t>2025-05-13 11:47:32</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:38</t>
+          <t>2025-05-13 11:47:32</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-14 13:17:31</t>
+          <t>2025-05-13 14:54:17</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>22624</v>
+        <v>11392</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1747,11 +1739,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1770,41 +1762,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251340</v>
+        <v>251373</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>461.9718309859155</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 14:54:17</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:15:00</t>
+          <t>2025-05-14 07:25:17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:15:00</t>
+          <t>2025-05-14 07:25:17</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:56:58</t>
+          <t>2025-05-14 12:05:31</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>32800</v>
+        <v>17094</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1813,14 +1805,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1840,33 +1832,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>151.7746478873239</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:56:58</t>
+          <t>2025-05-14 12:05:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:30:58</t>
+          <t>2025-05-14 12:32:31</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:30:58</t>
+          <t>2025-05-14 12:32:31</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:02:44</t>
+          <t>2025-05-15 07:29:10</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1902,41 +1894,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251750</v>
+        <v>251346</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
-        <v>54.80281690140845</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:02:44</t>
+          <t>2025-05-15 07:29:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:44</t>
+          <t>2025-05-15 08:02:10</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:44</t>
+          <t>2025-05-15 08:02:10</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:29:32</t>
+          <t>2025-05-15 09:05:26</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3891</v>
+        <v>3859</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1945,18 +1937,18 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M23" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -1968,41 +1960,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>245090</v>
+        <v>251259</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>7277.718309859155</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 11:29:32</t>
+          <t>2025-05-15 09:05:26</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:32</t>
+          <t>2025-05-15 09:32:26</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:32</t>
+          <t>2025-05-15 09:32:26</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-30 13:21:16</t>
+          <t>2025-05-15 10:54:24</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>516718</v>
+        <v>5000</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2011,18 +2003,18 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2034,41 +2026,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251416</v>
+        <v>251245</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
-        <v>204.0363636363636</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-15 10:54:24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:30:30</t>
+          <t>2025-05-15 11:25:24</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:30:30</t>
+          <t>2025-05-15 11:25:24</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:54:32</t>
+          <t>2025-05-15 11:37:46</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>11222</v>
+        <v>754</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2077,17 +2069,19 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
-      <c r="N25" t="n">
-        <v>39755</v>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2098,41 +2092,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251505</v>
+        <v>251246</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>36.5</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>259.1818181818182</v>
+        <v>196.7540983606557</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:54:32</t>
+          <t>2025-05-15 11:37:46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:31:02</t>
+          <t>2025-05-15 12:02:46</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:31:02</t>
+          <t>2025-05-15 12:02:46</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:13</t>
+          <t>2025-05-16 07:19:31</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>14255</v>
+        <v>12002</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2141,11 +2135,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2164,41 +2158,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>250819</v>
+        <v>251463</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32.5</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
-        <v>155.0363636363636</v>
+        <v>114.2131147540984</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:13</t>
+          <t>2025-05-16 07:19:31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 08:22:43</t>
+          <t>2025-05-16 07:48:31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 08:22:43</t>
+          <t>2025-05-16 07:48:31</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 10:57:45</t>
+          <t>2025-05-16 09:42:44</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8527</v>
+        <v>6967</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2211,7 +2205,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2230,41 +2224,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251761</v>
+        <v>251462</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34.5</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
-        <v>241.4363636363636</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-12 10:57:45</t>
+          <t>2025-05-16 09:42:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-12 11:32:15</t>
+          <t>2025-05-16 10:11:44</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-12 11:32:15</t>
+          <t>2025-05-16 10:11:44</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:41</t>
+          <t>2025-05-16 11:53:48</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>13279</v>
+        <v>6226</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2277,7 +2271,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2296,41 +2290,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251246</v>
+        <v>251562</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>218.2181818181818</v>
+        <v>133.4754098360656</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:41</t>
+          <t>2025-05-16 11:53:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-13 08:08:11</t>
+          <t>2025-05-16 12:18:48</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-13 08:08:11</t>
+          <t>2025-05-16 12:18:48</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:24</t>
+          <t>2025-05-16 14:32:16</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>12002</v>
+        <v>8142</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2339,11 +2333,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2362,41 +2356,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251465</v>
+        <v>251580</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>38.5</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
-        <v>113.2</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:24</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-13 12:24:54</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-13 12:24:54</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-13 14:18:06</t>
+          <t>2025-05-08 09:14:44</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6226</v>
+        <v>7153</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2409,7 +2403,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2428,41 +2422,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251557</v>
+        <v>251340</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30.5</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
-        <v>121.9090909090909</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:18:06</t>
+          <t>2025-05-08 09:14:44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:36</t>
+          <t>2025-05-08 09:48:44</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:36</t>
+          <t>2025-05-08 09:48:44</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-14 08:50:31</t>
+          <t>2025-05-09 09:30:43</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6705</v>
+        <v>32800</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2471,18 +2465,18 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
         <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2494,41 +2488,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251252</v>
+        <v>251651</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>38.5</v>
+        <v>21</v>
       </c>
       <c r="D32" t="n">
-        <v>274.2363636363636</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-14 08:50:31</t>
+          <t>2025-05-09 09:30:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-14 09:29:01</t>
+          <t>2025-05-09 09:51:43</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-14 09:29:01</t>
+          <t>2025-05-09 09:51:43</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-14 14:03:15</t>
+          <t>2025-05-12 12:51:17</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>15083</v>
+        <v>46830</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2537,19 +2531,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N32" t="n">
+        <v>39755</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2560,41 +2552,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251373</v>
+        <v>245090</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>280.2295081967213</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 12:51:17</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 13:06:17</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 13:06:17</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:13</t>
+          <t>2025-06-02 14:24:00</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>17094</v>
+        <v>516718</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2603,14 +2595,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2626,41 +2618,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>244354</v>
+        <v>251761</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
-        <v>70.65573770491804</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:13</t>
+          <t>2025-06-02 14:24:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:40:13</t>
+          <t>2025-06-02 14:56:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:40:13</t>
+          <t>2025-06-02 14:56:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-08 13:50:53</t>
+          <t>2025-06-03 10:03:02</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4310</v>
+        <v>13279</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2680,7 +2672,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -2692,41 +2684,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>244204</v>
+        <v>251283</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>56.91803278688525</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-08 13:50:53</t>
+          <t>2025-06-03 10:03:02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-08 14:10:53</t>
+          <t>2025-06-03 10:22:02</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-08 14:10:53</t>
+          <t>2025-06-03 10:22:02</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:48</t>
+          <t>2025-06-03 10:32:39</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3472</v>
+        <v>754</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2735,18 +2727,18 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2758,41 +2750,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251260</v>
+        <v>245350</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D36" t="n">
-        <v>153.5901639344262</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:48</t>
+          <t>2025-06-03 10:32:39</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:37:48</t>
+          <t>2025-06-03 10:55:39</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:37:48</t>
+          <t>2025-06-03 10:55:39</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:11:23</t>
+          <t>2025-06-04 09:29:36</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>9369</v>
+        <v>27970</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2801,18 +2793,18 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -2828,33 +2820,33 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>106</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 10:11:23</t>
+          <t>2025-06-04 09:29:36</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 10:36:23</t>
+          <t>2025-06-04 09:54:36</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 10:36:23</t>
+          <t>2025-06-04 09:54:36</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:23</t>
+          <t>2025-06-04 11:25:40</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2890,41 +2882,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251846</v>
+        <v>251464</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="D38" t="n">
-        <v>186.7540983606557</v>
+        <v>130.0545454545455</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:23</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 12:57:23</t>
+          <t>2025-05-09 07:34:30</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 12:57:23</t>
+          <t>2025-05-09 07:34:30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:08</t>
+          <t>2025-05-09 09:44:33</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>11392</v>
+        <v>7153</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2937,7 +2929,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -2956,41 +2948,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251485</v>
+        <v>251247</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="D39" t="n">
-        <v>78.81967213114754</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:08</t>
+          <t>2025-05-09 09:44:33</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:08</t>
+          <t>2025-05-09 10:19:03</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:08</t>
+          <t>2025-05-09 10:19:03</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 09:57:58</t>
+          <t>2025-05-12 10:28:45</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>4808</v>
+        <v>26934</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2999,11 +2991,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3022,41 +3014,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251346</v>
+        <v>251520</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="D40" t="n">
-        <v>63.26229508196721</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 09:57:58</t>
+          <t>2025-05-12 10:28:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:32:58</t>
+          <t>2025-05-12 11:01:15</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:32:58</t>
+          <t>2025-05-12 11:01:15</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 11:36:13</t>
+          <t>2025-05-13 07:58:21</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3859</v>
+        <v>16340</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3065,11 +3057,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3088,41 +3080,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>244023</v>
+        <v>251249</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="D41" t="n">
-        <v>16.34426229508197</v>
+        <v>86.50909090909092</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 11:36:13</t>
+          <t>2025-05-13 07:58:21</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:13</t>
+          <t>2025-05-13 08:30:51</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:13</t>
+          <t>2025-05-13 08:30:51</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:22:34</t>
+          <t>2025-05-13 09:57:21</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>997</v>
+        <v>4758</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3131,7 +3123,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -3154,7 +3146,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251283</v>
+        <v>251466</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3162,33 +3154,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>12.36065573770492</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 12:22:34</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:34</t>
+          <t>2025-05-08 07:25:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:34</t>
+          <t>2025-05-08 07:25:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:56</t>
+          <t>2025-05-08 08:56:15</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>754</v>
+        <v>5567</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3197,11 +3189,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3220,7 +3212,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251245</v>
+        <v>244354</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3228,33 +3220,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>12.36065573770492</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:56</t>
+          <t>2025-05-08 08:56:15</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 13:14:56</t>
+          <t>2025-05-08 09:21:15</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 13:14:56</t>
+          <t>2025-05-08 09:21:15</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 13:27:17</t>
+          <t>2025-05-08 10:31:55</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>754</v>
+        <v>4310</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3263,18 +3255,18 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3286,7 +3278,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251247</v>
+        <v>244204</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3297,30 +3289,30 @@
         <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>441.5409836065574</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 13:27:17</t>
+          <t>2025-05-08 10:31:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:17</t>
+          <t>2025-05-08 10:51:55</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:17</t>
+          <t>2025-05-08 10:51:55</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-13 13:08:50</t>
+          <t>2025-05-08 11:48:50</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>26934</v>
+        <v>3472</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3329,18 +3321,18 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3352,7 +3344,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251374</v>
+        <v>251795</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3360,33 +3352,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>448.2459016393443</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-13 13:08:50</t>
+          <t>2025-05-08 11:48:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 13:33:50</t>
+          <t>2025-05-08 12:18:50</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 13:33:50</t>
+          <t>2025-05-08 12:18:50</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-14 13:02:04</t>
+          <t>2025-05-09 09:26:01</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>27343</v>
+        <v>18739</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3395,18 +3387,18 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3418,41 +3410,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251651</v>
+        <v>251260</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" t="n">
-        <v>659.5774647887324</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 09:26:01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-09 09:46:01</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-09 09:46:01</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 07:20:34</t>
+          <t>2025-05-09 12:19:37</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46830</v>
+        <v>9369</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3461,17 +3453,19 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
-      </c>
-      <c r="N46" t="n">
-        <v>39755</v>
+        <v>70</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3482,41 +3476,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251268</v>
+        <v>250819</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 07:20:34</t>
+          <t>2025-05-09 12:19:37</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 07:37:34</t>
+          <t>2025-05-09 12:39:37</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 07:37:34</t>
+          <t>2025-05-09 12:39:37</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 07:37:34</t>
+          <t>2025-05-09 14:59:24</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>8527</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3525,66 +3519,64 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
           <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>243569</v>
+        <v>250641</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>36.63380281690141</v>
+        <v>83.8688524590164</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 07:37:34</t>
+          <t>2025-05-09 14:59:24</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 07:54:34</t>
+          <t>2025-05-12 07:19:24</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 07:54:34</t>
+          <t>2025-05-12 07:19:24</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:12</t>
+          <t>2025-05-12 08:43:16</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2601</v>
+        <v>5116</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3593,14 +3585,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3616,41 +3608,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>250670</v>
+        <v>244023</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>22.01408450704225</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:12</t>
+          <t>2025-05-12 08:43:16</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 08:48:12</t>
+          <t>2025-05-12 09:03:16</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 08:48:12</t>
+          <t>2025-05-12 09:03:16</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 09:10:13</t>
+          <t>2025-05-12 09:19:37</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1563</v>
+        <v>997</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3659,14 +3651,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3682,41 +3674,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>243335</v>
+        <v>251061</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>464.8450704225352</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 09:10:13</t>
+          <t>2025-05-12 09:19:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 09:40:13</t>
+          <t>2025-05-12 09:39:37</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 09:40:13</t>
+          <t>2025-05-12 09:39:37</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 09:25:04</t>
+          <t>2025-05-13 08:13:00</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>33004</v>
+        <v>23997</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3725,14 +3717,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3748,41 +3740,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251987</v>
+        <v>251374</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>2965.154929577465</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:25:04</t>
+          <t>2025-05-13 08:13:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:59:04</t>
+          <t>2025-05-13 08:38:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:59:04</t>
+          <t>2025-05-13 08:38:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-21 11:24:13</t>
+          <t>2025-05-14 08:06:15</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>210526</v>
+        <v>27343</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3791,14 +3783,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -3814,41 +3806,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251424</v>
+        <v>245089</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>197.1836734693877</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 07:45:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:11</t>
+          <t>2025-05-14 09:06:40</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>9662</v>
+        <v>122665</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3857,14 +3849,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
         <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -3880,41 +3872,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>250894</v>
+        <v>243569</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>903.3061224489796</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:11</t>
+          <t>2025-05-14 09:06:40</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-08 11:44:11</t>
+          <t>2025-05-14 09:23:40</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-08 11:44:11</t>
+          <t>2025-05-14 09:23:40</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 10:47:29</t>
+          <t>2025-05-14 10:00:18</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>44262</v>
+        <v>2601</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3923,17 +3915,19 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
         <v>76</v>
       </c>
-      <c r="N53" t="n">
-        <v>39755</v>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3944,41 +3938,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>250641</v>
+        <v>250670</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>104.4081632653061</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 10:47:29</t>
+          <t>2025-05-14 10:00:18</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 11:29:29</t>
+          <t>2025-05-14 10:17:18</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 11:29:29</t>
+          <t>2025-05-14 10:17:18</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:53</t>
+          <t>2025-05-14 10:39:19</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>5116</v>
+        <v>1563</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3987,14 +3981,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4010,41 +4004,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251061</v>
+        <v>251750</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D55" t="n">
-        <v>489.734693877551</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:53</t>
+          <t>2025-05-14 10:39:19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:48:53</t>
+          <t>2025-05-14 11:11:19</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:48:53</t>
+          <t>2025-05-14 11:11:19</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 13:58:37</t>
+          <t>2025-05-14 12:06:07</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>23997</v>
+        <v>3891</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4053,18 +4047,18 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4076,41 +4070,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251580</v>
+        <v>245623</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>145.9795918367347</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-13 13:58:37</t>
+          <t>2025-05-14 12:06:07</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 14:43:37</t>
+          <t>2025-05-14 12:23:07</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 14:43:37</t>
+          <t>2025-05-14 12:23:07</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:36</t>
+          <t>2025-05-15 10:35:13</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>7153</v>
+        <v>26419</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4119,18 +4113,18 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4142,41 +4136,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251249</v>
+        <v>243335</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>97.10204081632654</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:36</t>
+          <t>2025-05-15 10:35:13</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-14 09:54:36</t>
+          <t>2025-05-15 10:54:13</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-14 09:54:36</t>
+          <t>2025-05-15 10:54:13</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-14 11:31:42</t>
+          <t>2025-05-16 10:39:04</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>4758</v>
+        <v>33004</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4185,14 +4179,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4208,41 +4202,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251453</v>
+        <v>251062</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D58" t="n">
-        <v>70.4225352112676</v>
+        <v>461.7142857142857</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:25</t>
+          <t>2025-05-09 07:36:42</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5000</v>
+        <v>22624</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4251,11 +4245,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4265,18 +4259,16 @@
           <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251626</v>
+        <v>245275</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4284,33 +4276,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D59" t="n">
-        <v>176.056338028169</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:25</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:25</t>
+          <t>2025-05-09 08:37:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:25</t>
+          <t>2025-05-09 08:37:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-09 12:23:28</t>
+          <t>2025-05-09 14:19:10</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>12500</v>
+        <v>24294</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4319,11 +4311,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4342,7 +4334,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>245275</v>
+        <v>251109</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4350,33 +4342,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D60" t="n">
-        <v>342.1690140845071</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-09 12:23:28</t>
+          <t>2025-05-09 14:19:10</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-09 13:53:28</t>
+          <t>2025-05-12 07:04:10</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-09 13:53:28</t>
+          <t>2025-05-12 07:04:10</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:38</t>
+          <t>2025-05-12 11:30:45</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>24294</v>
+        <v>18928</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4385,11 +4377,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4408,41 +4400,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251109</v>
+        <v>251465</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>266.5915492957747</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 11:35:38</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 12:20:38</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 12:20:38</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:47:14</t>
+          <t>2025-05-12 09:05:13</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>18928</v>
+        <v>6226</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4451,11 +4443,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4474,41 +4466,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251456</v>
+        <v>251467</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>126.7464788732394</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:47:14</t>
+          <t>2025-05-12 09:05:13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 10:27:14</t>
+          <t>2025-05-12 09:30:13</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 10:27:14</t>
+          <t>2025-05-12 09:30:13</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 12:33:59</t>
+          <t>2025-05-12 11:00:27</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>8999</v>
+        <v>6226</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4521,7 +4513,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -4531,52 +4523,50 @@
           <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251520</v>
+        <v>251557</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>230.1408450704225</v>
+        <v>97.17391304347827</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 12:33:59</t>
+          <t>2025-05-12 11:00:27</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:59</t>
+          <t>2025-05-12 11:25:27</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:59</t>
+          <t>2025-05-12 11:25:27</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-14 09:19:07</t>
+          <t>2025-05-12 13:02:38</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>16340</v>
+        <v>6705</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4585,11 +4575,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -4608,7 +4598,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>245350</v>
+        <v>251252</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4616,33 +4606,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D64" t="n">
-        <v>405.3623188405797</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 13:02:38</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-12 13:47:38</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-12 13:47:38</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-13 09:26:13</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>27970</v>
+        <v>15083</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4651,11 +4641,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -4669,472 +4659,6 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>251225</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>60</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>2025-05-12 14:50:21</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2025-05-13 07:50:21</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>2025-05-13 07:50:21</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2025-05-13 07:50:21</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>4</v>
-      </c>
-      <c r="M65" t="n">
-        <v>76</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>39747</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>251227</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>25</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>2025-05-13 07:50:21</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:15:21</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:15:21</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:15:21</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>4</v>
-      </c>
-      <c r="M66" t="n">
-        <v>76</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P66" t="n">
-        <v>39746</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>251466</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>35</v>
-      </c>
-      <c r="D67" t="n">
-        <v>80.68115942028986</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:15:21</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:50:21</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:50:21</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2025-05-13 10:11:02</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>5567</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>3</v>
-      </c>
-      <c r="M67" t="n">
-        <v>70</v>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>251464</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>30</v>
-      </c>
-      <c r="D68" t="n">
-        <v>103.6666666666667</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>2025-05-13 10:11:02</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2025-05-13 10:41:02</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>2025-05-13 10:41:02</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:24:42</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>7153</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>4</v>
-      </c>
-      <c r="M68" t="n">
-        <v>70</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>251467</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>35</v>
-      </c>
-      <c r="D69" t="n">
-        <v>90.23188405797102</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:24:42</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:59:42</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:59:42</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:29:56</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>6226</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>2</v>
-      </c>
-      <c r="M69" t="n">
-        <v>70</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>251562</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>25</v>
-      </c>
-      <c r="D70" t="n">
-        <v>118</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:29:56</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:54:56</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:54:56</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:52:56</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>8142</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>2</v>
-      </c>
-      <c r="M70" t="n">
-        <v>70</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>251251</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>45</v>
-      </c>
-      <c r="D71" t="n">
-        <v>229.8550724637681</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:52:56</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:37:56</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:37:56</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2025-05-14 13:27:47</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>15860</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>6</v>
-      </c>
-      <c r="M71" t="n">
-        <v>70</v>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251485</v>
+        <v>251464</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>75.125</v>
+        <v>111.765625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -532,21 +532,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 08:36:07</t>
+          <t>2025-05-07 09:10:45</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4808</v>
+        <v>7153</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251626</v>
+        <v>250670</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -586,33 +586,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>195.3125</v>
+        <v>24.421875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:36:07</t>
+          <t>2025-05-07 09:10:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:55:07</t>
+          <t>2025-05-07 09:40:45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:55:07</t>
+          <t>2025-05-07 09:40:45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 12:10:26</t>
+          <t>2025-05-07 10:05:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>12500</v>
+        <v>1563</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -621,14 +621,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251424</v>
+        <v>251750</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -652,33 +652,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>150.96875</v>
+        <v>60.796875</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:10:26</t>
+          <t>2025-05-07 10:05:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:26</t>
+          <t>2025-05-07 10:37:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:26</t>
+          <t>2025-05-07 10:37:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 14:58:24</t>
+          <t>2025-05-07 11:37:59</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>9662</v>
+        <v>3891</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -687,18 +687,18 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -710,7 +710,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251416</v>
+        <v>251562</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -718,33 +718,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>175.34375</v>
+        <v>127.21875</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 14:58:24</t>
+          <t>2025-05-07 11:37:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:24</t>
+          <t>2025-05-07 12:09:59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:24</t>
+          <t>2025-05-07 12:09:59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:12:45</t>
+          <t>2025-05-07 14:17:12</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11222</v>
+        <v>8142</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -762,8 +762,10 @@
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39755</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -774,7 +776,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251251</v>
+        <v>251346</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -782,33 +784,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>247.8125</v>
+        <v>60.296875</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:12:45</t>
+          <t>2025-05-07 14:17:12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:35:45</t>
+          <t>2025-05-07 14:44:12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:35:45</t>
+          <t>2025-05-07 14:44:12</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:33</t>
+          <t>2025-05-08 07:44:30</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>15860</v>
+        <v>3859</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -817,11 +819,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -840,7 +842,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251809</v>
+        <v>245275</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -848,33 +850,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>135.640625</v>
+        <v>379.59375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:33</t>
+          <t>2025-05-08 07:44:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:02:33</t>
+          <t>2025-05-08 08:11:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:02:33</t>
+          <t>2025-05-08 08:11:30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:12</t>
+          <t>2025-05-08 14:31:05</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8681</v>
+        <v>24294</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -883,18 +885,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -906,7 +908,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251564</v>
+        <v>245350</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -914,33 +916,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>42.453125</v>
+        <v>437.03125</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:12</t>
+          <t>2025-05-08 14:31:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:35:12</t>
+          <t>2025-05-08 14:54:05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:35:12</t>
+          <t>2025-05-08 14:54:05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:39</t>
+          <t>2025-05-09 14:11:07</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2717</v>
+        <v>27970</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -949,18 +951,18 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -972,7 +974,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251566</v>
+        <v>235572</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -980,33 +982,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>107.640625</v>
+        <v>155.59375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:39</t>
+          <t>2025-05-09 14:11:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:39</t>
+          <t>2025-05-09 14:36:07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:39</t>
+          <t>2025-05-09 14:36:07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:17</t>
+          <t>2025-05-12 09:11:43</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6889</v>
+        <v>9958</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1015,18 +1017,18 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1038,7 +1040,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251519</v>
+        <v>251626</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1049,30 +1051,30 @@
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>205.859375</v>
+        <v>195.3125</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:17</t>
+          <t>2025-05-12 09:11:43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 12:41:17</t>
+          <t>2025-05-12 09:30:43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 12:41:17</t>
+          <t>2025-05-12 09:30:43</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 08:07:09</t>
+          <t>2025-05-12 12:46:01</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13175</v>
+        <v>12500</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1085,14 +1087,14 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1104,7 +1106,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251397</v>
+        <v>251546</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1112,33 +1114,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>84.921875</v>
+        <v>101.03125</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 08:07:09</t>
+          <t>2025-05-12 12:46:01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:09</t>
+          <t>2025-05-12 13:05:01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:09</t>
+          <t>2025-05-12 13:05:01</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:04</t>
+          <t>2025-05-12 14:46:03</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5435</v>
+        <v>6466</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1151,14 +1153,14 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1170,7 +1172,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251475</v>
+        <v>251505</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1178,33 +1180,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>135.640625</v>
+        <v>222.734375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:04</t>
+          <t>2025-05-12 14:46:03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:04</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:04</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:43</t>
+          <t>2025-05-13 10:43:47</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8681</v>
+        <v>14255</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1217,14 +1219,14 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1236,7 +1238,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251594</v>
+        <v>251462</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1244,33 +1246,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>101.03125</v>
+        <v>97.28125</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:43</t>
+          <t>2025-05-13 10:43:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:43</t>
+          <t>2025-05-13 11:04:47</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:43</t>
+          <t>2025-05-13 11:04:47</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 14:17:45</t>
+          <t>2025-05-13 12:42:04</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6466</v>
+        <v>6226</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1283,14 +1285,14 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1302,7 +1304,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>244355</v>
+        <v>251557</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1313,30 +1315,30 @@
         <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>67.34375</v>
+        <v>104.765625</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-12 14:17:45</t>
+          <t>2025-05-13 12:42:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:45</t>
+          <t>2025-05-13 12:57:04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:45</t>
+          <t>2025-05-13 12:57:04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 07:40:05</t>
+          <t>2025-05-13 14:41:50</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4310</v>
+        <v>6705</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1349,14 +1351,14 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1368,41 +1370,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251561</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>84.921875</v>
+        <v>725.6065573770492</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:40:05</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:05</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:05</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:00</t>
+          <t>2025-05-12 11:34:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5435</v>
+        <v>44262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1411,18 +1413,18 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1434,41 +1436,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251987</v>
+        <v>251467</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>3289.46875</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:00</t>
+          <t>2025-05-12 11:34:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:00</t>
+          <t>2025-05-12 12:20:36</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:00</t>
+          <t>2025-05-12 12:20:36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-22 08:43:29</t>
+          <t>2025-05-12 14:02:40</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>210526</v>
+        <v>6226</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1477,14 +1479,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1500,7 +1502,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250894</v>
+        <v>251466</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1508,33 +1510,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>725.6065573770492</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 14:02:40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 14:29:40</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 14:29:40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 11:34:36</t>
+          <t>2025-05-13 08:00:56</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>44262</v>
+        <v>5567</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1543,17 +1545,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39755</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1564,7 +1568,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>235572</v>
+        <v>251416</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1572,33 +1576,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>163.2459016393443</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 11:34:36</t>
+          <t>2025-05-13 08:00:56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 12:14:36</t>
+          <t>2025-05-13 08:27:56</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 12:14:36</t>
+          <t>2025-05-13 08:27:56</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:51</t>
+          <t>2025-05-13 11:31:54</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>9958</v>
+        <v>11222</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1607,11 +1611,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1630,7 +1634,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251505</v>
+        <v>251846</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1641,30 +1645,30 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>233.6885245901639</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:51</t>
+          <t>2025-05-13 11:31:54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:51</t>
+          <t>2025-05-13 11:56:54</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:51</t>
+          <t>2025-05-13 11:56:54</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:32</t>
+          <t>2025-05-14 07:03:39</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>14255</v>
+        <v>11392</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1677,7 +1681,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1696,7 +1700,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251846</v>
+        <v>251283</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1704,33 +1708,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>186.7540983606557</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:32</t>
+          <t>2025-05-14 07:03:39</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:32</t>
+          <t>2025-05-14 07:36:39</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:32</t>
+          <t>2025-05-14 07:36:39</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-13 14:54:17</t>
+          <t>2025-05-14 07:49:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>11392</v>
+        <v>754</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1739,11 +1743,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1762,7 +1766,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251373</v>
+        <v>251245</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1770,33 +1774,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>280.2295081967213</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-13 14:54:17</t>
+          <t>2025-05-14 07:49:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:17</t>
+          <t>2025-05-14 08:14:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:17</t>
+          <t>2025-05-14 08:14:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 12:05:31</t>
+          <t>2025-05-14 08:26:22</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>17094</v>
+        <v>754</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1805,18 +1809,18 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1828,7 +1832,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251743</v>
+        <v>251247</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1836,33 +1840,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>176.655737704918</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:05:31</t>
+          <t>2025-05-14 08:26:22</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:32:31</t>
+          <t>2025-05-14 08:51:22</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:32:31</t>
+          <t>2025-05-14 08:51:22</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-15 07:29:10</t>
+          <t>2025-05-15 08:12:55</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>10776</v>
+        <v>26934</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1871,18 +1875,18 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -1894,7 +1898,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251346</v>
+        <v>251252</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1902,33 +1906,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>63.26229508196721</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-15 07:29:10</t>
+          <t>2025-05-15 08:12:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-15 08:02:10</t>
+          <t>2025-05-15 08:37:55</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-15 08:02:10</t>
+          <t>2025-05-15 08:37:55</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-15 09:05:26</t>
+          <t>2025-05-15 12:45:10</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3859</v>
+        <v>15083</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1937,11 +1941,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -1960,41 +1964,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251259</v>
+        <v>251465</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>81.9672131147541</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-15 09:05:26</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-15 09:32:26</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-15 09:32:26</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-15 10:54:24</t>
+          <t>2025-05-08 08:57:41</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5000</v>
+        <v>6226</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2007,7 +2011,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2026,41 +2030,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251245</v>
+        <v>251485</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>12.36065573770492</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-15 10:54:24</t>
+          <t>2025-05-08 08:57:41</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-15 11:25:24</t>
+          <t>2025-05-08 09:18:41</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-15 11:25:24</t>
+          <t>2025-05-08 09:18:41</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-15 11:37:46</t>
+          <t>2025-05-08 10:26:24</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>754</v>
+        <v>4808</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2069,11 +2073,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2092,41 +2096,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251246</v>
+        <v>251463</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>196.7540983606557</v>
+        <v>98.12676056338029</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-15 11:37:46</t>
+          <t>2025-05-08 10:26:24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-15 12:02:46</t>
+          <t>2025-05-08 10:43:24</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-15 12:02:46</t>
+          <t>2025-05-08 10:43:24</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-16 07:19:31</t>
+          <t>2025-05-08 12:21:32</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>12002</v>
+        <v>6967</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2135,11 +2139,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2158,41 +2162,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251463</v>
+        <v>251761</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>114.2131147540984</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-16 07:19:31</t>
+          <t>2025-05-08 12:21:32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-16 07:48:31</t>
+          <t>2025-05-08 12:36:32</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-16 07:48:31</t>
+          <t>2025-05-08 12:36:32</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-16 09:42:44</t>
+          <t>2025-05-09 07:43:33</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6967</v>
+        <v>13279</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2224,41 +2228,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251462</v>
+        <v>245623</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>102.0655737704918</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-16 09:42:44</t>
+          <t>2025-05-09 07:43:33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-16 10:11:44</t>
+          <t>2025-05-09 08:17:33</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-16 10:11:44</t>
+          <t>2025-05-09 08:17:33</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-16 11:53:48</t>
+          <t>2025-05-09 14:29:39</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>6226</v>
+        <v>26419</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2267,14 +2271,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
         <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2290,41 +2294,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251562</v>
+        <v>243335</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>133.4754098360656</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-16 11:53:48</t>
+          <t>2025-05-09 14:29:39</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-16 12:18:48</t>
+          <t>2025-05-09 14:48:39</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-16 12:18:48</t>
+          <t>2025-05-09 14:48:39</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-16 14:32:16</t>
+          <t>2025-05-12 14:33:30</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>8142</v>
+        <v>33004</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2333,14 +2337,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2356,41 +2360,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251580</v>
+        <v>251062</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34</v>
+        <v>38.5</v>
       </c>
       <c r="D30" t="n">
-        <v>100.7464788732394</v>
+        <v>411.3454545454546</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:38:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:38:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-08 09:14:44</t>
+          <t>2025-05-09 14:29:50</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>7153</v>
+        <v>22624</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2399,11 +2403,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2422,41 +2426,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251340</v>
+        <v>251580</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>461.9718309859155</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-08 09:14:44</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-08 09:48:44</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-08 09:48:44</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 09:30:43</t>
+          <t>2025-05-08 09:27:15</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>32800</v>
+        <v>7153</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2465,18 +2469,18 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -2488,41 +2492,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251651</v>
+        <v>251061</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>659.5774647887324</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:30:43</t>
+          <t>2025-05-08 09:27:15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:43</t>
+          <t>2025-05-08 09:57:15</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:43</t>
+          <t>2025-05-08 09:57:15</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:17</t>
+          <t>2025-05-09 08:30:39</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>46830</v>
+        <v>23997</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2531,17 +2535,19 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
-      </c>
-      <c r="N32" t="n">
-        <v>39755</v>
+        <v>70</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2552,41 +2558,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>245090</v>
+        <v>244023</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>7277.718309859155</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:17</t>
+          <t>2025-05-09 08:30:39</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-12 13:06:17</t>
+          <t>2025-05-09 08:50:39</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-12 13:06:17</t>
+          <t>2025-05-09 08:50:39</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-02 14:24:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>516718</v>
+        <v>997</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2595,18 +2601,18 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -2618,41 +2624,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251761</v>
+        <v>251251</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>187.0281690140845</v>
+        <v>260</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-02 14:24:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-02 14:56:00</t>
+          <t>2025-05-09 09:27:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-02 14:56:00</t>
+          <t>2025-05-09 09:27:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-03 10:03:02</t>
+          <t>2025-05-09 13:47:00</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>13279</v>
+        <v>15860</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2661,11 +2667,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2684,41 +2690,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251283</v>
+        <v>250819</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>10.61971830985915</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-03 10:03:02</t>
+          <t>2025-05-09 13:47:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-03 10:22:02</t>
+          <t>2025-05-09 14:07:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-03 10:22:02</t>
+          <t>2025-05-09 14:07:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-03 10:32:39</t>
+          <t>2025-05-12 08:26:47</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>754</v>
+        <v>8527</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2727,7 +2733,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -2750,41 +2756,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>245350</v>
+        <v>250641</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>393.943661971831</v>
+        <v>83.8688524590164</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-03 10:32:39</t>
+          <t>2025-05-12 08:26:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-03 10:55:39</t>
+          <t>2025-05-12 08:46:47</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-03 10:55:39</t>
+          <t>2025-05-12 08:46:47</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-04 09:29:36</t>
+          <t>2025-05-12 10:10:39</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>27970</v>
+        <v>5116</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2793,11 +2799,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -2816,41 +2822,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251546</v>
+        <v>251246</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>91.07042253521126</v>
+        <v>196.7540983606557</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-04 09:29:36</t>
+          <t>2025-05-12 10:10:39</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-04 09:54:36</t>
+          <t>2025-05-12 10:30:39</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-04 09:54:36</t>
+          <t>2025-05-12 10:30:39</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-04 11:25:40</t>
+          <t>2025-05-12 13:47:24</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6466</v>
+        <v>12002</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2859,11 +2865,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -2882,41 +2888,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251464</v>
+        <v>251374</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>130.0545454545455</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 13:47:24</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-12 14:12:24</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-12 14:12:24</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 09:44:33</t>
+          <t>2025-05-13 13:40:39</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>7153</v>
+        <v>27343</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2925,11 +2931,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -2948,41 +2954,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251247</v>
+        <v>251259</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>489.7090909090909</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:44:33</t>
+          <t>2025-05-13 13:40:39</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:19:03</t>
+          <t>2025-05-13 14:10:39</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:19:03</t>
+          <t>2025-05-13 14:10:39</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:45</t>
+          <t>2025-05-14 07:32:37</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>26934</v>
+        <v>5000</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2991,11 +2997,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3014,41 +3020,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251520</v>
+        <v>245090</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>32.5</v>
+        <v>21</v>
       </c>
       <c r="D40" t="n">
-        <v>297.0909090909091</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:45</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:15</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:15</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:21</t>
+          <t>2025-05-29 13:38:43</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>16340</v>
+        <v>516718</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3057,14 +3063,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3080,41 +3086,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251249</v>
+        <v>243569</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>86.50909090909092</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:21</t>
+          <t>2025-05-29 13:38:43</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:51</t>
+          <t>2025-05-29 13:57:43</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:51</t>
+          <t>2025-05-29 13:57:43</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 09:57:21</t>
+          <t>2025-05-29 14:34:21</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4758</v>
+        <v>2601</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3123,14 +3129,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3146,41 +3152,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251466</v>
+        <v>245089</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>91.26229508196721</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-29 14:34:21</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-29 14:51:21</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-29 14:51:21</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-08 08:56:15</t>
+          <t>2025-06-04 11:39:01</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>5567</v>
+        <v>122665</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3189,14 +3195,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3212,41 +3218,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>244354</v>
+        <v>251651</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>70.65573770491804</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-08 08:56:15</t>
+          <t>2025-06-04 11:39:01</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-08 09:21:15</t>
+          <t>2025-06-04 11:56:01</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-08 09:21:15</t>
+          <t>2025-06-04 11:56:01</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:55</t>
+          <t>2025-06-05 14:55:36</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>4310</v>
+        <v>46830</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3255,18 +3261,18 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3278,41 +3284,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>244204</v>
+        <v>251987</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
-        <v>56.91803278688525</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:55</t>
+          <t>2025-06-05 14:55:36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-08 10:51:55</t>
+          <t>2025-06-06 07:12:36</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-08 10:51:55</t>
+          <t>2025-06-06 07:12:36</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-08 11:48:50</t>
+          <t>2025-06-16 08:37:45</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3472</v>
+        <v>210526</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3321,18 +3327,18 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3344,41 +3350,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251795</v>
+        <v>251249</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D45" t="n">
-        <v>307.1967213114754</v>
+        <v>97.10204081632654</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-08 11:48:50</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-08 12:18:50</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-08 12:18:50</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 09:26:01</t>
+          <t>2025-05-08 09:32:06</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>18739</v>
+        <v>4758</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3387,7 +3393,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3398,7 +3404,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3410,41 +3416,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251260</v>
+        <v>251109</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="D46" t="n">
-        <v>153.5901639344262</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 09:26:01</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 09:46:01</t>
+          <t>2025-05-09 08:47:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 09:46:01</t>
+          <t>2025-05-09 08:47:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 12:19:37</t>
+          <t>2025-05-09 13:13:35</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>9369</v>
+        <v>18928</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3453,18 +3459,18 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3476,41 +3482,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>250819</v>
+        <v>251520</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D47" t="n">
-        <v>139.7868852459016</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 12:19:37</t>
+          <t>2025-05-09 13:13:35</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:37</t>
+          <t>2025-05-09 14:33:35</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:37</t>
+          <t>2025-05-09 14:33:35</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:24</t>
+          <t>2025-05-12 10:23:43</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8527</v>
+        <v>16340</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3519,11 +3525,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3542,41 +3548,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>250641</v>
+        <v>251795</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>83.8688524590164</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 07:19:24</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 07:19:24</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 08:43:16</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5116</v>
+        <v>18739</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3585,7 +3591,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -3608,41 +3614,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244023</v>
+        <v>251260</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>16.34426229508197</v>
+        <v>135.7826086956522</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 08:43:16</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 09:03:16</t>
+          <t>2025-05-12 12:41:34</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 09:03:16</t>
+          <t>2025-05-12 12:41:34</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 09:19:37</t>
+          <t>2025-05-12 14:57:21</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>997</v>
+        <v>9369</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3651,7 +3657,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -3669,996 +3675,6 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>251061</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>20</v>
-      </c>
-      <c r="D50" t="n">
-        <v>393.3934426229508</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:19:37</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:39:37</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:39:37</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:13:00</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>23997</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>6</v>
-      </c>
-      <c r="M50" t="n">
-        <v>70</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>251374</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>25</v>
-      </c>
-      <c r="D51" t="n">
-        <v>448.2459016393443</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:13:00</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:38:00</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:38:00</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:06:15</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>27343</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>7</v>
-      </c>
-      <c r="M51" t="n">
-        <v>70</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>19</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1727.676056338028</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:00:00</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:06:40</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>122665</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>4</v>
-      </c>
-      <c r="M52" t="n">
-        <v>76</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>243569</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>17</v>
-      </c>
-      <c r="D53" t="n">
-        <v>36.63380281690141</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:06:40</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:23:40</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2025-05-14 09:23:40</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:00:18</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>2601</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>3</v>
-      </c>
-      <c r="M53" t="n">
-        <v>76</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>250670</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>17</v>
-      </c>
-      <c r="D54" t="n">
-        <v>22.01408450704225</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:00:18</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:17:18</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:17:18</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:39:19</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1563</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>4</v>
-      </c>
-      <c r="M54" t="n">
-        <v>76</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>251750</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>32</v>
-      </c>
-      <c r="D55" t="n">
-        <v>54.80281690140845</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:39:19</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:11:19</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:11:19</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:06:07</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>3891</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>3</v>
-      </c>
-      <c r="M55" t="n">
-        <v>152</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>245623</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>17</v>
-      </c>
-      <c r="D56" t="n">
-        <v>372.0985915492957</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:06:07</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:23:07</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2025-05-14 12:23:07</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2025-05-15 10:35:13</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>26419</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>2</v>
-      </c>
-      <c r="M56" t="n">
-        <v>152</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>243335</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>19</v>
-      </c>
-      <c r="D57" t="n">
-        <v>464.8450704225352</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>2025-05-15 10:35:13</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2025-05-15 10:54:13</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2025-05-15 10:54:13</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2025-05-16 10:39:04</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>33004</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>4</v>
-      </c>
-      <c r="M57" t="n">
-        <v>152</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>251062</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>55</v>
-      </c>
-      <c r="D58" t="n">
-        <v>461.7142857142857</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:55:00</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:55:00</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:36:42</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>22624</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>6</v>
-      </c>
-      <c r="M58" t="n">
-        <v>70</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>245275</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>97</v>
-      </c>
-      <c r="D59" t="n">
-        <v>342.1690140845071</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2025-05-09 08:37:00</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2025-05-09 08:37:00</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:19:10</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>24294</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>14</v>
-      </c>
-      <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>251109</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>45</v>
-      </c>
-      <c r="D60" t="n">
-        <v>266.5915492957747</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:19:10</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:04:10</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:04:10</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:30:45</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>18928</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>16</v>
-      </c>
-      <c r="M60" t="n">
-        <v>70</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>251465</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>35</v>
-      </c>
-      <c r="D61" t="n">
-        <v>90.23188405797102</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:35:00</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:35:00</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:05:13</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>6226</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>2</v>
-      </c>
-      <c r="M61" t="n">
-        <v>70</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>251467</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>25</v>
-      </c>
-      <c r="D62" t="n">
-        <v>90.23188405797102</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:05:13</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:30:13</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:30:13</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:00:27</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>6226</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>2</v>
-      </c>
-      <c r="M62" t="n">
-        <v>70</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>251557</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>25</v>
-      </c>
-      <c r="D63" t="n">
-        <v>97.17391304347827</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:00:27</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:25:27</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:25:27</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:02:38</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>6705</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>2</v>
-      </c>
-      <c r="M63" t="n">
-        <v>70</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>251252</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>45</v>
-      </c>
-      <c r="D64" t="n">
-        <v>218.5942028985507</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:02:38</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:47:38</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:47:38</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2025-05-13 09:26:13</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>15083</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>6</v>
-      </c>
-      <c r="M64" t="n">
-        <v>70</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,41 +512,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251485</v>
+        <v>251761</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>75.125</v>
+        <v>192.4492753623188</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 08:36:07</t>
+          <t>2025-05-12 10:47:26</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4808</v>
+        <v>13279</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -578,41 +578,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251626</v>
+        <v>251463</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>195.3125</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:36:07</t>
+          <t>2025-05-12 10:47:26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:55:07</t>
+          <t>2025-05-12 11:12:26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:55:07</t>
+          <t>2025-05-12 11:12:26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 12:10:26</t>
+          <t>2025-05-12 12:53:25</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>12500</v>
+        <v>6967</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -644,41 +644,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251424</v>
+        <v>251462</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>150.96875</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:10:26</t>
+          <t>2025-05-12 12:53:25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:26</t>
+          <t>2025-05-12 13:28:25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:27:26</t>
+          <t>2025-05-12 13:28:25</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 14:58:24</t>
+          <t>2025-05-12 14:58:39</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>9662</v>
+        <v>6226</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -691,14 +691,14 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -710,41 +710,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251416</v>
+        <v>251580</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>175.34375</v>
+        <v>103.6666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 14:58:24</t>
+          <t>2025-05-12 14:58:39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:24</t>
+          <t>2025-05-13 07:33:39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:24</t>
+          <t>2025-05-13 07:33:39</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:12:45</t>
+          <t>2025-05-13 09:17:19</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11222</v>
+        <v>7153</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -757,13 +757,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39755</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -774,41 +776,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251251</v>
+        <v>251229</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>247.8125</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:12:45</t>
+          <t>2025-05-13 09:17:19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:35:45</t>
+          <t>2025-05-13 09:52:19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:35:45</t>
+          <t>2025-05-13 09:52:19</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:33</t>
+          <t>2025-05-13 14:23:53</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>15860</v>
+        <v>18739</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -817,7 +819,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -826,55 +828,55 @@
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+      <c r="N6" t="n">
+        <v>39723</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251809</v>
+        <v>251252</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>135.640625</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:33</t>
+          <t>2025-05-13 14:23:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:02:33</t>
+          <t>2025-05-13 14:48:53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:02:33</t>
+          <t>2025-05-13 14:48:53</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:12</t>
+          <t>2025-05-14 10:27:29</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8681</v>
+        <v>15083</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -883,18 +885,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -906,41 +908,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251564</v>
+        <v>251987</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>42.453125</v>
+        <v>3051.101449275362</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:12</t>
+          <t>2025-05-14 10:27:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:35:12</t>
+          <t>2025-05-14 10:57:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:35:12</t>
+          <t>2025-05-14 10:57:29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:39</t>
+          <t>2025-05-22 13:48:35</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2717</v>
+        <v>210526</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -949,18 +951,18 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -972,41 +974,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251566</v>
+        <v>251284</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D9" t="n">
-        <v>107.640625</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:39</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:39</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:39</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:17</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6889</v>
+        <v>16340</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1015,64 +1017,64 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251519</v>
+        <v>251475</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
-        <v>205.859375</v>
+        <v>157.8363636363636</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:17</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 12:41:17</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 12:41:17</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 08:07:09</t>
+          <t>2025-05-12 07:51:55</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13175</v>
+        <v>8681</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1085,7 +1087,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1104,41 +1106,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251397</v>
+        <v>251795</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>84.921875</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 08:07:09</t>
+          <t>2025-05-12 07:51:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:09</t>
+          <t>2025-05-12 08:26:25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:09</t>
+          <t>2025-05-12 08:26:25</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:04</t>
+          <t>2025-05-12 14:07:08</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5435</v>
+        <v>18739</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1147,11 +1149,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1170,41 +1172,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251475</v>
+        <v>245275</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>46.5</v>
       </c>
       <c r="D12" t="n">
-        <v>135.640625</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:04</t>
+          <t>2025-05-12 14:07:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:04</t>
+          <t>2025-05-12 14:53:38</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:04</t>
+          <t>2025-05-12 14:53:38</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:43</t>
+          <t>2025-05-13 14:15:20</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8681</v>
+        <v>24294</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1213,18 +1215,18 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1236,41 +1238,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251594</v>
+        <v>251245</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>46.5</v>
       </c>
       <c r="D13" t="n">
-        <v>101.03125</v>
+        <v>13.70909090909091</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:43</t>
+          <t>2025-05-13 14:15:20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:43</t>
+          <t>2025-05-14 07:01:50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:43</t>
+          <t>2025-05-14 07:01:50</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 14:17:45</t>
+          <t>2025-05-14 07:15:33</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6466</v>
+        <v>754</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1279,18 +1281,18 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1302,41 +1304,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>244355</v>
+        <v>251246</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D14" t="n">
-        <v>67.34375</v>
+        <v>218.2181818181818</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-12 14:17:45</t>
+          <t>2025-05-14 07:15:33</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:45</t>
+          <t>2025-05-14 07:46:03</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-12 14:32:45</t>
+          <t>2025-05-14 07:46:03</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 07:40:05</t>
+          <t>2025-05-14 11:24:16</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4310</v>
+        <v>12002</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1345,18 +1347,18 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1368,41 +1370,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251561</v>
+        <v>251465</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>38.5</v>
       </c>
       <c r="D15" t="n">
-        <v>84.921875</v>
+        <v>113.2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:40:05</t>
+          <t>2025-05-14 11:24:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:05</t>
+          <t>2025-05-14 12:02:46</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:05</t>
+          <t>2025-05-14 12:02:46</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:00</t>
+          <t>2025-05-14 13:55:58</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5435</v>
+        <v>6226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1415,14 +1417,14 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1434,41 +1436,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251987</v>
+        <v>251520</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>40.5</v>
       </c>
       <c r="D16" t="n">
-        <v>3289.46875</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:00</t>
+          <t>2025-05-14 13:55:58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:00</t>
+          <t>2025-05-14 14:36:28</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:00</t>
+          <t>2025-05-14 14:36:28</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-22 08:43:29</t>
+          <t>2025-05-15 11:33:33</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>210526</v>
+        <v>16340</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1477,14 +1479,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1500,41 +1502,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250894</v>
+        <v>251249</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>32.5</v>
       </c>
       <c r="D17" t="n">
-        <v>725.6065573770492</v>
+        <v>86.50909090909092</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-15 11:33:33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-15 12:06:03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-15 12:06:03</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 11:34:36</t>
+          <t>2025-05-15 13:32:34</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>44262</v>
+        <v>4758</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1543,17 +1545,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39755</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1564,41 +1568,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>235572</v>
+        <v>251477</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>163.2459016393443</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 11:34:36</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 12:14:36</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 12:14:36</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:51</t>
+          <t>2025-05-08 14:19:31</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>9958</v>
+        <v>29999</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1607,64 +1611,64 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251505</v>
+        <v>251395</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
-        <v>233.6885245901639</v>
+        <v>31.85915492957746</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:51</t>
+          <t>2025-05-08 14:19:31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:51</t>
+          <t>2025-05-08 14:55:31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:51</t>
+          <t>2025-05-08 14:55:31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:32</t>
+          <t>2025-05-09 07:27:22</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>14255</v>
+        <v>2262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1677,60 +1681,60 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251846</v>
+        <v>251561</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>186.7540983606557</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:32</t>
+          <t>2025-05-09 07:27:22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:32</t>
+          <t>2025-05-09 07:44:22</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-13 11:47:32</t>
+          <t>2025-05-09 07:44:22</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-13 14:54:17</t>
+          <t>2025-05-09 09:00:55</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>11392</v>
+        <v>5435</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1743,14 +1747,14 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1762,41 +1766,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251373</v>
+        <v>251564</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>280.2295081967213</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-13 14:54:17</t>
+          <t>2025-05-09 09:00:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:17</t>
+          <t>2025-05-09 09:19:55</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:17</t>
+          <t>2025-05-09 09:19:55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 12:05:31</t>
+          <t>2025-05-09 09:58:11</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>17094</v>
+        <v>2717</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1809,7 +1813,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1828,41 +1832,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251743</v>
+        <v>251373</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>176.655737704918</v>
+        <v>240.7605633802817</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:05:31</t>
+          <t>2025-05-09 09:58:11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:32:31</t>
+          <t>2025-05-09 10:17:11</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14 12:32:31</t>
+          <t>2025-05-09 10:17:11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-15 07:29:10</t>
+          <t>2025-05-09 14:17:57</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>10776</v>
+        <v>17094</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1875,7 +1879,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -1894,41 +1898,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251346</v>
+        <v>251651</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>63.26229508196721</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-15 07:29:10</t>
+          <t>2025-05-09 14:17:57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-15 08:02:10</t>
+          <t>2025-05-09 14:47:57</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-15 08:02:10</t>
+          <t>2025-05-09 14:47:57</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-15 09:05:26</t>
+          <t>2025-05-13 09:47:32</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3859</v>
+        <v>46830</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1937,19 +1941,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39755</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1960,41 +1962,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251259</v>
+        <v>235572</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>81.9672131147541</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-15 09:05:26</t>
+          <t>2025-05-13 09:47:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-15 09:32:26</t>
+          <t>2025-05-13 10:17:32</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-15 09:32:26</t>
+          <t>2025-05-13 10:17:32</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-15 10:54:24</t>
+          <t>2025-05-13 12:37:47</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5000</v>
+        <v>9958</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2003,11 +2005,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2026,41 +2028,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251245</v>
+        <v>250641</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>12.36065573770492</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-15 10:54:24</t>
+          <t>2025-05-13 12:37:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-15 11:25:24</t>
+          <t>2025-05-13 12:54:47</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-15 11:25:24</t>
+          <t>2025-05-13 12:54:47</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-15 11:37:46</t>
+          <t>2025-05-13 14:06:50</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>754</v>
+        <v>5116</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2069,7 +2071,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -2092,41 +2094,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251246</v>
+        <v>251283</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>196.7540983606557</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-15 11:37:46</t>
+          <t>2025-05-13 14:06:50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-15 12:02:46</t>
+          <t>2025-05-13 14:21:50</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-15 12:02:46</t>
+          <t>2025-05-13 14:21:50</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-16 07:19:31</t>
+          <t>2025-05-13 14:32:27</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>12002</v>
+        <v>754</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2158,41 +2160,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251463</v>
+        <v>251061</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>114.2131147540984</v>
+        <v>337.9859154929578</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-16 07:19:31</t>
+          <t>2025-05-13 14:32:27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-16 07:48:31</t>
+          <t>2025-05-13 14:47:27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-16 07:48:31</t>
+          <t>2025-05-13 14:47:27</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-16 09:42:44</t>
+          <t>2025-05-14 12:25:27</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6967</v>
+        <v>23997</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2201,11 +2203,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2224,37 +2226,37 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251462</v>
+        <v>251467</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
-        <v>102.0655737704918</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-16 09:42:44</t>
+          <t>2025-05-14 12:25:27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-16 10:11:44</t>
+          <t>2025-05-14 12:48:27</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-16 10:11:44</t>
+          <t>2025-05-14 12:48:27</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-16 11:53:48</t>
+          <t>2025-05-14 14:16:08</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2290,41 +2292,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251562</v>
+        <v>251557</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>133.4754098360656</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-16 11:53:48</t>
+          <t>2025-05-14 14:16:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-16 12:18:48</t>
+          <t>2025-05-14 14:31:08</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-16 12:18:48</t>
+          <t>2025-05-14 14:31:08</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-16 14:32:16</t>
+          <t>2025-05-15 08:05:34</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>8142</v>
+        <v>6705</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2356,7 +2358,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251580</v>
+        <v>251062</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2364,33 +2366,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D30" t="n">
-        <v>100.7464788732394</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-15 08:05:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-15 08:28:34</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-15 08:28:34</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-08 09:14:44</t>
+          <t>2025-05-15 13:47:13</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>7153</v>
+        <v>22624</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2399,11 +2401,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2422,41 +2424,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251340</v>
+        <v>251396</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
-        <v>461.9718309859155</v>
+        <v>37.08196721311475</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-08 09:14:44</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-08 09:48:44</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-08 09:48:44</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 09:30:43</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>32800</v>
+        <v>2262</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2465,64 +2467,64 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N31" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251651</v>
+        <v>251455</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>659.5774647887324</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:30:43</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:43</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:51:43</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:17</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>46830</v>
+        <v>5297</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2531,62 +2533,64 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N32" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>245090</v>
+        <v>251840</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>7277.718309859155</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:17</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-12 13:06:17</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-12 13:06:17</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-02 14:24:00</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>516718</v>
+        <v>5714</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2595,64 +2599,64 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N33" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251761</v>
+        <v>251742</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>187.0281690140845</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-02 14:24:00</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-02 14:56:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-02 14:56:00</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-03 10:03:02</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>13279</v>
+        <v>8226</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2670,55 +2674,55 @@
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
+      <c r="N34" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251283</v>
+        <v>251164</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>10.61971830985915</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-03 10:03:02</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-03 10:22:02</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-03 10:22:02</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-03 10:32:39</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>754</v>
+        <v>10000</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2727,7 +2731,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -2736,55 +2740,55 @@
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
+      <c r="N35" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>245350</v>
+        <v>251424</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>393.943661971831</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-03 10:32:39</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-03 10:55:39</t>
+          <t>2025-05-09 10:36:22</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-03 10:55:39</t>
+          <t>2025-05-09 10:36:22</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-04 09:29:36</t>
+          <t>2025-05-09 13:14:46</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>27970</v>
+        <v>9662</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2793,18 +2797,18 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -2816,41 +2820,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251546</v>
+        <v>244355</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>91.07042253521126</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-04 09:29:36</t>
+          <t>2025-05-09 13:14:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-04 09:54:36</t>
+          <t>2025-05-09 13:34:46</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-04 09:54:36</t>
+          <t>2025-05-09 13:34:46</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-04 11:25:40</t>
+          <t>2025-05-09 14:45:25</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6466</v>
+        <v>4310</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2863,14 +2867,14 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -2882,41 +2886,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251464</v>
+        <v>251809</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34.5</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>130.0545454545455</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 14:45:25</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-12 07:05:25</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:34:30</t>
+          <t>2025-05-12 07:05:25</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 09:44:33</t>
+          <t>2025-05-12 09:27:44</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>7153</v>
+        <v>8681</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2936,7 +2940,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -2948,41 +2952,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251247</v>
+        <v>251626</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>489.7090909090909</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:44:33</t>
+          <t>2025-05-12 09:27:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:19:03</t>
+          <t>2025-05-12 09:52:44</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:19:03</t>
+          <t>2025-05-12 09:52:44</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:45</t>
+          <t>2025-05-12 13:17:39</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>26934</v>
+        <v>12500</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2991,11 +2995,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3014,41 +3018,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251520</v>
+        <v>251505</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>297.0909090909091</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:45</t>
+          <t>2025-05-12 13:17:39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:15</t>
+          <t>2025-05-12 13:47:39</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:15</t>
+          <t>2025-05-12 13:47:39</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:21</t>
+          <t>2025-05-13 09:41:20</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>16340</v>
+        <v>14255</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3057,11 +3061,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3080,41 +3084,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251249</v>
+        <v>250819</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>86.50909090909092</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:21</t>
+          <t>2025-05-13 09:41:20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:51</t>
+          <t>2025-05-13 10:06:20</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:51</t>
+          <t>2025-05-13 10:06:20</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 09:57:21</t>
+          <t>2025-05-13 12:26:07</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4758</v>
+        <v>8527</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3123,7 +3127,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -3146,7 +3150,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251466</v>
+        <v>251346</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3154,33 +3158,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>91.26229508196721</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 12:26:07</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-13 12:56:07</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-13 12:56:07</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-08 08:56:15</t>
+          <t>2025-05-13 13:59:23</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>5567</v>
+        <v>3859</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3193,7 +3197,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3212,7 +3216,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>244354</v>
+        <v>244023</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3220,33 +3224,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>70.65573770491804</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-08 08:56:15</t>
+          <t>2025-05-13 13:59:23</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-08 09:21:15</t>
+          <t>2025-05-13 14:29:23</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-08 09:21:15</t>
+          <t>2025-05-13 14:29:23</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:55</t>
+          <t>2025-05-13 14:45:44</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>4310</v>
+        <v>997</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3259,14 +3263,14 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3278,7 +3282,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>244204</v>
+        <v>251247</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3289,30 +3293,30 @@
         <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>56.91803278688525</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:55</t>
+          <t>2025-05-13 14:45:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-08 10:51:55</t>
+          <t>2025-05-14 07:05:44</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-08 10:51:55</t>
+          <t>2025-05-14 07:05:44</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-08 11:48:50</t>
+          <t>2025-05-14 14:27:16</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3472</v>
+        <v>26934</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3321,18 +3325,18 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3344,7 +3348,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251795</v>
+        <v>251562</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3352,33 +3356,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
-        <v>307.1967213114754</v>
+        <v>133.4754098360656</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-08 11:48:50</t>
+          <t>2025-05-14 14:27:16</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-08 12:18:50</t>
+          <t>2025-05-15 07:07:16</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-08 12:18:50</t>
+          <t>2025-05-15 07:07:16</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 09:26:01</t>
+          <t>2025-05-15 09:20:45</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>18739</v>
+        <v>8142</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3387,18 +3391,18 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3410,7 +3414,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251260</v>
+        <v>251251</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3418,33 +3422,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D46" t="n">
-        <v>153.5901639344262</v>
+        <v>260</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 09:26:01</t>
+          <t>2025-05-15 09:20:45</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 09:46:01</t>
+          <t>2025-05-15 10:00:45</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 09:46:01</t>
+          <t>2025-05-15 10:00:45</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 12:19:37</t>
+          <t>2025-05-15 14:20:45</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>9369</v>
+        <v>15860</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3453,7 +3457,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -3464,7 +3468,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3476,41 +3480,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>250819</v>
+        <v>251453</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>139.7868852459016</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 12:19:37</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:37</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:37</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:24</t>
+          <t>2025-05-08 09:22:02</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8527</v>
+        <v>5000</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3523,60 +3527,60 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
+      <c r="N47" t="n">
+        <v>39742</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>39742</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>250641</v>
+        <v>251391</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>83.8688524590164</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-09 14:59:24</t>
+          <t>2025-05-08 09:22:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 07:19:24</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 07:19:24</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 08:43:16</t>
+          <t>2025-05-08 12:06:44</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5116</v>
+        <v>5865</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3589,60 +3593,60 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+      <c r="N48" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244023</v>
+        <v>251547</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D49" t="n">
-        <v>16.34426229508197</v>
+        <v>267.9387755102041</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 08:43:16</t>
+          <t>2025-05-08 12:06:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 09:03:16</t>
+          <t>2025-05-08 12:46:44</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 09:03:16</t>
+          <t>2025-05-08 12:46:44</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 09:19:37</t>
+          <t>2025-05-09 09:14:40</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>997</v>
+        <v>13129</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3655,60 +3659,60 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+      <c r="N49" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251061</v>
+        <v>251519</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D50" t="n">
-        <v>393.3934426229508</v>
+        <v>268.8775510204082</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 09:19:37</t>
+          <t>2025-05-09 09:14:40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:37</t>
+          <t>2025-05-09 09:59:40</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:37</t>
+          <t>2025-05-09 09:59:40</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:00</t>
+          <t>2025-05-09 14:28:33</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>23997</v>
+        <v>13175</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3717,18 +3721,18 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -3740,41 +3744,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251374</v>
+        <v>251743</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>448.2459016393443</v>
+        <v>219.9183673469388</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:00</t>
+          <t>2025-05-09 14:28:33</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:00</t>
+          <t>2025-05-12 07:13:33</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:00</t>
+          <t>2025-05-12 07:13:33</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-14 08:06:15</t>
+          <t>2025-05-12 10:53:28</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>27343</v>
+        <v>10776</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3783,18 +3787,18 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -3806,41 +3810,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>245089</v>
+        <v>251546</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D52" t="n">
-        <v>1727.676056338028</v>
+        <v>131.9591836734694</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-12 10:53:28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 11:33:28</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 11:33:28</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:40</t>
+          <t>2025-05-12 13:45:25</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>122665</v>
+        <v>6466</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3849,18 +3853,18 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -3872,41 +3876,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>243569</v>
+        <v>251846</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D53" t="n">
-        <v>36.63380281690141</v>
+        <v>232.4897959183673</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:40</t>
+          <t>2025-05-12 13:45:25</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-14 09:23:40</t>
+          <t>2025-05-12 14:35:25</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-14 09:23:40</t>
+          <t>2025-05-12 14:35:25</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-14 10:00:18</t>
+          <t>2025-05-13 10:27:55</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2601</v>
+        <v>11392</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3915,14 +3919,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -3938,41 +3942,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>250670</v>
+        <v>251485</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D54" t="n">
-        <v>22.01408450704225</v>
+        <v>98.12244897959184</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-14 10:00:18</t>
+          <t>2025-05-13 10:27:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-14 10:17:18</t>
+          <t>2025-05-13 11:17:55</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-14 10:17:18</t>
+          <t>2025-05-13 11:17:55</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-14 10:39:19</t>
+          <t>2025-05-13 12:56:02</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1563</v>
+        <v>4808</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3981,14 +3985,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4004,41 +4008,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251750</v>
+        <v>251259</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D55" t="n">
-        <v>54.80281690140845</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-14 10:39:19</t>
+          <t>2025-05-13 12:56:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:19</t>
+          <t>2025-05-13 13:51:02</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:19</t>
+          <t>2025-05-13 13:51:02</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 12:06:07</t>
+          <t>2025-05-14 07:33:04</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3891</v>
+        <v>5000</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4047,18 +4051,18 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M55" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4070,41 +4074,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>245623</v>
+        <v>251466</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D56" t="n">
-        <v>372.0985915492957</v>
+        <v>113.6122448979592</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-14 12:06:07</t>
+          <t>2025-05-14 07:33:04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-14 12:23:07</t>
+          <t>2025-05-14 08:38:04</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-14 12:23:07</t>
+          <t>2025-05-14 08:38:04</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-15 10:35:13</t>
+          <t>2025-05-14 10:31:41</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>26419</v>
+        <v>5567</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4113,18 +4117,18 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4136,41 +4140,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>243335</v>
+        <v>251464</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>464.8450704225352</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-15 10:35:13</t>
+          <t>2025-05-14 10:31:41</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-15 10:54:13</t>
+          <t>2025-05-14 11:11:41</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-15 10:54:13</t>
+          <t>2025-05-14 11:11:41</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-16 10:39:04</t>
+          <t>2025-05-14 13:37:40</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>33004</v>
+        <v>7153</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4179,14 +4183,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4202,7 +4206,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251062</v>
+        <v>251374</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4210,33 +4214,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D58" t="n">
-        <v>461.7142857142857</v>
+        <v>558.0204081632653</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 13:37:40</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 14:27:40</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 14:27:40</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:36:42</t>
+          <t>2025-05-16 07:45:41</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>22624</v>
+        <v>27343</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4249,7 +4253,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4268,41 +4272,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>245275</v>
+        <v>250759</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
-        <v>342.1690140845071</v>
+        <v>131.21875</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-09 14:19:10</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>24294</v>
+        <v>8398</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4311,64 +4315,64 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251109</v>
+        <v>250923</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>266.5915492957747</v>
+        <v>109.46875</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-09 14:19:10</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:10</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:10</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:45</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>18928</v>
+        <v>7006</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4377,64 +4381,64 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N60" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251465</v>
+        <v>251227</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>90.23188405797102</v>
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:13</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4443,64 +4447,64 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N61" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251467</v>
+        <v>251225</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>90.23188405797102</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:13</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-12 09:30:13</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-12 09:30:13</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:27</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4509,64 +4513,64 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N62" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251557</v>
+        <v>251421</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>97.17391304347827</v>
+        <v>81.9375</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:27</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 11:25:27</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 11:25:27</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:38</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6705</v>
+        <v>5244</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4575,64 +4579,64 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>70</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N63" t="n">
+        <v>39762</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>39762</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251252</v>
+        <v>251268</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>218.5942028985507</v>
+        <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:38</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:38</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:38</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:13</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>15083</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4641,24 +4645,1406 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
+        <v>4</v>
+      </c>
+      <c r="M64" t="n">
+        <v>76</v>
+      </c>
+      <c r="N64" t="n">
+        <v>39666</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>39666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>251371</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>30</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:19:37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:49:37</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:49:37</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:49:37</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" t="n">
+        <v>70</v>
+      </c>
+      <c r="N65" t="n">
+        <v>39666</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>39666</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>251782</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>32</v>
+      </c>
+      <c r="D66" t="n">
+        <v>188.640625</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:49:37</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:21:37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:21:37</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:30:15</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>12073</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>3</v>
+      </c>
+      <c r="M66" t="n">
+        <v>76</v>
+      </c>
+      <c r="N66" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>39754</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>251548</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>32</v>
+      </c>
+      <c r="D67" t="n">
+        <v>206.90625</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:30:15</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:02:15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:02:15</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:29:10</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>13242</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>4</v>
+      </c>
+      <c r="M67" t="n">
+        <v>70</v>
+      </c>
+      <c r="N67" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>39749</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>251456</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>17</v>
+      </c>
+      <c r="D68" t="n">
+        <v>140.609375</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:29:10</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:46:10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:46:10</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:06:46</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>8999</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>3</v>
+      </c>
+      <c r="M68" t="n">
+        <v>70</v>
+      </c>
+      <c r="N68" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>39746</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>251566</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>17</v>
+      </c>
+      <c r="D69" t="n">
+        <v>107.640625</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:06:46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:23:46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:23:46</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:11:25</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>6889</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>4</v>
+      </c>
+      <c r="M69" t="n">
+        <v>70</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>251397</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>17</v>
+      </c>
+      <c r="D70" t="n">
+        <v>84.921875</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:11:25</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:28:25</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:28:25</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:53:20</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>5435</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>70</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>244354</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>17</v>
+      </c>
+      <c r="D71" t="n">
+        <v>67.34375</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:53:20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:10:20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:10:20</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:17:41</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>4310</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>4</v>
+      </c>
+      <c r="M71" t="n">
+        <v>70</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>244204</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>15</v>
+      </c>
+      <c r="D72" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:17:41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:32:41</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:32:41</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:26:56</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>3472</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>4</v>
+      </c>
+      <c r="M72" t="n">
+        <v>70</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>251260</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>19</v>
+      </c>
+      <c r="D73" t="n">
+        <v>146.390625</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:26:56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:45:56</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:45:56</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:12:19</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>9369</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
         <v>6</v>
       </c>
-      <c r="M64" t="n">
-        <v>70</v>
-      </c>
-      <c r="N64" t="inlineStr">
+      <c r="M73" t="n">
+        <v>70</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>251750</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>36</v>
+      </c>
+      <c r="D74" t="n">
+        <v>60.796875</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:12:19</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:48:19</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:48:19</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:49:07</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>3891</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>3</v>
+      </c>
+      <c r="M74" t="n">
+        <v>152</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>245089</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>32</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1916.640625</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2025-05-12 11:49:07</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:21:07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:21:07</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2025-05-16 12:17:45</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>122665</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>4</v>
+      </c>
+      <c r="M75" t="n">
+        <v>76</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>251340</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>15</v>
+      </c>
+      <c r="D76" t="n">
+        <v>461.9718309859155</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:00:00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:15:00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:15:00</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:56:58</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>32800</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>76</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>250894</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>21</v>
+      </c>
+      <c r="D77" t="n">
+        <v>623.4084507042254</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:56:58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:17:58</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:17:58</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:41:22</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>5</v>
+      </c>
+      <c r="M77" t="n">
+        <v>76</v>
+      </c>
+      <c r="N77" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>245090</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>15</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7277.718309859155</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:41:22</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:56:22</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:56:22</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2025-06-03 08:14:05</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>516718</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>5</v>
+      </c>
+      <c r="M78" t="n">
+        <v>76</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>19</v>
+      </c>
+      <c r="D79" t="n">
+        <v>36.63380281690141</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025-06-03 08:14:05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025-06-03 08:33:05</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-06-03 08:33:05</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2025-06-03 09:09:43</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2601</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>3</v>
+      </c>
+      <c r="M79" t="n">
+        <v>76</v>
+      </c>
+      <c r="N79" t="inlineStr">
         <is>
           <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>250670</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>17</v>
+      </c>
+      <c r="D80" t="n">
+        <v>22.01408450704225</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-06-03 09:09:43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-06-03 09:26:43</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-06-03 09:26:43</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2025-06-03 09:48:44</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1563</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>4</v>
+      </c>
+      <c r="M80" t="n">
+        <v>76</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>245623</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>34</v>
+      </c>
+      <c r="D81" t="n">
+        <v>372.0985915492957</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-06-03 09:48:44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-06-03 10:22:44</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-06-03 10:22:44</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2025-06-04 08:34:50</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>26419</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>152</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>243335</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>19</v>
+      </c>
+      <c r="D82" t="n">
+        <v>464.8450704225352</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-06-04 08:34:50</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-06-04 08:53:50</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-06-04 08:53:50</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2025-06-05 08:38:41</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>33004</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>4</v>
+      </c>
+      <c r="M82" t="n">
+        <v>152</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>251594</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>42</v>
+      </c>
+      <c r="D83" t="n">
+        <v>106</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:42:00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:42:00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:28:00</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>6466</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>4</v>
+      </c>
+      <c r="M83" t="n">
+        <v>70</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>251416</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>29</v>
+      </c>
+      <c r="D84" t="n">
+        <v>183.9672131147541</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:28:00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:57:00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:57:00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:00:58</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>70</v>
+      </c>
+      <c r="N84" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>245350</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>41</v>
+      </c>
+      <c r="D85" t="n">
+        <v>458.5245901639344</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:00:58</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:41:58</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:41:58</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:20:29</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>27970</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>10</v>
+      </c>
+      <c r="M85" t="n">
+        <v>70</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,41 +512,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251761</v>
+        <v>251477</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>192.4492753623188</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 10:47:26</t>
+          <t>2025-05-08 14:19:31</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13279</v>
+        <v>29999</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,64 +555,64 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251463</v>
+        <v>251395</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>100.9710144927536</v>
+        <v>31.85915492957746</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:47:26</t>
+          <t>2025-05-08 14:19:31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 11:12:26</t>
+          <t>2025-05-08 14:55:31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 11:12:26</t>
+          <t>2025-05-08 14:55:31</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 12:53:25</t>
+          <t>2025-05-09 07:27:22</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6967</v>
+        <v>2262</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -625,60 +625,60 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+      <c r="N3" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251462</v>
+        <v>251561</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>90.23188405797102</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-12 12:53:25</t>
+          <t>2025-05-09 07:27:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-12 13:28:25</t>
+          <t>2025-05-09 07:44:22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-12 13:28:25</t>
+          <t>2025-05-09 07:44:22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:39</t>
+          <t>2025-05-09 09:00:55</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6226</v>
+        <v>5435</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -691,14 +691,14 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -710,41 +710,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251580</v>
+        <v>251564</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>103.6666666666667</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:39</t>
+          <t>2025-05-09 09:00:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:39</t>
+          <t>2025-05-09 09:19:55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:39</t>
+          <t>2025-05-09 09:19:55</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:19</t>
+          <t>2025-05-09 09:58:11</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>7153</v>
+        <v>2717</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -757,14 +757,14 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -776,41 +776,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251229</v>
+        <v>251373</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>271.5797101449276</v>
+        <v>240.7605633802817</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:19</t>
+          <t>2025-05-09 09:58:11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:52:19</t>
+          <t>2025-05-09 10:17:11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:52:19</t>
+          <t>2025-05-09 10:17:11</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-13 14:23:53</t>
+          <t>2025-05-09 14:17:57</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>18739</v>
+        <v>17094</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -819,64 +819,64 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39723</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251252</v>
+        <v>251651</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>218.5942028985507</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-13 14:23:53</t>
+          <t>2025-05-09 14:17:57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:53</t>
+          <t>2025-05-09 14:47:57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:53</t>
+          <t>2025-05-09 14:47:57</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-14 10:27:29</t>
+          <t>2025-05-13 09:47:32</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>15083</v>
+        <v>46830</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -885,19 +885,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39755</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -908,41 +906,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251987</v>
+        <v>250641</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>3051.101449275362</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-14 10:27:29</t>
+          <t>2025-05-13 09:47:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-14 10:57:29</t>
+          <t>2025-05-13 10:19:32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-14 10:57:29</t>
+          <t>2025-05-13 10:19:32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-22 13:48:35</t>
+          <t>2025-05-13 11:31:35</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>210526</v>
+        <v>5116</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -951,14 +949,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -974,41 +972,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251284</v>
+        <v>251283</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>297.0909090909091</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 11:31:35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-13 11:46:35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-13 11:46:35</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-13 11:57:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>16340</v>
+        <v>754</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1017,64 +1015,64 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251475</v>
+        <v>251245</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8363636363636</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-13 11:57:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-13 12:12:12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-13 12:12:12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:55</t>
+          <t>2025-05-13 12:22:49</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8681</v>
+        <v>754</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1083,18 +1081,18 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1106,41 +1104,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251795</v>
+        <v>251246</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>340.7090909090909</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:55</t>
+          <t>2025-05-13 12:22:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 08:26:25</t>
+          <t>2025-05-13 12:37:49</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 08:26:25</t>
+          <t>2025-05-13 12:37:49</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 14:07:08</t>
+          <t>2025-05-14 07:26:52</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>18739</v>
+        <v>12002</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1149,7 +1147,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1160,7 +1158,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1172,41 +1170,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>245275</v>
+        <v>251463</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>46.5</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>441.7090909090909</v>
+        <v>98.12676056338029</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-12 14:07:08</t>
+          <t>2025-05-14 07:26:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-12 14:53:38</t>
+          <t>2025-05-14 07:45:52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-12 14:53:38</t>
+          <t>2025-05-14 07:45:52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 14:15:20</t>
+          <t>2025-05-14 09:24:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>24294</v>
+        <v>6967</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1215,11 +1213,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1238,41 +1236,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251245</v>
+        <v>251462</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46.5</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>13.70909090909091</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 14:15:20</t>
+          <t>2025-05-14 09:24:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-14 07:01:50</t>
+          <t>2025-05-14 09:43:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-14 07:01:50</t>
+          <t>2025-05-14 09:43:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-14 07:15:33</t>
+          <t>2025-05-14 11:10:41</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>754</v>
+        <v>6226</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1281,11 +1279,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1304,41 +1302,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251246</v>
+        <v>251580</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>218.2181818181818</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-14 07:15:33</t>
+          <t>2025-05-14 11:10:41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-14 07:46:03</t>
+          <t>2025-05-14 11:29:41</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-14 07:46:03</t>
+          <t>2025-05-14 11:29:41</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:24:16</t>
+          <t>2025-05-14 13:10:26</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>12002</v>
+        <v>7153</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1347,11 +1345,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1370,41 +1368,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251465</v>
+        <v>251252</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38.5</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>113.2</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:24:16</t>
+          <t>2025-05-14 13:10:26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-14 12:02:46</t>
+          <t>2025-05-14 13:29:26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-14 12:02:46</t>
+          <t>2025-05-14 13:29:26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-14 13:55:58</t>
+          <t>2025-05-15 09:01:52</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6226</v>
+        <v>15083</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1413,11 +1411,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1436,41 +1434,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251520</v>
+        <v>251050</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40.5</v>
+        <v>217</v>
       </c>
       <c r="D16" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-14 13:55:58</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-14 14:36:28</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-14 14:36:28</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-15 11:33:33</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1479,64 +1477,64 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251249</v>
+        <v>251081</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32.5</v>
+        <v>125</v>
       </c>
       <c r="D17" t="n">
-        <v>86.50909090909092</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-15 11:33:33</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-15 12:06:03</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-15 12:06:03</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-15 13:32:34</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4758</v>
+        <v>3012</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1545,64 +1543,64 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
+      <c r="N17" t="n">
+        <v>39750</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251477</v>
+        <v>251054</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D18" t="n">
-        <v>422.5211267605634</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1611,17 +1609,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1629,46 +1627,46 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251395</v>
+        <v>251626</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="D19" t="n">
-        <v>31.85915492957746</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-12 10:59:25</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-12 10:59:25</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-12 13:55:28</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>12500</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1681,60 +1679,60 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251561</v>
+        <v>245275</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D20" t="n">
-        <v>76.54929577464789</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-12 13:55:28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:22</t>
+          <t>2025-05-13 07:25:28</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:22</t>
+          <t>2025-05-13 07:25:28</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:00:55</t>
+          <t>2025-05-13 13:07:38</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5435</v>
+        <v>24294</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1743,18 +1741,18 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1766,41 +1764,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251564</v>
+        <v>251109</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>38.26760563380282</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-09 09:00:55</t>
+          <t>2025-05-13 13:07:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 09:19:55</t>
+          <t>2025-05-13 13:52:38</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 09:19:55</t>
+          <t>2025-05-13 13:52:38</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 09:58:11</t>
+          <t>2025-05-14 10:19:14</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2717</v>
+        <v>18928</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1809,18 +1807,18 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1832,41 +1830,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251373</v>
+        <v>251520</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7605633802817</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:58:11</t>
+          <t>2025-05-14 10:19:14</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:11</t>
+          <t>2025-05-14 11:39:14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:11</t>
+          <t>2025-05-14 11:39:14</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:57</t>
+          <t>2025-05-15 07:29:22</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>17094</v>
+        <v>16340</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1875,18 +1873,18 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -1898,41 +1896,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251651</v>
+        <v>251340</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>659.5774647887324</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:57</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:57</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:57</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-13 09:47:32</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>46830</v>
+        <v>32800</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1945,13 +1943,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>76</v>
       </c>
-      <c r="N23" t="n">
-        <v>39755</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1962,41 +1962,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>235572</v>
+        <v>250894</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
-        <v>140.2535211267606</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-13 09:47:32</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-13 10:17:32</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-13 10:17:32</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-13 12:37:47</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>9958</v>
+        <v>44262</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2005,19 +2005,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39755</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2028,41 +2026,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250641</v>
+        <v>245090</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>72.05633802816901</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-13 12:37:47</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:47</t>
+          <t>2025-05-12 14:56:22</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:47</t>
+          <t>2025-05-12 14:56:22</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 14:06:50</t>
+          <t>2025-06-03 08:14:05</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5116</v>
+        <v>516718</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2071,18 +2069,18 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2094,41 +2092,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251283</v>
+        <v>243569</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>10.61971830985915</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-13 14:06:50</t>
+          <t>2025-06-03 08:14:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 14:21:50</t>
+          <t>2025-06-03 08:33:05</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 14:21:50</t>
+          <t>2025-06-03 08:33:05</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-13 14:32:27</t>
+          <t>2025-06-03 09:09:43</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>754</v>
+        <v>2601</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2137,14 +2135,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2160,41 +2158,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251061</v>
+        <v>250670</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>337.9859154929578</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-13 14:32:27</t>
+          <t>2025-06-03 09:09:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-13 14:47:27</t>
+          <t>2025-06-03 09:26:43</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-13 14:47:27</t>
+          <t>2025-06-03 09:26:43</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-14 12:25:27</t>
+          <t>2025-06-03 09:48:44</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>23997</v>
+        <v>1563</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2203,14 +2201,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2226,41 +2224,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251467</v>
+        <v>251987</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>87.69014084507042</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-14 12:25:27</t>
+          <t>2025-06-03 09:48:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-14 12:48:27</t>
+          <t>2025-06-03 10:07:44</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-14 12:48:27</t>
+          <t>2025-06-03 10:07:44</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-14 14:16:08</t>
+          <t>2025-06-11 11:32:54</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>6226</v>
+        <v>210526</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2269,14 +2267,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2292,41 +2290,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251557</v>
+        <v>250759</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>94.43661971830986</v>
+        <v>131.21875</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-14 14:16:08</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-14 14:31:08</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-14 14:31:08</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-15 08:05:34</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6705</v>
+        <v>8398</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2335,64 +2333,64 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N29" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251062</v>
+        <v>250923</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>318.6478873239437</v>
+        <v>109.46875</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-15 08:05:34</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-15 08:28:34</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-15 08:28:34</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-15 13:47:13</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>22624</v>
+        <v>7006</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2401,64 +2399,64 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N30" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251396</v>
+        <v>251227</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>37.08196721311475</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2467,17 +2465,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N31" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2485,46 +2483,46 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251455</v>
+        <v>251225</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>86.8360655737705</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2533,17 +2531,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N32" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2551,46 +2549,46 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251840</v>
+        <v>251421</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>93.67213114754098</v>
+        <v>81.9375</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5714</v>
+        <v>5244</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2599,17 +2597,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N33" t="n">
-        <v>39758</v>
+        <v>39762</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2617,46 +2615,46 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>39758</v>
+        <v>39762</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251742</v>
+        <v>251268</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2665,17 +2663,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N34" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2683,46 +2681,46 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251164</v>
+        <v>251371</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>163.9344262295082</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2735,13 +2733,13 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2749,46 +2747,46 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251424</v>
+        <v>251782</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>158.3934426229508</v>
+        <v>188.640625</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:36:22</t>
+          <t>2025-05-08 07:21:37</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:36:22</t>
+          <t>2025-05-08 07:21:37</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:46</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>9662</v>
+        <v>12073</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2797,64 +2795,64 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N36" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>244355</v>
+        <v>251548</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>70.65573770491804</v>
+        <v>206.90625</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:46</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:34:46</t>
+          <t>2025-05-08 11:02:15</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:34:46</t>
+          <t>2025-05-08 11:02:15</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 14:45:25</t>
+          <t>2025-05-08 14:29:10</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>4310</v>
+        <v>13242</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2872,55 +2870,55 @@
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
+      <c r="N37" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251809</v>
+        <v>251456</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3114754098361</v>
+        <v>140.609375</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:45:25</t>
+          <t>2025-05-08 14:29:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:05:25</t>
+          <t>2025-05-08 14:46:10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:05:25</t>
+          <t>2025-05-08 14:46:10</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:44</t>
+          <t>2025-05-09 09:06:46</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8681</v>
+        <v>8999</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2933,60 +2931,60 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
+      <c r="N38" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251626</v>
+        <v>251566</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>204.9180327868852</v>
+        <v>107.640625</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:44</t>
+          <t>2025-05-09 09:06:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 09:52:44</t>
+          <t>2025-05-09 09:23:46</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 09:52:44</t>
+          <t>2025-05-09 09:23:46</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:39</t>
+          <t>2025-05-09 11:11:25</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>12500</v>
+        <v>6889</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2999,14 +2997,14 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3018,41 +3016,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251505</v>
+        <v>251397</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>233.6885245901639</v>
+        <v>84.921875</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:39</t>
+          <t>2025-05-09 11:11:25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:39</t>
+          <t>2025-05-09 11:28:25</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:39</t>
+          <t>2025-05-09 11:28:25</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 09:41:20</t>
+          <t>2025-05-09 12:53:20</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>14255</v>
+        <v>5435</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3065,14 +3063,14 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3084,41 +3082,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>250819</v>
+        <v>244354</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>139.7868852459016</v>
+        <v>67.34375</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 09:41:20</t>
+          <t>2025-05-09 12:53:20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 10:06:20</t>
+          <t>2025-05-09 13:10:20</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 10:06:20</t>
+          <t>2025-05-09 13:10:20</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:26:07</t>
+          <t>2025-05-09 14:17:41</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>8527</v>
+        <v>4310</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3131,14 +3129,14 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3150,41 +3148,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251346</v>
+        <v>244204</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>63.26229508196721</v>
+        <v>54.25</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-13 12:26:07</t>
+          <t>2025-05-09 14:17:41</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-13 12:56:07</t>
+          <t>2025-05-09 14:32:41</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-13 12:56:07</t>
+          <t>2025-05-09 14:32:41</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 13:59:23</t>
+          <t>2025-05-12 07:26:56</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3859</v>
+        <v>3472</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3197,14 +3195,14 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3216,41 +3214,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>244023</v>
+        <v>251260</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>16.34426229508197</v>
+        <v>146.390625</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-13 13:59:23</t>
+          <t>2025-05-12 07:26:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-13 14:29:23</t>
+          <t>2025-05-12 07:45:56</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-13 14:29:23</t>
+          <t>2025-05-12 07:45:56</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-13 14:45:44</t>
+          <t>2025-05-12 10:12:19</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>997</v>
+        <v>9369</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3259,7 +3257,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -3270,7 +3268,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -3282,41 +3280,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251247</v>
+        <v>251750</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D44" t="n">
-        <v>441.5409836065574</v>
+        <v>60.796875</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-13 14:45:44</t>
+          <t>2025-05-12 10:12:19</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-14 07:05:44</t>
+          <t>2025-05-12 10:48:19</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-14 07:05:44</t>
+          <t>2025-05-12 10:48:19</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-14 14:27:16</t>
+          <t>2025-05-12 11:49:07</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>26934</v>
+        <v>3891</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3325,18 +3323,18 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3348,41 +3346,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251562</v>
+        <v>245089</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
-        <v>133.4754098360656</v>
+        <v>1916.640625</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-14 14:27:16</t>
+          <t>2025-05-12 11:49:07</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:16</t>
+          <t>2025-05-12 12:21:07</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:16</t>
+          <t>2025-05-12 12:21:07</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-15 09:20:45</t>
+          <t>2025-05-16 12:17:45</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>8142</v>
+        <v>122665</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3391,18 +3389,18 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3414,41 +3412,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251251</v>
+        <v>251594</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D46" t="n">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-15 09:20:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-15 10:00:45</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-15 10:00:45</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-15 14:20:45</t>
+          <t>2025-05-09 09:28:00</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>15860</v>
+        <v>6466</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3457,18 +3455,18 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3480,41 +3478,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251453</v>
+        <v>251416</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
-        <v>102.0408163265306</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 09:28:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-09 09:57:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-09 09:57:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:02</t>
+          <t>2025-05-09 13:00:58</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5000</v>
+        <v>11222</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3527,60 +3525,58 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
       <c r="N47" t="n">
-        <v>39742</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251391</v>
+        <v>243335</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" t="n">
-        <v>119.6938775510204</v>
+        <v>541.0491803278688</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:02</t>
+          <t>2025-05-09 13:00:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-09 13:44:58</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-09 13:44:58</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:44</t>
+          <t>2025-05-12 14:46:00</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5865</v>
+        <v>33004</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3589,64 +3585,64 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
-      </c>
-      <c r="N48" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251547</v>
+        <v>245623</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
-        <v>267.9387755102041</v>
+        <v>433.0983606557377</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:44</t>
+          <t>2025-05-12 14:46:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:44</t>
+          <t>2025-05-13 07:15:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:44</t>
+          <t>2025-05-13 07:15:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:40</t>
+          <t>2025-05-13 14:28:06</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>13129</v>
+        <v>26419</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3655,130 +3651,130 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
-      </c>
-      <c r="N49" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251519</v>
+        <v>251706</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>268.8775510204082</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-09 14:28:33</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>13175</v>
+        <v>3200</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>39764</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251743</v>
+        <v>251229</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>219.9183673469388</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-09 14:28:33</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:13:33</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:13:33</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 10:53:28</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>10776</v>
+        <v>18739</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3787,64 +3783,64 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
+      <c r="N51" t="n">
+        <v>39723</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251546</v>
+        <v>245350</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D52" t="n">
-        <v>131.9591836734694</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 10:53:28</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 11:33:28</t>
+          <t>2025-05-12 13:01:34</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 11:33:28</t>
+          <t>2025-05-12 13:01:34</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:25</t>
+          <t>2025-05-13 11:46:56</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>6466</v>
+        <v>27970</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3853,11 +3849,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -3876,41 +3872,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251846</v>
+        <v>251466</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D53" t="n">
-        <v>232.4897959183673</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:25</t>
+          <t>2025-05-13 11:46:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:25</t>
+          <t>2025-05-13 12:46:56</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:25</t>
+          <t>2025-05-13 12:46:56</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 10:27:55</t>
+          <t>2025-05-13 14:07:37</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>11392</v>
+        <v>5567</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3923,7 +3919,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -3942,41 +3938,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251485</v>
+        <v>251465</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>98.12244897959184</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 10:27:55</t>
+          <t>2025-05-13 14:07:37</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:55</t>
+          <t>2025-05-13 14:37:37</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:55</t>
+          <t>2025-05-13 14:37:37</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 12:56:02</t>
+          <t>2025-05-14 08:07:51</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>4808</v>
+        <v>6226</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3989,7 +3985,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4008,41 +4004,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251259</v>
+        <v>251467</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>102.0408163265306</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-13 12:56:02</t>
+          <t>2025-05-14 08:07:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 13:51:02</t>
+          <t>2025-05-14 08:32:51</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 13:51:02</t>
+          <t>2025-05-14 08:32:51</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:04</t>
+          <t>2025-05-14 10:03:05</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5000</v>
+        <v>6226</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4055,7 +4051,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4074,41 +4070,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251466</v>
+        <v>251562</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>113.6122448979592</v>
+        <v>118</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:04</t>
+          <t>2025-05-14 10:03:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:04</t>
+          <t>2025-05-14 10:28:05</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:04</t>
+          <t>2025-05-14 10:28:05</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-14 10:31:41</t>
+          <t>2025-05-14 12:26:05</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5567</v>
+        <v>8142</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4121,7 +4117,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4140,41 +4136,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251464</v>
+        <v>251249</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D57" t="n">
-        <v>145.9795918367347</v>
+        <v>68.95652173913044</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-14 10:31:41</t>
+          <t>2025-05-14 12:26:05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:41</t>
+          <t>2025-05-14 13:11:05</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:41</t>
+          <t>2025-05-14 13:11:05</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-14 13:37:40</t>
+          <t>2025-05-14 14:20:02</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>7153</v>
+        <v>4758</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4183,11 +4179,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4206,41 +4202,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251374</v>
+        <v>251396</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>558.0204081632653</v>
+        <v>37.08196721311475</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-14 13:37:40</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-14 14:27:40</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-14 14:27:40</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-16 07:45:41</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>27343</v>
+        <v>2262</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4249,64 +4245,64 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+      <c r="N58" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>250759</v>
+        <v>251455</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
-        <v>131.21875</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8398</v>
+        <v>5297</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4315,17 +4311,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N59" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4333,46 +4329,46 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>250923</v>
+        <v>251840</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>109.46875</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>7006</v>
+        <v>5714</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4381,17 +4377,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
         <v>5</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N60" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4399,46 +4395,46 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251227</v>
+        <v>251742</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4447,17 +4443,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
         <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N61" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -4465,46 +4461,46 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251225</v>
+        <v>251164</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4513,17 +4509,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N62" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -4531,46 +4527,46 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251421</v>
+        <v>251424</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>81.9375</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-09 10:36:22</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-09 10:36:22</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-09 13:14:46</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5244</v>
+        <v>9662</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4579,64 +4575,64 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>76</v>
-      </c>
-      <c r="N63" t="n">
-        <v>39762</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251268</v>
+        <v>244355</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-09 13:14:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 13:34:46</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 13:34:46</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 14:45:25</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>4310</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4645,64 +4641,64 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
         <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
-      </c>
-      <c r="N64" t="n">
-        <v>39666</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251371</v>
+        <v>251809</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 14:45:25</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-12 07:05:25</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-12 07:05:25</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-12 09:27:44</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>8681</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -4720,55 +4716,55 @@
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="n">
-        <v>39666</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251782</v>
+        <v>251546</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>188.640625</v>
+        <v>106</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-12 09:27:44</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-12 09:52:44</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-12 09:52:44</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-12 11:38:44</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>12073</v>
+        <v>6466</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4777,64 +4773,64 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
-        <v>76</v>
-      </c>
-      <c r="N66" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251548</v>
+        <v>251846</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>206.90625</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-12 11:38:44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-12 12:13:44</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-12 12:13:44</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-13 07:20:29</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>13242</v>
+        <v>11392</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4847,60 +4843,60 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251456</v>
+        <v>250819</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
-        <v>140.609375</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-13 07:20:29</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-13 08:00:29</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-13 08:00:29</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-13 10:20:16</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8999</v>
+        <v>8527</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4913,60 +4909,60 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251566</v>
+        <v>251259</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>107.640625</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-13 10:20:16</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-13 10:55:16</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-13 10:55:16</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-09 11:11:25</t>
+          <t>2025-05-13 12:17:14</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>6889</v>
+        <v>5000</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4979,14 +4975,14 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -4998,41 +4994,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251397</v>
+        <v>251061</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>84.921875</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:11:25</t>
+          <t>2025-05-13 12:17:14</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:28:25</t>
+          <t>2025-05-13 12:52:14</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:28:25</t>
+          <t>2025-05-13 12:52:14</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:20</t>
+          <t>2025-05-14 11:25:38</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5435</v>
+        <v>23997</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5041,18 +5037,18 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5064,41 +5060,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>244354</v>
+        <v>251557</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>67.34375</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:20</t>
+          <t>2025-05-14 11:25:38</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:20</t>
+          <t>2025-05-14 12:05:38</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:20</t>
+          <t>2025-05-14 12:05:38</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:41</t>
+          <t>2025-05-14 13:55:33</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>4310</v>
+        <v>6705</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5111,14 +5107,14 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5130,41 +5126,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>244204</v>
+        <v>251251</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D72" t="n">
-        <v>54.25</v>
+        <v>260</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:41</t>
+          <t>2025-05-14 13:55:33</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:32:41</t>
+          <t>2025-05-14 14:35:33</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:32:41</t>
+          <t>2025-05-14 14:35:33</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:56</t>
+          <t>2025-05-15 10:55:33</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3472</v>
+        <v>15860</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5173,18 +5169,18 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5196,41 +5192,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251260</v>
+        <v>251453</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D73" t="n">
-        <v>146.390625</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:56</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:56</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:56</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-12 10:12:19</t>
+          <t>2025-05-08 09:22:02</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>9369</v>
+        <v>5000</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5239,64 +5235,64 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
+      <c r="N73" t="n">
+        <v>39742</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>39742</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251750</v>
+        <v>251391</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D74" t="n">
-        <v>60.796875</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-12 10:12:19</t>
+          <t>2025-05-08 09:22:02</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-12 10:48:19</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-12 10:48:19</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-12 11:49:07</t>
+          <t>2025-05-08 12:06:44</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3891</v>
+        <v>5865</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5305,64 +5301,64 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M74" t="n">
-        <v>152</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N74" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>245089</v>
+        <v>251547</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D75" t="n">
-        <v>1916.640625</v>
+        <v>267.9387755102041</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 11:49:07</t>
+          <t>2025-05-08 12:06:44</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:07</t>
+          <t>2025-05-08 12:46:44</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:07</t>
+          <t>2025-05-08 12:46:44</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-16 12:17:45</t>
+          <t>2025-05-09 09:14:40</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>122665</v>
+        <v>13129</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5371,64 +5367,64 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
         <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>76</v>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N75" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251340</v>
+        <v>251519</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D76" t="n">
-        <v>461.9718309859155</v>
+        <v>268.8775510204082</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 09:14:40</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-05-09 09:59:40</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-05-09 09:59:40</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-05-09 14:28:33</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>32800</v>
+        <v>13175</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5437,14 +5433,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
         <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5460,41 +5456,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>250894</v>
+        <v>251743</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D77" t="n">
-        <v>623.4084507042254</v>
+        <v>219.9183673469388</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-05-09 14:28:33</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-05-12 07:13:33</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-05-12 07:13:33</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-05-12 10:53:28</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>44262</v>
+        <v>10776</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -5503,17 +5499,19 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>76</v>
-      </c>
-      <c r="N77" t="n">
-        <v>39755</v>
+        <v>70</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -5524,41 +5522,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>245090</v>
+        <v>251505</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D78" t="n">
-        <v>7277.718309859155</v>
+        <v>290.9183673469388</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-05-12 10:53:28</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:22</t>
+          <t>2025-05-12 11:33:28</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:22</t>
+          <t>2025-05-12 11:33:28</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-06-03 08:14:05</t>
+          <t>2025-05-13 08:24:23</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>516718</v>
+        <v>14255</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -5567,18 +5565,18 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
         <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -5590,41 +5588,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>243569</v>
+        <v>251485</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
-        <v>36.63380281690141</v>
+        <v>98.12244897959184</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-06-03 08:14:05</t>
+          <t>2025-05-13 08:24:23</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-06-03 08:33:05</t>
+          <t>2025-05-13 08:59:23</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-06-03 08:33:05</t>
+          <t>2025-05-13 08:59:23</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-06-03 09:09:43</t>
+          <t>2025-05-13 10:37:30</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2601</v>
+        <v>4808</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -5633,14 +5631,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -5656,41 +5654,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>250670</v>
+        <v>251761</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D80" t="n">
-        <v>22.01408450704225</v>
+        <v>271</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-06-03 09:09:43</t>
+          <t>2025-05-13 10:37:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-06-03 09:26:43</t>
+          <t>2025-05-13 11:17:30</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-06-03 09:26:43</t>
+          <t>2025-05-13 11:17:30</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-06-03 09:48:44</t>
+          <t>2025-05-14 07:48:30</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1563</v>
+        <v>13279</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -5699,14 +5697,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
         <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -5722,41 +5720,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>245623</v>
+        <v>251464</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D81" t="n">
-        <v>372.0985915492957</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-06-03 09:48:44</t>
+          <t>2025-05-14 07:48:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-06-03 10:22:44</t>
+          <t>2025-05-14 08:23:30</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-06-03 10:22:44</t>
+          <t>2025-05-14 08:23:30</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-06-04 08:34:50</t>
+          <t>2025-05-14 10:49:29</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>26419</v>
+        <v>7153</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -5765,18 +5763,18 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -5788,41 +5786,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>243335</v>
+        <v>251374</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
-        <v>464.8450704225352</v>
+        <v>558.0204081632653</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-06-04 08:34:50</t>
+          <t>2025-05-14 10:49:29</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-06-04 08:53:50</t>
+          <t>2025-05-14 11:39:29</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-06-04 08:53:50</t>
+          <t>2025-05-14 11:39:29</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-06-05 08:38:41</t>
+          <t>2025-05-15 12:57:30</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>33004</v>
+        <v>27343</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -5831,14 +5829,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M82" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -5854,18 +5852,18 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251594</v>
+        <v>251284</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="D83" t="n">
-        <v>106</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5874,21 +5872,21 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-09 09:28:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>6466</v>
+        <v>16340</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -5897,64 +5895,64 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
+      <c r="N83" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251416</v>
+        <v>251475</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="D84" t="n">
-        <v>183.9672131147541</v>
+        <v>157.8363636363636</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-09 09:28:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-09 09:57:00</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-09 09:57:00</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:00:58</t>
+          <t>2025-05-12 07:51:55</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>11222</v>
+        <v>8681</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -5967,13 +5965,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
       </c>
-      <c r="N84" t="n">
-        <v>39755</v>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -5984,41 +5984,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>245350</v>
+        <v>251795</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>41</v>
+        <v>34.5</v>
       </c>
       <c r="D85" t="n">
-        <v>458.5245901639344</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-09 13:00:58</t>
+          <t>2025-05-12 07:51:55</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-09 13:41:58</t>
+          <t>2025-05-12 08:26:25</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-09 13:41:58</t>
+          <t>2025-05-12 08:26:25</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 13:20:29</t>
+          <t>2025-05-12 14:07:08</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>27970</v>
+        <v>18739</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6027,24 +6027,354 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>6</v>
+      </c>
+      <c r="M85" t="n">
+        <v>70</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>235572</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>181.0545454545455</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:07:08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:39:38</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-05-12 14:39:38</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:40:41</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>9958</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
           <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>10</v>
-      </c>
-      <c r="M85" t="n">
-        <v>70</v>
-      </c>
-      <c r="N85" t="inlineStr">
+      <c r="L86" t="n">
+        <v>5</v>
+      </c>
+      <c r="M86" t="n">
+        <v>70</v>
+      </c>
+      <c r="N86" t="inlineStr">
         <is>
           <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>251346</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>70.16363636363636</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:40:41</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:17:11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-05-13 10:17:11</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2025-05-13 11:27:21</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3859</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>8</v>
+      </c>
+      <c r="M87" t="n">
+        <v>70</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>18.12727272727273</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2025-05-13 11:27:21</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:01:51</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:01:51</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:19:58</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>997</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>6</v>
+      </c>
+      <c r="M88" t="n">
+        <v>70</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>251247</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>489.7090909090909</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:19:58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:50:28</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:50:28</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2025-05-14 13:00:11</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>26934</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>6</v>
+      </c>
+      <c r="M89" t="n">
+        <v>70</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>251062</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CASON</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>411.3454545454546</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2025-05-14 13:00:11</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-05-14 13:30:41</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-05-14 13:30:41</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2025-05-15 12:22:02</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>22624</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>6</v>
+      </c>
+      <c r="M90" t="n">
+        <v>70</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -512,41 +512,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251477</v>
+        <v>251050</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D2" t="n">
-        <v>422.5211267605634</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,17 +555,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -573,46 +573,46 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251395</v>
+        <v>251081</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="D3" t="n">
-        <v>31.85915492957746</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2262</v>
+        <v>3012</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -621,17 +621,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -639,46 +639,46 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251561</v>
+        <v>251054</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D4" t="n">
-        <v>76.54929577464789</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:22</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:22</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:00:55</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -687,64 +687,64 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="N4" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251564</v>
+        <v>251626</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="D5" t="n">
-        <v>38.26760563380282</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:00:55</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:19:55</t>
+          <t>2025-05-12 10:59:25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:19:55</t>
+          <t>2025-05-12 10:59:25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:58:11</t>
+          <t>2025-05-12 13:55:28</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2717</v>
+        <v>12500</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -776,41 +776,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251373</v>
+        <v>245275</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>240.7605633802817</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:58:11</t>
+          <t>2025-05-12 13:55:28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:11</t>
+          <t>2025-05-13 07:25:28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:11</t>
+          <t>2025-05-13 07:25:28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:57</t>
+          <t>2025-05-13 13:07:38</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17094</v>
+        <v>24294</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -819,18 +819,18 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -842,41 +842,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251651</v>
+        <v>251109</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>659.5774647887324</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:57</t>
+          <t>2025-05-13 13:07:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:57</t>
+          <t>2025-05-13 13:52:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:57</t>
+          <t>2025-05-13 13:52:38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 09:47:32</t>
+          <t>2025-05-14 10:19:14</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>46830</v>
+        <v>18928</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -885,17 +885,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="N7" t="n">
-        <v>39755</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -906,41 +908,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250641</v>
+        <v>251520</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>72.05633802816901</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 09:47:32</t>
+          <t>2025-05-14 10:19:14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:32</t>
+          <t>2025-05-14 11:39:14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:32</t>
+          <t>2025-05-14 11:39:14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 11:31:35</t>
+          <t>2025-05-15 07:29:22</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5116</v>
+        <v>16340</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -949,11 +951,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -972,41 +974,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251283</v>
+        <v>251453</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>10.61971830985915</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 11:31:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:35</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:35</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 11:57:12</t>
+          <t>2025-05-08 09:22:02</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>754</v>
+        <v>5000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1015,64 +1017,64 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="n">
+        <v>39742</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251245</v>
+        <v>251391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D10" t="n">
-        <v>10.61971830985915</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-13 11:57:12</t>
+          <t>2025-05-08 09:22:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-13 12:12:12</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-13 12:12:12</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:49</t>
+          <t>2025-05-08 12:06:44</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>754</v>
+        <v>5865</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1081,64 +1083,64 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+      <c r="N10" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251246</v>
+        <v>251547</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>169.0422535211268</v>
+        <v>267.9387755102041</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:49</t>
+          <t>2025-05-08 12:06:44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:37:49</t>
+          <t>2025-05-08 12:46:44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:37:49</t>
+          <t>2025-05-08 12:46:44</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:52</t>
+          <t>2025-05-09 09:14:40</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12002</v>
+        <v>13129</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1147,64 +1149,64 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+      <c r="N11" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251463</v>
+        <v>251519</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D12" t="n">
-        <v>98.12676056338029</v>
+        <v>268.8775510204082</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:52</t>
+          <t>2025-05-09 09:14:40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-14 07:45:52</t>
+          <t>2025-05-09 09:59:40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-14 07:45:52</t>
+          <t>2025-05-09 09:59:40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-14 09:24:00</t>
+          <t>2025-05-09 14:28:33</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6967</v>
+        <v>13175</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1217,14 +1219,14 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1236,41 +1238,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251462</v>
+        <v>251743</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>87.69014084507042</v>
+        <v>219.9183673469388</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-14 09:24:00</t>
+          <t>2025-05-09 14:28:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-14 09:43:00</t>
+          <t>2025-05-12 07:13:33</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-14 09:43:00</t>
+          <t>2025-05-12 07:13:33</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-14 11:10:41</t>
+          <t>2025-05-12 10:53:28</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6226</v>
+        <v>10776</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1283,14 +1285,14 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1302,41 +1304,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251580</v>
+        <v>251505</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>100.7464788732394</v>
+        <v>290.9183673469388</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:10:41</t>
+          <t>2025-05-12 10:53:28</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:29:41</t>
+          <t>2025-05-12 11:33:28</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:29:41</t>
+          <t>2025-05-12 11:33:28</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-14 13:10:26</t>
+          <t>2025-05-13 08:24:23</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7153</v>
+        <v>14255</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1349,7 +1351,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1368,41 +1370,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251252</v>
+        <v>251485</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>212.4366197183099</v>
+        <v>98.12244897959184</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-14 13:10:26</t>
+          <t>2025-05-13 08:24:23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-14 13:29:26</t>
+          <t>2025-05-13 08:59:23</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-14 13:29:26</t>
+          <t>2025-05-13 08:59:23</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-15 09:01:52</t>
+          <t>2025-05-13 10:37:30</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>15083</v>
+        <v>4808</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1411,11 +1413,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1434,41 +1436,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251050</v>
+        <v>251761</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 10:37:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 11:17:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 11:17:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 07:48:30</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13279</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1477,64 +1479,64 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251081</v>
+        <v>251464</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>42.42253521126761</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 07:48:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-14 08:23:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-14 08:23:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-14 10:49:29</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3012</v>
+        <v>7153</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1543,64 +1545,64 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="n">
-        <v>39750</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251054</v>
+        <v>251374</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>558.0204081632653</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-14 10:49:29</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-14 11:39:29</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-14 11:39:29</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-15 12:57:30</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>27343</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1609,64 +1611,64 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251626</v>
+        <v>251340</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>176.056338028169</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:25</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:25</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:28</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12500</v>
+        <v>32800</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1675,18 +1677,18 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -1698,41 +1700,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>245275</v>
+        <v>250894</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>342.1690140845071</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:28</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-13 07:25:28</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-13 07:25:28</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-13 13:07:38</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>24294</v>
+        <v>44262</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1741,19 +1743,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N20" t="n">
+        <v>39755</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1764,41 +1764,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251109</v>
+        <v>245090</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>266.5915492957747</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-13 13:07:38</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:38</t>
+          <t>2025-05-12 14:56:22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:38</t>
+          <t>2025-05-12 14:56:22</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 10:19:14</t>
+          <t>2025-06-03 08:14:05</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>18928</v>
+        <v>516718</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1807,18 +1807,18 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1830,41 +1830,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251520</v>
+        <v>243569</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>230.1408450704225</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-14 10:19:14</t>
+          <t>2025-06-03 08:14:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:14</t>
+          <t>2025-06-03 08:33:05</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:14</t>
+          <t>2025-06-03 08:33:05</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-15 07:29:22</t>
+          <t>2025-06-03 09:09:43</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>16340</v>
+        <v>2601</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1873,14 +1873,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251340</v>
+        <v>250670</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1904,33 +1904,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>461.9718309859155</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-03 09:09:43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-06-03 09:26:43</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-06-03 09:26:43</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-06-03 09:48:44</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>32800</v>
+        <v>1563</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1943,14 +1943,14 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>76</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -1962,7 +1962,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250894</v>
+        <v>251987</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1970,33 +1970,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>623.4084507042254</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-06-03 09:48:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-06-03 10:07:44</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-06-03 10:07:44</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-06-11 11:32:54</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>44262</v>
+        <v>210526</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2005,17 +2005,19 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>76</v>
       </c>
-      <c r="N24" t="n">
-        <v>39755</v>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2026,41 +2028,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>245090</v>
+        <v>251396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>7277.718309859155</v>
+        <v>37.08196721311475</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:22</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:22</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-03 08:14:05</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>516718</v>
+        <v>2262</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2069,64 +2071,64 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>243569</v>
+        <v>251455</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>36.63380281690141</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-03 08:14:05</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-03 08:33:05</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-03 08:33:05</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-03 09:09:43</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2601</v>
+        <v>5297</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2135,64 +2137,64 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>250670</v>
+        <v>251840</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>22.01408450704225</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-03 09:09:43</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-03 09:26:43</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-03 09:26:43</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-03 09:48:44</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1563</v>
+        <v>5714</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2201,64 +2203,64 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251987</v>
+        <v>251742</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>2965.154929577465</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-03 09:48:44</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-03 10:07:44</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-03 10:07:44</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-11 11:32:54</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>210526</v>
+        <v>8226</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2267,64 +2269,64 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N28" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250759</v>
+        <v>251164</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>131.21875</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>8398</v>
+        <v>10000</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2333,17 +2335,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N29" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2351,46 +2353,46 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250923</v>
+        <v>251424</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>109.46875</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-09 10:36:22</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-09 10:36:22</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-09 13:14:46</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>7006</v>
+        <v>9662</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2399,64 +2401,64 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
-      </c>
-      <c r="N30" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251227</v>
+        <v>244355</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-09 13:14:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-09 13:34:46</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-09 13:34:46</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-09 14:45:25</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4310</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2465,64 +2467,64 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
         <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
-      </c>
-      <c r="N31" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251225</v>
+        <v>251809</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-09 14:45:25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-12 07:05:25</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-12 07:05:25</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-12 09:27:44</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8681</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2531,64 +2533,64 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
-      </c>
-      <c r="N32" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251421</v>
+        <v>251546</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>81.9375</v>
+        <v>106</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-12 09:27:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-12 09:52:44</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-12 09:52:44</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-12 11:38:44</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5244</v>
+        <v>6466</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2597,64 +2599,64 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
-      </c>
-      <c r="N33" t="n">
-        <v>39762</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251268</v>
+        <v>251846</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-12 11:38:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-12 12:13:44</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-12 12:13:44</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-13 07:20:29</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11392</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2663,64 +2665,64 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
-      </c>
-      <c r="N34" t="n">
-        <v>39666</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251371</v>
+        <v>250819</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-13 07:20:29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-13 08:00:29</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-13 08:00:29</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-13 10:20:16</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8527</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2733,60 +2735,60 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="n">
-        <v>39666</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251782</v>
+        <v>251259</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>188.640625</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-13 10:20:16</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-13 10:55:16</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-13 10:55:16</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-13 12:17:14</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>12073</v>
+        <v>5000</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2795,64 +2797,64 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
-      </c>
-      <c r="N36" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251548</v>
+        <v>251061</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
-        <v>206.90625</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-13 12:17:14</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-13 12:52:14</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-13 12:52:14</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-14 11:25:38</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>13242</v>
+        <v>23997</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2861,64 +2863,64 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251456</v>
+        <v>251557</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D38" t="n">
-        <v>140.609375</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-14 11:25:38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-14 12:05:38</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-14 12:05:38</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-14 13:55:33</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8999</v>
+        <v>6705</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2931,60 +2933,60 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251566</v>
+        <v>251251</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D39" t="n">
-        <v>107.640625</v>
+        <v>260</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-14 13:55:33</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-14 14:35:33</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-14 14:35:33</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 11:11:25</t>
+          <t>2025-05-15 10:55:33</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6889</v>
+        <v>15860</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2993,18 +2995,18 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3016,41 +3018,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251397</v>
+        <v>251594</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>84.921875</v>
+        <v>106</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:11:25</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:28:25</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:28:25</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:20</t>
+          <t>2025-05-09 09:28:00</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>5435</v>
+        <v>6466</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3063,7 +3065,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3082,41 +3084,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>244354</v>
+        <v>251416</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
-        <v>67.34375</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:20</t>
+          <t>2025-05-09 09:28:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:20</t>
+          <t>2025-05-09 09:57:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:20</t>
+          <t>2025-05-09 09:57:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:41</t>
+          <t>2025-05-09 13:00:58</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4310</v>
+        <v>11222</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3129,15 +3131,13 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
+      <c r="N41" t="n">
+        <v>39755</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3148,41 +3148,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>244204</v>
+        <v>243335</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D42" t="n">
-        <v>54.25</v>
+        <v>541.0491803278688</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:41</t>
+          <t>2025-05-09 13:00:58</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:32:41</t>
+          <t>2025-05-09 13:44:58</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:32:41</t>
+          <t>2025-05-09 13:44:58</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:56</t>
+          <t>2025-05-12 14:46:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3472</v>
+        <v>33004</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3191,18 +3191,18 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -3214,41 +3214,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251260</v>
+        <v>245623</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
-        <v>146.390625</v>
+        <v>433.0983606557377</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:56</t>
+          <t>2025-05-12 14:46:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:56</t>
+          <t>2025-05-13 07:15:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:56</t>
+          <t>2025-05-13 07:15:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 10:12:19</t>
+          <t>2025-05-13 14:28:06</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>9369</v>
+        <v>26419</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3257,14 +3257,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3280,107 +3280,107 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251750</v>
+        <v>251706</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>60.796875</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:12:19</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:48:19</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:48:19</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 11:49:07</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3891</v>
+        <v>3200</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>152</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>39764</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>245089</v>
+        <v>251229</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D45" t="n">
-        <v>1916.640625</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:49:07</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:07</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:07</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-16 12:17:45</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>122665</v>
+        <v>18739</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3389,64 +3389,64 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N45" t="n">
+        <v>39723</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251594</v>
+        <v>245350</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>106</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 13:01:34</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 13:01:34</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 09:28:00</t>
+          <t>2025-05-13 11:46:56</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6466</v>
+        <v>27970</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3455,18 +3455,18 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3478,41 +3478,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251416</v>
+        <v>251466</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D47" t="n">
-        <v>183.9672131147541</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 09:28:00</t>
+          <t>2025-05-13 11:46:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-09 09:57:00</t>
+          <t>2025-05-13 12:46:56</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-09 09:57:00</t>
+          <t>2025-05-13 12:46:56</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-09 13:00:58</t>
+          <t>2025-05-13 14:07:37</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>11222</v>
+        <v>5567</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3525,13 +3525,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="n">
-        <v>39755</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3542,41 +3544,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>243335</v>
+        <v>251465</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>541.0491803278688</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-09 13:00:58</t>
+          <t>2025-05-13 14:07:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-09 13:44:58</t>
+          <t>2025-05-13 14:37:37</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-09 13:44:58</t>
+          <t>2025-05-13 14:37:37</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:00</t>
+          <t>2025-05-14 08:07:51</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>33004</v>
+        <v>6226</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3585,14 +3587,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3608,41 +3610,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>245623</v>
+        <v>251467</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>433.0983606557377</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:00</t>
+          <t>2025-05-14 08:07:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:00</t>
+          <t>2025-05-14 08:32:51</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:00</t>
+          <t>2025-05-14 08:32:51</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 14:28:06</t>
+          <t>2025-05-14 10:03:05</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>26419</v>
+        <v>6226</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3651,18 +3653,18 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
         <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -3674,73 +3676,73 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251706</v>
+        <v>251562</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>50.79365079365079</v>
+        <v>118</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 10:03:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 10:28:05</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 10:28:05</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-14 12:26:05</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3200</v>
+        <v>8142</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>39764</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251229</v>
+        <v>251249</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3751,30 +3753,30 @@
         <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>271.5797101449276</v>
+        <v>68.95652173913044</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 12:26:05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-14 13:11:05</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-14 13:11:05</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:34</t>
+          <t>2025-05-14 14:20:02</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>18739</v>
+        <v>4758</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3783,7 +3785,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -3792,55 +3794,55 @@
       <c r="M51" t="n">
         <v>70</v>
       </c>
-      <c r="N51" t="n">
-        <v>39723</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>245350</v>
+        <v>251284</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>45</v>
+        <v>40.5</v>
       </c>
       <c r="D52" t="n">
-        <v>405.3623188405797</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:34</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:34</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:34</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:56</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>27970</v>
+        <v>16340</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3849,64 +3851,64 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+      <c r="N52" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251466</v>
+        <v>251475</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>60</v>
+        <v>36.5</v>
       </c>
       <c r="D53" t="n">
-        <v>80.68115942028986</v>
+        <v>157.8363636363636</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:56</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-13 12:46:56</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-13 12:46:56</t>
+          <t>2025-05-09 13:14:05</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:37</t>
+          <t>2025-05-12 07:51:55</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>5567</v>
+        <v>8681</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3919,14 +3921,14 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -3938,41 +3940,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251465</v>
+        <v>251795</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="D54" t="n">
-        <v>90.23188405797102</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:37</t>
+          <t>2025-05-12 07:51:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:37</t>
+          <t>2025-05-12 08:26:25</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:37</t>
+          <t>2025-05-12 08:26:25</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-14 08:07:51</t>
+          <t>2025-05-12 14:07:08</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6226</v>
+        <v>18739</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3981,18 +3983,18 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4004,41 +4006,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251467</v>
+        <v>235572</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D55" t="n">
-        <v>90.23188405797102</v>
+        <v>181.0545454545455</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-14 08:07:51</t>
+          <t>2025-05-12 14:07:08</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-14 08:32:51</t>
+          <t>2025-05-12 14:39:38</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-14 08:32:51</t>
+          <t>2025-05-12 14:39:38</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 10:03:05</t>
+          <t>2025-05-13 09:40:41</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>6226</v>
+        <v>9958</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4047,11 +4049,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4070,41 +4072,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251562</v>
+        <v>251346</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>36.5</v>
       </c>
       <c r="D56" t="n">
-        <v>118</v>
+        <v>70.16363636363636</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-14 10:03:05</t>
+          <t>2025-05-13 09:40:41</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-14 10:28:05</t>
+          <t>2025-05-13 10:17:11</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-14 10:28:05</t>
+          <t>2025-05-13 10:17:11</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-14 12:26:05</t>
+          <t>2025-05-13 11:27:21</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>8142</v>
+        <v>3859</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4117,7 +4119,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4136,41 +4138,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251249</v>
+        <v>244023</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45</v>
+        <v>34.5</v>
       </c>
       <c r="D57" t="n">
-        <v>68.95652173913044</v>
+        <v>18.12727272727273</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-14 12:26:05</t>
+          <t>2025-05-13 11:27:21</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-14 13:11:05</t>
+          <t>2025-05-13 12:01:51</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-14 13:11:05</t>
+          <t>2025-05-13 12:01:51</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-14 14:20:02</t>
+          <t>2025-05-13 12:19:58</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>4758</v>
+        <v>997</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4179,7 +4181,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -4202,41 +4204,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251396</v>
+        <v>251247</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>40</v>
+        <v>30.5</v>
       </c>
       <c r="D58" t="n">
-        <v>37.08196721311475</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 12:19:58</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-13 12:50:28</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-13 12:50:28</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-14 13:00:11</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2262</v>
+        <v>26934</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4245,7 +4247,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -4254,55 +4256,55 @@
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="N58" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251455</v>
+        <v>251062</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D59" t="n">
-        <v>86.8360655737705</v>
+        <v>411.3454545454546</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-14 13:00:11</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-14 13:30:41</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-14 13:30:41</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-15 12:22:02</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5297</v>
+        <v>22624</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4311,64 +4313,64 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
-      <c r="N59" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251840</v>
+        <v>251477</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>93.67213114754098</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-08 14:19:31</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5714</v>
+        <v>29999</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4377,17 +4379,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N60" t="n">
-        <v>39758</v>
+        <v>39760</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4395,46 +4397,46 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>39758</v>
+        <v>39760</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251742</v>
+        <v>251395</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
-        <v>134.8524590163935</v>
+        <v>31.85915492957746</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-08 14:19:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 14:55:31</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 14:55:31</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-09 07:27:22</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>8226</v>
+        <v>2262</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4447,7 +4449,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4466,41 +4468,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251164</v>
+        <v>251561</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>163.9344262295082</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-09 07:27:22</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-09 07:44:22</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-09 07:44:22</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-09 09:00:55</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>10000</v>
+        <v>5435</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4513,60 +4515,60 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="N62" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251424</v>
+        <v>251564</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>158.3934426229508</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-09 09:00:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-09 10:36:22</t>
+          <t>2025-05-09 09:19:55</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-09 10:36:22</t>
+          <t>2025-05-09 09:19:55</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:46</t>
+          <t>2025-05-09 09:58:11</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>9662</v>
+        <v>2717</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4579,7 +4581,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -4598,41 +4600,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>244355</v>
+        <v>251373</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>70.65573770491804</v>
+        <v>240.7605633802817</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:46</t>
+          <t>2025-05-09 09:58:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:34:46</t>
+          <t>2025-05-09 10:17:11</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:34:46</t>
+          <t>2025-05-09 10:17:11</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 14:45:25</t>
+          <t>2025-05-09 14:17:57</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4310</v>
+        <v>17094</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4645,7 +4647,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -4664,41 +4666,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251809</v>
+        <v>251651</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
-        <v>142.3114754098361</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 14:45:25</t>
+          <t>2025-05-09 14:17:57</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:05:25</t>
+          <t>2025-05-09 14:47:57</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:05:25</t>
+          <t>2025-05-09 14:47:57</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:44</t>
+          <t>2025-05-13 09:47:32</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>8681</v>
+        <v>46830</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -4707,19 +4709,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>70</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N65" t="n">
+        <v>39755</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -4730,41 +4730,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251546</v>
+        <v>250641</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D66" t="n">
-        <v>106</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:44</t>
+          <t>2025-05-13 09:47:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-12 09:52:44</t>
+          <t>2025-05-13 10:19:32</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-12 09:52:44</t>
+          <t>2025-05-13 10:19:32</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 11:38:44</t>
+          <t>2025-05-13 11:31:35</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6466</v>
+        <v>5116</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -4796,41 +4796,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251846</v>
+        <v>251283</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>186.7540983606557</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 11:38:44</t>
+          <t>2025-05-13 11:31:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:13:44</t>
+          <t>2025-05-13 11:46:35</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:13:44</t>
+          <t>2025-05-13 11:46:35</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:29</t>
+          <t>2025-05-13 11:57:12</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>11392</v>
+        <v>754</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -4862,41 +4862,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>250819</v>
+        <v>251245</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>139.7868852459016</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:29</t>
+          <t>2025-05-13 11:57:12</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:29</t>
+          <t>2025-05-13 12:12:12</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:29</t>
+          <t>2025-05-13 12:12:12</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 10:20:16</t>
+          <t>2025-05-13 12:22:49</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8527</v>
+        <v>754</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -4928,41 +4928,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251259</v>
+        <v>251246</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>81.9672131147541</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:20:16</t>
+          <t>2025-05-13 12:22:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:55:16</t>
+          <t>2025-05-13 12:37:49</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:55:16</t>
+          <t>2025-05-13 12:37:49</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:17:14</t>
+          <t>2025-05-14 07:26:52</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>5000</v>
+        <v>12002</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4971,11 +4971,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -4994,41 +4994,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251061</v>
+        <v>251463</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
-        <v>393.3934426229508</v>
+        <v>98.12676056338029</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:17:14</t>
+          <t>2025-05-14 07:26:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:14</t>
+          <t>2025-05-14 07:45:52</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:14</t>
+          <t>2025-05-14 07:45:52</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:38</t>
+          <t>2025-05-14 09:24:00</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>23997</v>
+        <v>6967</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5037,11 +5037,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5060,41 +5060,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251557</v>
+        <v>251462</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>109.9180327868852</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:38</t>
+          <t>2025-05-14 09:24:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-14 12:05:38</t>
+          <t>2025-05-14 09:43:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-14 12:05:38</t>
+          <t>2025-05-14 09:43:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-14 13:55:33</t>
+          <t>2025-05-14 11:10:41</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6705</v>
+        <v>6226</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5126,41 +5126,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251251</v>
+        <v>251580</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
-        <v>260</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-14 13:55:33</t>
+          <t>2025-05-14 11:10:41</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-14 14:35:33</t>
+          <t>2025-05-14 11:29:41</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-14 14:35:33</t>
+          <t>2025-05-14 11:29:41</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-15 10:55:33</t>
+          <t>2025-05-14 13:10:26</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>15860</v>
+        <v>7153</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5169,11 +5169,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5192,41 +5192,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251453</v>
+        <v>251252</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>102.0408163265306</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 13:10:26</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-14 13:29:26</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-14 13:29:26</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:02</t>
+          <t>2025-05-15 09:01:52</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5000</v>
+        <v>15083</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5235,64 +5235,64 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="N73" t="n">
-        <v>39742</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251391</v>
+        <v>250759</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
-        <v>119.6938775510204</v>
+        <v>131.21875</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:02</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:44</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5865</v>
+        <v>8398</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5301,17 +5301,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N74" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5319,46 +5319,46 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251547</v>
+        <v>250923</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
-        <v>267.9387755102041</v>
+        <v>109.46875</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:44</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:44</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:44</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:40</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>13129</v>
+        <v>7006</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5367,14 +5367,14 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N75" t="n">
         <v>39749</v>
@@ -5390,41 +5390,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251519</v>
+        <v>251227</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D76" t="n">
-        <v>268.8775510204082</v>
+        <v>0</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:40</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:40</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:40</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 14:28:33</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>13175</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5433,64 +5433,64 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>70</v>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N76" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251743</v>
+        <v>251225</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>219.9183673469388</v>
+        <v>0</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 14:28:33</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 07:13:33</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 07:13:33</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 10:53:28</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>10776</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -5499,64 +5499,64 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
         <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>70</v>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N77" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251505</v>
+        <v>251421</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>290.9183673469388</v>
+        <v>81.9375</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 10:53:28</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 11:33:28</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 11:33:28</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:23</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>14255</v>
+        <v>5244</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -5565,64 +5565,64 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N78" t="n">
+        <v>39762</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>39762</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251485</v>
+        <v>251268</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>98.12244897959184</v>
+        <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:23</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:23</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:23</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 10:37:30</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4808</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -5631,64 +5631,64 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N79" t="n">
+        <v>39666</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251761</v>
+        <v>251371</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 10:37:30</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:30</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:30</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:48:30</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>13279</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -5706,55 +5706,55 @@
       <c r="M80" t="n">
         <v>70</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
+      <c r="N80" t="n">
+        <v>39666</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251464</v>
+        <v>251782</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D81" t="n">
-        <v>145.9795918367347</v>
+        <v>188.640625</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:48:30</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:23:30</t>
+          <t>2025-05-08 07:21:37</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:23:30</t>
+          <t>2025-05-08 07:21:37</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 10:49:29</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>7153</v>
+        <v>12073</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -5763,64 +5763,64 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N81" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251374</v>
+        <v>251548</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D82" t="n">
-        <v>558.0204081632653</v>
+        <v>206.90625</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 10:49:29</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:29</t>
+          <t>2025-05-08 11:02:15</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:29</t>
+          <t>2025-05-08 11:02:15</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-15 12:57:30</t>
+          <t>2025-05-08 14:29:10</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>27343</v>
+        <v>13242</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -5829,64 +5829,64 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
+      <c r="N82" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251284</v>
+        <v>251456</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D83" t="n">
-        <v>297.0909090909091</v>
+        <v>140.609375</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 14:29:10</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 14:46:10</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 14:46:10</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 09:06:46</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>16340</v>
+        <v>8999</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -5895,17 +5895,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
       </c>
       <c r="N83" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -5913,46 +5913,46 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251475</v>
+        <v>251566</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>36.5</v>
+        <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>157.8363636363636</v>
+        <v>107.640625</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 09:06:46</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-09 09:23:46</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-09 09:23:46</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:55</t>
+          <t>2025-05-09 11:11:25</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>8681</v>
+        <v>6889</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -5984,41 +5984,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251795</v>
+        <v>251397</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D85" t="n">
-        <v>340.7090909090909</v>
+        <v>84.921875</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:55</t>
+          <t>2025-05-09 11:11:25</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 08:26:25</t>
+          <t>2025-05-09 11:28:25</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 08:26:25</t>
+          <t>2025-05-09 11:28:25</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 14:07:08</t>
+          <t>2025-05-09 12:53:20</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>18739</v>
+        <v>5435</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6027,11 +6027,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6050,41 +6050,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>235572</v>
+        <v>244354</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D86" t="n">
-        <v>181.0545454545455</v>
+        <v>67.34375</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-12 14:07:08</t>
+          <t>2025-05-09 12:53:20</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:38</t>
+          <t>2025-05-09 13:10:20</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:38</t>
+          <t>2025-05-09 13:10:20</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:41</t>
+          <t>2025-05-09 14:17:41</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>9958</v>
+        <v>4310</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6093,18 +6093,18 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -6116,41 +6116,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251346</v>
+        <v>244204</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>36.5</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>70.16363636363636</v>
+        <v>54.25</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:41</t>
+          <t>2025-05-09 14:17:41</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 10:17:11</t>
+          <t>2025-05-09 14:32:41</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 10:17:11</t>
+          <t>2025-05-09 14:32:41</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:21</t>
+          <t>2025-05-12 07:26:56</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3859</v>
+        <v>3472</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6163,14 +6163,14 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6182,41 +6182,41 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>244023</v>
+        <v>251260</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D88" t="n">
-        <v>18.12727272727273</v>
+        <v>146.390625</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:21</t>
+          <t>2025-05-12 07:26:56</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-13 12:01:51</t>
+          <t>2025-05-12 07:45:56</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-13 12:01:51</t>
+          <t>2025-05-12 07:45:56</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:58</t>
+          <t>2025-05-12 10:12:19</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>997</v>
+        <v>9369</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6248,41 +6248,41 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>251247</v>
+        <v>251750</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>30.5</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
-        <v>489.7090909090909</v>
+        <v>60.796875</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:58</t>
+          <t>2025-05-12 10:12:19</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:28</t>
+          <t>2025-05-12 10:48:19</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:28</t>
+          <t>2025-05-12 10:48:19</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-05-14 13:00:11</t>
+          <t>2025-05-12 11:49:07</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>26934</v>
+        <v>3891</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6291,18 +6291,18 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M89" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -6314,41 +6314,41 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>251062</v>
+        <v>245089</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>30.5</v>
+        <v>32</v>
       </c>
       <c r="D90" t="n">
-        <v>411.3454545454546</v>
+        <v>1916.640625</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-05-14 13:00:11</t>
+          <t>2025-05-12 11:49:07</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:41</t>
+          <t>2025-05-12 12:21:07</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:41</t>
+          <t>2025-05-12 12:21:07</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-05-15 12:22:02</t>
+          <t>2025-05-16 12:17:45</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>22624</v>
+        <v>122665</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -6357,18 +6357,18 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M90" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O90" t="n">

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -644,7 +644,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251561</v>
+        <v>251651</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>76.54929577464789</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -664,21 +664,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:22</t>
+          <t>2025-05-09 07:59:22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:22</t>
+          <t>2025-05-09 07:59:22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:00:55</t>
+          <t>2025-05-12 10:58:57</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5435</v>
+        <v>46830</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -687,19 +687,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -710,7 +708,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251564</v>
+        <v>251594</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -718,33 +716,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>38.26760563380282</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:00:55</t>
+          <t>2025-05-12 10:58:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:19:55</t>
+          <t>2025-05-12 11:30:57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:19:55</t>
+          <t>2025-05-12 11:30:57</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:58:11</t>
+          <t>2025-05-12 13:02:01</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2717</v>
+        <v>6466</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -757,14 +755,14 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -776,7 +774,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251373</v>
+        <v>251743</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -784,33 +782,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>240.7605633802817</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:58:11</t>
+          <t>2025-05-12 13:02:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:11</t>
+          <t>2025-05-12 13:17:01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:11</t>
+          <t>2025-05-12 13:17:01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:57</t>
+          <t>2025-05-13 07:48:48</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17094</v>
+        <v>10776</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -823,14 +821,14 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -842,7 +840,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251651</v>
+        <v>251761</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -850,33 +848,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>659.5774647887324</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:57</t>
+          <t>2025-05-13 07:48:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:57</t>
+          <t>2025-05-13 08:03:48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:57</t>
+          <t>2025-05-13 08:03:48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 09:47:32</t>
+          <t>2025-05-13 11:10:49</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>46830</v>
+        <v>13279</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -885,17 +883,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="N7" t="n">
-        <v>39755</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250641</v>
+        <v>251464</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -914,33 +914,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>72.05633802816901</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 09:47:32</t>
+          <t>2025-05-13 11:10:49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:32</t>
+          <t>2025-05-13 11:25:49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:32</t>
+          <t>2025-05-13 11:25:49</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 11:31:35</t>
+          <t>2025-05-13 13:06:34</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5116</v>
+        <v>7153</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -953,14 +953,14 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -972,7 +972,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251283</v>
+        <v>251374</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -980,33 +980,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>10.61971830985915</v>
+        <v>385.112676056338</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 11:31:35</t>
+          <t>2025-05-13 13:06:34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:35</t>
+          <t>2025-05-13 13:27:34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:35</t>
+          <t>2025-05-13 13:27:34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 11:57:12</t>
+          <t>2025-05-14 11:52:41</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>754</v>
+        <v>27343</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1038,7 +1038,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251245</v>
+        <v>245089</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1046,33 +1046,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>10.61971830985915</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-13 11:57:12</t>
+          <t>2025-05-14 11:52:41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-13 12:12:12</t>
+          <t>2025-05-14 12:28:41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-13 12:12:12</t>
+          <t>2025-05-14 12:28:41</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:49</t>
+          <t>2025-05-20 09:16:21</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>754</v>
+        <v>122665</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1081,14 +1081,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1104,41 +1104,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251246</v>
+        <v>251050</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D11" t="n">
-        <v>169.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:49</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:37:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:37:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:52</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12002</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1147,64 +1147,64 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+      <c r="N11" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251463</v>
+        <v>251081</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>98.12676056338029</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:52</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-14 07:45:52</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-14 07:45:52</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-14 09:24:00</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6967</v>
+        <v>3012</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1213,64 +1213,64 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+      <c r="N12" t="n">
+        <v>39750</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251462</v>
+        <v>251054</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D13" t="n">
-        <v>87.69014084507042</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-14 09:24:00</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-14 09:43:00</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-14 09:43:00</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-14 11:10:41</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1279,64 +1279,64 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+      <c r="N13" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251580</v>
+        <v>235572</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="D14" t="n">
-        <v>100.7464788732394</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:10:41</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:29:41</t>
+          <t>2025-05-12 10:49:25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:29:41</t>
+          <t>2025-05-12 10:49:25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-14 13:10:26</t>
+          <t>2025-05-12 13:09:40</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7153</v>
+        <v>9958</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1345,18 +1345,18 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1368,41 +1368,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251252</v>
+        <v>251809</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>212.4366197183099</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-14 13:10:26</t>
+          <t>2025-05-12 13:09:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-14 13:29:26</t>
+          <t>2025-05-12 13:49:40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-14 13:29:26</t>
+          <t>2025-05-12 13:49:40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-15 09:01:52</t>
+          <t>2025-05-13 07:51:56</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>15083</v>
+        <v>8681</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1411,11 +1411,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251050</v>
+        <v>251109</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1442,33 +1442,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 07:51:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 09:26:56</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 09:26:56</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 13:53:32</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>18928</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1481,26 +1481,26 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251081</v>
+        <v>251520</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1508,33 +1508,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D17" t="n">
-        <v>42.42253521126761</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 13:53:32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-14 07:13:32</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-14 07:13:32</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-14 11:03:40</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3012</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1543,64 +1543,64 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="n">
-        <v>39750</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251054</v>
+        <v>251340</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>32800</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1609,64 +1609,64 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251626</v>
+        <v>250894</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>176.056338028169</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:25</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:25</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:28</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12500</v>
+        <v>44262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1675,19 +1675,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39755</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1698,41 +1696,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>245275</v>
+        <v>251987</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>342.1690140845071</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:28</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-13 07:25:28</t>
+          <t>2025-05-12 14:58:22</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-13 07:25:28</t>
+          <t>2025-05-12 14:58:22</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-13 13:07:38</t>
+          <t>2025-05-21 08:23:32</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>24294</v>
+        <v>210526</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1741,18 +1739,18 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1764,41 +1762,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251109</v>
+        <v>250670</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>266.5915492957747</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-13 13:07:38</t>
+          <t>2025-05-21 08:23:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:38</t>
+          <t>2025-05-21 08:42:32</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:38</t>
+          <t>2025-05-21 08:42:32</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 10:19:14</t>
+          <t>2025-05-21 09:04:32</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>18928</v>
+        <v>1563</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1807,18 +1805,18 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1830,41 +1828,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251520</v>
+        <v>243335</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>230.1408450704225</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-14 10:19:14</t>
+          <t>2025-05-21 09:04:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:14</t>
+          <t>2025-05-21 09:34:32</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:14</t>
+          <t>2025-05-21 09:34:32</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-15 07:29:22</t>
+          <t>2025-05-22 09:19:23</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>16340</v>
+        <v>33004</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1873,18 +1871,18 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -1896,7 +1894,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251340</v>
+        <v>251750</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1904,33 +1902,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>461.9718309859155</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-22 09:19:23</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-05-22 09:36:23</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-05-22 09:36:23</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-05-22 10:31:11</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>32800</v>
+        <v>3891</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1939,18 +1937,18 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -1962,41 +1960,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250894</v>
+        <v>250759</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>623.4084507042254</v>
+        <v>131.21875</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>44262</v>
+        <v>8398</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2005,62 +2003,64 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>245090</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>7277.718309859155</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:22</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:56:22</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-03 08:14:05</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>516718</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2078,55 +2078,55 @@
       <c r="M25" t="n">
         <v>76</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+      <c r="N25" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>243569</v>
+        <v>251227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>36.63380281690141</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-03 08:14:05</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-03 08:33:05</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-03 08:33:05</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-03 09:09:43</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2601</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2139,60 +2139,60 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+      <c r="N26" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>250670</v>
+        <v>251225</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>22.01408450704225</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-03 09:09:43</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-03 09:26:43</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-03 09:26:43</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-03 09:48:44</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2210,55 +2210,55 @@
       <c r="M27" t="n">
         <v>76</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+      <c r="N27" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251987</v>
+        <v>251421</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>2965.154929577465</v>
+        <v>81.9375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-03 09:48:44</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-03 10:07:44</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-03 10:07:44</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-11 11:32:54</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>210526</v>
+        <v>5244</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2267,30 +2267,30 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>76</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="N28" t="n">
+        <v>39762</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39762</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250759</v>
+        <v>251268</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2298,33 +2298,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>131.21875</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2343,7 +2343,7 @@
         <v>76</v>
       </c>
       <c r="N29" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2351,12 +2351,12 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250923</v>
+        <v>251371</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2364,33 +2364,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2399,17 +2399,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2417,12 +2417,12 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251227</v>
+        <v>251782</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2430,33 +2430,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>188.640625</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 07:21:37</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 07:21:37</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2465,17 +2465,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>76</v>
       </c>
       <c r="N31" t="n">
-        <v>39746</v>
+        <v>39754</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2483,12 +2483,12 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>39746</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251225</v>
+        <v>251548</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2496,33 +2496,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-08 11:02:15</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-08 11:02:15</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-08 14:29:10</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2531,17 +2531,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N32" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2549,12 +2549,12 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251421</v>
+        <v>251456</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2565,30 +2565,30 @@
         <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>81.9375</v>
+        <v>140.609375</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-08 14:29:10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-08 14:46:10</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-08 14:46:10</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-09 09:06:46</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5244</v>
+        <v>8999</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2597,17 +2597,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N33" t="n">
-        <v>39762</v>
+        <v>39746</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2615,12 +2615,12 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>39762</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251268</v>
+        <v>251416</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2631,30 +2631,30 @@
         <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>175.34375</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-09 09:06:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 09:23:46</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 09:23:46</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 12:19:07</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2663,30 +2663,28 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N34" t="n">
-        <v>39666</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251371</v>
+        <v>251546</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2694,33 +2692,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>101.03125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 12:19:07</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-09 12:40:07</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-09 12:40:07</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-09 14:21:09</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6466</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2733,26 +2731,26 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="n">
-        <v>39666</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251782</v>
+        <v>245275</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2760,33 +2758,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
-        <v>188.640625</v>
+        <v>379.59375</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-09 14:21:09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-09 14:54:09</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-09 14:54:09</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-12 13:13:45</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>12073</v>
+        <v>24294</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2795,30 +2793,30 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
-      </c>
-      <c r="N36" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251548</v>
+        <v>243569</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2826,33 +2824,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D37" t="n">
-        <v>206.90625</v>
+        <v>40.640625</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-12 13:13:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-12 14:05:45</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-12 14:05:45</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-12 14:46:23</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>13242</v>
+        <v>2601</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2861,30 +2859,30 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
-      </c>
-      <c r="N37" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251456</v>
+        <v>250641</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2892,33 +2890,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D38" t="n">
-        <v>140.609375</v>
+        <v>79.9375</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-12 14:46:23</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-13 07:22:23</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-13 07:22:23</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-13 08:42:19</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8999</v>
+        <v>5116</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2931,26 +2929,26 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251566</v>
+        <v>251061</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2958,33 +2956,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>107.640625</v>
+        <v>374.953125</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-13 08:42:19</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-13 08:57:19</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-13 08:57:19</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 11:11:25</t>
+          <t>2025-05-14 07:12:16</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6889</v>
+        <v>23997</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2993,11 +2991,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3016,7 +3014,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251397</v>
+        <v>251260</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3024,33 +3022,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>84.921875</v>
+        <v>146.390625</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:11:25</t>
+          <t>2025-05-14 07:12:16</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:28:25</t>
+          <t>2025-05-14 07:27:16</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:28:25</t>
+          <t>2025-05-14 07:27:16</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:20</t>
+          <t>2025-05-14 09:53:40</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>5435</v>
+        <v>9369</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3059,18 +3057,18 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3082,7 +3080,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>244354</v>
+        <v>251795</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3090,33 +3088,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>67.34375</v>
+        <v>292.796875</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:20</t>
+          <t>2025-05-14 09:53:40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:20</t>
+          <t>2025-05-14 10:08:40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:20</t>
+          <t>2025-05-14 10:08:40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:41</t>
+          <t>2025-05-15 07:01:28</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4310</v>
+        <v>18739</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3125,18 +3123,18 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3148,41 +3146,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>244204</v>
+        <v>251251</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D42" t="n">
-        <v>54.25</v>
+        <v>260</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:41</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:32:41</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:32:41</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:56</t>
+          <t>2025-05-09 12:06:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3472</v>
+        <v>15860</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3191,11 +3189,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3214,41 +3212,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251260</v>
+        <v>251846</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
-        <v>146.390625</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:56</t>
+          <t>2025-05-09 12:06:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:56</t>
+          <t>2025-05-09 12:39:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:56</t>
+          <t>2025-05-09 12:39:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 10:12:19</t>
+          <t>2025-05-12 07:45:45</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>9369</v>
+        <v>11392</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3257,11 +3255,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3280,41 +3278,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251750</v>
+        <v>251373</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
-        <v>60.796875</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:12:19</t>
+          <t>2025-05-12 07:45:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:48:19</t>
+          <t>2025-05-12 08:16:45</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:48:19</t>
+          <t>2025-05-12 08:16:45</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 11:49:07</t>
+          <t>2025-05-12 12:56:59</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3891</v>
+        <v>17094</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3323,18 +3321,18 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3346,41 +3344,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>245089</v>
+        <v>245623</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D45" t="n">
-        <v>1916.640625</v>
+        <v>433.0983606557377</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 11:49:07</t>
+          <t>2025-05-12 12:56:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:07</t>
+          <t>2025-05-12 13:42:59</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:07</t>
+          <t>2025-05-12 13:42:59</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-16 12:17:45</t>
+          <t>2025-05-13 12:56:04</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>122665</v>
+        <v>26419</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3393,14 +3391,14 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -3412,7 +3410,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251594</v>
+        <v>251557</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3420,33 +3418,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D46" t="n">
-        <v>106</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 12:56:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-13 13:36:04</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-13 13:36:04</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 09:28:00</t>
+          <t>2025-05-14 07:26:00</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6466</v>
+        <v>6705</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3459,7 +3457,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3478,7 +3476,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251416</v>
+        <v>251249</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3486,33 +3484,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>183.9672131147541</v>
+        <v>78</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 09:28:00</t>
+          <t>2025-05-14 07:26:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-09 09:57:00</t>
+          <t>2025-05-14 07:59:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-09 09:57:00</t>
+          <t>2025-05-14 07:59:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-09 13:00:58</t>
+          <t>2025-05-14 09:17:00</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>11222</v>
+        <v>4758</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3521,17 +3519,19 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="n">
-        <v>39755</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>243335</v>
+        <v>245090</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3550,33 +3550,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D48" t="n">
-        <v>541.0491803278688</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-09 13:00:58</t>
+          <t>2025-05-14 09:17:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-09 13:44:58</t>
+          <t>2025-05-14 09:59:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-09 13:44:58</t>
+          <t>2025-05-14 09:59:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:00</t>
+          <t>2025-06-09 07:09:47</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>33004</v>
+        <v>516718</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3589,10 +3589,10 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3608,84 +3608,84 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>245623</v>
+        <v>251706</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>433.0983606557377</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 14:28:06</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>26419</v>
+        <v>3200</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>152</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>39764</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251706</v>
+        <v>251229</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D50" t="n">
-        <v>50.79365079365079</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3694,40 +3694,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3200</v>
+        <v>18739</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N50" t="n">
-        <v>39764</v>
+        <v>39723</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3735,12 +3735,12 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>39764</v>
+        <v>39723</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251229</v>
+        <v>245350</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3751,30 +3751,30 @@
         <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>271.5797101449276</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-12 13:01:34</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-12 13:01:34</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:34</t>
+          <t>2025-05-13 11:46:56</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>18739</v>
+        <v>27970</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3783,30 +3783,30 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
-      <c r="N51" t="n">
-        <v>39723</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>245350</v>
+        <v>251259</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3814,33 +3814,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>405.3623188405797</v>
+        <v>72.46376811594203</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:34</t>
+          <t>2025-05-13 11:46:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:34</t>
+          <t>2025-05-13 12:16:56</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:34</t>
+          <t>2025-05-13 12:16:56</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:56</t>
+          <t>2025-05-13 13:29:24</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>27970</v>
+        <v>5000</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3849,18 +3849,18 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -3872,7 +3872,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251466</v>
+        <v>251283</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3880,33 +3880,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>80.68115942028986</v>
+        <v>10.92753623188406</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:56</t>
+          <t>2025-05-13 13:29:24</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-13 12:46:56</t>
+          <t>2025-05-13 14:09:24</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-13 12:46:56</t>
+          <t>2025-05-13 14:09:24</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:37</t>
+          <t>2025-05-13 14:20:20</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>5567</v>
+        <v>754</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3915,18 +3915,18 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -3938,7 +3938,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251465</v>
+        <v>251463</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3946,33 +3946,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
-        <v>90.23188405797102</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:37</t>
+          <t>2025-05-13 14:20:20</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:37</t>
+          <t>2025-05-13 14:55:20</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:37</t>
+          <t>2025-05-13 14:55:20</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-14 08:07:51</t>
+          <t>2025-05-14 08:36:18</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6226</v>
+        <v>6967</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3985,14 +3985,14 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -4004,7 +4004,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251467</v>
+        <v>251462</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4012,29 +4012,29 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>90.23188405797102</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-14 08:07:51</t>
+          <t>2025-05-14 08:36:18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-14 08:32:51</t>
+          <t>2025-05-14 09:11:18</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-14 08:32:51</t>
+          <t>2025-05-14 09:11:18</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 10:03:05</t>
+          <t>2025-05-14 10:41:32</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -4085,22 +4085,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-14 10:03:05</t>
+          <t>2025-05-14 10:41:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-14 10:28:05</t>
+          <t>2025-05-14 11:06:32</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-14 10:28:05</t>
+          <t>2025-05-14 11:06:32</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-14 12:26:05</t>
+          <t>2025-05-14 13:04:32</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4136,41 +4136,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251249</v>
+        <v>251396</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>68.95652173913044</v>
+        <v>37.08196721311475</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-14 12:26:05</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-14 13:11:05</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-14 13:11:05</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-14 14:20:02</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>4758</v>
+        <v>2262</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -4188,21 +4188,21 @@
       <c r="M57" t="n">
         <v>70</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
+      <c r="N57" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251396</v>
+        <v>251455</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4210,33 +4210,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>37.08196721311475</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2262</v>
+        <v>5297</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251455</v>
+        <v>251840</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4276,33 +4276,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>86.8360655737705</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5297</v>
+        <v>5714</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4315,13 +4315,13 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
       <c r="N59" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251840</v>
+        <v>251742</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4345,30 +4345,30 @@
         <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>93.67213114754098</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5714</v>
+        <v>8226</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4381,13 +4381,13 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
       </c>
       <c r="N60" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4395,12 +4395,12 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251742</v>
+        <v>251164</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4408,33 +4408,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>134.8524590163935</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>8226</v>
+        <v>10000</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251164</v>
+        <v>251564</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4474,33 +4474,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>163.9344262295082</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-09 10:41:22</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-09 10:41:22</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-09 11:25:55</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>10000</v>
+        <v>2717</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4513,26 +4513,26 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="N62" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251424</v>
+        <v>251566</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4540,33 +4540,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>158.3934426229508</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-09 11:25:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-09 10:36:22</t>
+          <t>2025-05-09 11:50:55</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-09 10:36:22</t>
+          <t>2025-05-09 11:50:55</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:46</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>9662</v>
+        <v>6889</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4598,7 +4598,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>244355</v>
+        <v>251519</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4606,33 +4606,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>70.65573770491804</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:46</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:34:46</t>
+          <t>2025-05-09 14:13:51</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:34:46</t>
+          <t>2025-05-09 14:13:51</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 14:45:25</t>
+          <t>2025-05-12 09:49:50</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4310</v>
+        <v>13175</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4645,14 +4645,14 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -4664,7 +4664,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251809</v>
+        <v>251475</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4672,29 +4672,29 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
         <v>142.3114754098361</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 14:45:25</t>
+          <t>2025-05-12 09:49:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:05:25</t>
+          <t>2025-05-12 10:19:50</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:05:25</t>
+          <t>2025-05-12 10:19:50</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:44</t>
+          <t>2025-05-12 12:42:08</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -4730,7 +4730,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251546</v>
+        <v>244355</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4738,33 +4738,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D66" t="n">
-        <v>106</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:44</t>
+          <t>2025-05-12 12:42:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-12 09:52:44</t>
+          <t>2025-05-12 13:02:08</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-12 09:52:44</t>
+          <t>2025-05-12 13:02:08</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 11:38:44</t>
+          <t>2025-05-12 14:12:48</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6466</v>
+        <v>4310</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251846</v>
+        <v>251485</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4804,33 +4804,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>186.7540983606557</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 11:38:44</t>
+          <t>2025-05-12 14:12:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:13:44</t>
+          <t>2025-05-12 14:37:48</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:13:44</t>
+          <t>2025-05-12 14:37:48</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:29</t>
+          <t>2025-05-13 07:56:37</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>11392</v>
+        <v>4808</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4843,14 +4843,14 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -4862,7 +4862,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>250819</v>
+        <v>244023</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4870,33 +4870,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>139.7868852459016</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:29</t>
+          <t>2025-05-13 07:56:37</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:29</t>
+          <t>2025-05-13 08:21:37</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:00:29</t>
+          <t>2025-05-13 08:21:37</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 10:20:16</t>
+          <t>2025-05-13 08:37:58</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8527</v>
+        <v>997</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -4928,7 +4928,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251259</v>
+        <v>251245</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4936,33 +4936,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>81.9672131147541</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:20:16</t>
+          <t>2025-05-13 08:37:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:55:16</t>
+          <t>2025-05-13 08:57:58</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 10:55:16</t>
+          <t>2025-05-13 08:57:58</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:17:14</t>
+          <t>2025-05-13 09:10:19</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>5000</v>
+        <v>754</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4971,18 +4971,18 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -4994,7 +4994,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251061</v>
+        <v>251466</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5005,30 +5005,30 @@
         <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>393.3934426229508</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:17:14</t>
+          <t>2025-05-13 09:10:19</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:14</t>
+          <t>2025-05-13 09:45:19</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:14</t>
+          <t>2025-05-13 09:45:19</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:38</t>
+          <t>2025-05-13 11:16:35</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>23997</v>
+        <v>5567</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5037,18 +5037,18 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5060,7 +5060,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251557</v>
+        <v>251465</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5068,33 +5068,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>109.9180327868852</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:38</t>
+          <t>2025-05-13 11:16:35</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-14 12:05:38</t>
+          <t>2025-05-13 11:41:35</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-14 12:05:38</t>
+          <t>2025-05-13 11:41:35</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-14 13:55:33</t>
+          <t>2025-05-13 13:23:39</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6705</v>
+        <v>6226</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5126,7 +5126,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251251</v>
+        <v>251580</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5134,33 +5134,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>260</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-14 13:55:33</t>
+          <t>2025-05-13 13:23:39</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-14 14:35:33</t>
+          <t>2025-05-13 13:53:39</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-14 14:35:33</t>
+          <t>2025-05-13 13:53:39</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-15 10:55:33</t>
+          <t>2025-05-14 07:50:55</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>15860</v>
+        <v>7153</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5169,18 +5169,18 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5192,41 +5192,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251453</v>
+        <v>251252</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>102.0408163265306</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 07:50:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-14 08:20:55</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-14 08:20:55</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:02</t>
+          <t>2025-05-14 12:28:10</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5000</v>
+        <v>15083</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5235,30 +5235,30 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="N73" t="n">
-        <v>39742</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251391</v>
+        <v>251453</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5266,33 +5266,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D74" t="n">
-        <v>119.6938775510204</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>2025-05-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:40:00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:40:00</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
           <t>2025-05-08 09:22:02</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:07:02</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:07:02</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:06:44</t>
-        </is>
-      </c>
       <c r="I74" t="n">
-        <v>5865</v>
+        <v>5000</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
       <c r="N74" t="n">
-        <v>39749</v>
+        <v>39742</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5319,12 +5319,12 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>39749</v>
+        <v>39742</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251547</v>
+        <v>251391</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5332,33 +5332,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>267.9387755102041</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>2025-05-08 09:22:02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:07:02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:07:02</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
           <t>2025-05-08 12:06:44</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:46:44</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:46:44</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:14:40</t>
-        </is>
-      </c>
       <c r="I75" t="n">
-        <v>13129</v>
+        <v>5865</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251519</v>
+        <v>251547</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5398,33 +5398,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D76" t="n">
-        <v>268.8775510204082</v>
+        <v>267.9387755102041</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>2025-05-08 12:06:44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:46:44</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:46:44</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
           <t>2025-05-09 09:14:40</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:59:40</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:59:40</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:28:33</t>
-        </is>
-      </c>
       <c r="I76" t="n">
-        <v>13175</v>
+        <v>13129</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5437,26 +5437,26 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
+      <c r="N76" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251743</v>
+        <v>251561</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5464,33 +5464,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D77" t="n">
-        <v>219.9183673469388</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 14:28:33</t>
+          <t>2025-05-09 09:14:40</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 07:13:33</t>
+          <t>2025-05-09 09:54:40</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 07:13:33</t>
+          <t>2025-05-09 09:54:40</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 10:53:28</t>
+          <t>2025-05-09 11:45:35</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>10776</v>
+        <v>5435</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -5503,14 +5503,14 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5522,7 +5522,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251505</v>
+        <v>251626</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5530,33 +5530,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D78" t="n">
-        <v>290.9183673469388</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 10:53:28</t>
+          <t>2025-05-09 11:45:35</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 11:33:28</t>
+          <t>2025-05-09 12:30:35</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 11:33:28</t>
+          <t>2025-05-09 12:30:35</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:23</t>
+          <t>2025-05-12 08:45:41</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>14255</v>
+        <v>12500</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -5569,14 +5569,14 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -5588,7 +5588,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251485</v>
+        <v>251424</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5596,33 +5596,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D79" t="n">
-        <v>98.12244897959184</v>
+        <v>197.1836734693877</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:23</t>
+          <t>2025-05-12 08:45:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:23</t>
+          <t>2025-05-12 09:25:41</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:23</t>
+          <t>2025-05-12 09:25:41</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 10:37:30</t>
+          <t>2025-05-12 12:42:52</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4808</v>
+        <v>9662</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251761</v>
+        <v>244204</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5662,33 +5662,33 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>271</v>
+        <v>70.85714285714286</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 10:37:30</t>
+          <t>2025-05-12 12:42:52</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:30</t>
+          <t>2025-05-12 13:17:52</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:30</t>
+          <t>2025-05-12 13:17:52</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:48:30</t>
+          <t>2025-05-12 14:28:44</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>13279</v>
+        <v>3472</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251464</v>
+        <v>251346</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5728,33 +5728,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D81" t="n">
-        <v>145.9795918367347</v>
+        <v>78.75510204081633</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:48:30</t>
+          <t>2025-05-12 14:28:44</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:23:30</t>
+          <t>2025-05-13 07:23:44</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:23:30</t>
+          <t>2025-05-13 07:23:44</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 10:49:29</t>
+          <t>2025-05-13 08:42:29</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>7153</v>
+        <v>3859</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -5767,14 +5767,14 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -5786,7 +5786,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251374</v>
+        <v>251247</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5794,33 +5794,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>558.0204081632653</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 10:49:29</t>
+          <t>2025-05-13 08:42:29</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:29</t>
+          <t>2025-05-13 09:27:29</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:29</t>
+          <t>2025-05-13 09:27:29</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-15 12:57:30</t>
+          <t>2025-05-14 10:37:09</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>27343</v>
+        <v>26934</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -5833,14 +5833,14 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -5918,7 +5918,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251475</v>
+        <v>251505</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5926,10 +5926,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="D84" t="n">
-        <v>157.8363636363636</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5938,21 +5938,21 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:05</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:55</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>8681</v>
+        <v>14255</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251795</v>
+        <v>251397</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5995,30 +5995,30 @@
         <v>34.5</v>
       </c>
       <c r="D85" t="n">
-        <v>340.7090909090909</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:55</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 08:26:25</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 08:26:25</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 14:07:08</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>18739</v>
+        <v>5435</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6027,18 +6027,18 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -6050,7 +6050,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>235572</v>
+        <v>244354</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6061,30 +6061,30 @@
         <v>32.5</v>
       </c>
       <c r="D86" t="n">
-        <v>181.0545454545455</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-12 14:07:08</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:38</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-12 14:39:38</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:41</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>9958</v>
+        <v>4310</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6093,11 +6093,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251346</v>
+        <v>250819</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6124,33 +6124,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="D87" t="n">
-        <v>70.16363636363636</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:41</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 10:17:11</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 10:17:11</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:21</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3859</v>
+        <v>8527</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6163,14 +6163,14 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6182,7 +6182,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>244023</v>
+        <v>251246</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6190,33 +6190,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>34.5</v>
+        <v>30.5</v>
       </c>
       <c r="D88" t="n">
-        <v>18.12727272727273</v>
+        <v>218.2181818181818</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:21</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-13 12:01:51</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-13 12:01:51</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:58</t>
+          <t>2025-05-13 12:53:42</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>997</v>
+        <v>12002</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6248,7 +6248,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>251247</v>
+        <v>251467</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6256,33 +6256,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>30.5</v>
+        <v>38.5</v>
       </c>
       <c r="D89" t="n">
-        <v>489.7090909090909</v>
+        <v>113.2</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:58</t>
+          <t>2025-05-13 12:53:42</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:28</t>
+          <t>2025-05-13 13:32:12</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:28</t>
+          <t>2025-05-13 13:32:12</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-05-14 13:00:11</t>
+          <t>2025-05-14 07:25:24</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>26934</v>
+        <v>6226</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6291,18 +6291,18 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
         <v>70</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -6322,29 +6322,29 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>30.5</v>
+        <v>38.5</v>
       </c>
       <c r="D90" t="n">
         <v>411.3454545454546</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-05-14 13:00:11</t>
+          <t>2025-05-14 07:25:24</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:41</t>
+          <t>2025-05-14 08:03:54</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-05-14 13:30:41</t>
+          <t>2025-05-14 08:03:54</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-05-15 12:22:02</t>
+          <t>2025-05-14 14:55:15</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O90" t="n">

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -512,41 +512,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251477</v>
+        <v>251340</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>422.5211267605634</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>29999</v>
+        <v>32800</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,64 +555,64 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
       </c>
-      <c r="N2" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251395</v>
+        <v>250894</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>31.85915492957746</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2262</v>
+        <v>44262</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -621,64 +621,62 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251651</v>
+        <v>251987</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>659.5774647887324</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:59:22</t>
+          <t>2025-05-12 14:58:22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:59:22</t>
+          <t>2025-05-12 14:58:22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 10:58:57</t>
+          <t>2025-05-21 08:23:32</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>46830</v>
+        <v>210526</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -687,17 +685,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
       </c>
-      <c r="N4" t="n">
-        <v>39755</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -708,41 +708,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251594</v>
+        <v>250670</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>91.07042253521126</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 10:58:57</t>
+          <t>2025-05-21 08:23:32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:57</t>
+          <t>2025-05-21 08:42:32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:57</t>
+          <t>2025-05-21 08:42:32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:01</t>
+          <t>2025-05-21 09:04:32</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6466</v>
+        <v>1563</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -751,18 +751,18 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -774,41 +774,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251743</v>
+        <v>243335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>151.7746478873239</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:01</t>
+          <t>2025-05-21 09:04:32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:01</t>
+          <t>2025-05-21 09:34:32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:01</t>
+          <t>2025-05-21 09:34:32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:48</t>
+          <t>2025-05-22 09:19:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>10776</v>
+        <v>33004</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -817,18 +817,18 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -840,41 +840,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251761</v>
+        <v>251750</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>187.0281690140845</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:48</t>
+          <t>2025-05-22 09:19:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:48</t>
+          <t>2025-05-22 09:36:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:48</t>
+          <t>2025-05-22 09:36:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:49</t>
+          <t>2025-05-22 10:31:11</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13279</v>
+        <v>3891</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -883,18 +883,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -906,41 +906,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251464</v>
+        <v>251050</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D8" t="n">
-        <v>100.7464788732394</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:49</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 11:25:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 11:25:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 13:06:34</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7153</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -949,64 +949,64 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+      <c r="N8" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251374</v>
+        <v>251081</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D9" t="n">
-        <v>385.112676056338</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 13:06:34</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:34</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:34</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:41</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>27343</v>
+        <v>3012</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1015,64 +1015,64 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="n">
+        <v>39750</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>245089</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
-        <v>1727.676056338028</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:41</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:41</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:41</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-20 09:16:21</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1081,30 +1081,30 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251050</v>
+        <v>235572</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1112,33 +1112,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 10:49:25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 10:49:25</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 13:09:40</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9958</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1147,30 +1147,30 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251081</v>
+        <v>251809</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1178,33 +1178,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>42.42253521126761</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 13:09:40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-12 13:49:40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-12 13:49:40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-13 07:51:56</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3012</v>
+        <v>8681</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1213,30 +1213,30 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39750</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251054</v>
+        <v>251109</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1244,33 +1244,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-13 07:51:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-13 09:26:56</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-13 09:26:56</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-13 13:53:32</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>18928</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1283,26 +1283,26 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>235572</v>
+        <v>251520</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1310,33 +1310,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>140.2535211267606</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-13 13:53:32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:25</t>
+          <t>2025-05-14 07:13:32</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:25</t>
+          <t>2025-05-14 07:13:32</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:40</t>
+          <t>2025-05-14 11:03:40</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>9958</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1345,11 +1345,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1368,41 +1368,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251809</v>
+        <v>251251</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>122.2676056338028</v>
+        <v>260</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:40</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:40</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:40</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:56</t>
+          <t>2025-05-09 12:06:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8681</v>
+        <v>15860</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1411,18 +1411,18 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1434,41 +1434,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251109</v>
+        <v>251846</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>266.5915492957747</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:56</t>
+          <t>2025-05-09 12:06:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:56</t>
+          <t>2025-05-09 12:39:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:56</t>
+          <t>2025-05-09 12:39:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:32</t>
+          <t>2025-05-12 07:45:45</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>18928</v>
+        <v>11392</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1477,11 +1477,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1500,41 +1500,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251520</v>
+        <v>251373</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>230.1408450704225</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:32</t>
+          <t>2025-05-12 07:45:45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:32</t>
+          <t>2025-05-12 08:16:45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:32</t>
+          <t>2025-05-12 08:16:45</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:40</t>
+          <t>2025-05-12 12:56:59</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>17094</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1543,18 +1543,18 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1566,41 +1566,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251340</v>
+        <v>245623</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D18" t="n">
-        <v>461.9718309859155</v>
+        <v>433.0983606557377</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-12 12:56:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-05-12 13:42:59</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-05-12 13:42:59</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-05-13 12:56:04</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>32800</v>
+        <v>26419</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1609,14 +1609,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1632,41 +1632,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>250894</v>
+        <v>251557</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>623.4084507042254</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-05-13 12:56:04</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-05-13 13:36:04</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-05-13 13:36:04</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-05-14 07:26:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>44262</v>
+        <v>6705</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1675,17 +1675,19 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39755</v>
+        <v>70</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1696,41 +1698,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251987</v>
+        <v>251249</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>2965.154929577465</v>
+        <v>78</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-05-14 07:26:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:22</t>
+          <t>2025-05-14 07:59:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:22</t>
+          <t>2025-05-14 07:59:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-21 08:23:32</t>
+          <t>2025-05-14 09:17:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>210526</v>
+        <v>4758</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1739,14 +1741,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1762,41 +1764,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250670</v>
+        <v>245090</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D21" t="n">
-        <v>22.01408450704225</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-21 08:23:32</t>
+          <t>2025-05-14 09:17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-21 08:42:32</t>
+          <t>2025-05-14 09:59:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-21 08:42:32</t>
+          <t>2025-05-14 09:59:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-21 09:04:32</t>
+          <t>2025-06-09 07:09:47</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1563</v>
+        <v>516718</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1805,18 +1807,18 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>76</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1828,41 +1830,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>243335</v>
+        <v>251229</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D22" t="n">
-        <v>464.8450704225352</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-21 09:04:32</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-21 09:34:32</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-21 09:34:32</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-22 09:19:23</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>33004</v>
+        <v>18739</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1871,64 +1873,64 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>152</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39723</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251750</v>
+        <v>245350</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D23" t="n">
-        <v>54.80281690140845</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-22 09:19:23</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-22 09:36:23</t>
+          <t>2025-05-12 13:01:34</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-22 09:36:23</t>
+          <t>2025-05-12 13:01:34</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-22 10:31:11</t>
+          <t>2025-05-13 11:46:56</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3891</v>
+        <v>27970</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1937,18 +1939,18 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M23" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -1960,41 +1962,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250759</v>
+        <v>251259</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>131.21875</v>
+        <v>72.46376811594203</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-13 11:46:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-13 12:16:56</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-13 12:16:56</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-13 13:29:24</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8398</v>
+        <v>5000</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2003,64 +2005,64 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251283</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>10.92753623188406</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-13 13:29:24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-13 14:09:24</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-13 14:09:24</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-13 14:20:20</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>754</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2069,64 +2071,64 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251227</v>
+        <v>251463</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-13 14:20:20</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-13 14:55:20</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-13 14:55:20</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-14 08:36:18</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6967</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2135,64 +2137,64 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251225</v>
+        <v>251462</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-14 08:36:18</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-14 09:11:18</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-14 09:11:18</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-14 10:41:32</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2201,64 +2203,64 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251421</v>
+        <v>251562</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>81.9375</v>
+        <v>118</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-14 10:41:32</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-14 11:06:32</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-14 11:06:32</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-14 13:04:32</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5244</v>
+        <v>8142</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2267,30 +2269,30 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="N28" t="n">
-        <v>39762</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251268</v>
+        <v>250759</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2298,33 +2300,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>131.21875</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2333,7 +2335,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2343,7 +2345,7 @@
         <v>76</v>
       </c>
       <c r="N29" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2351,12 +2353,12 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251371</v>
+        <v>250923</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2364,33 +2366,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2399,17 +2401,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N30" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2417,12 +2419,12 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251782</v>
+        <v>251227</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2430,33 +2432,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>188.640625</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2465,17 +2467,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>76</v>
       </c>
       <c r="N31" t="n">
-        <v>39754</v>
+        <v>39746</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2483,12 +2485,12 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>39754</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251548</v>
+        <v>251225</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2496,33 +2498,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2531,17 +2533,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N32" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2549,12 +2551,12 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251456</v>
+        <v>251421</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2565,30 +2567,30 @@
         <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>140.609375</v>
+        <v>81.9375</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>8999</v>
+        <v>5244</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2597,17 +2599,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N33" t="n">
-        <v>39746</v>
+        <v>39762</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2615,12 +2617,12 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>39746</v>
+        <v>39762</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251416</v>
+        <v>251268</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2631,30 +2633,30 @@
         <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>175.34375</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:19:07</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>11222</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2663,28 +2665,30 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N34" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
+        <v>39666</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251546</v>
+        <v>251371</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2692,33 +2696,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>101.03125</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:19:07</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:40:07</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:40:07</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-09 14:21:09</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>6466</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2731,26 +2735,26 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
+      <c r="N35" t="n">
+        <v>39666</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>245275</v>
+        <v>251782</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2758,33 +2762,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>379.59375</v>
+        <v>188.640625</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 14:21:09</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:09</t>
+          <t>2025-05-08 07:21:37</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:09</t>
+          <t>2025-05-08 07:21:37</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:45</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>24294</v>
+        <v>12073</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2793,30 +2797,30 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N36" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>243569</v>
+        <v>251548</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2824,33 +2828,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>40.640625</v>
+        <v>206.90625</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:45</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:45</t>
+          <t>2025-05-08 11:02:15</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:45</t>
+          <t>2025-05-08 11:02:15</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:23</t>
+          <t>2025-05-08 14:29:10</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2601</v>
+        <v>13242</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2859,30 +2863,30 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N37" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>250641</v>
+        <v>251456</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2890,33 +2894,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>79.9375</v>
+        <v>140.609375</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:23</t>
+          <t>2025-05-08 14:29:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:23</t>
+          <t>2025-05-08 14:46:10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:23</t>
+          <t>2025-05-08 14:46:10</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:19</t>
+          <t>2025-05-09 09:06:46</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5116</v>
+        <v>8999</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2929,26 +2933,26 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
+      <c r="N38" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251061</v>
+        <v>251416</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2956,33 +2960,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>374.953125</v>
+        <v>175.34375</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:19</t>
+          <t>2025-05-09 09:06:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:19</t>
+          <t>2025-05-09 09:23:46</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:19</t>
+          <t>2025-05-09 09:23:46</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:12:16</t>
+          <t>2025-05-09 12:19:07</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>23997</v>
+        <v>11222</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2991,19 +2995,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
+      <c r="N39" t="n">
+        <v>39755</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3014,7 +3016,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251260</v>
+        <v>251546</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3022,33 +3024,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D40" t="n">
-        <v>146.390625</v>
+        <v>101.03125</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-14 07:12:16</t>
+          <t>2025-05-09 12:19:07</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-14 07:27:16</t>
+          <t>2025-05-09 12:40:07</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-14 07:27:16</t>
+          <t>2025-05-09 12:40:07</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:40</t>
+          <t>2025-05-09 14:21:09</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>9369</v>
+        <v>6466</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3057,18 +3059,18 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3080,7 +3082,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251795</v>
+        <v>245275</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3088,33 +3090,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
-        <v>292.796875</v>
+        <v>379.59375</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:40</t>
+          <t>2025-05-09 14:21:09</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-14 10:08:40</t>
+          <t>2025-05-09 14:54:09</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-14 10:08:40</t>
+          <t>2025-05-09 14:54:09</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-15 07:01:28</t>
+          <t>2025-05-12 13:13:45</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>18739</v>
+        <v>24294</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3123,18 +3125,18 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3146,41 +3148,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251251</v>
+        <v>243569</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D42" t="n">
-        <v>260</v>
+        <v>40.640625</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 13:13:45</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 14:05:45</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 14:05:45</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 12:06:00</t>
+          <t>2025-05-12 14:46:23</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>15860</v>
+        <v>2601</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3189,14 +3191,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3212,41 +3214,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251846</v>
+        <v>250641</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D43" t="n">
-        <v>186.7540983606557</v>
+        <v>79.9375</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:06:00</t>
+          <t>2025-05-12 14:46:23</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:00</t>
+          <t>2025-05-13 07:22:23</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:00</t>
+          <t>2025-05-13 07:22:23</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:45</t>
+          <t>2025-05-13 08:42:19</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>11392</v>
+        <v>5116</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3259,7 +3261,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3278,41 +3280,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251373</v>
+        <v>251061</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>280.2295081967213</v>
+        <v>374.953125</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:45</t>
+          <t>2025-05-13 08:42:19</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 08:16:45</t>
+          <t>2025-05-13 08:57:19</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 08:16:45</t>
+          <t>2025-05-13 08:57:19</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:59</t>
+          <t>2025-05-14 07:12:16</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>17094</v>
+        <v>23997</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3321,18 +3323,18 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3344,41 +3346,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>245623</v>
+        <v>251260</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>433.0983606557377</v>
+        <v>146.390625</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:59</t>
+          <t>2025-05-14 07:12:16</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:42:59</t>
+          <t>2025-05-14 07:27:16</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:42:59</t>
+          <t>2025-05-14 07:27:16</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-13 12:56:04</t>
+          <t>2025-05-14 09:53:40</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>26419</v>
+        <v>9369</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3387,14 +3389,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3410,41 +3412,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251557</v>
+        <v>251795</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>109.9180327868852</v>
+        <v>292.796875</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-13 12:56:04</t>
+          <t>2025-05-14 09:53:40</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:04</t>
+          <t>2025-05-14 10:08:40</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:04</t>
+          <t>2025-05-14 10:08:40</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:00</t>
+          <t>2025-05-15 07:01:28</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6705</v>
+        <v>18739</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3453,18 +3455,18 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3476,107 +3478,107 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251249</v>
+        <v>251706</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>78</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-14 09:17:00</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>4758</v>
+        <v>3200</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>39764</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>245090</v>
+        <v>251284</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="D48" t="n">
-        <v>8470.786885245901</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-14 09:17:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-14 09:59:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-14 09:59:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-09 07:09:47</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>516718</v>
+        <v>16340</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3585,130 +3587,130 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N48" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251706</v>
+        <v>251505</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="D49" t="n">
-        <v>50.79365079365079</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3200</v>
+        <v>14255</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>39764</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251229</v>
+        <v>251397</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>45</v>
+        <v>34.5</v>
       </c>
       <c r="D50" t="n">
-        <v>271.5797101449276</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:34</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>18739</v>
+        <v>5435</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3717,64 +3719,64 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="n">
-        <v>39723</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>245350</v>
+        <v>244354</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="D51" t="n">
-        <v>405.3623188405797</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:34</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:34</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:34</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:56</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>27970</v>
+        <v>4310</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3783,18 +3785,18 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -3806,41 +3808,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251259</v>
+        <v>250819</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="D52" t="n">
-        <v>72.46376811594203</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:56</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-13 12:16:56</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-13 12:16:56</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 13:29:24</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5000</v>
+        <v>8527</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3853,7 +3855,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -3872,41 +3874,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251283</v>
+        <v>251246</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>40</v>
+        <v>30.5</v>
       </c>
       <c r="D53" t="n">
-        <v>10.92753623188406</v>
+        <v>218.2181818181818</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-13 13:29:24</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:24</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:24</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 14:20:20</t>
+          <t>2025-05-13 12:53:42</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>754</v>
+        <v>12002</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3938,41 +3940,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251463</v>
+        <v>251467</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="D54" t="n">
-        <v>100.9710144927536</v>
+        <v>113.2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:20:20</t>
+          <t>2025-05-13 12:53:42</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:55:20</t>
+          <t>2025-05-13 13:32:12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:55:20</t>
+          <t>2025-05-13 13:32:12</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:18</t>
+          <t>2025-05-14 07:25:24</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6967</v>
+        <v>6226</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3985,7 +3987,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4004,41 +4006,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251462</v>
+        <v>251062</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="D55" t="n">
-        <v>90.23188405797102</v>
+        <v>411.3454545454546</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:18</t>
+          <t>2025-05-14 07:25:24</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-14 09:11:18</t>
+          <t>2025-05-14 08:03:54</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-14 09:11:18</t>
+          <t>2025-05-14 08:03:54</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 10:41:32</t>
+          <t>2025-05-14 14:55:15</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>6226</v>
+        <v>22624</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4047,11 +4049,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4070,41 +4072,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251562</v>
+        <v>251477</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>118</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-14 10:41:32</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:32</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:32</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-14 13:04:32</t>
+          <t>2025-05-08 14:19:31</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>8142</v>
+        <v>29999</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4113,60 +4115,60 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N56" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251396</v>
+        <v>251395</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D57" t="n">
-        <v>37.08196721311475</v>
+        <v>31.85915492957746</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 14:19:31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 14:55:31</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 14:55:31</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-09 07:27:22</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4202,41 +4204,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251455</v>
+        <v>251651</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D58" t="n">
-        <v>86.8360655737705</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-09 07:27:22</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-09 07:59:22</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-09 07:59:22</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-12 10:58:57</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5297</v>
+        <v>46830</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4245,64 +4247,62 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N58" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251840</v>
+        <v>251594</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
-        <v>93.67213114754098</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-12 10:58:57</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-12 11:30:57</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-12 11:30:57</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-12 13:02:01</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5714</v>
+        <v>6466</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4315,60 +4315,60 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
-      <c r="N59" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251742</v>
+        <v>251743</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>134.8524590163935</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-12 13:02:01</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-12 13:17:01</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-12 13:17:01</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-13 07:48:48</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>8226</v>
+        <v>10776</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4386,55 +4386,55 @@
       <c r="M60" t="n">
         <v>70</v>
       </c>
-      <c r="N60" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251164</v>
+        <v>251761</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>163.9344262295082</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-13 07:48:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-13 08:03:48</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-13 08:03:48</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-13 11:10:49</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>10000</v>
+        <v>13279</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4447,60 +4447,60 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
-      <c r="N61" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251564</v>
+        <v>251464</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>44.54098360655738</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-13 11:10:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:22</t>
+          <t>2025-05-13 11:25:49</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:22</t>
+          <t>2025-05-13 11:25:49</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-09 11:25:55</t>
+          <t>2025-05-13 13:06:34</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2717</v>
+        <v>7153</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4513,14 +4513,14 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4532,41 +4532,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251566</v>
+        <v>251374</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D63" t="n">
-        <v>112.9344262295082</v>
+        <v>385.112676056338</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-09 11:25:55</t>
+          <t>2025-05-13 13:06:34</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-09 11:50:55</t>
+          <t>2025-05-13 13:27:34</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-09 11:50:55</t>
+          <t>2025-05-13 13:27:34</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 13:43:51</t>
+          <t>2025-05-14 11:52:41</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6889</v>
+        <v>27343</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4575,18 +4575,18 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4598,41 +4598,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251519</v>
+        <v>245089</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D64" t="n">
-        <v>215.983606557377</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:43:51</t>
+          <t>2025-05-14 11:52:41</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 14:13:51</t>
+          <t>2025-05-14 12:28:41</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 14:13:51</t>
+          <t>2025-05-14 12:28:41</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:50</t>
+          <t>2025-05-20 09:16:21</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>13175</v>
+        <v>122665</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4641,14 +4641,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251475</v>
+        <v>251396</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4672,33 +4672,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>142.3114754098361</v>
+        <v>37.08196721311475</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:50</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-12 10:19:50</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-12 10:19:50</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:08</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>8681</v>
+        <v>2262</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -4711,26 +4711,26 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>244355</v>
+        <v>251455</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4738,33 +4738,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>70.65573770491804</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:08</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:08</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:08</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 14:12:48</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>4310</v>
+        <v>5297</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4782,21 +4782,21 @@
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251485</v>
+        <v>251840</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4807,30 +4807,30 @@
         <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>78.81967213114754</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 14:12:48</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:48</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:48</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 07:56:37</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>4808</v>
+        <v>5714</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4848,21 +4848,21 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
+      <c r="N67" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>244023</v>
+        <v>251742</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4873,30 +4873,30 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>16.34426229508197</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 07:56:37</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:37</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:37</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:58</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>997</v>
+        <v>8226</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4909,26 +4909,26 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251245</v>
+        <v>251164</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4936,33 +4936,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>12.36065573770492</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:58</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:58</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:58</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:19</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>754</v>
+        <v>10000</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -4980,21 +4980,21 @@
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
+      <c r="N69" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251466</v>
+        <v>251564</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5005,30 +5005,30 @@
         <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>91.26229508196721</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:19</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:45:19</t>
+          <t>2025-05-09 10:41:22</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:45:19</t>
+          <t>2025-05-09 10:41:22</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:35</t>
+          <t>2025-05-09 11:25:55</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5567</v>
+        <v>2717</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5060,7 +5060,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251465</v>
+        <v>251566</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5071,30 +5071,30 @@
         <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>102.0655737704918</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:35</t>
+          <t>2025-05-09 11:25:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:41:35</t>
+          <t>2025-05-09 11:50:55</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 11:41:35</t>
+          <t>2025-05-09 11:50:55</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 13:23:39</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6226</v>
+        <v>6889</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5107,14 +5107,14 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5126,7 +5126,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251580</v>
+        <v>251519</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5137,30 +5137,30 @@
         <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>117.2622950819672</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:23:39</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:39</t>
+          <t>2025-05-09 14:13:51</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:39</t>
+          <t>2025-05-09 14:13:51</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-14 07:50:55</t>
+          <t>2025-05-12 09:49:50</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7153</v>
+        <v>13175</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5173,14 +5173,14 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5192,7 +5192,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251252</v>
+        <v>251475</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5203,30 +5203,30 @@
         <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>247.2622950819672</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-14 07:50:55</t>
+          <t>2025-05-12 09:49:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-14 08:20:55</t>
+          <t>2025-05-12 10:19:50</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-14 08:20:55</t>
+          <t>2025-05-12 10:19:50</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:10</t>
+          <t>2025-05-12 12:42:08</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>15083</v>
+        <v>8681</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5235,18 +5235,18 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -5258,41 +5258,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251453</v>
+        <v>244355</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>102.0408163265306</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 12:42:08</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 13:02:08</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 13:02:08</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:02</t>
+          <t>2025-05-12 14:12:48</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5000</v>
+        <v>4310</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5305,60 +5305,60 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="N74" t="n">
-        <v>39742</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251391</v>
+        <v>251485</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>119.6938775510204</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:02</t>
+          <t>2025-05-12 14:12:48</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-12 14:37:48</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-12 14:37:48</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:44</t>
+          <t>2025-05-13 07:56:37</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5865</v>
+        <v>4808</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5376,55 +5376,55 @@
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="N75" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251547</v>
+        <v>244023</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>267.9387755102041</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:44</t>
+          <t>2025-05-13 07:56:37</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:44</t>
+          <t>2025-05-13 08:21:37</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:44</t>
+          <t>2025-05-13 08:21:37</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:40</t>
+          <t>2025-05-13 08:37:58</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>13129</v>
+        <v>997</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5437,60 +5437,60 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="N76" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251561</v>
+        <v>251245</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>110.9183673469388</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:40</t>
+          <t>2025-05-13 08:37:58</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-09 09:54:40</t>
+          <t>2025-05-13 08:57:58</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-09 09:54:40</t>
+          <t>2025-05-13 08:57:58</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-09 11:45:35</t>
+          <t>2025-05-13 09:10:19</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>5435</v>
+        <v>754</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -5499,18 +5499,18 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5522,41 +5522,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251626</v>
+        <v>251466</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D78" t="n">
-        <v>255.1020408163265</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-09 11:45:35</t>
+          <t>2025-05-13 09:10:19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:35</t>
+          <t>2025-05-13 09:45:19</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:35</t>
+          <t>2025-05-13 09:45:19</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:41</t>
+          <t>2025-05-13 11:16:35</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>12500</v>
+        <v>5567</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -5588,41 +5588,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251424</v>
+        <v>251465</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>197.1836734693877</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:41</t>
+          <t>2025-05-13 11:16:35</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 09:25:41</t>
+          <t>2025-05-13 11:41:35</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 09:25:41</t>
+          <t>2025-05-13 11:41:35</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:52</t>
+          <t>2025-05-13 13:23:39</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>9662</v>
+        <v>6226</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -5635,14 +5635,14 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5654,41 +5654,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>244204</v>
+        <v>251580</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
-        <v>70.85714285714286</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:52</t>
+          <t>2025-05-13 13:23:39</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:52</t>
+          <t>2025-05-13 13:53:39</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:52</t>
+          <t>2025-05-13 13:53:39</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:44</t>
+          <t>2025-05-14 07:50:55</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3472</v>
+        <v>7153</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -5720,41 +5720,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251346</v>
+        <v>251252</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D81" t="n">
-        <v>78.75510204081633</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:44</t>
+          <t>2025-05-14 07:50:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:44</t>
+          <t>2025-05-14 08:20:55</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:44</t>
+          <t>2025-05-14 08:20:55</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:29</t>
+          <t>2025-05-14 12:28:10</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3859</v>
+        <v>15083</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -5763,11 +5763,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251247</v>
+        <v>251453</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5794,33 +5794,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
-        <v>549.6734693877551</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:29</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-13 09:27:29</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-13 09:27:29</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 10:37:09</t>
+          <t>2025-05-08 09:22:02</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>26934</v>
+        <v>5000</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -5829,64 +5829,64 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
+      <c r="N82" t="n">
+        <v>39742</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>39742</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251284</v>
+        <v>251391</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>40.5</v>
+        <v>45</v>
       </c>
       <c r="D83" t="n">
-        <v>297.0909090909091</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 09:22:02</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 12:06:44</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>16340</v>
+        <v>5865</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -5895,17 +5895,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
       </c>
       <c r="N83" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -5913,46 +5913,46 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251505</v>
+        <v>251547</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="D84" t="n">
-        <v>259.1818181818182</v>
+        <v>267.9387755102041</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 12:06:44</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-08 12:46:44</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-08 12:46:44</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 09:14:40</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>14255</v>
+        <v>13129</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -5965,56 +5965,56 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
+      <c r="N84" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251397</v>
+        <v>251561</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="D85" t="n">
-        <v>98.81818181818181</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 09:14:40</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 09:54:40</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 09:54:40</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-09 11:45:35</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6050,41 +6050,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>244354</v>
+        <v>251626</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
-        <v>78.36363636363636</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-09 11:45:35</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-09 12:30:35</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-09 12:30:35</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 08:45:41</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4310</v>
+        <v>12500</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6097,14 +6097,14 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -6116,41 +6116,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>250819</v>
+        <v>251424</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="D87" t="n">
-        <v>155.0363636363636</v>
+        <v>197.1836734693877</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 08:45:41</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 09:25:41</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 09:25:41</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-12 12:42:52</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>8527</v>
+        <v>9662</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6163,14 +6163,14 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6182,41 +6182,41 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>251246</v>
+        <v>244204</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>30.5</v>
+        <v>35</v>
       </c>
       <c r="D88" t="n">
-        <v>218.2181818181818</v>
+        <v>70.85714285714286</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-12 12:42:52</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-12 13:17:52</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-12 13:17:52</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-05-13 12:53:42</t>
+          <t>2025-05-12 14:28:44</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>12002</v>
+        <v>3472</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6225,18 +6225,18 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M88" t="n">
         <v>70</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6248,41 +6248,41 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>251467</v>
+        <v>251346</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>38.5</v>
+        <v>55</v>
       </c>
       <c r="D89" t="n">
-        <v>113.2</v>
+        <v>78.75510204081633</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-05-13 12:53:42</t>
+          <t>2025-05-12 14:28:44</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:12</t>
+          <t>2025-05-13 07:23:44</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:12</t>
+          <t>2025-05-13 07:23:44</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:24</t>
+          <t>2025-05-13 08:42:29</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>6226</v>
+        <v>3859</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M89" t="n">
         <v>70</v>
@@ -6314,41 +6314,41 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>251062</v>
+        <v>251247</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>38.5</v>
+        <v>45</v>
       </c>
       <c r="D90" t="n">
-        <v>411.3454545454546</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:24</t>
+          <t>2025-05-13 08:42:29</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-05-14 08:03:54</t>
+          <t>2025-05-13 09:27:29</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-05-14 08:03:54</t>
+          <t>2025-05-13 09:27:29</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-05-14 14:55:15</t>
+          <t>2025-05-14 10:37:09</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>22624</v>
+        <v>26934</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -512,41 +512,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251340</v>
+        <v>251477</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>461.9718309859155</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-05-08 14:19:31</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>32800</v>
+        <v>29999</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,64 +555,64 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+      <c r="N2" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250894</v>
+        <v>251395</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>623.4084507042254</v>
+        <v>31.85915492957746</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-05-08 14:19:31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-05-08 14:55:31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-05-08 14:55:31</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-05-09 07:27:22</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>44262</v>
+        <v>2262</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -621,62 +621,64 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251987</v>
+        <v>251651</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>2965.154929577465</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-05-09 07:27:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:22</t>
+          <t>2025-05-09 07:59:22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:22</t>
+          <t>2025-05-09 07:59:22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-21 08:23:32</t>
+          <t>2025-05-12 10:58:57</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>210526</v>
+        <v>46830</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -685,19 +687,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
+      <c r="N4" t="n">
+        <v>39755</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -708,41 +708,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250670</v>
+        <v>251594</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>22.01408450704225</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-21 08:23:32</t>
+          <t>2025-05-12 10:58:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-21 08:42:32</t>
+          <t>2025-05-12 11:30:57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-21 08:42:32</t>
+          <t>2025-05-12 11:30:57</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-21 09:04:32</t>
+          <t>2025-05-12 13:02:01</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1563</v>
+        <v>6466</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -751,18 +751,18 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -774,41 +774,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>243335</v>
+        <v>251743</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>464.8450704225352</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-21 09:04:32</t>
+          <t>2025-05-12 13:02:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-21 09:34:32</t>
+          <t>2025-05-12 13:17:01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-21 09:34:32</t>
+          <t>2025-05-12 13:17:01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-22 09:19:23</t>
+          <t>2025-05-13 07:48:48</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>33004</v>
+        <v>10776</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -817,18 +817,18 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -840,41 +840,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251750</v>
+        <v>251761</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>54.80281690140845</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-22 09:19:23</t>
+          <t>2025-05-13 07:48:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-22 09:36:23</t>
+          <t>2025-05-13 08:03:48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-22 09:36:23</t>
+          <t>2025-05-13 08:03:48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-22 10:31:11</t>
+          <t>2025-05-13 11:10:49</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3891</v>
+        <v>13279</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -883,18 +883,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -906,41 +906,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251050</v>
+        <v>251464</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 11:10:49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 11:25:49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 11:25:49</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 13:06:34</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7153</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -949,64 +949,64 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251081</v>
+        <v>251374</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>42.42253521126761</v>
+        <v>385.112676056338</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 13:06:34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-13 13:27:34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-13 13:27:34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-14 11:52:41</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3012</v>
+        <v>27343</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1015,64 +1015,64 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39750</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>245089</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-14 11:52:41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-14 12:28:41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-14 12:28:41</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-20 09:16:21</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>122665</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1081,30 +1081,30 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>235572</v>
+        <v>251050</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1112,33 +1112,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D11" t="n">
-        <v>140.2535211267606</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:25</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:25</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:40</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>9958</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1147,30 +1147,30 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+      <c r="N11" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251809</v>
+        <v>251081</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1178,33 +1178,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>122.2676056338028</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:40</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:40</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:40</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:56</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8681</v>
+        <v>3012</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1213,30 +1213,30 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+      <c r="N12" t="n">
+        <v>39750</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251109</v>
+        <v>251054</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1244,33 +1244,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D13" t="n">
-        <v>266.5915492957747</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:56</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:56</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:56</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:32</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>18928</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1283,26 +1283,26 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+      <c r="N13" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251520</v>
+        <v>235572</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1310,33 +1310,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="D14" t="n">
-        <v>230.1408450704225</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:32</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:32</t>
+          <t>2025-05-12 10:49:25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:32</t>
+          <t>2025-05-12 10:49:25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:40</t>
+          <t>2025-05-12 13:09:40</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16340</v>
+        <v>9958</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1345,11 +1345,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1368,41 +1368,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251251</v>
+        <v>251809</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>260</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 13:09:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 13:49:40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 13:49:40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:06:00</t>
+          <t>2025-05-13 07:51:56</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>15860</v>
+        <v>8681</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1411,18 +1411,18 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1434,41 +1434,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251846</v>
+        <v>251109</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D16" t="n">
-        <v>186.7540983606557</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 12:06:00</t>
+          <t>2025-05-13 07:51:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:00</t>
+          <t>2025-05-13 09:26:56</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 12:39:00</t>
+          <t>2025-05-13 09:26:56</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:45</t>
+          <t>2025-05-13 13:53:32</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11392</v>
+        <v>18928</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1477,11 +1477,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1500,41 +1500,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251373</v>
+        <v>251520</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D17" t="n">
-        <v>280.2295081967213</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:45</t>
+          <t>2025-05-13 13:53:32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 08:16:45</t>
+          <t>2025-05-14 07:13:32</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 08:16:45</t>
+          <t>2025-05-14 07:13:32</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:59</t>
+          <t>2025-05-14 11:03:40</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>17094</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1543,18 +1543,18 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1566,41 +1566,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>245623</v>
+        <v>251340</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>433.0983606557377</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:59</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 13:42:59</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 13:42:59</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:56:04</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>26419</v>
+        <v>32800</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1609,14 +1609,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1632,41 +1632,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251557</v>
+        <v>250894</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>109.9180327868852</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:56:04</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:04</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:04</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:00</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6705</v>
+        <v>44262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1675,19 +1675,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39755</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1698,41 +1696,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251249</v>
+        <v>251987</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-14 07:26:00</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:00</t>
+          <t>2025-05-12 14:58:22</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:00</t>
+          <t>2025-05-12 14:58:22</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-14 09:17:00</t>
+          <t>2025-05-21 08:23:32</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4758</v>
+        <v>210526</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1741,14 +1739,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1764,41 +1762,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>245090</v>
+        <v>250670</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>8470.786885245901</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-14 09:17:00</t>
+          <t>2025-05-21 08:23:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 09:59:00</t>
+          <t>2025-05-21 08:42:32</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 09:59:00</t>
+          <t>2025-05-21 08:42:32</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-09 07:09:47</t>
+          <t>2025-05-21 09:04:32</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>516718</v>
+        <v>1563</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1807,18 +1805,18 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>76</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1830,41 +1828,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251229</v>
+        <v>243335</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>271.5797101449276</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-21 09:04:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-21 09:34:32</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-21 09:34:32</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:34</t>
+          <t>2025-05-22 09:19:23</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>18739</v>
+        <v>33004</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1873,64 +1871,64 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39723</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>245350</v>
+        <v>251750</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>405.3623188405797</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:34</t>
+          <t>2025-05-22 09:19:23</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:34</t>
+          <t>2025-05-22 09:36:23</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-12 13:01:34</t>
+          <t>2025-05-22 09:36:23</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:56</t>
+          <t>2025-05-22 10:31:11</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>27970</v>
+        <v>3891</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1939,18 +1937,18 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -1962,41 +1960,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251259</v>
+        <v>250759</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>72.46376811594203</v>
+        <v>131.21875</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:56</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-13 12:16:56</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-13 12:16:56</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-13 13:29:24</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5000</v>
+        <v>8398</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2005,64 +2003,64 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251283</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>10.92753623188406</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-13 13:29:24</t>
+          <t>2025-05-07 09:45:13</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:24</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:24</t>
+          <t>2025-05-07 10:02:13</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 14:20:20</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>754</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2071,64 +2069,64 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251463</v>
+        <v>251227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>100.9710144927536</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-13 14:20:20</t>
+          <t>2025-05-07 11:51:41</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 14:55:20</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 14:55:20</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:18</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6967</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2137,64 +2135,64 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251462</v>
+        <v>251225</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>90.23188405797102</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:18</t>
+          <t>2025-05-07 12:08:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-14 09:11:18</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-14 09:11:18</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-14 10:41:32</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2203,64 +2201,64 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251562</v>
+        <v>251421</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>118</v>
+        <v>81.9375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-14 10:41:32</t>
+          <t>2025-05-07 12:23:41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:32</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:32</t>
+          <t>2025-05-07 12:40:41</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-14 13:04:32</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>8142</v>
+        <v>5244</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2269,30 +2267,30 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N28" t="n">
+        <v>39762</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39762</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250759</v>
+        <v>251268</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2300,33 +2298,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>131.21875</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 14:02:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2335,7 +2333,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2345,7 +2343,7 @@
         <v>76</v>
       </c>
       <c r="N29" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2353,12 +2351,12 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250923</v>
+        <v>251371</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2366,33 +2364,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-07 14:19:37</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2401,17 +2399,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2419,12 +2417,12 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251227</v>
+        <v>251782</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2432,33 +2430,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>188.640625</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-07 14:49:37</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 07:21:37</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 07:21:37</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2467,17 +2465,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>76</v>
       </c>
       <c r="N31" t="n">
-        <v>39746</v>
+        <v>39754</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2485,12 +2483,12 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>39746</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251225</v>
+        <v>251548</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2498,33 +2496,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 10:30:15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-08 11:02:15</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-08 11:02:15</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-08 14:29:10</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2533,17 +2531,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N32" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2551,12 +2549,12 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251421</v>
+        <v>251456</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2567,30 +2565,30 @@
         <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>81.9375</v>
+        <v>140.609375</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-08 14:29:10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-08 14:46:10</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-08 14:46:10</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-09 09:06:46</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5244</v>
+        <v>8999</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2599,17 +2597,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N33" t="n">
-        <v>39762</v>
+        <v>39746</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2617,12 +2615,12 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>39762</v>
+        <v>39746</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251268</v>
+        <v>251416</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2633,30 +2631,30 @@
         <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>175.34375</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-09 09:06:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 09:23:46</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 09:23:46</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 12:19:07</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2665,30 +2663,28 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N34" t="n">
-        <v>39666</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251371</v>
+        <v>251546</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2696,33 +2692,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>101.03125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 12:19:07</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-09 12:40:07</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-09 12:40:07</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-09 14:21:09</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6466</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2735,26 +2731,26 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="n">
-        <v>39666</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251782</v>
+        <v>245275</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2762,33 +2758,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
-        <v>188.640625</v>
+        <v>379.59375</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-09 14:21:09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-09 14:54:09</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-09 14:54:09</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-12 13:13:45</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>12073</v>
+        <v>24294</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2797,30 +2793,30 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
-      </c>
-      <c r="N36" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251548</v>
+        <v>243569</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2828,33 +2824,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D37" t="n">
-        <v>206.90625</v>
+        <v>40.640625</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-12 13:13:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-12 14:05:45</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:15</t>
+          <t>2025-05-12 14:05:45</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-12 14:46:23</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>13242</v>
+        <v>2601</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2863,30 +2859,30 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
-      </c>
-      <c r="N37" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251456</v>
+        <v>250641</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2894,33 +2890,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D38" t="n">
-        <v>140.609375</v>
+        <v>79.9375</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:10</t>
+          <t>2025-05-12 14:46:23</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-13 07:22:23</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:10</t>
+          <t>2025-05-13 07:22:23</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-13 08:42:19</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8999</v>
+        <v>5116</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2933,26 +2929,26 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251416</v>
+        <v>251061</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2960,33 +2956,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>175.34375</v>
+        <v>374.953125</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:06:46</t>
+          <t>2025-05-13 08:42:19</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-13 08:57:19</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:23:46</t>
+          <t>2025-05-13 08:57:19</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 12:19:07</t>
+          <t>2025-05-14 07:12:16</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>11222</v>
+        <v>23997</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2995,17 +2991,19 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="N39" t="n">
-        <v>39755</v>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3016,7 +3014,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251546</v>
+        <v>251260</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3024,33 +3022,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>101.03125</v>
+        <v>146.390625</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 12:19:07</t>
+          <t>2025-05-14 07:12:16</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 12:40:07</t>
+          <t>2025-05-14 07:27:16</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 12:40:07</t>
+          <t>2025-05-14 07:27:16</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 14:21:09</t>
+          <t>2025-05-14 09:53:40</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>6466</v>
+        <v>9369</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3059,18 +3057,18 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -3082,7 +3080,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>245275</v>
+        <v>251795</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3090,33 +3088,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>379.59375</v>
+        <v>292.796875</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 14:21:09</t>
+          <t>2025-05-14 09:53:40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:09</t>
+          <t>2025-05-14 10:08:40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:09</t>
+          <t>2025-05-14 10:08:40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:45</t>
+          <t>2025-05-15 07:01:28</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>24294</v>
+        <v>18739</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3125,18 +3123,18 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -3148,41 +3146,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>243569</v>
+        <v>251251</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D42" t="n">
-        <v>40.640625</v>
+        <v>260</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:45</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 14:05:45</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:23</t>
+          <t>2025-05-09 12:06:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2601</v>
+        <v>15860</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3191,14 +3189,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3214,41 +3212,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>250641</v>
+        <v>251846</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
-        <v>79.9375</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:23</t>
+          <t>2025-05-09 12:06:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:23</t>
+          <t>2025-05-09 12:39:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-13 07:22:23</t>
+          <t>2025-05-09 12:39:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:19</t>
+          <t>2025-05-12 07:45:45</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5116</v>
+        <v>11392</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3261,7 +3259,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3280,41 +3278,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251061</v>
+        <v>251373</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
-        <v>374.953125</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:19</t>
+          <t>2025-05-12 07:45:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:19</t>
+          <t>2025-05-12 08:16:45</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:19</t>
+          <t>2025-05-12 08:16:45</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-14 07:12:16</t>
+          <t>2025-05-12 12:56:59</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>23997</v>
+        <v>17094</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3323,18 +3321,18 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -3346,41 +3344,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251260</v>
+        <v>245623</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D45" t="n">
-        <v>146.390625</v>
+        <v>433.0983606557377</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-14 07:12:16</t>
+          <t>2025-05-12 12:56:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-14 07:27:16</t>
+          <t>2025-05-12 13:42:59</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-14 07:27:16</t>
+          <t>2025-05-12 13:42:59</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:40</t>
+          <t>2025-05-13 12:56:04</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>9369</v>
+        <v>26419</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3389,14 +3387,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3412,41 +3410,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251795</v>
+        <v>251557</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D46" t="n">
-        <v>292.796875</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:40</t>
+          <t>2025-05-13 12:56:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-14 10:08:40</t>
+          <t>2025-05-13 13:36:04</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-14 10:08:40</t>
+          <t>2025-05-13 13:36:04</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-15 07:01:28</t>
+          <t>2025-05-14 07:26:00</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>18739</v>
+        <v>6705</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3455,18 +3453,18 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -3478,107 +3476,107 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251706</v>
+        <v>251249</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>50.79365079365079</v>
+        <v>78</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 07:26:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 07:59:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 07:59:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-14 09:17:00</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3200</v>
+        <v>4758</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>39764</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251284</v>
+        <v>245090</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="D48" t="n">
-        <v>297.0909090909091</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 09:17:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 09:59:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 09:59:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-09 07:09:47</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>16340</v>
+        <v>516718</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3587,130 +3585,130 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
-      </c>
-      <c r="N48" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251505</v>
+        <v>251706</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>259.1818181818182</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>14255</v>
+        <v>3200</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>39764</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251397</v>
+        <v>251229</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>34.5</v>
+        <v>45</v>
       </c>
       <c r="D50" t="n">
-        <v>98.81818181818181</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5435</v>
+        <v>18739</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3719,64 +3717,64 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
+      <c r="N50" t="n">
+        <v>39723</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>244354</v>
+        <v>245350</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>78.36363636363636</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 12:16:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 13:01:34</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 13:01:34</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-13 11:46:56</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4310</v>
+        <v>27970</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3785,18 +3783,18 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -3808,41 +3806,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>250819</v>
+        <v>251259</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>155.0363636363636</v>
+        <v>72.46376811594203</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-13 11:46:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-13 12:16:56</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-13 12:16:56</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 13:29:24</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8527</v>
+        <v>5000</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3855,7 +3853,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -3874,41 +3872,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251246</v>
+        <v>251283</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>218.2181818181818</v>
+        <v>10.92753623188406</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 13:29:24</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-13 14:09:24</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-13 14:09:24</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 12:53:42</t>
+          <t>2025-05-13 14:20:20</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>12002</v>
+        <v>754</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3940,41 +3938,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251467</v>
+        <v>251463</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>38.5</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
-        <v>113.2</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 12:53:42</t>
+          <t>2025-05-13 14:20:20</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:12</t>
+          <t>2025-05-13 14:55:20</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:12</t>
+          <t>2025-05-13 14:55:20</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:24</t>
+          <t>2025-05-14 08:36:18</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6226</v>
+        <v>6967</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3987,7 +3985,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4006,41 +4004,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251062</v>
+        <v>251462</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>38.5</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
-        <v>411.3454545454546</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-14 07:25:24</t>
+          <t>2025-05-14 08:36:18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-14 08:03:54</t>
+          <t>2025-05-14 09:11:18</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-14 08:03:54</t>
+          <t>2025-05-14 09:11:18</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 14:55:15</t>
+          <t>2025-05-14 10:41:32</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>22624</v>
+        <v>6226</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4049,11 +4047,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4072,41 +4070,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251477</v>
+        <v>251562</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>422.5211267605634</v>
+        <v>118</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 10:41:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-14 11:06:32</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-14 11:06:32</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-14 13:04:32</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>29999</v>
+        <v>8142</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4115,60 +4113,60 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
-      </c>
-      <c r="N56" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251395</v>
+        <v>251396</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>31.85915492957746</v>
+        <v>37.08196721311475</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4204,41 +4202,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251651</v>
+        <v>251455</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>659.5774647887324</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:59:22</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:59:22</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 10:58:57</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>46830</v>
+        <v>5297</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4247,62 +4245,64 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N58" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251594</v>
+        <v>251840</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>91.07042253521126</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 10:58:57</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:57</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:57</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:01</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>6466</v>
+        <v>5714</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4315,60 +4315,60 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+      <c r="N59" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251743</v>
+        <v>251742</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>151.7746478873239</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:01</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:01</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:01</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:48</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>10776</v>
+        <v>8226</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4386,55 +4386,55 @@
       <c r="M60" t="n">
         <v>70</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+      <c r="N60" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251761</v>
+        <v>251164</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>187.0281690140845</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:48</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:48</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:48</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:49</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>13279</v>
+        <v>10000</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4447,60 +4447,60 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+      <c r="N61" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251464</v>
+        <v>251564</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>100.7464788732394</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:49</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 11:25:49</t>
+          <t>2025-05-09 10:41:22</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 11:25:49</t>
+          <t>2025-05-09 10:41:22</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 13:06:34</t>
+          <t>2025-05-09 11:25:55</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>7153</v>
+        <v>2717</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4513,14 +4513,14 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -4532,41 +4532,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251374</v>
+        <v>251566</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>385.112676056338</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 13:06:34</t>
+          <t>2025-05-09 11:25:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:34</t>
+          <t>2025-05-09 11:50:55</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:34</t>
+          <t>2025-05-09 11:50:55</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:41</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>27343</v>
+        <v>6889</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4575,18 +4575,18 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -4598,41 +4598,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>245089</v>
+        <v>251519</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>1727.676056338028</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:41</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:41</t>
+          <t>2025-05-09 14:13:51</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:41</t>
+          <t>2025-05-09 14:13:51</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-20 09:16:21</t>
+          <t>2025-05-12 09:49:50</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>122665</v>
+        <v>13175</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4641,14 +4641,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251396</v>
+        <v>251475</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4672,33 +4672,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
-        <v>37.08196721311475</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 09:49:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 10:19:50</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 10:19:50</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-12 12:42:08</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2262</v>
+        <v>8681</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -4711,26 +4711,26 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251455</v>
+        <v>244355</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4738,33 +4738,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D66" t="n">
-        <v>86.8360655737705</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-08 08:17:04</t>
+          <t>2025-05-12 12:42:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-12 13:02:08</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-08 08:47:04</t>
+          <t>2025-05-12 13:02:08</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-12 14:12:48</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5297</v>
+        <v>4310</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4782,21 +4782,21 @@
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251840</v>
+        <v>251485</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4807,30 +4807,30 @@
         <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>93.67213114754098</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:55</t>
+          <t>2025-05-12 14:12:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-12 14:37:48</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:55</t>
+          <t>2025-05-12 14:37:48</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-13 07:56:37</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5714</v>
+        <v>4808</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4848,21 +4848,21 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251742</v>
+        <v>244023</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4873,30 +4873,30 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>134.8524590163935</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-08 12:12:35</t>
+          <t>2025-05-13 07:56:37</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-13 08:21:37</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-13 08:21:37</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-13 08:37:58</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8226</v>
+        <v>997</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4909,26 +4909,26 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251164</v>
+        <v>251245</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4936,33 +4936,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>163.9344262295082</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-08 14:52:26</t>
+          <t>2025-05-13 08:37:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-13 08:57:58</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:26</t>
+          <t>2025-05-13 08:57:58</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-13 09:10:19</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>10000</v>
+        <v>754</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -4980,21 +4980,21 @@
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="N69" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251564</v>
+        <v>251466</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5005,30 +5005,30 @@
         <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>44.54098360655738</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-09 10:06:22</t>
+          <t>2025-05-13 09:10:19</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:22</t>
+          <t>2025-05-13 09:45:19</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-09 10:41:22</t>
+          <t>2025-05-13 09:45:19</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:25:55</t>
+          <t>2025-05-13 11:16:35</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2717</v>
+        <v>5567</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -5060,7 +5060,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251566</v>
+        <v>251465</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5071,30 +5071,30 @@
         <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>112.9344262295082</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-09 11:25:55</t>
+          <t>2025-05-13 11:16:35</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-09 11:50:55</t>
+          <t>2025-05-13 11:41:35</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-09 11:50:55</t>
+          <t>2025-05-13 11:41:35</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-09 13:43:51</t>
+          <t>2025-05-13 13:23:39</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6889</v>
+        <v>6226</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5107,14 +5107,14 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -5126,7 +5126,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251519</v>
+        <v>251580</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5137,30 +5137,30 @@
         <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>215.983606557377</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-09 13:43:51</t>
+          <t>2025-05-13 13:23:39</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:13:51</t>
+          <t>2025-05-13 13:53:39</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:13:51</t>
+          <t>2025-05-13 13:53:39</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:50</t>
+          <t>2025-05-14 07:50:55</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>13175</v>
+        <v>7153</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5173,14 +5173,14 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -5192,7 +5192,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251475</v>
+        <v>251252</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5203,30 +5203,30 @@
         <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>142.3114754098361</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:50</t>
+          <t>2025-05-14 07:50:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-12 10:19:50</t>
+          <t>2025-05-14 08:20:55</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-12 10:19:50</t>
+          <t>2025-05-14 08:20:55</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:08</t>
+          <t>2025-05-14 12:28:10</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>8681</v>
+        <v>15083</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5235,18 +5235,18 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -5258,41 +5258,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>244355</v>
+        <v>251453</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D74" t="n">
-        <v>70.65573770491804</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:08</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:08</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:08</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-12 14:12:48</t>
+          <t>2025-05-08 09:22:02</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>4310</v>
+        <v>5000</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5305,60 +5305,60 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
+      <c r="N74" t="n">
+        <v>39742</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>39742</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251485</v>
+        <v>251391</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>78.81967213114754</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 14:12:48</t>
+          <t>2025-05-08 09:22:02</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:48</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:48</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-13 07:56:37</t>
+          <t>2025-05-08 12:06:44</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4808</v>
+        <v>5865</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5376,55 +5376,55 @@
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
+      <c r="N75" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>244023</v>
+        <v>251547</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D76" t="n">
-        <v>16.34426229508197</v>
+        <v>267.9387755102041</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 07:56:37</t>
+          <t>2025-05-08 12:06:44</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:37</t>
+          <t>2025-05-08 12:46:44</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 08:21:37</t>
+          <t>2025-05-08 12:46:44</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:58</t>
+          <t>2025-05-09 09:14:40</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>997</v>
+        <v>13129</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5437,60 +5437,60 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
+      <c r="N76" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251245</v>
+        <v>251561</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D77" t="n">
-        <v>12.36065573770492</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:58</t>
+          <t>2025-05-09 09:14:40</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:58</t>
+          <t>2025-05-09 09:54:40</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:58</t>
+          <t>2025-05-09 09:54:40</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:19</t>
+          <t>2025-05-09 11:45:35</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>754</v>
+        <v>5435</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -5499,18 +5499,18 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -5522,41 +5522,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251466</v>
+        <v>251626</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D78" t="n">
-        <v>91.26229508196721</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:19</t>
+          <t>2025-05-09 11:45:35</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 09:45:19</t>
+          <t>2025-05-09 12:30:35</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 09:45:19</t>
+          <t>2025-05-09 12:30:35</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:35</t>
+          <t>2025-05-12 08:45:41</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>5567</v>
+        <v>12500</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -5588,41 +5588,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251465</v>
+        <v>251424</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D79" t="n">
-        <v>102.0655737704918</v>
+        <v>197.1836734693877</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:35</t>
+          <t>2025-05-12 08:45:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 11:41:35</t>
+          <t>2025-05-12 09:25:41</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 11:41:35</t>
+          <t>2025-05-12 09:25:41</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 13:23:39</t>
+          <t>2025-05-12 12:42:52</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>6226</v>
+        <v>9662</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -5635,14 +5635,14 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -5654,41 +5654,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251580</v>
+        <v>244204</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>117.2622950819672</v>
+        <v>70.85714285714286</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 13:23:39</t>
+          <t>2025-05-12 12:42:52</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:39</t>
+          <t>2025-05-12 13:17:52</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:39</t>
+          <t>2025-05-12 13:17:52</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:50:55</t>
+          <t>2025-05-12 14:28:44</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>7153</v>
+        <v>3472</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -5720,41 +5720,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251252</v>
+        <v>251346</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D81" t="n">
-        <v>247.2622950819672</v>
+        <v>78.75510204081633</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:50:55</t>
+          <t>2025-05-12 14:28:44</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:20:55</t>
+          <t>2025-05-13 07:23:44</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:20:55</t>
+          <t>2025-05-13 07:23:44</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:10</t>
+          <t>2025-05-13 08:42:29</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>15083</v>
+        <v>3859</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -5763,11 +5763,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251453</v>
+        <v>251247</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5794,33 +5794,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>102.0408163265306</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 08:42:29</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-13 09:27:29</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-13 09:27:29</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:02</t>
+          <t>2025-05-14 10:37:09</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>5000</v>
+        <v>26934</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -5829,64 +5829,64 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
       </c>
-      <c r="N82" t="n">
-        <v>39742</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251391</v>
+        <v>251284</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>45</v>
+        <v>40.5</v>
       </c>
       <c r="D83" t="n">
-        <v>119.6938775510204</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-08 09:22:02</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:44</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>5865</v>
+        <v>16340</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -5895,17 +5895,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
       </c>
       <c r="N83" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -5913,46 +5913,46 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251547</v>
+        <v>251505</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="D84" t="n">
-        <v>267.9387755102041</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-08 12:06:44</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:44</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:44</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:40</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>13129</v>
+        <v>14255</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -5965,56 +5965,56 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
       </c>
-      <c r="N84" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251561</v>
+        <v>251397</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="D85" t="n">
-        <v>110.9183673469388</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-09 09:14:40</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-09 09:54:40</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-09 09:54:40</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-09 11:45:35</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6050,41 +6050,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251626</v>
+        <v>244354</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="D86" t="n">
-        <v>255.1020408163265</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-09 11:45:35</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:35</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:35</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:41</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>12500</v>
+        <v>4310</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6097,14 +6097,14 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -6116,41 +6116,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251424</v>
+        <v>250819</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="D87" t="n">
-        <v>197.1836734693877</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:41</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-12 09:25:41</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-12 09:25:41</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:52</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>9662</v>
+        <v>8527</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6163,14 +6163,14 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -6182,41 +6182,41 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>244204</v>
+        <v>251246</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>35</v>
+        <v>30.5</v>
       </c>
       <c r="D88" t="n">
-        <v>70.85714285714286</v>
+        <v>218.2181818181818</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:52</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:52</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:52</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:44</t>
+          <t>2025-05-13 12:53:42</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>3472</v>
+        <v>12002</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6225,18 +6225,18 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M88" t="n">
         <v>70</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -6248,41 +6248,41 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>251346</v>
+        <v>251467</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>55</v>
+        <v>38.5</v>
       </c>
       <c r="D89" t="n">
-        <v>78.75510204081633</v>
+        <v>113.2</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:44</t>
+          <t>2025-05-13 12:53:42</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:44</t>
+          <t>2025-05-13 13:32:12</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:44</t>
+          <t>2025-05-13 13:32:12</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:29</t>
+          <t>2025-05-14 07:25:24</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>3859</v>
+        <v>6226</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
         <v>70</v>
@@ -6314,41 +6314,41 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>251247</v>
+        <v>251062</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>45</v>
+        <v>38.5</v>
       </c>
       <c r="D90" t="n">
-        <v>549.6734693877551</v>
+        <v>411.3454545454546</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:29</t>
+          <t>2025-05-14 07:25:24</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-05-13 09:27:29</t>
+          <t>2025-05-14 08:03:54</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-05-13 09:27:29</t>
+          <t>2025-05-14 08:03:54</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-05-14 10:37:09</t>
+          <t>2025-05-14 14:55:15</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>26934</v>
+        <v>22624</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>

--- a/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
+++ b/PS-VRP/OUTPUT_TEST/insert_inter.xlsx
@@ -512,41 +512,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251477</v>
+        <v>251987</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>422.5211267605634</v>
+        <v>3051.101449275362</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-20 10:36:06</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>29999</v>
+        <v>210526</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,64 +555,64 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
       </c>
-      <c r="N2" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251395</v>
+        <v>245350</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>31.85915492957746</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:19:31</t>
+          <t>2025-05-20 10:36:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-20 11:26:06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 14:55:31</t>
+          <t>2025-05-20 11:26:06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-21 10:11:27</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2262</v>
+        <v>27970</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -621,64 +621,64 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251651</v>
+        <v>251259</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>659.5774647887324</v>
+        <v>72.46376811594203</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:22</t>
+          <t>2025-05-21 10:11:27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:59:22</t>
+          <t>2025-05-21 10:41:27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:59:22</t>
+          <t>2025-05-21 10:41:27</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 10:58:57</t>
+          <t>2025-05-21 11:53:55</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>46830</v>
+        <v>5000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -687,17 +687,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39755</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -708,41 +710,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251594</v>
+        <v>251283</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>91.07042253521126</v>
+        <v>10.92753623188406</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 10:58:57</t>
+          <t>2025-05-21 11:53:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:57</t>
+          <t>2025-05-21 12:33:55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 11:30:57</t>
+          <t>2025-05-21 12:33:55</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:01</t>
+          <t>2025-05-21 12:44:51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6466</v>
+        <v>754</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -751,18 +753,18 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -774,41 +776,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251743</v>
+        <v>251463</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>151.7746478873239</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 13:02:01</t>
+          <t>2025-05-21 12:44:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:01</t>
+          <t>2025-05-21 13:19:51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:01</t>
+          <t>2025-05-21 13:19:51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:48</t>
+          <t>2025-05-22 07:00:49</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>10776</v>
+        <v>6967</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -828,7 +830,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -840,41 +842,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251761</v>
+        <v>251846</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>187.0281690140845</v>
+        <v>165.1014492753623</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:48</t>
+          <t>2025-05-22 07:00:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:48</t>
+          <t>2025-05-22 07:35:49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:48</t>
+          <t>2025-05-22 07:35:49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:49</t>
+          <t>2025-05-22 10:20:55</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13279</v>
+        <v>11392</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -887,7 +889,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -906,41 +908,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251464</v>
+        <v>251462</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>100.7464788732394</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 11:10:49</t>
+          <t>2025-05-22 10:20:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 11:25:49</t>
+          <t>2025-05-22 10:45:55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 11:25:49</t>
+          <t>2025-05-22 10:45:55</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 13:06:34</t>
+          <t>2025-05-22 12:16:09</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7153</v>
+        <v>6226</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -953,7 +955,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -972,41 +974,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251374</v>
+        <v>251562</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>385.112676056338</v>
+        <v>118</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 13:06:34</t>
+          <t>2025-05-22 12:16:09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:34</t>
+          <t>2025-05-22 12:41:09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:34</t>
+          <t>2025-05-22 12:41:09</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:41</t>
+          <t>2025-05-22 14:39:09</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>27343</v>
+        <v>8142</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1015,11 +1017,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1038,41 +1040,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>245089</v>
+        <v>251050</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="D10" t="n">
-        <v>1727.676056338028</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:41</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:41</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-14 12:28:41</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-20 09:16:21</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1081,30 +1083,30 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251050</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1112,33 +1114,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 12:42:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1151,13 +1153,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1165,12 +1167,12 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251081</v>
+        <v>251054</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1181,30 +1183,30 @@
         <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:24:25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:00</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1217,13 +1219,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1231,12 +1233,12 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251054</v>
+        <v>235572</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1244,33 +1246,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:25</t>
+          <t>2025-05-12 07:29:25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-12 10:49:25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-12 10:49:25</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-12 13:09:40</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9958</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1279,30 +1281,30 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>235572</v>
+        <v>251809</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1310,33 +1312,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>140.2535211267606</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:25</t>
+          <t>2025-05-12 13:09:40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:25</t>
+          <t>2025-05-12 13:49:40</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:25</t>
+          <t>2025-05-12 13:49:40</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:40</t>
+          <t>2025-05-13 07:51:56</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>9958</v>
+        <v>8681</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1345,18 +1347,18 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1368,7 +1370,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251809</v>
+        <v>251109</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1376,33 +1378,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D15" t="n">
-        <v>122.2676056338028</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:40</t>
+          <t>2025-05-13 07:51:56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:40</t>
+          <t>2025-05-13 09:26:56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-12 13:49:40</t>
+          <t>2025-05-13 09:26:56</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:56</t>
+          <t>2025-05-13 13:53:32</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8681</v>
+        <v>18928</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1411,18 +1413,18 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (interno)</t>
+          <t>NESSUN VEICOLO (esterno)</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1434,7 +1436,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251109</v>
+        <v>251520</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1442,33 +1444,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D16" t="n">
-        <v>266.5915492957747</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:56</t>
+          <t>2025-05-13 13:53:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:56</t>
+          <t>2025-05-14 07:13:32</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:56</t>
+          <t>2025-05-14 07:13:32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:32</t>
+          <t>2025-05-14 11:03:40</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>18928</v>
+        <v>16340</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1477,11 +1479,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1500,41 +1502,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251520</v>
+        <v>251340</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>230.1408450704225</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:32</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:32</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:32</t>
+          <t>2025-05-08 12:15:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-14 11:03:40</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>32800</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1543,18 +1545,18 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1566,7 +1568,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251340</v>
+        <v>250894</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1574,33 +1576,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>461.9718309859155</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 11:56:58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:15:00</t>
+          <t>2025-05-09 12:17:58</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>32800</v>
+        <v>44262</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1613,15 +1615,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>76</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
+      <c r="N18" t="n">
+        <v>39755</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>250894</v>
+        <v>250670</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1640,33 +1640,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>623.4084507042254</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 11:56:58</t>
+          <t>2025-05-12 14:41:22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-05-12 14:58:22</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 12:17:58</t>
+          <t>2025-05-12 14:58:22</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-05-13 07:20:23</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>44262</v>
+        <v>1563</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1679,13 +1679,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>76</v>
       </c>
-      <c r="N19" t="n">
-        <v>39755</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1696,7 +1698,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251987</v>
+        <v>243335</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1704,33 +1706,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>2965.154929577465</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:22</t>
+          <t>2025-05-13 07:20:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:22</t>
+          <t>2025-05-13 07:50:23</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:22</t>
+          <t>2025-05-13 07:50:23</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-21 08:23:32</t>
+          <t>2025-05-14 07:35:14</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>210526</v>
+        <v>33004</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1739,14 +1741,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1762,7 +1764,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250670</v>
+        <v>251750</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1770,33 +1772,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>22.01408450704225</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-21 08:23:32</t>
+          <t>2025-05-14 07:35:14</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-21 08:42:32</t>
+          <t>2025-05-14 07:52:14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-21 08:42:32</t>
+          <t>2025-05-14 07:52:14</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-21 09:04:32</t>
+          <t>2025-05-14 08:47:02</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1563</v>
+        <v>3891</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1805,18 +1807,18 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>NESSUN VEICOLO (esterno)</t>
+          <t>NESSUN VEICOLO (interno)</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1828,107 +1830,107 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>243335</v>
+        <v>251706</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>464.8450704225352</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-21 09:04:32</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-21 09:34:32</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-21 09:34:32</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-22 09:19:23</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>33004</v>
+        <v>3200</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>152</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (esterno)</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39764</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251750</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>54.80281690140845</v>
+        <v>37.08196721311475</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-22 09:19:23</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-22 09:36:23</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-22 09:36:23</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-22 10:31:11</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3891</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1937,64 +1939,64 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>152</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>NESSUN VEICOLO (interno)</t>
-        </is>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250759</v>
+        <v>251455</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>131.21875</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 08:17:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 08:47:04</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8398</v>
+        <v>5297</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2003,17 +2005,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2021,46 +2023,46 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251840</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-07 09:45:13</t>
+          <t>2025-05-08 10:13:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-07 10:02:13</t>
+          <t>2025-05-08 10:38:55</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>5714</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2069,17 +2071,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2087,46 +2089,46 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251227</v>
+        <v>251742</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-07 11:51:41</t>
+          <t>2025-05-08 12:12:35</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 12:37:35</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2135,17 +2137,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2153,46 +2155,46 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251225</v>
+        <v>251164</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-07 12:08:41</t>
+          <t>2025-05-08 14:52:26</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-09 07:22:26</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2201,17 +2203,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2219,46 +2221,46 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251421</v>
+        <v>251564</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>81.9375</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:41</t>
+          <t>2025-05-09 10:06:22</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-09 10:41:22</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-07 12:40:41</t>
+          <t>2025-05-09 10:41:22</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-09 11:25:55</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5244</v>
+        <v>2717</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2267,64 +2269,64 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="N28" t="n">
-        <v>39762</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251268</v>
+        <v>251566</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:37</t>
+          <t>2025-05-09 11:25:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 11:50:55</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 11:50:55</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6889</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2333,64 +2335,64 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
-      </c>
-      <c r="N29" t="n">
-        <v>39666</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251371</v>
+        <v>251519</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-07 14:19:37</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-09 14:13:51</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-09 14:13:51</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-12 09:49:50</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2403,60 +2405,60 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="N30" t="n">
-        <v>39666</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251782</v>
+        <v>251475</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>188.640625</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:37</t>
+          <t>2025-05-12 09:49:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-12 10:19:50</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-08 07:21:37</t>
+          <t>2025-05-12 10:19:50</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-08 10:30:15</t>
+          <t>2025-05-12 12:42:08</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12073</v>
+        <v>8681</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2465,64 +2467,64 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
-      </c>
-      <c r="N31" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>NESSUN VEICOLO (interno)</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251548</v>
+        <v>244355</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>206.90625</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-